--- a/기사데이터/토스/엑셀파일/news(토스, 2022.04.16~2022.04.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.04.16~2022.04.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>임금협상 두고 고민 깊어지는 삼성전자...경쟁사 눈치만</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000670483?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>카카오 15%, 네이버 10%, LG전자도 8.2% 인상SK하이닉스는 5월부터 임금협상 시작인재 유출 우려에 길어지는 임금협상서울 서초구 삼성전자 서초 사옥 모습. 뉴스1국내 정보기술(IT) 전자업계 간판 기업인 삼성전자의 임금협상이 교착상태에 빠지면서 장기화될 조짐이다. 노사 양측의 뚜렷한 입장 차이만 확인된 가운데 삼성전자의 임금협상은 처음으로 4월을 넘길 전망이다. 이미 두 자릿수대 임금 인상률로 협상을 마무리한 네이버나 카카오의 행보와는 대조된 모습이다. 인재 유출을 우려하는 삼성전자 경영진의 고민도 깊어지고 있다.19일 업계에 따르면 삼성전자 임금협상을 진행하는 노사협의회에서 근로자 측과 사용자 측의 입장 차가 평행선을 달리는 것으로 전해진다. 최근 열린 삼성전자 노사협의회에서는 사측이 기본급 4% 인상을 제안한 반면 근로자 위원들은 두 자릿수대 인상을 요구한 것으로 알려졌다.일반적으로 삼성전자 노사협의회에선 매년 2~3월 기간에 연봉 인상률을 합의해 발표해왔다. 삼성전자 노사 양측이 합의점 도출에 어려움을 겪으면서 삼성SDI와 삼성전기, 삼성디스플레이 등 다른 계열사들의 임금협상도 지연되는 양상이다.코로나19 수혜 입은 인터넷 기업 파격적 임금 인상삼성전자 임금협상이 답보 상태에 빠진 배경엔 IT업계 전반으로 확산된 인재난과 더불어 형성된 고임금의 분위기가 자리하고 있다. 최근 신종 코로나바이러스 감염증(코로나19)으로 수혜를 본 IT업계 내부에선 잇따라 고연봉 제시와 함께 인재 쟁탈전이 한창이다. 특히 인공지능(AI), 반도체, 소프트웨어(SW) 핵심 개발 인력의 경우엔 속된 말로 '부르는 게 값'일 정도다.카카오에선 올해 임직원 연봉 총액을 15% 인상하겠다고 밝혔다. 이는 지난해 증가 폭(6%)의 2배를 넘어선 수준이다.  네이버 역시 지난해 7%로 책정했던 임직원 연봉 재원을 올해엔 10%로 올릴 예정이다. LG CNS와 LG이노텍의 경우엔 각각 직원 급여를 평균 10% 인상하기로 결정했다. 지난해에 이어 올해도 이미 판교발 연봉 인상 릴레이가 벌어진 양상이다.반도체업계 동향도 삼성전자에겐 고려해야 될 사안이다. 당장, 현재 대대적인 경력직 채용에 나선 SK하이닉스의 연봉 인상률에도 신경이 쓰인다. 유사 제품을 생산 중인 삼성전자 반도체 사업부와 SK하이닉스 사이에서 임직원들의 이직은 빈번하다. 이에 특정 회사가 먼저 특별보너스 등 성과급을 지급하면 다른 업체도 유사한 수준에서 지급하는 경향을 보여 왔다. SK하이닉스는 보통 4~5월 중 임금협상에 들어간다.심지어 국내 반도체 위탁생산(파운드리) 전문 업체 DB하이텍도 올해 신입사원 초임을 14.3% 인상해 삼성전자와 동급으로 맞췄다. 게다가 반도체 개발을 아직 포기하지 않은 중국 업체나 새롭게 파운드리에 뛰어든 인텔 등 해외 기업들의  달콤한 이직 제안도 여전한 상황이다."개발, 제조 직군 섞여 있고 품목도 다양...일괄 인상 어려워"하지만 삼성전자의 기업 특성상, 인터넷 기업이나 SK하이닉스처럼 일괄적으로 두 자릿수대 인상도 쉽지 않은 게 현실이다. 삼성전자는 스마트폰, 반도체, 가전제품을 설계부터 생산까지 전 분야의 인력을 보유하고 있다. 개발자 중심의 네이버, 카카오나 메모리반도체 위주의 SK하이닉스에 비해 임금 구조가 복잡하다. 게다가 다른 기업들보다 상대적으로 기본급 대비 인센티브 등 성과급 비중이 높은 만큼 기본급 일괄 인상의 여파도 감안해야 된다. 11만 명 이상의 임직원 연봉을 10% 올려줄 경우 돌아올 인건비 부담이 적지 않다는 얘기다.전자업계 관계자는 "삼성전자는 '연봉킹' 자리를 네이버나 카카오, 토스 등 인터넷 기업에 내주게 되면서 취업 준비생들도 판교 인터넷 기업을 더욱 선호하게 됐다"며 "SK하이닉스까지 보상 수준을 높이면서 인재 유출을 막기 위한 삼성전자 경영진의 고민은 더해질 수밖에 없을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>모바일 전자증명서 발급, 400만 건 돌파</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002254882?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>올해 4월 네이버앱·카카오톡과 연동하면서 사용자 접근성 크게 확대행정안전부는 2019년 12월부터 시행된 모바일 전자증명서의 발급 건수가 400만 건을 넘어섰다고 25일 밝혔다.모바일 전자증명서는 주민등록등․초본, 예방접종증명서 등의 각종 증명서를 스마트폰으로 발급받을 수 있는 서비스이다. 대학생 취업 및 학자금 대출, 국내선 항공기 탑승 시 신분 확인, 소상공인 지원 등 국민 생활과 밀접한 업무처리 시 종이 증명서 대신 활용되고 있다. 특히, 코로나19 상황에서 마스크 대리구매(가족관계 확인), 백신접종 증명 등에서 폭넓게 활용됐다.스마트폰으로 발급받은 전자증명서는 지자체, 재외공관, 국․공립대학교, 공사․공단 등의 행정․공공기관뿐만 아니라, 민간의 시중은행 등을 포함하여 850여 개 기관에 제출할 수 있다.모바일 전자증명서 발급 신청이 가능한 서비스모바일 전자증명서는 정부24, 복지로(복지부), 전자가족관계등록시스템(대법원), 중소벤처24(중기부) 등 정부의 인터넷 사이트에 접속하여 민원증명서 발급을 신청하고, 수령방법을 ‘전자문서지갑’으로 선택하면 발급받을 수 있다.또한 네이버앱, 카카오톡, 토스(비바리퍼블리카), 이니셜(에스케이텔레콤) 등 총 26개 모바일앱을 통해서도 모바일 전자증명서 발급을 신청하거나 제출할 수 있다.올해 4월 네이버앱, 카카오톡 등 민간 모바일앱과 연계하여 전자증명서에 대한 접근성을 높였다. 서비스 개시 결과 20만 건 이상이 발급된 것으로 나타났다.향후 행정안전부는 올해 말까지 지방공무원 시험 합격자 임용처리 또는 정부 부처의 공문서 접수(문서24) 시에도 전자증명서로 제출할 수 있도록 서비스를 확대할 예정이다.이세영 행정안전부 공공지능정책과장은 "국민들이 자주 이용하는 민간 모바일앱에서도 쉽게 전자증명서를 발급신청하고 제출하고 있다"면서 "국민들의 생활 편익을 높이고 종이없는 행정서비스를 구현하기 위해 앞으로도 전자증명서의 활용기관을 넓히고, 이용 편의성을 보다 높여 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>아이엔지스토리, YBM넷과 업무협약(MOU) 체결…영어, 일본어, 중국어 무한패스 강좌 제공</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004825479?sid=103</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>국내 스터디카페·독서실 1위 브랜드 ‘작심’을 운영하는 아이엔지스토리(INGSTORY)가 YBM넷과 업무협약식(MOU)을 체결했다 밝혔다.   작심 본사에서 이뤄진 협약식은 아이엔지스토리 홍승환 이사와 YBM넷 허문호 전무를 비롯한 양사 관계자가 참석한 가운데 진행됐다.   이번 MOU를 통해 아이엔지스토리는 전국 약 500여 개 작심 점포에 YBM넷에서 제공하는 영어, 일본어, 중국어 강좌 100개를 공급할 예정이며, 작심을 이용하는 회원이라면 토익(TOEIC), 토스(TOEIC SPEAKING), 오픽(OPIC), JLPT, HSK 등 어학 관련 자격증은 물론 회화 분야의 인기 콘텐츠를 무료로 수강할 수 있다.   이와 관련해 아이엔지스토리 관계자는 “어학 자격증이 선택이 아닌 필수가 되어버린 요즘 이번 YBM넷과의 제휴는 회원들에게 큰 도움이 될 것 같다.”면서도 “앞으로도 트렌드와 고객의 니즈를 파악하고 충족시키기 위해 여러 교육업체와의 미팅을 진행할 예정이다.”고 전했다.   추가로 아이엔지스토리는 교육 시장의 트렌드를 빠르게 파악하고 고객의 니즈를 충족시키고자 2019년부터 이투스, 대성마이맥, 해커스, 윌비스 등 국내 유수 교육업체와의 MOU 체결을 통해 약 7,000여 개 최신·인기 교육콘텐츠를 제공하고 있으며, 교육회사와 고객을 연결하는 콘텐츠 프로바이더 역할을 통해 OTT서비스 제공과 함께 O2O 플랫폼으로 성장하고 있다.   실제 아이엔지스토리는 콘텐츠 프로바이더 역할을 통해 스터디카페·독서실 1위의 자리를 공고히 지켜왔으며 2019년부터 현재까지 교육콘텐츠 누적혜택 인원은 17만명, 혜택금액은 64억원에 육박한다.   한편, 아이엔지스토리는 YBM넷 외에도 신규 교육콘텐츠 도입을 위해 다양한 교육업체와의 논의를 진행하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>청와대 관람 신청…네이버·카톡으로 '27일 10시'부터 가능</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004738008?sid=100</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[[the300]5월 10일 정오부터 전면 개방](서울=뉴스1) 송원영 기자 = 26일 서울 중구 명동 거리에 청와대 개방 관련 광고 문구가 붙어 있다. 대통령 집무공간인 청와대가 다음달 10일 윤석열 대통령 취임식이 끝나자마자 개방된다. 윤 당선인 측은 일단 새달 10일부터 21일까지 휴무일 없이 청와대를 개방할 계획이다. 1일 최대 3만9000여명이 입장 가능하며 추후 개방 계획은 나중에 다시 공지하기로 했다. 2022.4.26/뉴스1  대통령직인수위원회가 오는 27일 오전 10시부터 네이버·카카오톡·토스 등 온라인 플랫폼을 통해 청와대 관람 신청을 할 수 있다고 밝혔다.인수위 청와대이전 태스크포스(TF)는 다음 달 10일 청와대 국민 개방을 앞두고 이같은 서비스를 개통한다고 26일 밝혔다. 청와대 개방에 따른 기념행사는 2주간(5월10~22일) 진행될 예정이다.인수위는 청와대 개방에 대한 국민 관심도와 코로나19(COVID-19) 방역 조치 등을 감안해 관람 인원을 분산한다고 밝혔다. 관람 시간은 일별 오전 7시부터 오후 7시까지로 2시간 단위로 구분된다. 시간 단위별 입장 인원은 6500명으로 일 최대 3만9000명이 둘러볼 수 있다. 다만 개방 첫날은 정오부터 오후 8시까지 운영된다. 기념행사 마지막 날(5월22일)은 이벤트가 진행돼 별도 신청해야 한다. 청와대 국민 개방은 윤석열 대통령 당선인의 공약 사항으로 국민 누구나 관람 신청할 수 있다. 관람을 희망할 경우 청와대 개방 홈페이지(opencheongwadae.kr)에 접속해 네이버·카톡·토스 등 온라인 플랫폼 인증 이후 신청할 수 있다. 신청자는 개인별(1~4명), 단체별(30~50명), 65세 이상 어르신·장애인(1~4명) 등 3개 유형으로 구분해 관람 일자와 시간을 선택하면 된다. 신청자 중 관람이 확정된 이들에겐 '국민비서'(국민 행정서비스)를 통해 당첨 알림(관람 확정) 메시지가 전달될 예정이다. 관람일 기준 9일 전까지 신청 가능하며 관람 8일 전에 당첨 알림 메시지가 발송된다. 현장에선 당첨 알림 메시지를 보여주면 입장 가능하다.개방 초기엔 청화대 건물 내부는 공개하지 않는다. 청와대 시설 내부 주요 기록물, 통신시설, 보안 필요 문서 등을 정리한 뒤 내부를 전면 개방할 예정이다. 다만 청와대·북악산 연계 등산코스는 인원 제한 없이 자유롭게 할 수 있다. 여름의 경우 오전 7시부터 오후 7시까지 개방된다. 입산은 오후 5시까지로 제한된다.청와대 관람 신청을 위한 카카오톡 서비스. / 사진제공=대통령직인수위원회</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>청와대 5월 10일 개방한다… 27일부터 관람 신청</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000095877?sid=100</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>윤한홍(왼쪽) 청와대 이전 태스크포스(TF) 팀장과 김용현 부팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 하고 있다. ⓒ뉴시스·여성신문윤석열 대통령 당선자 취임식날인 5월 10일 정오에 청와대가 일반 시민들에게 무료로 공개된다.인수위는 25일 서울 종로구 통의동 인수위 기자회견에서 내달 10일부터 21일까지 청와대 개방 특별 행사를 진행하겠다고 밝혔다.청와대 이전 TF는 보도자료를 통해 "폐쇄적 공간이었던 청와대를 국민 모두가 누리는 열린 공간으로 재구성하고 국민 품으로 돌려주고자 한다"고 밝혔다.신청은 오는 27일 오전 10시부터 모바일 어플리케이션, 네이버, 카카오, 토스 등을 통해 할 수 있다.청와대를 관람하고 싶은 사람은 관람희망일 8일 전까지 신청해야 한다. 입장료는 없다. 개방 시간은 오전 7시부터 오후 7시까지다. 추후 야간 개장도 검토 중이다.청와대 이전 TF는 "2시간마다 최대 6500명, 일일 최대 3만9000명이 입장 가능하다"고 설명했다. 1구간 신청자 수(6500명)가 초과되면 해당 구간은 추첨을 통해 관람객을 선정한다.스마트폰 예매자는 행안부 '국민비서' 시스템으로 당첨안내 및 바코드가 발송된다. 정문·춘추관·영빈관 3개소에서 바코드 스캔을 통해 입장이 가능하며 입장 바코드 이용이 어려운 시민은 현장데스크에서 예매번호를 확인한 뒤 손목띠를 발급해준다. 스마트 기기 사용이 익숙하지 않은 시민과 일반 휴대전화 사용자를 배려해 대리 신청도 가능하도록 만들었다.경내 관람객으로 선정된 이들은 자유롭게 이동하며 어디서든 사진을 촬영할 수 있다. 다만 청와대 본관, 대통령 관저 등 건물 내부는 아직 들어갈 수 없다.한편 윤 당선자는 5월 10일 용산에 있는 국방부 청사 5층에서 업무를 시작한다. 이후 본 집무실이 마련되는 2층으로 옮길 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>포브스 선정 대한민국 최고 부자는… 김범수 카카오 창업자</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003688700?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2위는 이재용 삼성전자 부회장    김범수 카카오 의장. 연합뉴스    미국 경제전문지 포브스가 21일(현지시간) 발표한 ‘2022년 대한민국 50대 부자’에서 김범수 카카오 창업자가 1위에 올랐다. 김 전 의장이 재산 순위 1위에 오른 것은 이번이 처음이다.   포브스에 따르면 김 창업자의 재산은 총 96억달러(약 11조8800억원)으로 평가됐다. 다만, 카카오 주가 하락으로 전년보다는 10억달러 감소했다.   2위는 이재용 삼성전자 부회장이다. 재산은 지난해 124억달러 보다 32억달러 감소한 92억달러였다.   사모펀드 억만장자 김병주 MBK파트너스 회장은 처음으로 3위에 이름을 올렸다. 그의 재산은 77억달러로 집계됐다. 김 회장은 뉴욕에 본사를 둔 미국 사모펀드 운용사 다이얼캐피탈파트너스에 지분 일부를 양도하면서 재산이 두 배 이상 늘었다.    지난해 1위였던 서정진 셀트리온 회장은 올해는 4위로 3단계 하락했다. 코로나19 항체 치료제에 대한 실망감으로 셀트리온 주가가 내려가면서 평가재산은 69억달러에서 56억달러로 낮아졌다.   권혁빈 스마일게이트그룹 창업자(68억5000만달러), 홍라희 전 삼성미술관 리움 관장(64억달러), 정몽구 현대자동차그룹 명예회장(44억달러), 이부진 호텔신라 대표이사 사장(39억달러) 등은 10위권에 들었다.    올해 대한민국 50대 부자 명단에 새로 등장한 인물은 7명으로, 이 중 3명이 스타트업 창업자였다. 국내 최대 암호화폐거래소 업비트를 운영하는 두나무 공동창업자 송치형(9위, 37억달러)과 김형년(22위, 19억5000만달러), 토스를 운영하는 핀테크기업 비바 리퍼블리카의 이승건 대표(36위, 12억달러)가 주인공이다.   포브스는 지난 12개월 동안 한국 주식 시장이 아시아에서 두번째로 안 좋았기 때문에 50대 부자의 재산 총액(1300억달러)이 전년 대비 17% 감소했다고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>네카라는 옛말…개발자가 뽑는 '진짜' 신의 직장은 '몰두센'</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004952030?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>업비트 운영사인 두나무일반직원 연봉 1억6천만원몰로코·센드버드도 화제스톡옵션·무제한 휴가 등구글 못지않은 복지 눈길 '네카라쿠배당토직야' 위에 '몰두센'.정보기술(IT) 업계 개발자들 사이에서 '신의 직장' 지형도가 달라지고 있다. 네이버 카카오 라인 쿠팡 배달의민족 당근마켓 토스 직방 야놀자로 이어지는 기존 IT 대표 기업 앞에 몰로코 두나무 센드버드와 같은 '신흥 강자'들이 새롭게 추가되면서다. 이들 '몰두센'은 이제 갓 설립 10년 차를 넘긴 기업들이다. 하지만 '귀한 몸'으로 떠오른 경력직 개발자들 사이에서 미국 실리콘밸리 빅테크기업 못지않은 선진적인 개발 문화와 높은 처우에 힘입어 '인재 블랙홀'로 떠오르고 있다. 업계에선 "'구코(구글코리아)'를 뛰어넘는다"는 평가까지 나온다. 구코는 오랜 기간 인기 직장으로 군림해왔다.달라진 채용 시장 분위기는 직원 처우에서부터 감지된다. 설립일 순으로 '몰두센'의 맏형 격인 두나무는 가상화폐거래소 '업비트' 운영사다. 두나무는 앞서 국내 최고 수준의 연봉으로 판교테크노밸리에서 화제가 됐다. 지난달 두나무는 등기이사를 제외한 직원 370명의 1인당 평균 연봉이 무려 3억9300만원이라고 공시했다. 임원을 빼도 1억6000만원 정도로 국내 최고 수준이다.두나무는 복지도 업계 최고 수준이다. 연간 500만원 상당의 복지포인트를 제공하고, 1년 이상 재직한 임직원에겐 사내 대출을 통해 1억원까지 무이자로 주택 자금을 지원한다.눈길을 끄는 것은 신생 기업 '몰로코'와 '센드버드'의 약진이다. 두 기업은 한국인이 창업해 실리콘밸리에 진출한 '유니콘(기업가치 1조원 이상 스타트업)'이라는 공통점이 있다. 유튜브 초기의 머신러닝 개발자 출신인 안익진 대표가 창업한 몰로코는 빅데이터와 머신러닝 기술을 기반으로 전 세계에 사용자 맞춤 모바일 광고를 지원하는 회사다. 기업가치만 1조8000억원 수준이다. 센드버드는 1억7000만명이 넘는 이용자를 확보한 클라우드 기반 인앱 채팅솔루션 회사다. 한국기업이지만 대규모 글로벌 트래픽을 경험할 수 있다는 점이 개발자들 사이에서 가장 큰 매력으로 꼽힌다.보상과 복지도 실리콘밸리 기업들 못지않다. 몰로코는 정규직으로 입사하는 모든 직원을 대상으로 양도제한조건부주식(RSU)을 지급한다. RSU는 일정 조건을 걸고 주식을 직접 부여하는 제도다. 연 250만원 한도로 지원하는 자기계발비도 호응이 높다. 몰로코 관계자는 "회사가 글로벌조직인 만큼 영어 공부에 자기계발비를 많이 활용하고 있다"고 전했다.센드버드는 입사 1년 뒤 즉시 행사할 수 있는 스톡옵션을 제공한다. 입사 1년 만에 미국 본사의 주주가 될 수 있는 셈이다. 여기에 연간 최대 396만원에 달하는 자기계발 지원금과 별도로 연간 360만원까지 영어학습 지원금을 제공한다. 실제 채용에도 많은 인력이 몰리고 있다. 센드버드는 지난해 실시한 세 자릿수 규모 채용에 구직자 약 1500명이 지원한 것으로 알려졌다. IT 업계 전반이 개발자 구인난을 겪는 와중에 이례적인 경쟁률이라는 평가가 나오는 이유다. 업계 관계자는 "내로라하는 대기업들도 재직자들에게 좋은 평가를 받기가 쉽지 않은데, '몰두센'은 관련 구직 커뮤니티에서 높은 평점을 자랑하는 점도 IT 업계에서 화제가 되고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>"두나무 주식이랑 7대3 묶음 판매"…비상장 바이오株 '끼워팔기 전락'</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004737302?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>/사진=게티이미지뱅크"지난해 초까지만 해도 물량이 없어서 못 샀던 비상장 바이오 주식들이 요즘엔 인기 주식에 끼워 팔립니다. 누구나 이름만 들어도 알만한 비상장 바이오 주식까지 위상이 많이 꺾였습니다."최근 바이오 업종에 대한 투자심리가 크게 위축되면서 비상장 바이오 주식이 애물단지로 전락했다. 구주 유통시장에서는 비상장 바이오 주식을 두나무, 토스 등 인기 비상장 주식과 묶어서 끼워 파려는 움직임까지 나타나고 있다. 25일 금융투자업계에 따르면 최근 펀드 만기를 앞둔 한 벤처캐피탈(VC)은 두나무 주식과 비상장 바이오 A사 주식을 패키지 매물로 내놓았다.  총 매매대금 기준으로 두나무 주식 70%에, 비상장 바이오 A사 주식 30%를 함께 사는 조건이다.  예컨대 총 매매대금이 300억원이면 두나무 주식 210억원어치를 사고, A사 주식 90억원을 추가로 매입하는 식이다.  VC업계 관계자는 "비상장 바이오 주식 거래가 위축되자 두나무 주식이 미끼상품이 된 것"이라며 "이 조건으로 매수하면 두나무 가격을 할인해주겠다는 추가 제안까지 하고 있다"고 말했다. 두나무 이외 모바일 금융서비스 '토스'를 운영하는 비바리퍼블리카, 인공지능(AI) 의료 서비스 스타트업 루닛, 나스닥 상장을 추진 중인 야놀자 등도 인기 미끼상품이다.비상장 바이오주식이 끼워팔기 상품으로 전락한 이유는 기업가치 하락 때문이다. 한 VC 관계자는 "미국 연방준비제도(Fed.연준)발 긴축 움직임에 회수시장이 위축된 상황"이라며 "최근 2년 동안 빠르게 덩치를 키워온 비상장 바이오주에 대한 투자를 꺼리는 상황"이라고 말했다.비상장주식 거래 플랫폼 서울거래 비상장에 따르면 주요 비상장 바이오 주식의 장외가는 하락세다. 지난해 말 5만4000원였던 지아이이노베이션(기업가치 6000억원)의 장외가는 현재 3만원으로 떨어졌다. 같은 기간 지엔티파마(6547억원) 장외가는 6만9000원에서 4만1000원, 한국코러스(1625억원) 장외가는 4만5000원에서 1만3000원으로 급락했다.높아진 상장 문턱이 비상장 바이오 주식 가치를 끌어내리는 모습이다. 한국거래소에 따르면 지난해 코스닥 시장에 기술특례 방식으로 상장한 바이오 기업은 9곳이다. 지난해 전체 기술특례 상장건수(22건)의 절반에도 못 미친다. 총 17곳의 바이오 기업이 기술특례 방식으로 상장한 2020년(전체 26건) 때와 대조적이다. 그만큼 바이오 기업 기업공개(IPO)가 까다로워졌다는 의미다.올해 초 상장을 추진했던 비상장 바이오 기업들도 잇달아 상장을 철회하는 등 이같은 흐름은 계속 되고 있다. 항체절편 플랫폼을 개발한 에이프릴바이오는 올해 초 진행된 코스닥시장 상장위원회(이하 상장위)의 상장예비심사 결과 미승인을 통보 받았다.VC업계 관계자는 "거래소가 기술특례 상장 요건까지 강화하겠다고 나서면서 바이오 기업 IPO 시장은 이전보다 위축될 것으로 보인다"며 "이런 흐름은 한동안 계속 될 것"이라고 말했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.04.23.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>‘갬성’ 터지는 직원복지…“테슬라 주고, 골프회원권도 공유”</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003687090?sid=102</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>지난 2022년 4월1일 자정. 금융 플랫폼 토스(Toss) 운영사 비바리퍼블리카 직원들은 사내 메신저를 보고 깜짝 놀랐습니다. 이승건 대표가 예고 없던 공지를 띄운 것인데요, 그는 “늘 몸보다 꿈이 앞선 사람들이라, 다른 데면 편했을 삶이 굳이 여기 와서 사서 고생하는 나의 동지들에 대한 존경과 애정이 늘 있었다”며 직원들에게 고마움을 표현했습니다. 이 대표는 이어 “작년부터 이 마음을 어떻게 표현하는 게 좋을까 생각하다가 추첨을 통해 테슬라 자동차 20대를 증여하는 작은 이벤트를 준비했다”고 했습니다. 많은 구성원이 공지를 보고 이 대표가 장난을 치는 것이라 생각했습니다. 4월 1일이 만우절이기 때문이었습니다. 만우절은 가벼운 장난이나 그럴듯한 거짓말로 남을 속이거나 헛걸음을 시키기도 하는 날입니다. 국립공원공단 설악산사무소 직원들은 2001년부터 매년 만우절이면 “흔들바위가 추락했다는 게 사실이냐”는 문의전화를 받는다고 하죠. 이승건 비바리퍼블리카 대표가 직원들을 위해 준비한 테슬라 차량. /토스 제공 하지만 이승건 대표가 만우절에 깜짝 공지한 이벤트는 절반만 거짓이었습니다. 나머지 반은 진실이었죠. 4월 4일 서울 강남구 역삼동 비바리퍼블리카 본사 앞에 테슬라 차량 10대를 실은 카 캐리어(Car Carrier)가 등장했습니다. 트레일러에는 테슬라의 대표 중형세단 모델3과 한 대당 가격이 최고 1억7000만원대인 스포츠 준대형 세단 모델S가 실려 있었습니다. 이 대표는 실제로 테슬라 차량 10대를 공수해 직원에게 1년간 무상으로 빌려주기로 했습니다.테슬라 차량들은 무작위 추첨을 통해 토스·토스뱅크·토스증권·토스페이먼츠 등 비바리퍼블리카 산하 계열사 직원들에게 전달됐습니다. 이 대표는 테슬라 무상 렌트에 회삿돈을 쓰지 않았습니다. 전액 사비를 들여 만우절 이벤트를 준비했죠. 당첨자는 10명뿐이었지만, 테슬라를 받지 못한 다른 직원들도 이 대표의 이벤트에 찬사를 보냈습니다. 내부에서는 “사기 진작은 이렇게 해야 한다”, “미국 빅테크 기업에서나 시도해볼 만한 이벤트였다”는 등 긍정적인 반응이 나왔죠. 토스의 테슬라 이벤트를 본 직장인들은 “토스의 복지혜택은 ‘넘사벽(넘을 수 없는 사차원의 벽)’ 수준”이라며 부러움을 표시했습니다.직원 집 청소, 조카 생일도 회사가 챙겨요즘 기업들은 직원에게 다양한 복지혜택을 제공하면서 사기 진작을 유도하고 있습니다. 주로 스타트업이나 IT(정보기술) 기업 등 비교적 근무 환경이 자유로운 기업에서 이색 복지혜택을 제공하는데요, 게임 회사 펄어비스(PEARL ABYSS)는 혼자 사는 1인가구 직원의 집을 청소해주는 ‘가사 청소 지원’ 혜택을 제공합니다.다양한 복지 혜택을 제공하는 펄어비스. /펄크루트 유튜브 캡처 펄어비스는 미혼 임직원의 가사 청소 부담을 덜어주기 위해 청소 복지를 기획했습니다. 독립 거주자에게 월 1회 거실, 침실·침구 정리, 설거지와 주방 청소, 쓰레기 배출 서비스를 제공합니다. 한 달에 한 번 회사가 직원 대신 대청소를 해주는 셈이죠.이게 다가 아닙니다. 미혼이거나 자녀가 없는 기혼 임직원이 강아지나 고양이를 키우면 1인당 최대 3마리까지 반려동물 보험 지원 혜택을 받을 수 있습니다. 통원·입원 의료비, 반려견 보상 책임 등을 보상받죠. 이 밖에 회사가 직원 부모와과 직원 배우자 부모의 결혼기념일도 챙겨줍니다. 직원 본인은 물론 배우자와 (배우자)부모, 자녀, 형제자매, 조카 생일에도 선물을 줍니다. 10만원 상당의 꽃 바구니와 케익을 받거나 과일 바구니를 고를 수 있습니다. 가족이나 친척이 많으면 생일 선물로만 1년에 100만원 이상 받을 수 있는 것이나 마찬가지입니다. 생일인 직원에게는 반일 유급휴가도 지급하죠.혼자 사는 미혼 직원에겐 반찬 구독도 제공패션 플랫폼 기업 브랜디는 2021년 7월 신규 채용자를 대상으로 ‘라이프 지원 프로그램’을 운영하기 시작했습니다. 브랜디 입사자는 가사·세탁·베이비(펫) 시터·반찬 구독 중 2가지를 고를 수 있습니다. 브랜디 관계자는 “살림을 챙길 여력이 부족한 1인가구 직원들이 업무에 집중할 수 있게 도우려고 복지를 기획했다”고 말했습니다.반려동물 종합 커머스 플랫폼 펫프렌즈는 2020년 11월 우리나라에서 처음으로 사내에 반려동물 돌봄 공간 ‘심쿵엔젤’을 열었습니다. 회사 특성상 개나 고양이 등 반려동물을 키우는 직원이 많은데요, 심쿵엔젤에 돌봄 직원을 상주시켜 직원이 일하는 동안 반려동물을 돌봐주고 있습니다. 펫프렌즈는 반려동물 입양을 고려하고 있는 직원들에게 입양 지원비와 생일 축하금도 지급하고 있죠. 반려동물이 죽으면 장례비용을 지원하고, 유급휴가까지 보장합니다. 가족을 떠나보낸 직원을 배려하는 차원에서 기획한 복지입니다.인스타그램에 ‘골린이’ 해시태그(#)를 달고 올라온 게시물은 95만건에 달한다. /인스타그램 캡처 대기업 “임원 혜택 ‘민지(MZ세대)’도 쓰세요”게임 회사나 스타트업만의 이야기일까요? 요즘은 젊은 직원들의 이탈을 막기 위해 대기업도 달라지고 있습니다. LG의 디지털전환(DX) 전문 계열사 LG CNS는 최근 MZ세대 직원 맞춤형 복지를 선보였습니다.요즘 2030세대 사이에서 골프가 유행인데요, 사측은 이런 트렌드에 발맞춰 회사가 보유한 골프장 회원권을 젊은 평직원도 사용할 수 있게 복지제도를 개편했습니다. 골프장 회원권 이용 혜택은 원래 임원만 받을 수 있는 복지였는데요, 주중에 저렴한 비용으로 직원들끼리 골프를 즐길 수 있게 혜택 적용 대상을 확대했습니다. 골프장 회원권 이용과 함께 리조트와 글램핑 숙박 혜택도 도입했습니다. 사측이 숙박권을 확보한 뒤 직원에게 예약 기회를 제공하고, 숙박료를 일부 지원합니다. 이 밖에 주말에는 회사 전기차를 직원이 무료로 사용할 수 있는 시스템을 마련했고, 사원에서 선임으로 호칭이 바뀐 직원에게 노트북·스마트폰·스마트워치·태블릿PC 등 IT 기기를 제공하는 복지도 도입했습니다. IT 기기에 관심이 많은 젊은 직원을 위한 맞춤형 혜택이죠.신한은행은 2020년부터 미혼 직원에게 연 10만원씩 ‘욜로지원금’을 지급하고 있습니다. 기존에는 기혼 직원의 결혼기념일에만 축하금을 지급했는데, 젊은 미혼 직원과 형평성을 맞춘 것입니다. 권기욱 건국대 경영학과 교수는 “젊은 직원들은 회사가 직원들을 세심하게 관리해주고 있다는 것을 확인받고 싶어하기 때문에 사내복지에 관심이 많다”며 “조직 결속력을 높이기 위해 대기업도 복지 정책에 더 신경을 쓸 수밖에 없을 것”이라고 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>갈곳 잃은 돈 1700兆, 시한폭탄 되나</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003687561?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>코로나 이후 부동자금 480조 늘어언제든 자산가격 밀어올릴 우려국토교통부 실거래가 공개시스템에 따르면 서울 서초구 반포동 ‘아크로리버파크’ 전용 129.97㎡는 지난달 24일 63억원에 거래됐다. 작년 6월 51억원에 거래된 이후 약 10개월 만에 12억원 오른 신고가를 기록하며 강남 부동산 시장을 자극하고 있다./조선일보DB										코스닥 상장을 앞둔 한 영상콘텐츠 제작 업체가 지난 19~20일 실시한 개인투자자 대상 청약에 14조2000억원의 증거금이 모였다. 경쟁률 3763대1로 올해 공모 기업 중 최고이자 역대 4위에 해당하는 경쟁률이다. 지난해 매출 223억원에 순이익 40억원, 공모가 기준 시총 1700억원대 작은 기업이지만 공모주 단타 매매를 노린 시중 부동자금이 대거 쏠린 결과다. 1억원을 넣어도 2~3주 배정받는 데 그친다. 증권업계 관계자는 “주식시장 상황도 예전 같지 않은데, 이 정도 규모의 공모주 청약에 45만여 명이 14조원 넘는 돈을 넣었다는 것은 그만큼 갈 곳 없는 돈이 많다는 것을 보여주는 단적인 장면”이라고 했다.코로나 사태 이후 저금리 상황이 이어지고 500조원에 가까운 돈이 풀리면서 올해 2월 말 기준 시중 단기부동자금이 1700조원을 돌파했다. 최근 들어 단기자금 증가 속도가 둔화하고는 있지만, 경기에 대한 불안과 정권 교체기 정책적 불확실성 때문에 기업이 적극적으로 투자에 나서지 않고 개인도 장기 투자를 미루면서 떠도는 돈은 단기 투자처를 찾아 여기저기 몰려 다니고 있다.안갯속 헤매는 부동자금 1700조원							25일 한국은행과 금융투자협회 등에 따르면, 현금을 비롯해 언제든지 현금화할 수 있는 요구불예금, 수시입출식 저축성예금, 머니마켓펀드(MMF), 종합자산관리계좌(CMA), 6개월 미만 정기예금, 증권사 고객예탁금 등을 합친 우리나라 단기 부동자금이 2월 말 기준 약 1701조원으로 집계됐다.작년 말 기준 사상 처음으로 1700조원을 돌파했고 1월 다소 주춤했다가 2월 다시 늘어났다. 주식시장이 냉각되면서 CMA 계좌 잔고나 증권사 예탁금 등 증시 주변 자금은 줄었지만, 6개월 미만 단계예금이 빠르게 늘어난 것이 특징이다.6개월 미만 단기예금은 통상 기업들이 단기 자금 파킹 용도로 많이 쓰고, 전세 보증금 등 당장 필요 없는 목돈이 생겼지만 장기간 묶어놓을 투자처를 찾지 못한 개인들도 돈을 넣어두는 곳이다. 우리은행이 최근 3개월만 맡겨도 최고 1.7% 금리를 주는 단기 예금을 300억원 목표로 모집했는데 현재 5배가 넘는 1538억원이 모였다.이런 단기자금 규모는 코로나 사태 이전인 2020년 2월 말 1220조원 규모였다. 이후 초저금리 기조 속에 코로나 정책자금이 대거 풀리고 부동산 가격마저 고삐가 풀리면서 최근 2년 새 단기 부동자금은 481조원이나 늘어났다. 한 달 평균 10조원씩 늘어난 꼴이다. 2020~2021년 매월 2~4%씩 늘어나던 단기자금 증가세는 최근 월 0~1%대로 꺾였다. 그러나 전체 덩치가 커졌기 때문에 증가액의 절대 규모는 여전히 10조원이 넘어선다. 부동자금이 자산가격 밀어올릴 시한폭탄							급증한 유동성이 좋은 투자처를 찾아 적재적소에 배분되는 것이 경제 활력을 높일 수 있는 길이지만, 지금 벌어지는 상황들은 그와는 거리가 멀다. 기업들은 극심한 정치 대립 속에 새 정부의 정책이 하루빨리 윤곽이 나오길 초조하게 기다리고 있고, 개인들 역시 부동산과 금융 세제가 확정되길 기다리며 장기 투자를 미루고 있다.이런 상황 속에 부동자금은 언제든 자산가격을 밀어 올릴 시한폭탄이 되고 있다. 초고가 주택인 반포아크로리버파크 전용 129.97㎡가 지난달 말 63억원에 거래돼 작년 6월 이후 10개월 만에 12억원 오른 신고가 기록을 세웠다. 인근 반포래미안퍼스티지 전용 222.76㎡도 지난달 직전 대비 1억5000만원 오른 76억원에 거래됐다. 두 아파트 모두 주택가격 상승을 주도하는 강남권 대표 아파트들이다. 최근 KB국민은행이 집계한 주택가격 동향을 보면 이달 서울 집값 상승률은 0.13%로 지난달(0.06%) 대비 두 배 이상 커졌다.오래 머물 곳을 찾지 못한 돈은 작은 이벤트에도 순식간에 몰리는 쏠림 현상도 나타나고 있다. ‘1억원까지 연 2% 금리’를 내세운 토스뱅크 통장은 출시 5개월 만에 17조원이 넘는 자금을 쓸어 모으기도 했다. 높은 금리가 매력이기도 하지만 그만큼 시중에 노는 돈이 많다는 의미이기도 하다. 홍춘욱 EAR리서치 대표는 “기업이 지난해 180조원을 벌었지만 투자할 곳이 마땅치 않아 대부분 손에 쥐고 있다”면서 “(정권교체기인) 올해는 투자가 어렵기 때문에 월급 올리는 데나 쓸 수 있을 텐데, 이렇게 되면 결국 물가와 부동산을 자극할 수밖에 없을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>김윤주 BCG 파트너 "디지털 인재 채용 별따기? 트위터·JP모건처럼 파격지원 해봤나"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004047477?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[서경 금융전략포럼] 김윤주 BCG MD파트너 주제강연은행 디지털전쟁서 리더 역할 중요근무환경·복지 좋으면 인재 몰려전통 금융사, 디지털 전환하려면매일 이자받기·10원 버튼 클릭 등빅테크 같은 마케팅 전략도 필요김윤주 보스턴컨설팅그룹 MD파트너가 27일 서울 중구 더플라자호텔 그랜드볼룸에서 열린 제22회 서경 금융전략포럼에서 주제 강연을 하고 있다. 권욱 기자[서울경제] 올해 2월 13일 개최된 미국 최대의 스포츠 이벤트 ‘슈퍼볼’. 암호화폐거래소 코인베이스가 신기한 TV 광고를 선보이며 화제를 모았다. 60초짜리의 이 광고는 아무런 활자나 영상 없이 TV 화면에서 이리저리 움직이며 색깔이 변하는 QR코드만을 보여줬다. 어떤 광고인지 궁금한 시청자들은 결국 자신의 스마트폰을 들고 화면 속에서 움직이는 QR코드를 찍기 시작했다. QR코드를 찍자 스마트폰 화면은 코인베이스 애플리케이션 다운로드 사이트로 연결됐으며 앱을 설치한 신규 고객에게 코인베이스는 15달러 상당의 무료 비트코인을 제공했다. 이 광고의 결과는 어땠을까. 코인베이스의 다운로드 사이트는 접속자가 폭주했다. 트래픽이 급증하면서 결국 1시간가량 사이트 오류가 발생했다. 코인베이스에 따르면 이날 광고가 방영된 지 1분 만에 코인베이스 접속자는 2000만 명을 넘겼다.김윤주 보스턴컨설팅그룹 MD파트너는 27일 서울 중구 더플라자호텔 그랜드볼룸에서 진행된 ‘제22회 서경 금융전략포럼’에서 ‘금융 플랫폼 경쟁, 아직 반환점을 돌지 않았다’라는 주제 강연을 통해 코인베이스 사례를 제시한 뒤 “전통 금융회사들이 고객 트래픽을 모으는 것이 목적이라면 (코인베이스처럼) 트래픽만을 위한 광고를 할 필요성도 있다”고 지적했다.김 파트너가 코인베이스 사례를 든 것은 전통 금융회사들에 성공적인 디지털 트랜스포메이션(디지털 전환)을 위한 과제를 제시하기 위한 것이었다. 이런 트래픽을 위한 광고는 일반적으로 카카오나 토스 등 ‘빅테크’라고 일컫는 ‘디지털 네이티브(태어날 때부터 디지털 기기에 둘러싸여 성장한 세대) 기업’들이 사용하는 마케팅 방법이다. 우리나라의 거대 금융 기업은 지금껏 기존 사업이나 서비스의 디지털화에는 적극적으로 나섰지만 이런 디지털 네이티브 기업의 방식을 사용하는 데는 소극적이었다. 김 파트너는 앞으로 전통 금융회사들이 하이퍼스케일러(초거대) 디지털 금융사가 되기 위해서는 마케팅 방식부터 바꿔나가야 함을 강조한 것이다. 그는 “토스뱅크의 경우 머니 알림, 매일 이자 받기, 버튼 누르고 10원 받기 등을 통해 많은 고객을 끌어냈다”며 “전통 금융기관에서 보면 작은 요소지만 고객이 매일 들어올 수 있는 이유를 만들어주는 것”이라고 강조했다.그는 국내 금융사들이 한목소리로 어려움을 털어놓고 있는 ‘디지털 인재 확보’에 대해서도 쓴소리를 더했다. 김 파트너는 “국내에서는 노조도 있고 제도도 있으니까 인재를 뽑기가 어렵다고 말하는 경우가 많다”며 “인재 전쟁이 너무 어렵다는 의견이 있는데, 실제로 어디까지 해봤냐고 물어보고 싶다”고 꼬집었다. 그는 영구 재택근무를 허용한 트위터, 원할 때마다 휴가를 마음대로 쓸 수 있도록 한 보스턴컨설팅그룹, 디지털 인력에 대해 빅테크·핀테크 수준의 보수를 제공하는 JP모건 등을 사례로 들면서 “사람을 계속 수혈해야 디지털이라는 관점에서 변화가 가능하다”고 조언했다.아울러 내부 역량을 과감하게 외부에 공개하는 ‘자기 파괴적 디지털 혁신’도 ‘하이퍼스케일러’가 되기 위한 과제 중 하나로 들었다. 골드만삭스는 마키 플랫폼을 통해 데이터 등 자신들의 자산을 외부에 과감하게 공개하면서 플랫폼화를 성공적으로 이끌었고, 전통적 송금 회사인 페이팔은 가상자산 등 새로운 디지털 서비스에 과감하게 도전하면서 트래픽이 2배로 늘고 론칭 후 1600만 개의 계좌를 신규로 개설하는 성과를 거두기도 했다. 김 파트너가 보기에 골드만삭스는 방어적이었고 페이팔은 공격적이라는 작은 차이가 있기는 했지만 두 기업 모두 그동안 성공을 거뒀던 자신을 딛고 섬으로써 성장할 수 있었다.아울러 그는 국내 금융회사들이 디지털화의 ‘승자’가 되기 위해서는 리더·경영자의 역할이 중요함을 지적했다. 그는 조정 경기를 예로 들었다. “모두가 뒤를 보고 노를 젓지만 앞을 보는 사람이 한 명 있는데, 그가 바로 캡틴(콕스)”이라며 “콕스가 하는 일은 방향과 속도를 정해주는 것인데 최고경영자가 어디를 보고 어느 속도로 달려갈지 시각을 가져야 한다”며 강의를 마쳤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>74년만에 청와대 문 열린다…TF “尹 취임식 끝나는 시각 전면 개방”</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003268246?sid=100</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 당선인이 21일 오후 경남 진주시 중앙유등시장을 방문해 시민들에게 감사 인사를 하고 있다. 2022.04. 21 대통령직인수위원회 사진기자단현 청와대가 오는 5월10일 윤석열 당선인의 대통령 취임식 행사가 끝나는 시각에 전면 개방된다.윤한홍 청와대이전태스크포스(TF) 팀장은 25일 오후 서울 종로구 통의동 대통령직인수위원회 기자회견장에서 브리핑을 열고 “청와대는 74년만에 제왕적 대통령제의 상징에서 국민 쉼터로 거듭날 것”이라며 이같이 밝혔다.윤 팀장은 “청와대 본관과 영빈관을 비롯해 최고의 정원으로 불리는 녹지원, 상춘재가 있는 청와대가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다”고 말했다.윤 팀장은 “개방 초기 많은 방문객으로 인한 국민의 불편 초래와 안전 문제를 고려해 관람 신청 서비스 제도를 한시적으로 운영한다”며 “오는 27일 수요일 오전 10시부터 네이버와 카카오, 토스 등을 통해 관람 신청을 접수할 예정”이라고 말했다.청와대. 서울신문 DB이어 “개방 초기 65세 이상 어르신과 장애인 단체관람에 대해 별도의 신청을 접수해 입장 인원을 안배하겠다”고 했다.윤 팀장은 “개방시간은 오전 7시부터 오후 7시까지이며 2시간씩 6회 예약, 동시간대 약 6494명이 이용할 수 있다”며 “이를 6회로 곱하면 하루 입장 가능 인원은 3만 8964명”이라고 설명했다.그러면서 “청와대로 인해 단절된 북악산 등산로는 5월10일 아침부터 완전 개방한다”며 “등산로는 청와대 동편이나 서편 어느 곳에서나 출발할 수 있고 사전 신청 없이, 인원 제한 없이 이용할 수 있다”고 했다.또한 윤 팀장은 “개방일인 10일부터 22일까지 13일간 청와대 경내와 경복궁, 북악산 일대에서 새시대 새희망을 담은 다양한 문화 행사를 펼칠 계획”이라며 “같은 기간 청주 청남대와 세종 대통령기록관 등에서도 기념 행사가 진행된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>청와대 5월 10일 정오 일반에 무료 공개…모레부터 관람 신청</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000892654?sid=100</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>북악산 등산로도 10일 완전 개방…등산로 출입 인원제한 없어尹당선인, 5월 10일 용산청사 5층서 근무…본 집무실은 2층에청와대 5월 10일 정오 일반에 무료 공개…모레부터 관람 신청 사진=연합뉴스윤석열 대통령 당선인 취임식날인 5월 10일 정오를 기해 청와대가 일반 시민들에게 무료로 공개된다.윤 당선인이 대통령 집무실을 청와대에서 용산 국방부 청사로 이전하는 데 따른 후속 조치다청와대 이전 태스크포스(TF) 팀장을 맡은 국민의힘 윤한홍 의원은 25일 오후 종로구 통의동 인수위 기자회견장에서 미디어데이 행사를 열고 "5월 10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다"며 "이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다"고 발표했다.다만 청와대 본관과 대통령 관저 등 건물 내부와 경호처, 여민관 등 출입 통제 구역은 당장 개방되지 않는다.주요 기록물, 통신 시설, 보안 문서 등을 정리한 뒤에 건물 내부도 전면 개방할 수 있도록 준비할 예정이다. 개별 건물의 활용 계획은 아직 확정되지 않은 상태다.관람객 입장은 정문, 춘추관, 영빈관 등에서 바코드 스캔을 통해 관리할 예정이며, 바코드 사용이 여의치 않은 경우 손목띠를 발급해 입장을 허용할 계획이다.개방 시간은 5월 10일 하루만 오후 12시부터 8시까지, 이후로는 오전 7시에서 오후 7시까지로 정했다. 주말에도 개방한다. 추후 야간 개장도 검토하고 있다.사전 신청자 중 당첨자만 방문이 가능하다.안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6천500명씩 일일 관람 인원을 총 3만9천 명으로 제한했다.일단은 기존 청와대 부분 개방이 하루 1천500명을 대상으로 이뤄진 것과 비교하면 규모가 26배 늘어난 셈이라고 TF는 설명했다. 인솔자 없이 자유 관람이 가능하도록 한 것도 기존 방식과의 차별점이다.윤 의원은 "개방 초기 관람 신청 서비스 제도를 운용하기로 했다. 한시적으로 입장 신청을 받아 운영할 계획"이라며 "입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이 등을 고려해 조정할 수 있다"고 설명했다.사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 관람 희망일로부터 8일 전에 신청하면 된다.65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다.윤 의원은 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다"며 "같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것"이라고 예고했다.5월 23일 이후에는 대통령실 소속 청와대 운영기획 추진위원회(가칭)를 구성해 지속 가능한 관리 방안을 논의하기 전까지 관계 부처에서 임시 관리하는 방안을 검토 중이라고 윤 의원은 설명했다.청와대 뒤편의 북악산 등산로는 5월 10일 완전히 개방된다. 청와대 경내와 달리 등산로 출입에는 인원 제한이 없다.윤 의원은 "조선 시대 500년과 대한민국 건국 이후 74년을 합해 600여 년간 닫혀 있던 권력의 상징, 그 공간이 국민 품으로 돌아간다"며 "새로운 역사적 순간에 함께 해주시기를 바란다"고 의미를 부여했다.한편 윤 당선인은 다음 달 10일 용산에 있는 국방부 청사 5층에서 업무를 시작한다. 이후 본 집무실이 마련되는 2층으로 옮길 예정이다.윤 의원은 "국방부 청사 2∼4층이 가장 메인 층으로, 아직 국방부가 이사하지 않고 있다"며 "5월 10일부터 윤 당선인은 5층에서 근무하게 되고, 본 집무실은 2층에 들어서게 된다"고 밝혔다.윤 의원은 "한미연합훈련 이후 국방부가 이사하면 6월 중순까지 2∼4층을 리모델링할 것"이라며 "6층에는 비서실, 9층에는 경호실이 들어설 것"이라고 설명했다.1층에는 기자실이 들어서게 된다.새 대통령 관저로는 한남동 외교부 장관 공관이 확정됐다. 윤 당선인은 약 한 달간 서초구 서초동 자택에서 용산 청사로 출퇴근하게 된다.김용현 전 합동참모본부 작전본부장은 "서초동에서 용산 집무실까지 7∼8㎞ 정도 되고 이동 시간은 10분 내외"라며 "국민 불편을 최소화할 수 있는 시간대에 한남대교, 동작대교, 반포대교, 한강대교 등의 경로를 선택할 것"이라고 말했다.외교부 장관 공관과 관련해서는 "장관이 바뀔 때마다 계속 리모델링을 해와서 상태가 양호하다"며 "외교부 장관이 지금 쓰고 있는데, 취임일인 5월 10일 이후 손을 대더라도 리모델링에 적은 기간이 걸릴 것"이라고 말했다.국방부 청사 내에 관저를 신축할 것이라는 전망에 대해서는 "전혀 검토한 바가 없다"고 일축했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"5월10일 낮12시 청와대 시민에 개방"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000007915?sid=100</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>윤석열 당선인 취임식 이후하루 관람객 3만9000명 제한27일 오전 관람 신청 접수다음 달 10일 윤석열 대통령 당선인의 취임식이 끝나는 정오에 맞춰 청와대가 시민에게 전면 개방된다. 문재인 대통령이 이날 오전 11시에 열리는 취임식에 참석하기 위해 청와대를 떠나는 시간 등을 감안했다. 다만 북악산 등산로는 오전 7시부터 완전 개방된다.윤한홍 청와대 이전 태스크포스(TF) 팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 하고 있다. 연합뉴스청와대 이전 태스크포스(TF) 팀장인 국민의힘 윤한홍 의원은 25일 서울 종로구 통의동 인수위에서 가진 브리핑에서 “청와대 본관, 영빈관을 비롯해 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생 된다”며 “안전 질서 문제 때문에 개방초기에는 관람시스템을 통해 한시적으로 입장신청을 받는다”고 밝혔다. 사전에 입장신청을 받도록 했을 뿐, 기본적으로 청와대 입장료는 없다는 설명이다.  	27일 오전 10시부터 네이버 카카오 토스 등 접근성이 좋은 모바일 앱과 웹사이트(네이버)를 통해 관람신청을 받는다. 개방 초기에는 65세 이상 어르신과 장애인, 단체관람은 별도 신청을 받아 입장 인원을 안배하기로 했다.입장 인원은 하루 총 6회, 2시간마다 6500명씩이며 일일 관람 인원은 3만9000명이다. 청와대 본관과 대통령 관저 등 건물 내부와 경호처, 여민관 등 출입 통제 구역은 주요 기록물, 통신 시설, 보안 문서 등을 정리한 뒤에 전면 개방을 준비할 예정이다. 개방 시간은 다음 10일 하루만 정오부터 8시까지며, 그 이후로는 오전 7시부터 오후 7시까지다. 청와대 개방을 기념해 다음 달 10부터 22일까지 청와대 경내와 경복궁, 북악산 일대에서 ‘청와대, 국민 품으로’라는 주제로 다양한 문화행사가 열린다. 이 기간에는 경남 합천 청와대 세트장과 청주 청남대, 세종 대통령기록관 등에서도 청와대 개방기념 특별행사가 진행된다.윤 당선인은 취임 첫날 국방부 청사 5층에서 업무를 시작한다. 이후 국방부 리모델링이 끝난 뒤에는 본 집무실이 마련되는 2층으로 옮길 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[단신]KB국민카드, ‘선구매 후결제’ 서비스 3분기 출시 外</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003423348?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>■ KB국민카드, ‘선구매 후결제’ 서비스 3분기 출시 KB국민카드는 사내 벤처 ‘하프하프’가 결제 서비스업체 다날과 업무 제휴를 맺었다고 18일 밝혔다. 이번 제휴로 하프하프는 국민카드의 신용평가 및 리스크 관리 노하우와 다날의 디지털 기술을 활용해 올해 3분기(7∼9월) ‘선구매 후결제’(BNPL) 서비스를 선보일 예정이다. BNPL은 신용카드처럼 먼저 물건을 사고 나중에 돈을 내는 구조이지만 신용도가 낮거나 소득이 없어도 이용할 수 있는 후불결제 서비스다. 네이버, 카카오, 토스 등이 후불결제 시장에 뛰어들었으며 카드사가 후불결제를 도입하는 건 처음이다.■ 삼성생명, 맞춤형 건강관리 앱 ‘더 헬스’ 공개 삼성생명이 맞춤형 건강관리 애플리케이션(앱) ‘더 헬스(THE Health)’를 선보였다. 더 헬스는 인공지능(AI)을 기반으로 운동 관리, 식단 관리, 마음건강 관련 서비스를 제공한다. 운동관리 서비스에선 개인의 특성과 목표에 맞는 홈트레이닝 프로그램을 추천하고 스마트폰 모션 인식을 통해 운동 자세에 대한 피드백을 제공한다. 마음건강 서비스에서는 우울, 불안, 스트레스 등의 상태를 분석해준다. 삼성생명은 하루 1만 보 걷기 등 건강 챌린지를 운영해 목표를 달성한 고객에게 추첨을 통해 보상을 제공할 방침이다. 삼성생명 보험에 가입하지 않았어도 누구나 앱을 내려받아 이용할 수 있다.■ 신한금융투자 1분기 IRP 수익률 3개 부문 1위 신한금융투자가 올해 1분기(1∼3월) 기준으로 개인형 퇴직연금(IRP)의 3개 부문 수익률이 전체 퇴직연금 사업자 가운데 가장 높았다고 18일 밝혔다. 1분기 말 현재 최근 1년간 IRP 수익률은 1.78%로 전체 퇴직연금 사업자 중 1위였다. 원리금보장형과 원리금비보장형 상품의 수익률 역시 각각 1.72%, 1.99%로 1위였다. 상대적으로 금리가 높은 저축은행 정기예금과 환매조건부채권(RP) 등의 비중을 확대해 수익률을 높였다고 회사 측은 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>국민 금융플랫폼 노리는 카카오페이..."규제 넘어야 적자 벗는다"</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001026873?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;카카오페이가 송금과 결제에서, 대출, 증권과 보험까지 금융서비스를 한데 모으면서 `국민 생활금융플랫폼`으로서의 입지를 다지고 있는데요.자세한 이야기 경제부 전민정 기자와 나눠보겠습니다.전 기자, 금융 소비자의 빅데이터를 보다 다양한 영역에서 확보가 가능해진다는 점에서 높은 성장성을 인정받고 있지만, 과제도 많을 것 같은데요.&lt;기자&gt;카카오가 간편결제 리더에서 국민 생활금융플랫폼으로 한단계 도약하기 위해선 여러 관문을 넘어야 한다는 것이 증권가의 분석입니다.그럼, 하나하나 짚어볼까요.먼저 카카오페이는 간편결제와 중개 서비스가 주 사업 분야인데요.일단 주력 분야인 간편결제 시장엔 표에서 보시는 것처럼 플랫폼 업체 뿐만 아니라, 대형 금융지주사 산하의 카드사, 대형 유통업체까지 가세해 경쟁이 심화되고 있습니다.대출중개서비스의 경우도 토스와 함께 1,2위를 다투고 있지만 대출금리 인상과 정부의 가계대출 규제로 전체적으로 대출 시장 성장세가 둔화되고 있다는 점은 위협요소입니다.&lt;앵커&gt;전통적으로 금융은 규제산업인데, 디지털화를 기반으로 새로운 서비스를 선보이는 카카오페이의 사업 방향과 전략이 금융업에 대한 정부의 규제와 충돌될 수 있을 것 같은데요.특히 중개서비스 중에서 지난해 금융소비자보호법에 막혀 카카오페이 보험 추천서비스도 중단된 바 있지 않습니까.&lt;기자&gt;카카오페이가 이번에 디지털손해보험사를 만들기는 했지만 그동안 규제에 부딪혀서 간편결제 이외의 다른 금융서비스를 제공하는 데 어려움도 많았습니다.먼저 금융당국이 금융플랫폼 업계를 어떻게 보고 있는지 살펴볼 필요가 있는데요.당국은 기본적으로 모바일 서비스 환경과 오프라인, 즉 대면 영업 환경이 같다, 이렇게 가정하고 기존 법률 체계에 온라인 영업 활동에 대한 규정을 추가하는 형태로 플랫폼 업체를 관리, 감독하고 있습니다.그래서 작년 9월 금융소비자법 계도기간 종료를 앞두고 한 플랫폼 안에서 보험, 증권 상품을 비교하고 추천할 수 있도록 하는 서비스를 `단순 소개`가 아닌 가입을 권유하는 `중개`라는 해석을 내렸던 것이고요.이 때문에 중개를 할 수 있는 독립된 보험판매회사인 GA, 즉 법인보험대리점 라이선스가 없었던 카카오페이도 보험 비교 서비스를 접어야 했습니다.문제는 이 사안이 새로 출범하는 카카오손보의 미래를 좌우할 수 있다는 점입니다.카카오손보는 기존 보험사에 비해 인력이나 인프라가 부족할 수 밖에 없기에, 결국엔 플랫폼을 통해 여러 보험사들의 상품을 중개하고 수수료를 받는 `마진 비즈니스`를 병행할 것이라 보는 시각이 많은데요.정부의 이런 플랫폼 규제 문턱이 낮아지지 않은 한 향후 성장에 한계가 있을 수 밖에 없다는 지적입니다.카카오페이를 비롯한 핀테크 업계에선 다양한 중개 서비스가 나오면 소비자들이 자신에게 필요한 금융상품에 대해 더 많은 정보를 얻고 편리하게 선택할 수 있다는 점을 내세워 정부에 규제 완화를 요구하고 있는데요.업계 목소리 직접 들어보시죠.[이근주 한국핀테크산업협회장 : 지금 너무 엄격하게 중개부분을 어떤 자격요건을 갖춘 기업들로만 제한을 해놨습니다. 지금은 상품을 단순히 진열만 해놓는 모습인데 쉽게 연결해서 해당 서비스에 접근할 수 있도록 편리성을 제공해줘야 핀테크기업들의 자사 서비스를 활성화할 수 있거든요. 단순히 상품 내용을 설명하는 데서 머물지 말고 쉽게 연결될 수 있도록…]&lt;앵커&gt;또 다른 규제 관문은 없나요?&lt;기자&gt;핀테크 업계의 숙원 과제인 `망분리` 규제에서도 카카오페이는 자유로울 수 없습니다.지난해 카카오페이는 고객의 주요 정보를 처리하는 전산시스템을 `망분리` 하지 않아 금융감독원으로부터 과태로 7천만원 철퇴를 맞기도 했습니다.&lt;앵커&gt;망 분리 규제, 왜 문제인 겁니까?&lt;기자&gt;현재 공공기관과 금융기관에 대한 해킹을 막기 위해 핀테크 업계는 다른 IT업권보다 더 엄격한 망분리 규제를 받고 있는데요.업무용 PC와 인터넷망을 분리해야 하고, 운영용과 개발용 PC는 인터넷망과 내부망을 물리적으로 차단해야 한다는 것이 규제의 내용입니다.문제는 모바일 비대면 환경 내에서 서비스를 제공하고 있는 핀테크 업체들의 경우, 개발 효율성이 회사의 경쟁력을 결정하는 요소인데요.망 분리 규제 때문에 핀테크 업계에선 개발의 필수요소인 오픈소스나 API, 즉 오픈 응용 프로그램 인터페이스를 회사가 아닌 다른 곳에서 활용하는 게 어렵고 개발자간에 업무 공유도 사실상 막혀 있습니다.이 때문에 일하기가 어려워진 개발자들이 핀테크 업계를 떠나는 사례도 많고요.또 규제에 따라 망분리 설비를 구축하려면 5억원이나 든다고 하니 비용 부담도 만만치 않다고 불만을 쏟아내고 있는 상황입니다.다만 최근 금융위원회가 개발·테스트 분야를 시작으로 원격접속을 허용하는 등 단계적으로 망분리 규제를 완화하겠다는 방침을 밝혀 업계는 일단 한숨 돌렸는데요.하지만 금융회사에 망분리 선택 자율권을 주는 방식이라, 이미 투자해 놓은 것이 많은 업체들로선 규제가 완화된다 하더라도 바로 보안전략을 바꾸기엔 부담이 클 수밖에 없는 것이 현실입니다.&lt;앵커&gt;카카오페이는 상장 이후 높은 밸류에이션(실적 대비 주가) 논란이 계속돼 있지 않았습니까.&lt;기자&gt;카카오페이의 수익은 막대한 트래픽에서 나오는데요. 그런데이 트래픽 성장세가 둔화될 수 있다는 점도 고민입니다.모바일 앱의 월간 활성 이용자수를 MAU라고 하는데, 카카오페이는 금융 플랫폼 중 가장 많은 2,150만명의 MAU를 확보하고 있습니다.사실상 국민 4명 중 1명, 다시말해 미성년자와 노년층을 제외한 모두가 카카오페이를 이용하고 있는 건데, 그렇기 때문에 여기서 더 성장할 수 있는 한계는 분명한 거죠.또 카카오톡을 통해 송금과 결제를 하는 월 이용자 수가 2천만명이라는 것이고, 카카오페이를 통한 순수 이용자 수는 400만명 정도로만 추산되는 상황입니다.카카오페이가 플랫폼 사업자이기 때문에 아무래도 MAU 성장이 둔화되면, 고성장산업이라 주가가 고평가돼있다는 명분에 반박할 수 없어 지겠죠.물론 간편결제 서비스 쪽은 여전히 높은 성장력을 갖추고 있다 할수 있겠습니다.카카오페이의 간편 결제금액은 지난해 1분기 3조7천억원 수준에서 4분기 5조원으로 36%나 늘었습니다.다만 카카오페이가 단순 중개를 넘어 B2C, 생활금융플랫폼으로 성장할 수 있다는 걸 입증하기 위해선 증권, 보험과 같은 자회사와 시너지를 얼마나 만들어내서 MAU를 얼마나 올리느냐가 중요하다 하겠습니다.&lt;앵커&gt;카카오페이는 지난해 실적부진에 경영진의 스톡옵션 행사로 인한 `먹튀 논란`까지 불거져 주가가 하락하고 있지 않습니까.&lt;기자&gt;카카오페이 주가는 지난 1분기 평균 15%, 두자릿수 하락했는데요.온라인 커머스 시장의 성장세 둔화, 임직원 연봉 인상으로 플랫폼주의 기대치가 낮아지고 있는 것도 사실이고요.하지만 증권가에서는 카카오페이에 대해 매수 확대 의견을 유지하고 있습니다.현재 주가는 12만원대인데 목표주가는 13만5천원에서 16만2천원선이고요.지난해 272억원의 영업손실을 기록하며 2017년 카카오에서 독립한 이후 3년째 적자를 못 벗어나고 있지만,올해는 스톡옵션 행사에 따른 주식보상비용을 털어낸데다, 생활밀착형 미니보험과 마이데이터 서비스, MTS 출시에 힘입어 흑자로 돌아설 수 있을 것이란 분석이 나옵니다.관련해서 전문가 의견 들어보겠습니다.[조아해 /삼성증권 연구원 : 올해 같은 경우에는 영업이익 흑자를 예상하고 있는데 흑자전환 과정에서 금융서비스 매출이 얼마나 올라오는지에 따라, 그리고 이익증가 속도가 빠르게 나타난다면 주가가 어떤 식으로 움직일지에 대해서 조금 더 구체적으로 가시성이 보이지 않을까 예상합니다.]&lt;앵커&gt;전 기자, 오늘 내용 유튜브 제목과 해시태그 뭘로 할까요?&lt;기자&gt;유튜브 제목은 "증권·보험 갖춘 카카오페이, 국민 생활금융앱으로"해시태그는 `금융의 모든 것, 카카오페이로`, `카카오, 금융업 흔들 메기 되나` 이렇게 하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>금리인상기 은행주 '훨훨', 카카오뱅크는 나홀로 '뚝뚝'…왜</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004737442?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>금리 인상이 본격화되며 대표적 수혜주인 은행주 주가가 고공행진하고 있지만 카카오뱅크는 홀로 울상을 짓고 있다. 성장주처럼 밸류에이션(실적 대비 주가 수준)이 높아 금리 인상 국면에 오히려 발목이 잡힌 것으로 보인다. 25일 코스피 시장에서 카카오뱅크는 전 거래일 대비 1150원(2.64%) 내린 4만2450원에 장을 마쳤다. 올해 들어 이날까지 28.05% 내려 은행주 대비로도, 코스피 지수 대비로도 볼품 없는 수익률을 나타냈다. 올해 들어 이날까지 우리금융지주는 24.41%, 신한지주는 14.27%, 하나금융지주는 12.84%, KB금융은 9.09% 올랐고 코스피 지수는 10.76% 내렸다.은행주는 금리가 인상되면 수익성 지표인 순이자마진(NIM)이 개선돼 수혜를 본다. NIM은 예대마진(대출 금리에서 예금 금리를 뺀 값) 등 전체 수익에서 조달 비용을 빼 운용 자산 총액으로 나눈 값으로 수치가 높을수록 좋다.하지만 카카오뱅크는 금리 인상으로 예상되는 수혜보다 이로 인한 부담이 더 커 주가가 곤두박질치고 있다. 낮은 밸류에이션 덕분에 가치주로 분류돼 주목받는 은행주와 달리 고평가 논란이 끊이지 않는 상황이다.실제로 금융정보업체 에프앤가이드에 따르면 이날 기준 카카오뱅크 주가수익비율(PER)은 93.34으로 100배에 육박했다. KB금융이 5.84, 신한지주가 5.60, 우리금융지주가 4.54, 하나금융지주가 4.15로 PER이 4~5배 정도에 머무르고 있음을 고려하면 높은 밸류에이션이다. PER은 주가를 주당순이익로 나눈 값으로 수치가 높을수록 고평가된 것으로 여겨진다. 외국인이 은행주를 순매수하면서도 카카오뱅크는 순매도하는 것은 바로 이러한 이유에서다. 올해 들어 이날까지 코스피 시장에서 외국인은 KB금융을 4위, 우리금융지주를 5위, 하나금융지주를 6위, 신한지주를 9위로 순매수했지만 카카오뱅크는 순매도 상위 종목 10위에 이름을 올렸다. 외국인은 카카오뱅크를 3360억원 순매도한 것으로 확인됐다.22일 서울 영등포구 여의도 카카오뱅크 오피스 모습. 2022.2.22./사진=뉴스1  또 카카오뱅크에 높은 PER을 안겨준 배경인 성장성에 대해서도 의문이 제기된다. 카카오뱅크가 단순한 은행주를 넘어 금융 분야 플랫폼주로서 PER을 부여받고 있지만  카카오그룹 안에 카카오페이도 있어 신규 사업 진출에 제약이 있다는 설명이다. 은경완 메리츠증권 연구원은 "카카오뱅크가 현재 PER을 유지하기 위해서는 플랫폼 경쟁력에 기반한 차별화된 수수료 이익을 창출해야 한다"며 "주식 계좌 개설과 해외 송금, 신용카드 회원 모집 대행 등 다양한 서비스로 꾸준히 성장하고 있다는 점은 긍정적이지만 수수료 규제와 금융 서비스를 공공재로 간주하는 소비자 인식을 감안하면 장기 성장 동력으로 작용할 수 있을지 의문"이라고 전했다.그러면서 "다른 은행은 이를 타개하기 위한 방안으로 지주회사로 전환한 이후 비은행 부문 강화 전략을 펼쳐왔지만 카카오뱅크의 경우 자본력의 한계는 물론이고 카카오그룹 안에 카카오페이의 존재로 신규 사업 진출에 제약이 뒤따른다"고 말했다. 토스뱅크 등 신규 인터넷 은행 출범으로 금융 분야 플랫폼주로서 카카오뱅크 입지가 흔들리고 있다는 평가도 있다. 김도하 한화투자증권 연구원은 카카오뱅크가 그간 한계 없는 고속 성장 가도를 달려왔다고 설명하며 "현재는 가계 대출 시장에서의 성장 제한과 중신용대출 비중 정상화, 규제 정상화 등으로 제약 조건이 생기는 구간에 처음으로 직면했다"고 밝혔다. 그러면서 "동시에 케이뱅크가 영업을 정상화하고 신규 인터넷 은행인 토스뱅크가 출범해 경쟁자가 출현한 상황"이라며 "인터넷 은행 간 침투(penetration)가 발생할 수 있다는 점을 고려하면 1위 인터넷 은행으로서 경쟁력을 증명해야 할 시기"라고 더했다.한편 에프앤가이드에서 이날 기준 카카오뱅크에 대한 투자의견은 3.8점, 목표주가는 5만5900원이다. 투자의견은 증권사가 적극 매수를 권하면 5점, 매수 4점, 중립 3점, 매도 2점, 적극 매도 1점으로 산정해 평균을 낸 지표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.04.23.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>'마이데이터' 핀테크 기업‥시리즈B이상 기업에 편중</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005078522?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>본인신용관리업(마이데이터) 허가를 받은 핀테크 기업 대다수가 시리즈B 이상의 투자를 받은 중기 이상의 기업으로 나타났다. 지나치게 자본 기준에 편중해 초기 혁신 기업을 외면한 것이 아니냐는 지적이 나온다.23일 투자업계에 따르면 마이데이터 사업자 허가를 받은 21개 핀테크 기업 중 대부분이 시리즈B 이상의 투자를 받은 기업인 것으로 나타났다.시리즈B에 해당하는 기업은 7개 기업으로 해빗팩토리, 팀윙크, 보맵, 핀셋n, 아이지넷, 뱅큐, 핀다 등이다. 시리즈C 투자를 받은 기업은 4개 기업으로 모니, 유비벨록스, 핀트, 에프앤가이드 등으로 집계됐다.시리즈D에서 프리 IPO 단계에 이른 기업은 토스, 네이버파이낸셜, 뱅크샐러드, 페이코, 카카오페이, 민앤지, 한국신용데이터, 쿠콘, SK플래닛, 핀크 등 10개 기업이다.마이데이터 산업 본허가를 받고 실제 서비스를 제공하고 있는 회사는 핀테크 21개사를 포함해 총 45개사로 집계됐다. 본허가를 받았으나 아직 서비스를 준비하고 있는 회사 11개사와 예비허가를 받은 10개사를 더하면 상반기중 66개사가 마이데이터 서비스를 제공할 예정이다.실질적으로 마이데이터 산업을 이끄는 것은 금융회사 혹은 금융과 관련된 서비스를 모태로 하는 핀테크 기업들이다. 업계에선 인공지능을 활용한 디지털 경제의 원유로 불리는 데이터 산업 발전을 위해선 초기 혁신 기업들의 마이데이터 산업 진출이 확대돼야 한다는 목소리가 커지고 있다.업계 한 관계자는 "초기 기업들은 데이터를 활용한 테스트베드에 참여하는 것조차 막고 있는 것이 안타깝다"면서 "자본 요건 보다는 데이터 정보 처리에 대한 신뢰도, 망분리 등 안전성 등의 요건을 보고 초기 기업에도 참여 기회를 주는 것이 전체 산업 발전을 위해서는 바른 정책 방향"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>“카카오 잡아라” 우티, 티맵 본점으로 이전… ‘밀월’ 관계 강화</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000808778?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>SK스퀘어·우버 합작사 ‘우티’합작사·지분투자 이어 본점 이전까지티맵, 지난해 영입한 女 CPO 등기이사 올려카카오 잡기 총력전…격차 뚜렷해 시간 걸릴 듯우티        SK스퀘어 자회사인 티맵모빌리티와 미국 우버가 지난해 4월 출범한 합작사 ‘우티’가 최근 티맵모빌리티의 본점 소재지 건물로 옮긴 것으로 파악됐다. 지난 2015년 한국 시장에서 철수한 이후 사실상 한국법인은 우티가 유일한만큼 티맵모빌리티와의 협업을 강화하기 위한 조처로 풀이된다. 우버는 2020년 말 설립한 티맵모빌리티에 약 600억원을 들여 지분을 확보하기도 했다.우버를 등에 업은 티맵모빌리티는 경쟁사인 카카오모빌리티를 잡기 위해 내부 조직 쇄신에 나섰다. 지난해 김유리 비바리퍼블리카(토스) 사업전략담당을 최고제품책임자(CPO)로 영입한 데 이어 최근 사내이사로 등재한 것으로 확인됐다. 티맵모빌리티 내 첫 여성 사내이사다. 그는 삼성전자 엔지니어를 시작으로 애플 미국 본사와 SK텔레콤, 쿠팡, 토스 등에서 다양한 경험을 쌓은 핵심 인재로 꼽힌다.톰 화이트 우티 최고경영책임자(CEO·오른쪽)와 김기년 최고운영책임자(CCO)가 신규 통합 애플리케이션 출시 온라인 기자간담회에서 발표하고 있다. /우티  한 둥지서 새 출발 하는 티맵·우티        25일 통신업계와 모빌리티업계 등에 따르면 티맵모빌리티와 우티는 현재 서울 중구 을지로에 있는 대신파이낸스센터를 본점으로 두고 있는 것으로 확인됐다.등기상으로 티맵모빌리티가 하반기 본점 이전을 완료했고, 우티는 올해 들어 작업을 마무리했다. 티맵모빌리티가 12~14층을 쓰고 있으며, 우티는 15층에 자리를 잡았다.두 회사의 본점 이동은 합작사를 설립한 데다, 지분 관계로 얽혀있는 만큼 협업을 더 강화하기 위한 조처로 풀이된다. 지난해 4월 출범한 우티는 우버가 51%, 티맵모빌리티가 49%의 지분을 보유 중이다. 지난 2020년 말 우버는 티맵모빌리티 독립법인 출범을 앞두고 5000만달러(약 622억원) 투자 계획도 밝힌 바 있다.우버(Uber). /조선일보DB        특히 여러 차례 국내 시장에 문을 두드렸다가 고배를 마신 우버로서는 사업 역량 강화를 위해 현지 사업 이해도가 높은 조력자가 필수다. 글로벌 승차공유 플랫폼인 우버는 유독 한국에서 힘을 쓰지 못했다. 2013년 출시했던 자가용 승차공유 서비스 ‘우버X’는 택시업계 반발 등에 막혀 2년 만에 사업을 접었고, 카풀 서비스, 음식배달 서비스 등으로도 재미를 보지 못했다. 국내서 통신과 모빌리티 사업을 장시간해왔던 SK 계열사들과 손을 잡는다면 분위기를 반전할 수 있는 발판을 마련할 수 있게 되는 셈이다. 다만 회사 관계자는 “본점 소재지 이전이 사업과 연관성은 크게 없다”라고 했다.우티 제공  ‘40대’ 젊은 피로 이사회 재구성…카카오 잡기 ‘총력전’        티맵모빌리티는 지난해 11월 영입한 김유리 CPO를 최근 사내이사에 등재한 것으로 확인됐다. 티맵모빌리티 설립 후 첫 여성 사내이사다. 그는 2003년 삼성전자 무선사업부 소프트웨어 개발자로 시작해 해외영업, 프로덕트 매니저(PM) 등을 거쳤다. 2011년부터는 애플 본사의 글로벌 서플라이 매니저를 비롯해 SK텔레콤, 쿠팡, 토스에서 개발 UX 전략 스텝 등 다양한 경험을 쌓았다. 1979년생인 김 CPO는 정보기술(IT)산업에서 다양한 직무 수행 경험을 기반으로 티맵모빌리티의 서비스 전략을 담당하고 있다.우티 택시 할인 프로모션. /우티 제공        우티도 지난해 말 SK텔레콤의 인적분할로 SK스퀘어로 출범하며 40대 젊은 피로 이사회 인원을 재구성했다. 기존 박정호 SK텔레콤 부회장과 하형일 SK텔레콤 코퍼레이트디벨롭먼트 담당을, 윤풍영 SK스퀘어 최고투자책임자(CIO)와 송재승 SK텔레콤 기업개발그룹장으로 교체했다. 새로 합류한 SK 측 등기이사들은 모두 1970년대생으로 40대다. 윤 CIO는 1974년생, 송 그룹장은 1979년생이다. 이전 박 부회장과 하 담당은 각각 1963년생, 1970년생이었다.카카오T 블루. /카카오        국내 모빌리티 시장 ‘1위’ 카카오를 겨냥한 우티가 갈 길은 아직 멀다. 모바일인덱스에 따르면 지난 3월 기준 카카오T 월간 이용자 수(MAU)는 1011만명으로, 우티는 48만명에 그치고 있다. 신규 애플리케이션(앱)을 출시한 지난해 11월부터 무제한 20% 할인 혜택 등 다양한 판촉을 내세웠지만, 판촉 효과는 ‘반짝’이었고 손실만 떠안은 상황이다. 지난해 기준 티맵모빌리티의 순손실인 410억원이다. 반면 카카오모빌리티는 지난해 창사 이래 최초로 흑자전환하며 순이익 271억원을 기록했다. 업계 관계자는 “카카오모빌리티가 흑자전환에 수년이 걸렸던 만큼 우티 역시 시간이 필요한 상태다”라면서도 “이미 시장을 선점한 카카오모빌리티와 달리, 후발주자인 우티의 경우 장기적으로 접근할 수밖에 없다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>인수위 "尹 취임식 직후, 내달 10일 靑 개방…하루 3만9000명 입장 가능"</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004690200?sid=100</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>74년 권력의 상징, 국민 품으로27일 오전 10시부터 사전 신청 북악산 등산로도 전면 개방청와대가 윤석열 대통령 당선인의 취임식 행사가 열리는 다음달 10일 낮 12시에 일반인에게 완전 개방된다. 관람객은 자유롭게 청와대 경내와 주변 등산로를 돌아다니고 사진 촬영도 할 수 있게 된다.청와대이전태스크포스(TF) 팀장인 윤한홍 국민의힘 의원은 25일 서울 통의동 대통령직인수위원회 사무실에서 브리핑을 하고 “제왕적 대통령제를 상징하는 청와대가 74년 만에 국민 쉼터로 거듭날 것”이라며 이 같은 내용의 청와대 개방 계획을 밝혔다.윤 의원에 따르면 하루에 입장 가능한 청와대 관람객 수는 기존 1500명에서 최대 3만9000명으로 늘어난다. 개방 시간은 오전 7시부터 오후 7시까지다. 한 번에 2시간씩 하루 여섯 차례로 나눠 예약을 받는다. 한 번에 총 6494명이 관람할 수 있다. 다만 첫날인 10일엔 낮 12시에서 오후 8시까지 8시간만 개방할 예정이다. 주말에도 개방하며 추후 야간 개장도 검토한다. 입장료는 없다.청와대 본관과 대통령관저 등 건물 내부와 경호처 등 출입 통제 구역은 당장 개방하지는 않는다. 주요 기록물, 통신시설, 보안 문서 등을 정리한 뒤에 건물 내부도 전면 개방하는 방안이 논의되고 있다.시스템을 정비하기 전인 다음달 10일부터 22일까지는 사전에 신청해야 관람할 수 있다. 윤 의원은 “오는 27일 수요일 오전 10시부터 네이버와 카카오, 토스 등을 통해 사전 관람 신청을 받을 예정”이라며 “향후 안전 관리, 질서 유지 등에 문제가 없다고 확인되면 전면 자유관람으로 전환해 예약 신청 없이 누구나 청와대를 다녀갈 수 있도록 할 방침”이라고 설명했다.경호와 보안 문제로 출입이 제한됐던 북악산 등산로도 인원 제한 없이 전면 개방된다. 등산로는 청와대 동편이나 서편 어느 곳에서나 출발할 수 있다. 개방 시간은 오전 7시~오후 7시로, 입산은 오후 5시까지로 제한된다.청와대 전면 개방을 기념해 청와대 경내와 경복궁, 북악산 일대에서 다양한 문화행사가 열린다. 윤 의원은 “다음달 22일까지 청와대 경내와 경복궁, 북악산 일대에서 새 시대 새 희망을 담은 다양한 문화 행사를 열 계획”이라며 “같은 기간 청주 청남대와 세종 대통령기록관 등에서도 기념 행사가 진행된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"1년간 64조 우르르"…네·카·토가 주목하는 OO 뭐길래</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004690425?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>'3대 빅테크' 지난해 결제액 64조원2년 새 6배 폭증…카드사 위기감 ↑올해 후불결제 사업 확대 추진"빅테크, 거대 금융사 대적할 것"사진=한경DB지난해 네이버파이낸셜, 카카오페이, 토스 등 일명 '3대 빅테크 기업'을 통해 결제된 금액이 64조원에 달하는 것으로 나타났다. 올해 빅테크 기업들이 간편결제 서비스 고도화, 가맹점 확장을 넘어 후불결제 사업 확대에까지 힘을 실을 계획이다. 향후 신용카드사들이 느끼는 위기감은 더 커질 전망이다.26일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 지난해 네이버파이낸셜·카카오페이·토스에서 결제된 금액(선불전자지급수단·계좌이체 포함)은 총 63조6702억원에 달했다. 이는 2020년 결제금액 42조7824억원 대비 48.8% 증가한 수치다. 2019년 10조5881억원 대비로는 501.3% 늘어난 것으로, 2년 새 6배 급증한 규모다.업체별로는 네이버파이낸셜에서 결제된 금액이 전년(30조6017억원) 대비 43.8% 불어난 44조188억원을 기록했다. 결제 건수는 11억9300만건이다. 카카오페이에서 지난해 결제된 금액은 17조4535억원으로 전년(10조7475억원) 대비 62.3% 폭증했다. 결제 건수는 9억700만건으로 나타났다. 토스에서는 전년(1억4331억원) 대비 53.3% 증가한 2조1978억원이 결제됐다. 결제 건수는 8600만건으로 집계됐다.신종 코로나바이러스 감염증(코로나19) 사태 이후 비대면 거래가 증가한 영향이다. 시장이 커진만큼 국내 결제 시장 내 빅테크 기업들의 영향력이 더욱 커질 것으로 보인다. 실제 빅테크 기업들은 네이버페이 멤버십, 카카오페이 비즈니스 애플리케이션(앱) 등 독자적인 플랫폼 서비스 고도화 및 가맹점 확장을 추진하는 동시에 후불결제 사업까지 확대한다.네이버파이낸셜은 올해 사용자 수요에 따른 서비스 대상 확대를 추진한다. 올해 초 금융위원회로부터 후불결제 서비스 기간 2년 연장을 승인받은 데 따른 조치다. 네이버파이낸셜은 지난해부터 월 30만원 한도의 후불결제 서비스를 시범 운영하고 있다. 현재 네이버파이낸셜은 네이버페이 결제 쇼핑 이력 등 비금융 데이터와 정보기술(IT)을 통한 대안신용평가시스템(Alternative Credit Scoring System, ACSS)을 활용해 후불결제 서비스를 제공 중이다. 자사 기술을 통한 소비자 동향 분석 과정을 거쳐 서비스 대상을 대폭 넓힌다는 게 네이버파이낸셜 측 계획이다.카카오페이도 소액결제 시장 전체를 대상으로 하는 후불결제 서비스 확대를 구상한다. 현재 카카오페이는 버스·지하철·택시 등에서 사용할 수 있는 선불 충전형 모바일 교통카드 기능의 후불결제 서비스를 일부 사용자 대상으로 제공하고 있다. 카카오페이는 보유 중인 금융 정보와 비금융 정보를 결합한 ACSS를 활용해 소비자의 후불결제 한도를 산정하고 있다. 카카오페이는 소비자 동향 분석 및 안정성 검증 과정을 거쳐 교통카드 기능에서 한 단계 더 발전된 형식으로 후불결제 서비스 규모를 키운다는 방침이다. 사진=뉴스1지난달 후불결제 서비스를 시작한 토스는 올해 ACSS 고도화를 추진해 사업 규모를 늘린다. 서비스 출시 초기 단계인 만큼 사용자들의 금융정보, 결제이력 등 비금융 데이터를 기반으로 하는 ACSS를 활용해 리스크를 최소화하겠다는 게 토스의 계획이다. 개인 신용 심사 정책은 향후 부실률 운영과 사용자 특성 분석 작업을 통해 강화한다. 토스는 소비자 동향 분석 작업을 거쳐 일부 가맹점과 사용자로 제한된 후불결제 제공 규모를 순차적으로 확대한다는 계획이다. 빅테크 기업들이 후불결제 사업 강화에 본격 나서면서 향후 국내 금융시장의 판도가 크게 요동칠 수 있다는 전망이 나온다. 이미 해외시장에서 후불결제 서비스는 대중화된 영역이다. 현금 없이 일단 구매하고 나중에 결제하라는 의미의 'BNPL(Buy Now Pay Later)' 명칭을 달고서다.다만 빅테크 기업들이 넘어야 하는 산은 있다. 현재 국내시장에서 후불결제 사업은 해외와 달리 결제 한도액이 월 30만원 수준으로 책정됐다. 분할 납부 기능이 제한돼 있어 수익성을 기대하기 어려운 구조를 띠고 있다. 후불결제 사업 관련 규제가 완화된다면 간편결제로 시작한 빅테크 기업들이 빠르게 몸집을 불릴 수 있다는 게 전문가들의 진단이다.황세운 자본시장연구원 연구위원은 "현재 빅테크 기업들의 간편결제 서비스는 거대 플랫폼을 기반으로 제공되는 만큼, 국내 금융사 대비 접근성과 인지도 면에서 우위를 가질 수밖에 없다"며 "간편결제 사업으로 금융권에 발을 들인 빅테크 기업들이 금융서비스 제공의 범위를 확대하면서 신용카드사를 넘어 거대 금융사들과 경쟁하는 형태로 시장 판도가 변할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>미리보는 청와대 개방…북악산 연계한 새 등산 코스도</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013136948?sid=100</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>기존엔 인솔자 따라 제한된 동선 관람…개방 후엔 자유동선 가능5월 10∼22일 개방행사 기간엔 온라인 예약으로 입장청와대 개방 행사 관련 브리핑(서울=연합뉴스) 임헌정 기자 = 윤한홍 청와대 이전 태스크포스(TF) 팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 하고 있다. 2022.4.25 kane@yna.co.kr    (서울=연합뉴스) 김효정 류미나 기자 = 윤석열 대통령 당선인이 취임하는 5월 10일부터 일반 시민들도 온라인 신청을 통해 청와대를 무료로 자유롭게 둘러볼 수 있게 된다.     청와대로 인해 단절됐던 북악산 등산로도 새롭게 시민에게 개방된다. 이전 청와대 개방과 차이점은…자율적 동선·사진촬영    25일 청와대 이전 태스크포스(이하 TF)에 따르면 새롭게 시행되는 청와대 개방에 따라 일일 최대 3만9천명이 청와대 경내를 방문할 수 있게 된다.    기존에도 시민들의 청와대 관람은 가능했지만, 단체관람자 또는 개인관람 신청자에 한해 일일 1천500명(코로나19 발생 전 기준)만 입장할 수 있었고 진행자가 인솔하는 제한된 코스를 따라가야 했다.    그러나 이번 청와대 개방 이후부터는 일일 입장객 수도 크게 늘어나고, 자유로운 동선으로 경내를 둘러볼 수 있다는 것이 차이다. 이전에는 지정된 포인트에서만 가능했던 사진 촬영도 어디서든 가능해진다.    TF는 일단 쾌적한 관람환경과 안전 관리를 위해 하루 총 6회, 2시간마다 6천500명씩 관람 인원을 받기로 했다. 적정 입장 인원은 관람객 1인당 최소한 3㎡의 공간을 확보하도록 산출했다.    TF 측은 "국민들이 자유롭게 청와대 경내를 둘러보고 다양한 문화적 경험을 통해 청와대가 이제 국민의 공간으로, 진정한 '개방'이 되었음을 체감할 수 있을 것"이라고 밝혔다. 개방 범위는…청와대 본관·녹지원·북악산 등산로 등    입장객들은 청와대 본관과 영빈관, 녹지원, 상춘재 등을 둘러볼 수 있다. TF는 기존 청와대 시설 내에 있는 각종 집기나 문서 등을 정리한 뒤 건물 내부도 전면 개방할 수 있도록 준비한다는 방침이다.    그동안 경호와 보안 문제로 잠겨 있었던 청와대 뒤편 대통문이 개방되면서 한양도성 성곽까지 연결되는 북악산 등산로도 새롭게 열리게 된다.     춘추관 뒷길에서 출발하는 청와대 동편 코스와 칠궁 뒷길로 시작하는 서편 코스를 이용할 수 있다. 등산 코스는 오전 7시부터 오후 7시까지 개방된다.    등산객 해설 프로그램도 운영된다. 청와대 개방행사 기간인 5월 10∼22일 중 오전 10시, 11시, 오후 2시, 3시 등 하루 4회 해설 프로그램을 들을 수 있으며 별도 예약은 필요하지 않다. 5월 10∼22일 개방 행사…카카오톡·네이버·토스로 예약    TF는 5월 10일부터 22일까지를 개방 행사 기간으로 정했다.     5월 10∼21일 중 방문하려면 카카오톡·네이버·토스로 방문 예약을 하면 된다. 행사 마지막 날인 5월 22일 방문객은 별도의 시스템으로 신청해야 한다.     이 기간 동안은 방문 신청자 가운데 당첨된 인원만 입장하는 시스템으로 운영한다. 관람 신청은 이달 27일 오전 10시부터 할 수 있다.     개방 행사 기간 이후에는 국민들의 관심도와 입장객 추이 등을 보고 입장 규모와 운영방식 등을 조정한다는 계획이다.     TF 팀장을 맡은 국민의힘 윤한홍 의원은 브리핑에서 "안전·질서유지 때문에 당분간 한시적으로 관람예약 시스템을 운영하며, 운영해 보다가 (방문객이) 많지 않다고 하면 전면 자율개방을 할 수도 있다"고 전했다.    등산로만 이용하려면 별도로 청와대 방문 예약을 할 필요는 없다.    TF측은 청와대 관람 인파 증가로 인한 혼잡을 해소하기 위해 영빈문·정문·춘추문 등 3개 출입구를 운영해 분산 입장을 유도한다는 방침이다. 질서 유지를 위해 경찰인력을 배치하고 등산로 주변에도 안전관리요원을 둔다.    kimhyoj@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>미리보는 오늘</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001192972?sid=102</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]◀ 앵커 ▶미리 보는 오늘 살펴보겠습니다.새 정부의 방역대책이 오늘 공개됩니다.안철수 대통령직인수위원장이 직접 발표하는데요.실외 마스크를 언제부터 쓰지 않아도 되는지 해제 시점과 방안이 담기고요.확진자 격리의무 해제 지침도 발표됩니다.아무래도 자영업자들의 관심이 많겠죠.소상공인 손실보상안은 오늘 최종안을 확정한 뒤 내일 공개됩니다.◀ 앵커 ▶다음 달 10일부터 개방되는 청와대 관람 신청을 오늘부터 받습니다.본관과 영빈관을 비롯해 녹지원과 상춘재를 이제 누구나 방문할 수 있는데요.입장료는 무료고요.사람이 몰릴 것에 대비해 한동안 예약제로 운영됩니다.오늘 오전 10시부터 네이버와 카카오, 토스 등 온라인으로 신청하면 되고요.다만 방문객은 하루 최대 3만 9천 명으로 제한됩니다.같은 날부터 개방되는 북악산 등산로는 사전 신청이나 인원 제한 없이 즐길 수 있습니다.◀ 앵커 ▶2천억 원대 직원 횡령 사건으로 거래가 정지된 오스템임플란트의 상장 폐지 여부가 오늘 결정됩니다.한국거래소는 오늘 기업심사위원회를 열고 상장유지를 할지, 아니면 개선 기간을 부여하거나 상장폐지를 할지 정하게 됩니다.오스템임플란트의 소액주주는 지난해 말 기준 4만 2,900여 명으로 전체 주주 수의 99.9%를 차지하고 있습니다.◀ 앵커 ▶한국은행이 오늘 4월 소비자동향조사를 발표합니다.최근 물가 상승세와 사회적 거리두기 해제 조치가 소비자 체감 경기에 어떤 영향을 미쳤을지 알 수 있는데요.지난달 소비자심리지수는 103.2로 한 달 전보다 0.1포인트 올랐는데 상승세가 이어질지 관심이 쏠립니다.지금까지 미리보는 오늘이었습니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>[마켓인]닥터나우, 부스터즈컴퍼니 인수…헬스케어 슈퍼앱 시동</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005199156?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 원격의료 플랫폼 닥터나우는 헬스케어 스타트업 ‘부스터즈컴퍼니’를 인수했다고 25일 밝혔다. 부스터즈 컴퍼니는 개인 맞춤형 운동 콘텐츠를 제안하고 의료전문가를 통한 상담·관리를 지원하는 디지털 헬스케어 앱을 여럿 선보여왔다. 인수가를 비롯한 세부 정보는 공개되지 않았다.닥터나우는 부스터즈 컴퍼니의 서비스 개발 역량과 노하우를 확보해 현재 운영 중인 비대면 진료 및 처방약 배송 서비스를 고도화한다. 건강 관리에 관심이 높아진 이용자에게 더 나은 플랫폼 경험을 제공하고 만족도를 선사할 수 있는 혁신 서비스를 제공하겠다는 목표다. 닥터나우는 이번 인수와 함께 부스터즈컴퍼니의 김종상 대표를 최고제품책임자(CPO)로 선임했다. 김종상 신임 CPO는 SK플래닛 데이터 애널리스트와 토스 프로덕트 오너를 거쳐 부스터즈 컴퍼니의 모든 서비스를 직접 기획·운영해왔다. 김 CPO는 “비대면 진료와 처방약 배송이라는 전례 없는 새로운 혁신으로 의료 서비스의 패러다임을 전환한 닥터나우의 비전에 깊이 공감해 합류를 결정했다”며 “고객 중심의 압도적인 서비스를 통해 헬스케어 전 분야를 아우르는 슈퍼앱으로 자리매김할 수 있도록 하겠다”고 밝혔다.한편 닥터나우는 국내 최초로 비대면 진료 및 처방약 배송을 선보이며 경증 환자와 만성질환자 등에게 효율적인 의료 서비스를 제공하고 있다. 지난해 10월에는 소프트뱅크벤처스를 비롯해 새한창업투자, 해시드, 크릿벤처스 등 유수의 벤처캐피탈로부터 100억 원 규모의 시리즈A 투자를 성공적으로 마친 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>청와대 개방 관람 신청 100만명 돌파 임박…97만44명 신청</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011152965?sid=100</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>기사내용 요약5월10일 첫 개방일 희망인원 7만2524명[서울=뉴시스] 최동준 기자 = 26일 서울 중구 명동거리에 청와대 개방 홍보물이 게시돼 있다. 2022.04.26. photocdj@newsis.com[서울=뉴시스] 박미영 기자 = 대통령직인수위원회가 청와대 개방 관람 신청을 받은 결과 하루 만에 97만44명이 신청했다. 인수위 청와대이전TF는 28일 "27일 오전 10시부터 네이버, 카카오톡, 토스를 통해 사전 관람 접수를 받아 28일 16시 현재 총 97만44명이 신청 접수해 조만간 100만명을 돌파할 것으로 예상된다"고 밝혔다. TF에 따르면 개방 첫날인 5월10일 관람을 희망하는 인원은 7만2524명이었다. 신청접수는 개인(1~4명), 단체(30~50명), 65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행된다. 개방 첫날인 5월 10일 관람시간은 정오부터 오후 8시까지다. 11~21일 관람시간은 오전 7시~오후 7시다. 2시간 단위로 총 6회 관람이 이뤄지며 회당 입장객은 6500명, 일일 최대 관람객은 3만9000명으로 제한된다. 방문자 선정은 추첨을 통해 관람일 8일전 당첨 여부를 통보한다. 미당첨돼도 재신청이 가능하다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>보험사, “개발자 어디 없나요”…구인난 호소</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003012636?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지보험업계가 정보기술(IT) 개발자 구인난을 호소하고 있다.디지털 플랫폼 구축, 본인신용정보관리업(마이데이터), 모바일 애플리케이션(앱) 개선 등 디지털전환이 시급해 개발 인력 수요는 넘치지만 개발자를 뽑고 싶어도 오려는 사람이 적어 애로를 겪고 있다.25일 업계에 따르면 A생명보험은 최근 디지털 플랫폼 관련 부서에서 일할 개발자를 40명가량 뽑기로 계획하고 채용을 진행했지만 최종 선발 인원은 목표치 4분의 1인 10여명에 불과했다.디지털전략 부서와 플랫폼 담당 부서를 만들고 디지털 기반 새로운 비즈니스 모델을 구축하려는 시도가 인력 확보에서부터 막힐 위기에 처한 셈이다.개발 인력을 구하기 어려운 건 손해보험사도 마찬가지다. B손해보험은 50여명 규모로 개발자를 두고 있는데 수시채용으로 계속 인력을 충원하고 있다. 내부 직원만으로 모자라 50여명 외주회사 인력도 개발 업무에 동원했다.C손해보험도 개발직군 인력이 언제나 모자라 상시채용을 진행하고 있다. 해가 지날수록 개발자 구하기가 점점 어려워지고 있다는 전언이다.개발자 구하기가 '하늘의 별따기'인 건 보험업에 대한 부정적 인식이 한몫한다. 아직까지 보험업은 금융권 중에서도 보수적이고 디지털 전환이 미진하다는 평가를 받는다. 또 개발자는 주로 팀 단위로 입사해 프로젝트를 맡는데 보험사에 합류했다가 실패하면 경력 관리에 도움이 안 된다고 생각한다고 여러 보험사 관계자들이 전했다.ⓒ게티이미지처우도 문제다. 보험사 핵심부서가 여전히 영업, 심사, 보상, 기획 쪽이다 보니 경력직 개발자를 채용하기 위해 기존 직원보다 연봉이나 인센티브를 더 줄 수 없는 형편이다.생보사 관계자는 “공채로 입사해 일하고 있는 직원 불만을 살 수 있어 같은 직급 기존 직원보다 개발자 급여를 더 낮게 책정하고 채용에 나서고 있는 게 현실”이라고 전했다.또 빅테크를 중심으로 개발 인력을 빨아들이고 있어 굳이 개발자들이 보험사 쪽으로 눈을 돌리지 않아도 충분히 일할 곳이 많다는 점도 보험업계 개발자 품귀 현상을 일으키는 요인이다.업계 관계자는 “네이버, 카카오뿐만 아니라 인터넷전문은행인 카카오뱅크, 토스뱅크, 간편송금업체 카카오페이, 네이버파이낸셜, 핀테크 스타트업 등이 대거 개발자를 채용하면서 보험사에 오려고 하는 유능한 개발자가 별로 없다”고 토로했다.대형 생명·손해보험사 중에도 데이터 분석, 시스템 개발, 네트워크 구축 등을 위해 개발직군 채용에 나서고 있지만 인재 확보가 쉽지 않은 것으로 전해진다. 이들 보험사 역시 영업·기획부서 중심이어서 개발자가 극소수에 불과하고 개발자들이 모인 전담 부서도 갖추지 못하고 있는 실정이다.업계 다른 관계자는 “기존 인력 입김이 강한 상황에서 개발자들이 목소리를 내기 어려운 구조”라면서 “본사에선 개발자가 설 곳이 없어 외주업체나 IT 자회사에 개발 업무를 전담시키고 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>은행 실적 왜 좋은가 했더니…'공짜 예금' 때문</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011155685?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>기사내용 요약저원가성 예금 증가에 '원가 절감'제2금융원·인뱅으로 이동에 주춤할 수도[서울=뉴시스]이주혜 기자 = 주요 시중은행이 올해 1분기 역대 최대 실적을 달성한 배경에는 저원가성 핵심예금 증가로 인한 '원가절감'이 작용한 것으로 나타났다. 금리 인상기에 증권시장 등이 주춤하며 '역머니무브' 현상이 발생한 덕분이다.30일 금융권에 따르면 KB국민·신한·우리·하나은행 등 4대 시중은행에 예치된 저원가성 핵심예금은 1분기 말 기준 약 602조1000억원으로 집계됐다.이는 지난해 말 약 596조5000억원보다 0.93% 증가한 것이다. 지난해 1분기(약 554조원)보다는 8.68%가 늘었다. 최근 금리가 상승하고 대내외 불확실성에 주식시장 등의 상황이 악화하면서 마땅한 투자처를 찾지 못한 돈이 은행으로 들어오는 '역머니무브' 현상이 지속되는 추세다.은행별 1분기 기준 저원가성 핵심예금은 국민은행 176조원, 신한은행 149조4000억원, 하나은행 130조4000억원, 우리은행 146조2000억원으로 나타났다.저원가성 핵심예금에는 요구불예금과 MMDA(수시입출금식 저축성예금) 등이 포함된다. 이들 예금의 금리는 연 0.1% 내외 수준으로 사실상 이자가 없다. 은행 입장에서는 비용이 거의 들지 않아 예대마진을 더 많이 낼 수 있다. 게다가 금리 상승기에는 예금 금리보다 대출 금리 상승 속도가 빨라 저원가성 예금이 많으면 이익이 더 크게 늘어난다.저원가성 예금 덕분에 '원가'를 절감하면서 올해 1분기 4대 금융지주의 이자이익은 총 9조1436억원으로 집계됐다. 지난해 1분기 4대 금융지주의 이자이익이 총 7조6939억원이었던 것과 비교하면 1년 사이 18.8%가 늘어난 것이다.다만 앞으로는 상승세가 주춤할 가능성이 크다. 금리 인상으로 예금 금리가 오르면서 제2금융권, 인터넷은행으로 자금이 몰리는 추세다. 이성욱 우리금융 부사장은 1분기 실적 컨퍼런스콜에서 "향후 금리가 상승하면 핵심적인 저원가성 예금의 증가세가 조금 더 주춤해지지 않을까 우려가 된다" 언급했다.토스뱅크의 경우 연 2%대 수시입출금식 예금이 출시된 지 6개월 만에 17조원이 몰린 바 있다. '일 복리' 혜택을 제공하는 '지금 이자받기' 서비스는 출시 한 달 만에 상시 이용고객 100만명을 넘겼다. 한국은행 경제통계에 따르면 상호금융권의 2월 말 수신 잔액은 430조9834억원으로 지난해 말 427조3100억원보다 3조6734억원 증가했다.저축은행들은 한국은행의 기준금리 인상 이후 재빨리 수신금리를 올리고 시중은행보다 높은 금리를 앞세우고 있다. 주요 저축은행의 정기예금 최고 금리는 연 2% 후반대다. SBI저축은행은 25일 복리정기예금(변동금리) 금리를 최고 연 2.85%로 올렸다. 웰컴저축은행은 1년 이상 정기예금 금리를 연 2.8%로 인상했으며, 상상인저축은행의 정기예금(1년 기준) 금리는 최고 2.83%로 뛰었다.서영수 키움증권 연구원은 "국내 은행의 저원가성 예금은 어떤 구속력도 없는 사실상 부동자금으로 기준금리 인상 이후 예금 및 채권금리가 저원가성 예금 대비 큰 폭으로 상승하면 고금리예금 상품으로 빠르게 이동할 가능성이 높다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>청와대 관람, 내일 10시부터 예약…신청방법은?</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001028018?sid=102</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>오는 5월10일 개방되는 청와대 관람 신청이 내일(27일)부터 시작된다.대통령직인수위원회는 국민 접근성이 높은 온라인 플랫폼으로 국민 누구나 편리하게 관람 신청을 할 수 있도록 한다고 26일 밝혔다.내일 오전 10시부터 청와대 개방 홈페이지에 접속해 네이버, 카카오톡, 토스 등 3개 플랫폼 중 하나를 선택하거나, 각 플랫폼 앱에서 직접 신청할 수 있다. 네이버 PC 웹사이트를 통해서도 신청 가능하다.우리 국민과 외국인 외에도 65세 이상 어르신과 장애인도 초기 개방 혜택을 누릴 수 있도록 그룹별 관람 인원을 안배했다.▲ 개인별(1∼4명) ▲ 단체별(30∼50명) ▲ 65세이상 어르신 및 장애인(1∼4명) 등 3개 유형에 맞춰 관람 희망 일자와 시간을 선택하면 된다.당첨 알림(관람 확정)은 정부 대표 행정서비스인 '국민비서'를 통해 보내준다. 관람일 기준 9일 전까지 신청이 가능하며, 관람일 8일 전에 당첨 알림을 발송한다.5월 10일부터 22일까지 약 2주간은 청와대 개방 기념행사가 진행된다.봄 나들이객이 증가하고 코로나19 방역 거리두기까지 해제되면서 방문객이 몰릴 것으로 예상돼 관람객을 일일 최대 3만9천명으로 제한한다는 방침이다. 오전 7시부터 오후 7시까지 운영하면서 2시간 단위별로 6천500명씩 입장할 수 있게 한다.개방 첫날인 5월 10일에는 준비 시간 등을 고려해 오후 12시부터 8시까지 2시간 단위로 관람객을 들인다.5월 22일에 열리는 별도 행사 참가는 따로 신청받을 예정이다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"평생직장은 무슨"...대기업·공기업도 떠나는 MZ세대</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005201768?sid=102</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>직장인 10명 중 9명 "이직 생각 있다"2030세대, 연봉·워라밸 등 크게 고려기업 간 양극화 우려도[이데일리TV 심영주 기자] 이직과 퇴사가 하나의 트렌드로 자리 잡은 모습이다. 직장인들 사이에서 평생직장이란 개념이 사라지고 ‘몸값 높이기가 우선’이란 인식이 자리 잡으면서다. 기업들은 인재 유출을 막기 위해 높은 연봉과 복지 혜택을 내세우고 있다.지난 19일 직장인들로 붐비는 서울 종로 거리.(사진=연합뉴스)삼성전자는 최근 사내 각 부문장들에게 ‘5월 초까지 갑작스러운 연차를 통보하는 5년차 미만 인력들은 SK하이닉스 면접에 참석할 확률이 높으니 관심있게 챙겨봐 달라’고 공지한 것으로 알려졌다. 직원들의 이직과 퇴사가 잦은 상황에서 SK하이닉스의 면접 일정이 확정되자 경쟁사에 인재를 뺏길까 사내 단속에 나선 것이다.높은 연금과 안정성으로 이른바 ‘신의 직장’으로 손꼽히는 한국은행에서도 매년 퇴사자가 잇따르고 있다. 김수흥 더불어민주당 의원실에 따르면 2012년부터 2021년까지 10년간 한국은행을 중도 퇴직한 직원은 311명이다. 매년 30명 정도가 한국은행을 떠난 셈이다. 연령대별로 보면 20대와 30대가 135명으로 전체 퇴직자의 40% 이상을 차지했다.직장인들의 이직과 퇴사가 활발해진 건 통계로도 확인된다. 지난달 취업포털사이트 잡코리아가 남녀 직장인 928명을 대상으로 설문조사를 한 결과 3명 중 1명은 “상반기 내 이직을 위해 적극적으로 구직 활동 중”이라고 답했다. “수시로 채용공고를 살피며 기회를 보고 있다”고 답한 직장인도 57.7%였다. 반면 “이직 계획이 전혀 없다”고 답한 직장인은 10%에도 못 미쳤다.이직과 퇴사의 주된 이유는 워라밸과 연봉에 대한 불만족이었다. 12년차 이상 직장인들이 “함께 일하는 상사 및 동료에 대한 불만족”을 이직의 가장 큰 사유로 꼽은 것과 달리 비교적 저연차인 직장인들 사이에선 개인의 목표와 이익을 우선시하는 경향이 나타났다. 대기업에서 일하다 지난해 플랫폼 기업으로 이직한 A(30세)씨는 “어차피 일을 해야 하는 상황이라면 복지 혜택이 좋고 연봉도 많이 주는 직장에 다니고 싶은 것은 당연하다”며 “이직도 능력이고 할 수 있을 때 해야 한다”고 말했다.기업들은 각종 복지 혜택과 높은 연봉을 내걸며 인재 유출을 막고 있다. 카카오(035720)와 NAVER(035420), LG에너지솔루션(373220) 등은 올해 전 직원 연봉을 10% 이상 인상했다. 삼성전자(005930)와 SK하이닉스(000660) 역시 8%대 인상을 앞두고 있다. CJ ENM(035760)과 토스 등은 한층 진화된 복지 제도를 내세웠다.다만 일각에서는 이 같은 상황이 기업 간 양극화를 더 심화시킬 수 있다고 지적한다. 자본을 가진 대기업이 인재들을 끌어모으고 그 인재를 기반으로 성장하는 사이 중소기업은 인재 유출과 추가 부담에 시달릴 수 있다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>증권사 CMA 맥 못추는 이유</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001982932?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>계좌수 늘어도 잔고는 감소세인뱅·저축銀 예금이자에 열세기준금리 상승에도 물가가 더 큰 폭으로 상승하며 은행 요구불예금에 돈을 두면 실질가치가 오히려 하락하고 있다. 대안으로 증권사 CMA(종합자산관리계좌) 계좌가 부상하고 있지만 수익률이 물가상승률을 넘어서지 못하는 모습이다.26일 금융투자협회에 따르면 지난 22일 기준 개인이 보유한 총 CMA 계좌수는 3451만4745좌로 사상 최대치를 돌파했다. 연초 대비 300만좌 가까이 급증한 기록이다. 같은 기간 잔고는 약 61조원으로 연초(약 60조원)와 비교해 큰 변동이 없다. CMA 1좌당 잔고는 18만9200원에서 17만6700원으로 오히려 줄었다. 계좌 계설은 했지만 제대로 이용을 하지 않고 있는 셈이다.증시 부진에 주요 유입경로인 고객예탁금이 줄어들고 있고 인터넷뱅크와 저축은행까지 경쟁적으로 파킹통장에 대한 금리와 혜택 등을 늘리며 CMA를 위협하고 있다는 분석이다.대표적으로 토스뱅크의 ‘토스뱅크 통장’은 1억원까지는 연 2%의 금리를 제공한다. 최근 은행권 최초로 이자를 하루 단위로 정산하는 서비스를 선보였다. 서비스 출시 이틀만에 66억5576만원(41만명)에 달하는 이자가 지급된 것으로 집계됐다.BNK저축은행이 선보인 ‘타!이거 파킹통장’의 500만원까지 최대 연 2.2%, 초과분에 대해 0.7%의 금리를 제공하고, 상상인저축은행 ‘파킹통장 369 정기예금’도 제시 조건을 맞출 경우 연이율이 최고 2.11%에 달한다. 증권업계도 최근 한국은행의 기준금리 인상에 맞춰 CMA의 금리를 20bp~25bp(1bp=0.25%)로 인상했다. 양대근 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>팬데믹 뚫고, K스타트업 창업 전성시대</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005077574?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>정주영 창업경진대회 73대 1 기록중진공 청년창업사관학교도 4181명 몰려이미지=게티이미지뱅크팬데믹(세계적 대유행)을 뚫고 스타트업 창업에 대한 관심과 열기가 더 뜨거워지고 있다. 코로나19를 거치면서 혁신 기술을 바탕으로 한 스타트업의 비즈니스 모델이 디지털 전환 시대의 새로운 성장 동력으로 부상하고 있기 때문이다. 벤처 투자가 최대 실적을 기록하면서 유망 스타트업들의 성장 속도가 빨라지고 있고 엑시트(자금회수)에 성공하거나 유니콘 기업으로 올라선 사례도 늘었다. 인재들이 몰리면서 각종 스타트업 창업 지원 제도와 경진대회 등의 경쟁률은 치솟고 있다.21일 아산나눔재단에 따르면 전국의 유망 스타트업 발굴을 위한 올해 ‘정주영 창업경진대회’에는 최근 접수 마감 결과 총 873팀이 지원했다. 이번 대회가 12개 사업실행 단계 진출팀을 선발할 계획이라는 점을 감안하면 경쟁률은 73대 1에 달한다. 지난해 이 대회의 경쟁률은 90대 1이었다. 올해부터 예비 창업팀을 대상으로 한 ‘예비 트랙’, 법인 설립 2년 이내 스타트업을 대상으로 한 ‘기업 트랙’으로 구분하고 기업 트랙의 경우 누적 투자금을 5억원 이내로 제한하는 등 지원팀에서 허수를 줄였다는 점을 감안하면 창업 열기는 여전히 뜨겁다는 게 아산나눔재단의 설명이다.2012년부터 시작해 올해 11회를 맞은 이 대회는 약 8개월에 걸쳐 진행되며 이 기간 집중적으로 초기 스타트업의 성장을 지원해 유망 스타트업의 산실로 자리매김했다. 특히 사업실행 단계에 진출하면 아산나눔재단이 운영하는 기업가정신 플랫폼 ‘마루’의 사무공간을 지정 받아 실제 사업을 할 수 있어 창업자들의 관심이 집중돼 있다.올해 중소벤처기업진흥공단의 청년창업사관학교에도 초기 스타트업들이 몰렸다. 민간 액셀러레이터인 블루포인트파트너스가 운영하는 대전 청년창업사관학교를 포함해 올해 12기 청년창업사관학교 입교생 모집에는 총 4181명이 지원했다. 입교생 수는 915명으로 최종 경쟁률은 4.57대 1로 집계됐다. 중진공은 청년창업사관학교 개교 이후 가장 높았던 경쟁률인 5.15대 1을 기록한 지난해에 이어 올해도 창업 열기가 이어지고 있다고 설명했다. 청년창업사관학교는 유망 아이템과 혁신 기술을 보유한 우수 창업자를 발굴해 최대 1억원의 사업화 자금과 교육·코칭, 사무공간, 시제품제작 등을 일괄 지원하는 국내 대표 창업 지원 사업이다. 졸업 기업 중 2018년 ‘토스’를 서비스하는 비바리퍼블리카가, 지난해에는 직방이 유니콘 기업으로 이름을 올리면서 초기 스타트업의 관심은 더 높아졌다.창업 열기가 더 뜨거워진 것은 지난해 벤처투자 금액이 역대 최대를 달성하면서 시장에 자금이 풍부해진 것과도 관련이 있다는 분석이다. 지난해 벤처투자는 전년보다 78.4% 증가한 7조6802억원을 기록했다. 투자받은 기업도 2017년보다 두 배 가까이 증가한 2438개사다. 벤처·스타트업 업계 관계자는 "투자가 늘고 투자를 받은 기업들의 기업가치도 높게 평가되면서 시장에 활기가 돌고 있다"며 "코로나19를 거치면서 디지털 경제 모델을 이끌 역량을 입증한 스타트업이 속속 나오면서 창업에 대한 관심이 커지고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.04.16.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스, '수퍼앱' 전략 제대로 통했다… 국내 찍고 해외로</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000804434?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>손바닥 안에서 이뤄지는 '금융의 모든 것'토스가 국내 성장세를 발판 삼아 글로벌 진출에 속도를 낸다. 손바닥 안에서 금융의 모든 것이 구현되는 '수퍼앱'이 승부수를 띄울 전망이다. 사진은 이승건 토스 대표/사진=토스토스가 국내 성장세를 발판 삼아 글로벌 진출에 속도를 낸다. 손바닥 안에서 금융의 모든 것이 구현되는 '수퍼앱'이 승부수를 띄울 전망이다.토스는 2015년 간편송금으로 출발해 6년만에 뱅크, 증권 등 금융의 주요 기능을 한 앱으로 구현하는데 성공, 지난 해 상반기 MAU(월간 활성유저) 1400만명을 훌쩍 넘기며 국내 주요 금융 앱 중 1위를 기록했다.현재 토스 앱에서 이용할 수 있는 각종 금융관련 서비스는 50여개에 달한다. 2016년 선보인 '통합계좌 조회'와 '소비내역 분석' 서비스는 유저가 여러 금융기관에서 개설한 계좌와 카드의 사용 현황을 토스앱 하나로 모두 조회할 수 있게 구현했다. 토스의 2200만 회원 중 약 1000만명이 카드나 계좌를 토스에서 조회하고 자산을 관리하고 있으며 이는 경쟁사 대비 압도적으로 높은 수치다.토스는 마이데이터 시행으로 더 많은 고객이 한 곳에서 금융생활을 할 수 있게 된 만큼 각종 안전장치도 마련해 놓고 있다. 대표적인 것이 '안심보상제'다. 토스의 직접적인 책임이 없는 개인의 실수로 인한 제3자 명의도용, 보이스피싱등의 금융사고라 하더라도 토스를 사용 중 발생했다면 선제적으로 보상한다. 지난해 4월부터는 '온라인 중고거래 플랫폼'을 통한 중고거래 사기 시에도 최대 1회 50만원 한도로 보상범위를 넓혔다. 이같은 선제적 보상제도는 국내 금융권에서 토스가 가장 먼저 도입했다.이 같은 경쟁력을 발판 삼아 글로벌 진출에도 속도를 낸다. 토스는 지난해 베트남에 토스앱을 출시해 300만명의 활성유저를 모으는데 성공했다. 상반기 중엔 싱가포르에 해외사업 헤드쿼터를 설립하고 말레이시아 등 동남아 국가에 적극적으로 진출 할 계획이다. 내년엔 해외 유저가 국내 유저수를 능가할 것으로 기대하고 있다.토스 관계자는 "토스는 금융 회사가 아닌 금융 서비스 플랫폼을 지향한다"며 "금융 서비스가 필요한 고객들이 여러 금융 회사의 상품과 서비스를 비교해 가장 유리한 선택을 할 수 있도록 돕는 게 토스의 역할"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>재능·잠재력 파악해 직무 연결...유니콘 넘어 '사람' 키우는 투자사</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004734939?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[[혁신벤처요람]퓨처플레이 석종훈 파트너, 김봉준 미래인재연구소장]퓨처플레이 석종훈 파트너(오른쪽)와 김봉준 미래인재연구소장 /사진=김휘선 기자 hwijpg@스타트업 생태계에서 '기술 전문 액셀러레이터(AC)'로 불리는 퓨처플레이가 액셀러레이팅 영역을 '사람'으로 확장했다. 스타트업 발굴·투자 활동을 넘어 스타트업 성장의 가장 근간이 되는 좋은 인재에 대한 교육·육성부터 하겠다는 목표다. 기존 HR(인력관리)과 다르다. 직무에 맞는 사람을 찾아 단순히 배치하는 것이 아닌 '태니지먼트 테스트'라는 진화된 기법으로 분석한 각 개인의 잠재력과 재능을 기반으로 최적의 직무에 연결해 개인과 기업 모두의 퍼포먼스를 극대화하는 방식이다. 만약 운동에 소질이 있는 사람이라면 축구 쪽인지 야구 쪽인지, 축구라면 왼발을 잘 쓰는지 오른발을 잘 쓰는지, 헤딩을 잘하는지 등을 면밀히 분석해 최적의 포지션에 배치하는 것으로, 이를 직무의 세계에도 적용할 수 있다는 얘기다. ━스타트업 넘어 '사람' 본다…HR 스타트업 태니지먼트랩 인수━퓨처플레이는 이 같은 구상을 실현하기 위해 지난해 11월 HR테크 스타트업 '태니지먼트랩'을 인수했다. 태니지먼트(Tanagement)는 적성·재능(Talent)을 관리·경영(Management)한다는 뜻의 합성어다. 태니지먼트랩이 운영하는 태니지먼트 테스트는 MBTI와 같은 단순한 성격 테스트와는 큰 차이가 있다. 개인의 재능과 잠재력을 바탕으로 회사(조직)가 효과적으로 직무 배치를 할 수 있도록 돕는 소프트웨어다. 태니지먼트 테스트는 20~30분간 설문에 답하는 것으로 결과를 받아볼 수 있다. 삼성, LG, SK텔레콤을 비롯해 네이버, 카카오 등 국내 주요 기업들이 활용 중이다. 지난해 말 7만명 수준이던 수검자가 현재 11만명으로 껑충 뛰는 등 가파른 성장세를 보인다. 퓨처플레이는 태니지먼트랩 인수와 함께 사내 신규 조직인 '휴먼 액셀러레이션 그룹'과 인재성장 연구기관인 '미래인재연구소'를 설립하며 '사람 키우는 회사'라는 정체성을 본격화했다. 휴먼 액셀러레이션 그룹 리드를 맡고 있는 청와대 중소벤처비서관 출신 석종훈 파트너와 태니지먼트랩 창업자인 김봉준 미래인재연구소장을 만나 퓨처플레이가 바라보는 '미래 인재'에 관한 이야기를 들어봤다. 퓨처플레이 석종훈 파트너(왼쪽)와 김봉준 미래인재연구소장 /사진=김휘선 기자 hwijpg@-휴먼 액셀러레이션 그룹 설립 취지는▶석종훈(석): 스타트업 생태계가 활성화돼 스타트업에서 일하고자 하는 구직자들이 굉장히 많아졌다. 그렇다면 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)를 비롯해 스타트업들은 사람 걱정이 없느냐. 그건 아니다. 여전히 구인난에 시달리고 있다. 이런 미스매치(부조화)를 해결하는 것이 좋은 비즈니스 기회이자, 스타트업 생태계를 위해 의미 있는 일이라고 생각했다. 개인에게 좋은 커리어와 일자리를 만들어주고, 기업 입장에서 좋은 인재를 찾도록 돕는 역할을 할 수 있는 게 태니지먼트랩이라고 판단해 인수를 결정했다. -태니지먼트랩이 기존 HR과 다른 점은 ▶김봉준(김): 태니지먼트 테스트는 맞춤형 인재경영을 돕는 솔루션이다. 각 개인의 차별적인 특징과 잠재력을 발견해 개발을 돕는다. 이 사람이 어떤 행동을 잘하고 어떻게 성과를 내는 방식이 있는지, 어떤 요소들을 개발하면 역량을 높일 수 있는지 진단한다. 진단을 바탕으로 이 사람이 조직이나 팀에서 어떤 방식으로 일하면 되는지 어떤 방식의 팀워크를 형성할 수 있는지, 이 사람에게 어떤 직무나 역할을 주면 되는지 구별해준다. -실제 효과가 있었나 ▶석: 스타트업만 아니라 10~20년차 대기업 임원들도 검사 뒤 자신이 잘하는 것을 발견하고 자신감을 찾아가는 사례가 있었다. 퓨처플레이 임직원을 대상으로 테스트를 해보니 정확도가 높아 태니지먼트랩에 관심을 갖게 됐다. 당시 휴먼 액셀러레이션 사업에 대해 고민을 하고 있었던 시점이었고, 단순히 태니지먼트랩에 대한 투자보다는 두 회사의 비전을 합해 같이 키워나갈 필요가 있다고 판단해 인수를 하게 됐다. 석종훈 퓨처플레이 파트너 /사진=김휘선 기자 hwijpg@-채용 시장에 어떤 변화가 필요한지 ▶석: 취업하려는 사람들은 PO(프로덕트오너)나 심사역 같은 새로운 영역에서 일을 하고 싶어하는데 채용하는 회사 관점에서는 관련 경력과 경험이 있기를 바란다. 바로 실전에 투입할 수 있는 인력을 찾지만 구직자들은 그런 경험을 쌓을 기회가 없다. 또 기업 입장에서는 구직자가 조직 문화에 적합한 사람인지도 먼저 판단할 수 있길 바라지만 이를 충족시켜주는 방법도 없었다. 가장 필요한 사람을 바로 채용해 투입할 수 있도록 하는 변화가 필요하고, 이를 위해 휴먼 액셀러레이션 그룹이 다양한 프로그램을 개발해 운영하고 있다. 현재 효과성을 검증하는 단계이며 앞으로도 다양한 프로그램들이 나올 예정이다. ▶김: 회사의 중요한 문제는 구성원이 자기주도성과 몰입도를 갖고 일할 수 있도록 지원하는 것이다. 이게 해결되지 않으면 아무리 많은 인센티브를 줘도 이탈을 막기 힘들다. 개인이 잘할 수 있는 일을 조직 차원에서 논의하고 관심을 가져야 하는 시대가 됐다. 기존에는 연봉, 복지, 사무실 환경 등 눈에 보이는 요소와 리더의 경험치가 중시됐다면 지금은 개인의 잠재력을 개발하고 조직 차원에서 성장을 자극하는 것이 중요해졌다. -추가로 HR 기업을 인수할 계획도 있나 ▶석: 큰 틀에서 장기적으로는 모두 열려 있다. 다만 당장 추진하는 건은 없다. 퓨처플레이가 투자한 회사들을 비롯해 인사·교육 관련 전문 기업들과 충분히 협업 또는 새로운 형태의 투자가 가능하다. 김봉준 퓨처플레이 미래인재연구소장 /사진=김휘선 기자 hwijpg@-인재 육성에 집중한 이유는 ▶석: 스타트업도 시장 상황의 변화에 따라 사업의 본질적인 가치를 훼손하지 않는 범위에서 피보팅(pivoting·다른 비즈니스 모델로 전환) 한다. 사람도 피보팅이 가능하다. 강점을 유지하되 필요로 하는 직무에 맞는 기술·지식을 배워야 한다. 30~40년 전 기업과 지금 스타트업의 조직 문화는 굉장히 달라졌다. 하지만 달라진 것을 알아도 그에 필요한 역량이 무엇인지를 배우고 경험할 기회가 없다. 그렇기 때문에 좋은 교육 프로그램을 거쳐 커리어 피보팅을 할 수 있어야 한다. 퓨처플레이의 휴먼 액셀러레이션 사업은 투자 기업들은 물론 스타트업 생태계에서 실무 경험을 쌓을 수 있도록 도울 수 있어 기존과는 다른 유형의 프로그램이 될 것이다. -스타트업 생태계에 어떤 변화를 만들고 싶나 ▶김: 개인이 있고 개인을 필요로 하는 조직이 있다. 중간에서 최적의 연결점을 만드는 '휴먼 캐피탈' 역할을 태니저먼트랩이 만들어가고 있다. 개인의 역량을 개발하고 이를 수용할 수 있는 조직 문화를 만드는데 기여하고 싶다. 개인의 만족감과 퍼포먼스를 극대화하는 것이 조직의 경쟁력이자 국가적인 경쟁력이다. 이것을 가장 잘 도와줄 수 있는 도구로서의 역할을 하겠다. 장기적인 관점에서 대한민국 국민의 80%는 태니지먼트 테스트를 받을 수 있도록 하겠다. 올해는 30만명을 목표로 하고 있다. ▶석: 스타트업 생태계가 과거와는 크게 바뀌었기 때문에 액셀러레이터의 역할도 달라져야 한다. 기업을 발굴해 성장시키는 유형을 넘어 각 개인이 교육을 마치고 경제 활동을 하는 모든 단계에서 가치를 만들어 가겠다. 하고 싶은 일과 잘할 수 있는 일을 연결해 그 사람을 필요로 하는 곳에서 최적의 성과를 낼 수 있도록 하겠다. 이처럼 가치를 부여하는 과정을 최대한 효율적으로 구축하는 것이 휴먼 액셀러레이션 그룹의 장기 비전이다. 올해 연말까지 적게는 2000명, 많게는 3000명 정도의 인재를 양성하겠다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>닥터나우, 헬스케어 스타트업 부스터즈컴퍼니 인수</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004689891?sid=102</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>국내 1위 원격의료 플랫폼 닥터나우가 헬스케어 스타트업 부스터즈컴퍼니를 인수했다고 25일 발표했다. 인수액은 공개하지 않았다.부스터즈컴퍼니는 개인별 맞춤형 운동 콘텐츠를 제안하고 의료 전문가를 통한 건강 상담과 관리를 지원하는 ‘건강비서’ ‘클리닉’ ‘파인드’ 등의 헬스케어 앱을 선보인 회사다. 닥터나우는 부스터즈컴퍼니의 서비스 개발 역량과 노하우를 확보해 비대면 진료와 처방약 배송 서비스를 개선해 나갈 계획이다. 김종상 닥터나우 CPO 닥터나우는 김종상 부스터즈컴퍼니 대표를 최고제품책임자(CPO)로 선임했다. 김 CPO는 부스터즈컴퍼니 창업자로, 서비스를 직접 기획하고 운영했다. SK플래닛 데이터 애널리스트를 거쳐 금융 플랫폼 토스에서 프로덕트 오너를 역임했다. 김 CPO는 “비대면 진료와 처방약 배송이라는 새로운 혁신으로 의료 서비스의 패러다임을 전환한 닥터나우의 비전에 공감하여 합류를 결정했다”며 “닥터나우가 헬스케어 전 분야를 아우르는 슈퍼 앱으로 자리매김할 수 있도록 노력하겠다”고 말했다. 닥터나우는 국내 최초로 비대면 진료와 처방약 배송 서비스를 선보였다. 경증 환자, 만성 질환자 등에게 편리한 의료 서비스를 제공하고 있다. 지난해 10월 소프트뱅크벤처스를 비롯해 새한창업투자, 해시드, 크릿벤처스 등 벤처캐피털(VC)로부터 100억원 규모의 시리즈A 투자를 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.04.29.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>간편결제 넘어 '후불결제' 담는 네·카·토…흥행은 '미지수'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003208481?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   네이버페이·카카오페이·토스    '간편결제'로 금융 영역에 자리 잡은 대표 빅테크 네이버페이·카카오페이·토스가 이번에는 '후불결제' 시장을 노리고 있다. 신용카드 발급이 어려운 금융 이력 부족자(씬파일러)들을 끌어안겠다는 계획인데, 아직은 한계가 있다는 목소리가 나온다.    26일 금융업계에 따르면 지난해 네이버파이낸셜에서 결제된 금액(선불전자지급수단·계좌이체 포함)은 44조188억 원에 달했다. 결제 건수는 11억9300만건이었다.      같은 기간 카카오페이에서 결제된 금액은 17조4536억 원, 결제 건수는 9억700만건이었으며 토스(비바리퍼블리카)에서는 2조1978억 원, 8600만건이 결제됐다.    이들 3개 기업에서 작년에 결제된 금액을 더하면 63조6702억 원이다. 2020년 결제금액 42조7824억 원과 비교해 48.8% 증가한 금액이다.      특히 결제액은 2019년 10조5881억 원과 비교하면 6배로 뛰면서, 금융 시장 내 새로운 역할로 자리 잡았다는 평가가 나온다.    간편결제를 정착시킨 페이 플랫폼은 이제 후불결제로 영역을 확대하고 있다. 후불결제란 현금 없이 일단 구매하고 나중에 결제하는 ‘선구매·후지불’ 서비스다.        후불결제    특히 신용카드가 없는 금융 소비자가 현금이 부족할 때 간편하게 이용할 수 있어 글로벌 결제시장의 새로운 트렌드로 떠오르고 있다.    가장 먼저 지난해 4월 네이버파이낸셜이 네이버페이 플랫폼에 후불결제 서비스를 내놨다. 이어 토스가 11월 금융위원회로부터 혁신 금융서비스로 지정받으면서 올해 3월 후불결제를 시작했다. 카카오페이는 아직 후불결제 서비스를 출범하지 않았으나, 현재 서비스 중인 15만 원 한도 후불 교통을 통해 안정성 검증 후 후불결제로 확장한다는 방침이다.    현재 후불결제를 이용하려면 자동납부 계좌 등록 후 심사를 거쳐야 한다. 월 결제 한도는 최대 30만 원이며, 만 19세 이상이면 이용할 수 있다. 서비스 이용에 따른 별도의 수수료나 이자가 부과되지 않으며, 이번 달 결제 사용금액은 토스의 경우 다음 달 15일, 네이버페이의 경우 5일, 15일, 25일 중 선택해 지정된 계좌에서 출금된다.   업계에서는 빅테크가 카드사의 영역까지 넘보고 있다는 목소리가 나온다. 카드업계 관계자는 "간편결제에 후불결제까지 더해지면 사실상 소액이어도 카드 역할을 하겠다는 얘기여서 위기감이 있다"며 "현재 간편결제 플랫폼은 신용카드를 통해야만 결제가 이뤄지지만, 이 서비스가 정착하게 되면 카드사가 간편결제 플랫폼에 종속될 우려가 나온다"고 말했다.    이미 해외 도입 사례를 보면, 후불결제의 성장 가능성은 짙다. 아마존·이베이 등 글로벌 이커머스 기업이 온·오프라인 매장에서 후불결제를 도입했다는 사실만으로도 주목받는 서비스이다.      국내 이커머스 중에서도 쿠팡이 '나중결제'라는 이름으로 로켓와우 회원을 대상에 한정해 도입하고 있다. 한도는 쿠팡 이용 실적 등에 따라 최대 130만 원까지다.      토스    아직 국내에서는 후불결제 서비스 성공 여부에 대한 반응은 갈린다. 우리나라는 해외 시장보다 신용카드 발급이 어렵지 않다는 이유가 첫 번째다.    대표적인 씬파일러로 언급되는 가정주부의 경우 배우자의 신용을 바탕으로 신용카드를 발급받을 수 있다. 또 대학생의 경우 본인 명의가 아니어도 부모의 신용카드를 사용하는 경우가 많기 때문이다.    업계 관계자는 "당장 30만 원이라는 금액 한도에서도 규모의 확대에 한계가 있을 것으로 본다"고 말했다.      또 씬파일러에게 제공하는 서비스인 만큼 부실률에 대한 관리도 문제점으로 꼽는다. 이를 상쇄하기 위해 빅테크는 자체 심사를 거쳐 후불결제를 제공하고 있다.    토스 관계자는 "사용자들의 금융정보와 결제 이력 등 비금융 데이터를 기반으로 한 대안신용평가모형 활용해 리스크를 최소화할 것"이라며 "후불결제 서비스로도 유저 편의성과 포용성까지 잡을 것"이라고 말했다.  권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>울트라 그로쓰 페스티벌, 7일간 개막</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006051115?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>울트라 그로쓰 페스티벌 공식 홍보물© 뉴스1(서울=뉴스1) 임해중 기자 = 이달 25일부터 5월1일까지 근거기반의 비즈니스 성장에 목마른  ‘울트라 그로쓰 페스티벌’ 컨퍼런스가 7일간 개최된다울트라 그로쓰 페스티벌(Ultra Growth Festival, UGF 2022)은 20명의 연사진이 근거기반의 비즈니스 성장을 만들어낸 주요 사례들을 선보이는 컨퍼런스이다.행사는 4월 25일(월)부터 5월 1일(일)까지, 총 7일간 매일 밤 온라인과 오프라인을 병행하여 진행된다. 강연 영상은 1개월간 다시 볼 수 있으며, 컨퍼런스의 수익금은 전액이 기부된다.이번 UGF 2022 컨퍼런스는 전반부에서 Δ홍진우(클래스101 CPO) Δ조윤경(씨엠아이파트너스 COO) Δ홍석희(영어독립 CEO) Δ최인철(KEARNEY 컨설팅 파트너) Δ이하석(1Z Labs CMO) Δ이별님(1Z labs 마케터) Δ심규섭(자란다 그로스 리드) Δ최윤석(헤이스택코퍼레이션 CEO) 연사가 강단에 오른다.또한 후반부에는 Δ박기정(K마케팅컴퍼니 CEO) Δ신주혜(브랜디 그로스 프로덕트 리드) Δ정다미(비바리퍼블리카(토스) PO) Δ박기덕(벤스드 CEO) Δ이지혜(美 블라인드 프로덕트팀 매니저) Δ정성영(마켓핏랩 CEO) Δ곽근봉(1Z Labs CEO) Δ최정우('스타트업은 어떻게 유니콘이 되는가' 저자) 연사 등이 비즈니스 강연을 이어갈 전망이다.정성영 마켓핏랩 대표는 이번 행사와 관련하여 “췌장암 4기 진단을 받은 스타트업 업계의 동료를 돕고자 행사를 기획하게 되었다. 20명의 연사와 함께하는 이번 페스티벌의 수익금 전액은 따님의 학비로 전달된다. 따뜻한 마음을 담아 기금에 동참해주시길 부탁드린다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>靑 새달 10일 개방…사전관람 접수 100만 돌파</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003269623?sid=100</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>대통령직인수위원회 청와대 이전 태스크포스 발표27일 오전 서울 명동거리의 한 상점 벽면에 청와대 개방 홍보 안내판이 걸려 있다. 2022.04.27 안주영 전문기자새달 10일 정오 개방되는 청와대 개방 관람 누적 신청자가 100만명을 돌파했다.대통령직인수위원회 청와대 이전 태스크포스(TF)는 “오늘 0시 기준 청와대 관람 누적 신청자는 112만4372명으로 집계됐다”고 밝혔다.● 개방 첫날 관람 신청자 8만명 넘겨TF에 따르면 개방 첫날인 새달 10일 관람 신청자는 8만3355명이다.당일 2만6000명까지 관람할 수 있고 11일부터는 3만9000명까지 가능하다.청와대 개방 시간은 새달 10일 취임식 당일만 정오부터 오후 8시까지다.11~21일까지는 오전 7시부터 오후 7시까지 관람할 수 있다.● 사전 접수·추첨 통해 관람TF는 지난 27일 오전 10시부터 네이버, 카카오톡, 토스를 통해 관람 사전 접수를 하고 있다.신청 접수는 ▲개인(1~4명) ▲단체(30~50명) ▲65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행 중이다.방문자는 추첨을 통해 선정되며 첫날 관람 신청자에 대한 당첨 알림은 새달 2일 오후 2시까지 개별통지된다.당첨되지 않은 경우에는 새로 원하는 날짜에 재신청할 수 있다. 자세한 내용은 청와대 개방 온라인소통관 ‘청와대, 국민품으로’에서 확인하면 된다.● “국민 누구나 누릴 공간으로”앞서 윤한홍 TF 팀장은 25일 언론 브리핑에서 “청와대는 조선시대 500년 그리고 대한민국 건국 이후 74년, 약 600년 동안 닫혀 있던 권력 상징의 공간”이라며 “그 공간이 새달 10일 국민의 품으로 돌아간다”고 밝혔다.이어 “본관, 영빈관을 비롯해 최고의 정원이라고 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다”고 했다.윤 팀장은 “입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이를 고려해 조정될 수 있다”고 설명했다.다만 청와대 본관과 대통령 관저 등 건물 내부와 출입 통제 구역은 당장 개방되지 않는다.향후 주요 기록물과 통신시설, 보안이 필요한 문서 등을 정리한 후 전면 개방할 계획이다. 27일 오전 서울 명동거리 한 상점 벽면에 청와대 개방 홍보 안내판이 걸려 있다. 2022.04.27 안주영 전문기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>하늘의 별 따는 ‘기술 리더 구하기’…뺏고 뺏기는 CTO 영입전</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060477?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>무신사 등 유니콘 기업, 베테랑 CTO 선임 줄이어…연봉 인상, 각종 보너스, 스톡옵션 등 CTO 몸값 치솟는 중[비즈니스 포커스]개발자 인력난에 ‘구인 전쟁’이 확산되고 있다. 특히 기업의 기술 비즈니스를 책임질 최고기술책임자(CTO)를 차지하기 위한 경쟁이 더 치열해지는 양상이다. 4차 산업혁명 시대, 디지털 혁신 없이 기업의 백년대계를 가늠할 수 없는 상황에 CTO의 수요 폭발로 몸값이 치솟고 있다. 정보통신기술(ICT) 기업을 중심으로 증가하던 CTO의 수요는 이미 디지털 전환에 사활을 건 금융업계나 일반 대기업, 조(兆) 단위로 기업 가치를 평가받는 유니콘 기업(기업 가치가 1조원 이상인 스타트업)에서도 급증하고 있다. 뺏고 뺏기는 CTO 영입전을 들여다봤다.전방위로 확산되는 기술 리더 수요  기술을 통해 경쟁에서 우위를 차지하려는 기업들이 최근 CTO 영입에 열을 올리고 있다. ‘네카라쿠배당토직(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스·직방)’이라고 불리는 개발자를 선호하는 정보기술(IT) 기업뿐만 아니라 금융권, 유통 대기업, 유니콘 기업, 스타트업까지 CTO 모시기에 나선 것. 이들 기업은 연봉 인상에 더해 각종 보너스와 스톡옵션 그리고 다양한 복지 혜택 등을 내걸며 CTO를 영입하고 있다. 롯데는 최근 순혈주의를 깨고 외부 인재 영입에 적극 나서고 있다. CTO도 그중 한 명이다. 롯데쇼핑은 유통군 HQ 디지털혁신센터장(부사장)에 현은석 전 이베이코리아 부사장 겸 CTO를 영입했다. 오라클과 이베이코리아 출신인 현 부사장은 온라인과 디지털에 사활을 건 롯데쇼핑의 조직 문화를 개선할 적임자라는 평가를 받았다. SK텔레콤도 최근 CTO에 변화가 있었다. 김윤 전 CTO가 지난해 말 사임하면서 이상호 커머스사업부장 겸 11번가 대표가 SK텔레콤의 CTO를 겸하기로 했다. 이상호 CTO는 개발자 출신으로, 자연어·음성 처리 전문가다. 2016년 SK플래닛 CTO에 영입된 이후 SK텔레콤 AI사업단장 등을 거쳤다. 2018년 SK텔레콤에서 서비스플랫폼 사업부장을 맡은 뒤 인공지능(AI) 스피커 ‘누구’ 개발을 주도했다. 업계에선 SK텔레콤의 겸직 사례가 최근 CTO 인력난을 보여주는 것이라는 말도 나온다.CTO는 이동의 방향이 일정하지 않다는 것도 특징이다. 대기업에서 대기업으로의 이동보다 유니콘 기업이나 벤처 스타트업계로 이동하는 경우도 있고 IT 기반 기업에서 대기업으로 이동하는 경우도 있다. 대출 비교 플랫폼 서비스를 운영 중인 핀다는 최근 LG전자 출신 데이터 전문가인 서희 CTO를 영입했다. 서 CTO는 LG전자에서 통합 고객 데이터 기반의 개인화 서비스와 분석 플랫폼 개발 조직을 이끌었다. 핀다는 또 네이버 부사장 출신 최성호 커넥트인베스트먼트 대표를 기술전략 자문위원으로 영입했다. 최 자문위원은 네이버 재직 시절 메일·블로그·카페 등 서비스를 진두지휘했고 LG전자에서 디지털트랜스포메이션센터장을 역임한 전문가로 알려져 있다.마이데이터(본인 신용 정보 관리업) 사업자인 뱅크샐러드는 지난해 말 구글과 아마존 등 글로벌 IT 기업에서 소프트웨어 엔지니어로 근무했던 김문규 CTO를 영입했다. 김 CTO는 뱅크샐러드의 기술 조직을 이끌며 마이데이터 사업에 최적화된 인프라를 구축하는 역할을 할 예정이다.빅테크에서 유니콘 기업으로   ‘네카라쿠배당토직’과 같은 IT업계 핵심 인재들이 분야별 유니콘 기업을 찾고 있는 것도 최근 새로운 분위기다.한국 최대 패션 플랫폼으로 유니콘 기업에 오른 무신사는 올 3월 ‘배달의민족’ 출신 조연 CTO를 새로 선임했다. 무신사의 첫 CTO가 된 조연 CTO는 그동안 카카오의 전신인 다음·엔씨소프트 등 IT·게임·모바일 플랫폼 등의 기술 기반 기업과 글로벌 기업 등에서 모바일·웹 개발 프로젝트를 이끌어 왔다. 그는 영미권 웹소설 기반의 플랫폼 ‘래디쉬미디어’의 공동 창업자 겸 CTO를 지냈고 배달의민족 베트남 현지 법인 CTO를 역임하는 등 국내외에서 기술 전문가로 활약했다. 무신사는 조연 CTO와 함께 역량 있는 개발 조직 구축과 적극적인 투자에 주력할 계획이다.앞서 푸드테크 유니콘 기업인 마켓컬리는 지난해 하반기 카카오에서 클라우드 관련 업무를 맡았던 류형규 CTO를 영입해 기술 개발 총괄을 맡겼다. 차량 공유 유니콘 기업인 쏘카는 지난해 11월 류석문 전 라이엇게임즈코리아 개발이사를 CTO로 신규 영입했고 소셜 커머스 유니콘 기업 티몬 역시 올 3월 구글 출신의 황태현 CTO를 선임했다. 무신사 관계자는 “C레벨급 베테랑 개발자들이 기존의 정통 IT 기업 대신 개인과 조직 측면에서 성장 가능성이 높은 유니콘 기업 플랫폼으로 시선을 돌리고 있다”고 말했다.유니콘 기업 근무 시 가장 큰 장점은 개발자들이 이상적으로 생각하는 근무 조건에서 커리어와 실력을 함께 쌓아 갈 수 있다는 점이다. 오픈서베이가 지난해 말 발표한 ‘개발자 트렌드 리포트 2021’에 따르면 개발자들은 취업이나 이직 시 연봉, 개인과 회사의 성장 가능성, 고용 안정성 등을 중요하게 여기는 것으로 나타났다.한국 유니콘 기업은 각 분야에서 시장을 개척하는 선도적인 위치를 차지하고 있는 만큼 고용 안정성과 안정적인 임금은 물론 도전적인 업무 분위기까지 동시에 갖추고 있는 곳이 많다. 여기에 빠르게 성장하는 분위기와 상대적으로 유연하고 수평적인 기업 문화도 유니콘 기업의 장점으로 꼽힌다. 정통 IT 기업 개발자의 역할과 도전 범위도 보다 넓은 편이다. 업계 관계자는 “빠르게 성장하는 기업 분위기에 맞춰 실질적인 문제 해결과 과제 수행을 직접 자신만의 스타일로 경험해 나가며 기업에 개발이 기여하는 점 등을 체감하는 보람도 높은 편”이라고 말했다.“위기 상황에 기술 리더 영향력 더 증가” 혁신 기술로 미래 성장을 도모하는 스타트업과 벤처기업은 CTO에 더욱 애절한 상황이다. 국내외 유수 기업에서 개발자로 활약한 이들을 CTO로 선임해 IT 조직의 경쟁력과 기술 강화를 계획하고 있다.최근 라인플러스에서 개발 리더로 활약한 박원준 씨를 CTO로 영입한 윌라(오디오북 구독 서비스), 아마존·웨이브 출신의 조휘열 CTO를 영입한 워시스왓(모바일 세탁 서비스), 리디 출신 김남수 CTO를 영입한 글램(라이브 데이팅 서비스 앱) 등이 대표적인 사례다.업계에선 CTO 인재 영입 전쟁이 한동안 계속될 것으로 보고 있다. 기술 고도화가 필수인 상황에서 한국의 인재 풀이 협소해 C레벨급 기술 리더 인재 경쟁이 치열할 수밖에 없다는 것이다.삼정KPMG는 ‘KPMG CIO 보고서’에서 “팬데믹(감염병의 세계적 유행) 상황에서 기술 리더 역할이 더욱 중요해지고 있다”며 “이는 2008년 글로벌 금융 위기에 기술 부서의 영향력이 축소된 것과 대비된다”고 분석했다. 이어 “현재의 위기 상황은 기술 리더의 영향력 증가에 기회 요인으로 작용할 것”이라며 “탁월한 기술 리더는 이러한 기회를 잘 포착할 것”이라고 덧붙였다.이런 인식은 한국뿐만이 아니다. IBM기업가치연구소가 글로벌 50개국 3000명의 최고경영자(CEO)를 대상으로 조사해 최근 발표한 ‘2021 CEO 스터디’에 따르면 CEO의 57%는 조직에 영향을 미칠 가장 중대한 동인으로 ‘기술’을 선택했다. 한국 CEO의 경우 ‘규제’ 문제가 70%로 가장 많은 응답을 차지했고 기술이 66%로 그 뒤를 바짝 쫓고 있다. 이 연구소는 글로벌 고성과 기업의 핵심 강점에 리더십과 기술을 통한 차별화 등이 있다고 분석했다.향후 2~3년 내 가장 중요한 역할을 담당할 최고경영진(C레벨)이 누구냐는 대답도 흥미롭다. 글로벌 CEO의 56%는 CTO와 최고정보책임자(CIO) 등 기술 리더를 선택했다. 최고재무책임자(CFO)에 이은 2위다. 한국 CEO들은 최고운영책임자(COO, 77%)와 CFO(62%)에 이은 3위로 CTO(27%)를 선택했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[취재파일] '모니모'에서 사고 났는데 '삼성증권'에만 공지…왜?</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0000968983?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>사고는 '모니모' 앱에서 났다. 삼성생명, 삼성카드, 삼성화재, 삼성증권 등 삼성 금융 계열사들이 모여 출시한 앱이다. 이곳에서 개인 신용정보가 유출됐다. 삼성증권 고객 344명의 정보가 다른 사람들에게 노출된 것이다. 타인의 정보를 보게 된 사람은 삼성증권과 거래하지 않는 모니모 이용자들이었다. SBS에 제보한 유 모 씨도 본인은 삼성생명에만 가입한 상태였다. 삼성증권은 안 썼는데 모니모를 깔았더니 일면식도 없는 홍 모 씨의 증권계좌가 보였다. 유 씨는 바로 홍 씨의 이름과 계좌번호, 잔고, 수익률, 거래내역 등을 캡처해 취재진에 알려왔다. 지난 18일, 앱 출시 나흘 만에 빚어진 사고였다.취재가 시작되자 모니모 구축을 주도한 삼성카드에서 피해 사실을 확인해줬다. 18일 저녁 6시 17분부터 다음날 오전 9시 22분까지 15시간 넘게 오류가 이어졌다고 시인했다. 공지는 안 되냐고 물었는데 곧 할 거라고 답했다. 결국 방송 30분 전인 20일 밤 7시 반쯤, 공지가 됐다. 그런데 이상했다. 모니모가 아니었다. 공지는 삼성증권 홈페이지에만 됐다. 삼성카드 측은 오류를 낸 게 삼성증권이기 때문에 그렇게 진행했다고 했다. 유출된 정보를 본 사람은 삼성증권 이용자가 아니었다. 캡처도 가능해서 아직 타인의 정보를 갖고 있는 사람들이 있을 수도 있었다. 하지만 이들에게는 공지가 전해지기 어려웠다. 모니모에서 일어난 사고를 삼성증권에만 고지하는 목적이 뭔지, 진짜 사과하려는 게 맞는지 이해하기 어려웠다. 삼성이 내놓은 2,300만 통합 '슈퍼 앱'…진짜 '원 팀'?모니모는 '원 팀(One team)'의 기치를 걸고 출범했다. 명칭부터 '머니(money)'와 '모어(more)'를 결합해 '모이면' 혜택이 커진다는 걸 강조했다. 생명의 보험금 청구, 화재의 자동차 고장 출동, 카드의 한도 상향 신청, 증권의 펀드 투자 등의 기능을 모니모에 하나로 모았다. 삼성페이 등 핵심 서비스도 추가 연결을 검토 중이다. 이런 '원 팀'을 내건 배경에는 위기의식이 깔려 있다. 앱 출범 논의도 카카오, 네이버, 토스 등 '빅테크'의 위협을 피부로 느끼는 그룹 내 MZ 세대들의 요구에서부터 시작된 것으로 전해진다. 중복 가입을 빼고도 2,300만 고객을 가진 거대 금융 계열사들이 힘을 합쳐 이제라도 시장의 주도권을 갖겠다는 승부수를 던진 것이다.하지만 이번 사고의 취재 과정에서 '원 팀'이라는 인상은 받기 어려웠다. 4개 회사의 통합 앱에서 벌어진 사고였지만 넷 중 어느 회사의 잘못인지를 따지는 게 더 중요해 보였다. 사실 모니모는 태생부터 뚜렷한 책임과 권한을 가진 회사 없이 거대 금융사들의 단순 연합 형태로 출범했다. 지주회사 형태를 갖춘 여타의 금융사들과는 구조부터 달랐다. 지배구조만 놓고 보면 삼성생명이 맏형 격이다. 삼성생명의 계열사 지분율은 삼성카드 71.85%, 삼성증권 29.39%, 삼성화재 14.98%에 달한다. 하지만 모니모는 앱 서비스에 강점을 가진 삼성카드가 주도해 만들었다. 사고가 난 건 모니모인데 사고 공지는 삼성증권에만 한 걸 보며 의문이 생겼다. 앞으로도 모니모에서 사고가 나면 오류를 낸 회사를 찾아내 그곳의 책임만 강조할까. 정말 원 팀 맞나. '1만 명, 1천 명 이하 유출은 괜찮다'?…"법 보완 필요"이상한 건 또 있다. 사고 공지는 삼성증권의 '홈페이지'에만 됐다. 삼성증권 앱에서는 안 보인다. 삼성증권은 개인 신용정보가 유출된 고객 344명에게 개별 연락하고 있다고 했지만 사고 사실을 알리는 데 소극적이라는 인상을 지우기는 어려웠다. 금융당국에 대한 통지도 마찬가지였다. 금융 당국은 방송을 앞둔 취재진에 "이 정도 신용정보 유출은 신고가 이뤄져야 하는데 아직까지 안 되고 있다"며 "24시간이 되는 자정 안에는 통지가 오길 기다릴 것"이라고 말했다. 모니모 측은 뒤늦게 "법률 자문을 받아본 결과 통지 의무는 없지만 금융 당국에 알리긴 했다"고 전했다.법을 보니 실제 그랬다. 정보 유출에 관한 법은 크게 3가지로 나뉘어 있었다. 당국에 대한 통지 기준은 법마다 제각각이었다. 전자금융거래법은 해킹 등 전자적 침해사고가 났을 때만 알리도록 했다. 신용정보보호법은 1만 명 이상의 개인 신용정보가 누설됐을 때 금융당국에 신고하게 했고, 개인정보보호법에서는 1천 명 이상의 정보가 유출된 경우에 당국에 통지하게 했다. 삼성증권의 주장대로 344명의 정보 유출은 금융당국에 알리지 않고 넘어가도 되는 일이었다. 다만 금융당국과 삼성증권은 '전자금융감독규정'을 놓고 일부 해석이 엇갈렸다. 결과적으로 신고가 진행됐지만, 금융당국은 "규정에 따라 신고사항"이라고 말했고 삼성증권 측은 "'규정 해설'을 놓고 보면 신고사항이 아니다"라고 해석했다.전문가들은 마이데이터 등 개인 신용정보의 활용을 높이는 방향으로 정책이 진행되는 만큼 사고 발생 시 당국에 대한 통지 기준을 낮춰 신고를 늘리는 방향으로 가야 한다고 말한다. 최경진 개인정보보호법학회장은 "개인정보는 '1천 명', 신용정보는 '1만 명'이라는 사고 통지 기준부터 납득이 어렵다"며 "전자금융거래법, 신용정보보호법, 개인정보보호법 등 세 가지 법마다 제각각인 사고 통지 기준을 일원화할 필요가 있다"고 말했다. 소규모 중소업체의 정보 유출과 공공기관의 정보 유출이 다르듯 기관의 중요도나 유출된 정보의 위험도에 따라 세분화된 기준이 필요하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] 카뱅, '메기효과' 끝?..파격 이자도 시총도 '그저 그렇네'</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000283501?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 업계 1위 카카오뱅크에 대한 시장의 '혁신' 압박이 커지고 있습니다. 상장 당시 단숨에 금융주 시가총액 1위로 올라섰던 카카오뱅크는 최근 신한지주에 밀려 3위까지 내려갔습니다.특히 임원진 스톡옵션 행사 논란까지 겹쳐지면서 지난해 8월 상장 전후 이어지는 고평가 논란은 그치지 않고 있는데요.디지털 전환기 금융업계 '메기'였던 카카오뱅크의 '거품'이 차츰 더 빠질 지 혹은 또다른 혁신으로 새로운 변화를 이끌 지 주목되고 있습니다.    '파격'적 이자 경쟁력 떨어질라…카뱅, 수신금리 인상 ‘만지작’최근 100% 비대면으로 금리 경쟁력에 승부를 걸던 인터넷은행 카카오뱅크의 수신이자가 시중은행과 비슷하거나 오히려 더 낮은 수준으로 역전됐습니다. 한국은행의 기준금리 인상에 따라 KB국민·신한·우리·하나·NH농협은행은 예적금 금리를 최대 0.4%p 이례적으로 빠르게 인상했습니다.오늘(25일) 은행연합회 자료에 따르면 우리은행은 1년 만기를 기준으로 한 '원(WON)예금' 상품에 연 2.2%의 금리를  적용하고 있습니다. KB국민은행의 'KB스타예금'은 2.18%, 하나은행의 '하나의 정기예금'은 2.15%, 신한은행의 '쏠편한 정기예금'은 2.1% 등으로 각각 올랐습니다.카카오뱅크의 정기예금 금리가 연 2%이니까, 기준금리 인상과 맞물려 시중은행의 금리 수준이 인터넷은행을 거의 따라잡은 셈입니다.업계는 카카오뱅크를 포함한 인터넷은행들이 그동안 유동성 확보를 위해 공격적으로 수신금리를 올렸던 만큼 추가여력이 없을 것으로 진단하기도 합니다. 그동안 인터넷은행의 성장을 끌어온 파격적인 이자 경쟁력이 약해질 가능성이 나오는 배경입니다. 금리 경쟁력 악화에 우려 속 카카오뱅크도 수신금리 인상 여부를 검토 중입니다. 카카오뱅크 관계자는 "간편한 사용을 위해 상품이 하나 밖에 없는 관계로 금리 부분에 대한 단순 비교는 어렵다"면서도 "수신금리 인상에 대해 긍정적으로 검토 중"이라고 밝혔습니다.'거품' 논란 언제까지 …"1위 인터넷銀 경쟁력 증명해야"상장 직후 40조원 대로 금융주 시총 1위에 등극했던 카카오뱅크의 시총은 최근 반토막 수준입니다. 오늘(25일) 한국거래소에 따르면 카카오뱅크 주가는 지난주 종가 대비 2.64% 떨어진 4만2450원으로 마감했습니다. 시총은 20조2145억원으로 나타났습니다.이에 따라 금융지주 시총 순위는 KB금융지주가 24조 7411억원, 신한지주가 21조7230억원으로 각각 1위와 2위를 차지했습니다. 특히 카카오뱅크는 금리 인상으로 예상되는 부담이 더 커 주가가 내려가고 있습니다. 은행이지만 '플랫폼'을 강조했던 카카오뱅크는 당장의 기업가치보다 미래가치를 더 높게 인정 받고 있습니다.에프앤가이드에 따르면 오늘(25일) 기준 카카오뱅크 주가수익비율(PER)은 93.34으로, KB금융(5.84) 신한지주(5.60) 우리금융지주(4.54) 하나금융지주가 (4.15) 등 기존 금융지주 대비 높은 밸류에이션을 나타냈습니다. PER은 주가를 주당순이익로 나눈 값으로 수치가 높을수록 고평가된 것으로 여겨집니다. 이에 최근 외국인들이 은행주를 순매수하는 반면 카카오뱅크를 순매도하는 등 금리 인상기 유동성 회수 타격을 더 크게 받고 있습니다.아울러 성장성에 대한 의문도 이어지고 있습니다. 일부 시중은행 업계도 고평가된 카카오뱅크의 주가가 제자리를 찾아가고 있다고 평가하고 있습니다.혁신에 기반을 둔 파격적인 금리 혜택과 함께 플랫폼 기업으로서의 강점은 카카오뱅크의 성장을 이끌었는데 기대 만큼 이같은 강점이 뚜렷이 나타나지 않는다는 것입니다. 더욱이 기존 시중은행도 디지털 전환에 속도를 내며 '인터넷은행 따라잡기'에 바짝 나서는 점과, 케이뱅크의 영업정상화와 토스뱅크의 출범도 카카오뱅크의 '혁신 기대감'을 낮추고 있습니다. 전문가들은 카카오뱅크가 금융 '플랫폼 기업'의 강점인 '빅데이터 활용'과 '융합'을 통한 새로운 서비스가 나와야 한다고 강조하고 있습니다. 특히 앞으로 카카오뱅크가 마이데이터 사업과 새정부의 LTV(주택담보대출비율) 규제 완화 가능성 등의 기회를 어떻게 활용할 지 주목됩니다.정유신 서강대 기술경영대학원장은 "카카오뱅크는 초기 기대감이 컸던 것은 사실임에도 불구하고 적은 자기자본에도 지금까지 디지털 금융시장 확장을 향한 전환기 '메기' 역할을 해냈다"고 평가했습니다.그러면서 "신한·KB 등 기존 금융지주도 디지털 기반의 새로운 서비스에 박차를 가하고 있는 만큼 카카오뱅크는 강점인 AI·데이터 기술력 등을 적극 활용해 적시에 소비자 니즈에 맞는 서비스를 제공할 시기"라고 지적했습니다."특히 대안신용평가 등에서 성공하면 금융·비금융 융합 서비스에서 의미있는 또다른 변화를 이끌 것"이라며 "부동산, 건강 등 데이터와 재미를 융합한 새로운 서비스를 내놓을 수 있는 저력도 충분히 있다고 본다"고 덧붙였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>"돈은 나중에 낼게요"…토스 가세한 '후불결제', 카드사 위협할까</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004733961?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>네이버페이와 카카오페이에 이어 토스가 후불결제(BNPL, Buy Now Pay Later) 시장에 본격적으로 뛰어들며 카드사들을 위협하고 있다. 신용카드 발급이 어렵거나 소액 단기 신용대출이 필요한 대학생과 사회초년생, 주부 등 씬파일러(금융이력 부족자)들이 빅테크(대형 IT기업) 후불결제에 락인(Lock in·고객 묶어두기)될 수 있는 까닭에 카드사들의 긴장감이 높아진다.17일 금융권에 따르면 토스를 운영하는 비바리퍼블리카는 최근 월 결제한도 최대 30만원의 BNPL 서비스를 시작했다. 이번달 결제 사용금액이 다음달 15일 지정된 계좌에서 출금되는 방식이다. 현재 브랜디, 하이버, 마미, AK몰 등 4곳의 온라인 쇼핑몰에서 이용가능하며 토스는 앞으로 후불결제 이용가능 가맹점을 점차 확대해 나갈 예정이다.이보다 앞서 네이버파이낸셜은 지난해 4월 국내 빅테크 중 가장 먼저 후불결제 서비스인 '네이버페이 후불결제'를 내놓았다. 자체 심사를 통과한 사람에게 최대 월 30만원 한도를 부여하고 있다.카카오페이는 월 15만원 한도로 '후불형 모바일 교통카드' 서비스를 올해 초 출시했다. 시작은 후불형 교통카드이지만 토스나 네이버페이처럼 향후 쇼핑 등 일반결제에 대한 BNPL 서비스로도 사업을 확대해 나갈 전망이다.BNPL은 현금 없이 일단 구매하고 나중에 결제하는 '선구매·후지불' 서비스다. 금융 데이터와 비금융 데이터를 결합해 머신러닝으로 분석하는 대안신용평가시스템(ACSS)을 활용해 소비자별 한도액을 산정한다. 국내에서는 후불결제 서비스 근거가 담긴 전자금융거래법 개정안이 국회 문턱을 넘진 못했다. 금융당국이 혁신금융서비스 제도를 통해 월 최대 30만원 한도로 영업을 허용 중이다.해외에서는 이미 대세로 자리 잡았다. 미국 시장조사업체 '인사이더 인텔리전스'에 따르면 올해 미국 BNPL 사용자는 전년(약 4900만명) 대비 21% 증가한 약 5930만명으로 전망된다. 2018년 사용자 약 160만명과 비교하면 4년새 3600% 급증했다. 여기에 애플도 BNPL 서비스를 조만간 내놓을 예정이어서 BNPL 이용자는 더 늘어날 것으로 보인다. 2005년 세계에서 BNPL 서비스를 처음 도입한 스웨덴의 클라르나(Klarna), 호주의 애프터페이(Afterpay), 미국의 어펌(Affirm) 등이 글로벌 BNPL 대표기업으로 꼽힌다.이런 까닭에 국내에서도 후불결제 서비스가 MZ세대(1980년대 초반~2000년대 초반 출생)를 중심으로 빠르게 성장할 것이란 전망이 나온다. 특히 빅테크의 후불결제 서비스를 경험한 MZ세대가 추후 신용카드사로 돌아오지 않고, 확대될 빅테크 후불결제 서비스에 남을 가능성도 높아 카드사들이 긴장하고 있다.카드업계 한 관계자는 "후불결제 시장의 확장 가능성이 열려있는 만큼, 빅테크들의 후불결제 서비스에 대한 카드사들의 경계감이 높다"며 "특히 같은 기능의 서비스를 제공하는데 빅테크 후불결제와 달리 카드사들만 가맹점 수수료율 규제를 받고 있어 형평성에 대한 불만이 크다"고 말했다.그러나 우리나라에선 후불결제 시장이 미국이나 호주처럼 급성장하기는 어렵다는 의견도 적지 않다. 해외에 비해 신용카드 발급이 까다롭지 않을 뿐 아니라 무이자할부가 활성화돼있는 등 국내 신용카드 인프라의 경우 후불결제가 발달한 나라들과 다소 차이가 있어서다.해외 업체들이 수익성 창출을 목표로 BNPL 서비스를 운영하고 있는 데 반해, 국내 빅테크들은 수익성보다는 플랫폼 '락인효과'에 포커스를 맞춰 후불결제 서비스를 내놓고 있는 이유이기도 하다. 고은아 하나금융경영연구소 수석연구원은 "국내 후불결제 서비스는 해외 BNPL 서비스의 핵심인 분할납부 기능이 없고 이용 금액 한도도 월 30만원의 소액이라 아직은 선풍적인 인기를 기대하기는 어렵다"며 "앞으로 금융당국의 세부 규제내용에 따라 국내 후불결제 시장 판도가 변화될 수는 있을 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>금감원, 토스 '마이데이터' 사업 현미경 검사</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005195886?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>검사기간 연장해 한 달간 수시검사당국 내 "정기검사급...이례적"신용정보법 저촉점 발견했나[이데일리 서대웅 기자] 금융감독원이 비바리퍼블리카(토스)에 대한 수시검사 기간을 연장해 4주째 검사를 진행하고 있다. 수시검사에 통상 1~2주가 소요되는 점을 감안하면 이례적이다. 검사를 담당한 곳이 신용정보법 준수여부를 담당하는 부서라는 점에서 토스의 본인신용정보관리업(마이데이터) 서비스에 문제를 발견한 것 아니냐는 관측이 나온다.20일 금융당국에 따르면 금감원 IT(정보기술)검사국과 금융데이터실은 지난달 28일 토스 수시검사에 착수했다. IT검사국은 지난 15일 검사를 끝낸 반면 금융데이터실은 오는 22일까지 검사 기간을 연장했다. 경우에 따라 추가 연장도 가능할 전망이다.토스에 대한 수시검사를 3주간 진행한 데 이어 일주일 추가 검사에 나선 것을 두고 당국 내에서도 이례적이라는 반응이 나왔다.금감원의 한 관계자는 “과거 부문검사에 해당하는 수시검사는 짧으면 1주, 길어야 2주면 끝난다”며 “옛 종합검사 격인 정기검사가 3~4주 걸린다”고 설명했다. 또 다른 관계자는 “예삿일은 아니다”라고 했다.추가 검사를 결정한 곳이 금융데이터실인 만큼 토스의 마이데이터 사업에 문제를 발견한 것 아니냐는 관측이 나오고 있다. 금융데이터실은 금융회사의 빅데이터, 개인신용정보 보호업무에 대한 감독과 함께 마이데이터 사업자 인·허가 및 감독·검사 등을 담당한다.앞서 토스는 마이데이터 서비스 시행 단계에서 정부 가이드라인을 따르지 않아 논란을 일으켰다. 크게 △개인신용정보의 전송요구 대상(마이데이터 연결 대상)을 신용정보주체(고객)의 선택 과정 없이 일괄 연결한 점 △개인신용정보를 정기적으로 전송하는 점을 필수사항으로 둔 점 △개인신용정보 전송요구와 변경 시 필요한 본인 인증 수단에 공동인증서(옛 공인인증서) 사용을 못하도록 하고 토스 인증서 사용을 유도한 점 등이 문제가 됐다.논란이 커지자 토스는 지난 1월 정부 가이드라인에 맞춰 서비스를 개선했지만 법과 정부 가이드라인을 위반한 채 편의성만 앞세워 고객 모집에 나섰다는 비판이 이어지고 있다.한 유관기관의 마이데이터 실무 책임자는 “공동인증서 문제는 ‘접근매체’에 대한 해석상의 문제로 위법 여부가 불투명하다”면서도 “신용정보 전송요구 대상을 일괄 연결한 점은 신용정보법을 위반한 것”이라고 말했다. 이어 “정보를 정기적으로 전송토록 하려면 법상 고객의 ‘명시적 요청’을 받아야 한다”며 “이 과정을 거치지 않았으므로 이 역시 위법”이라고 했다.금융당국은 검사가 진행 중인만큼 말을 아끼는 모양새다. 금융위원회 관계자는 “금감원 검사 결과를 봐야 정확한 판단이 가능할 것”이라고 말을 아꼈다. 금감원 관계자도 “검사를 진행 중인 내용에 대해서는 밝히기 어렵다”고 했다.토스 마이데이터 가입자 수는 300만명대로 2위군 금융사(100만명대)보다 마이데이터 시장에서 우위를 점하고 있다.한편 금감원은 지난해 3월부터 시행한 금융소비자보호법(금소법) 저촉 여부도 들여다본 것으로 알려졌다. 금소법을 소관하는 금융소비자보호처에는 검사 부서가 없어 업권별 검사국이 금소법 위반 여부 등을 검사한다. 토스와 같은 전자금융거래업자는 기본적으로 금소법 적용 대상이 아니지만 ‘금융상품 판매대리·중개업’을 영위하면 금소법을 적용받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외주식 소수점 거래 시작…"1000원으로 우량주·ETF 투자"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005076025?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>토스증권이 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다.토스증권의 해외주식 소수점 거래 서비스는 미국 우량주식과 상장지수펀드(ETF) 등에 1000원부터 투자할 수 있다. 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식으로 국내에선 유일하게 지체 없는 실시간 거래가 가능하다는 설명이다. 투자 가능 종목도 총 3070개로 해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다. 토스증권에서 제공하는 미국 주식과 상장지수상품(ETP), 리츠 등 전 종목이 거래 가능하다.시장가 주문은 미국 정규장이 열리는 밤 10시30분부터 다음날 새벽 4시까지(서머타임 적용 기준) 가능하며 그 외 시간대에는 예약 주문이 가능하다. 프리마켓과 애프터마켓 소수점 거래는 차례대로 선보일 계획이다.소수점 거래는 기존의 1주 단위 구매하기와 동일하게 각 종목 구매 화면에서 '금액 주문'을 선택해 투자금액을 입력하면 된다. 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 한화 기준 약 120만원의 테슬라 주식을 1000원만큼 주문하면 0.000833주가 구매되는 방식이다.토스증권 관계자는 "고객이 원하는 미국의 우량 종목을 가장 폭넓게 제공하면서도 가장 빠르게 소수점 단위로 거래할 수 있는 해외주식 서비스는 토스증권이 유일하다"며 "앞으로도 고객 중심적인 사고로 만족을 높일 수 있는 압도적인 투자 서비스를 만들어 나갈 것"이라고 말했다.토스증권은 전 고객 대상으로 '소수점 주식 받기' 이벤트도 이달 말까지 진행한다. 고객이 원하는 미국주식을 선택하고 최소 1000원부터 최대 1000만원까지의 당첨금을 뽑으면 당첨된 금액만큼 주식을 구매해 지급하는 형식이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[핫클릭] 청와대 관람 오늘부터 네이버·카톡·토스로 신청 外</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000539401?sid=102</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>▶ 청와대 관람 오늘부터 네이버·카톡·토스로 신청대통령직 인수위원회는 오늘(27일) 오전 10시부터 청와대 관람 신청을 받는다고 밝혔습니다. 관람을 원하는 국민은 청와대 개방 홈페이지에 접속해 네이버, 카카오톡, 토스 등 온라인 플랫폼 중 하나를 선택하거나, 각 플랫폼에서 직접 신청할 수 있습니다.개방 첫날인 5월 10일에는 정오부터 오후 8시까지, 둘째 날부터는 오전 7시에서 오후 7시까지, 2시간마다 6,500명의 입장을 허용합니다.특히 65세 이상 어르신과 장애인도 초기 개방 혜택을 누릴 수 있도록 그룹별 관람 인원을 안배했다는데요. 관람이 확정되면 신청한 플랫폼 내 정부 '국민비서' 서비스를 통해 안내 메시지가 전달됩니다.▶ "흰가루 흡입한 강아지 쓰러져"…부평공원서 무슨 일이인천의 한 공원에서 강아지가 백색 가루를 흡입하고 쓰러졌다는 신고가 접수돼 경찰이 수사에 나섰습니다. 견주 A씨는 온라인 커뮤니티에 "강아지가 풀밭에 뿌려진 하얀 가루를 흡입하더니 4번의 구토 증상을 보인 뒤 거품을 물고 축 늘어졌다"는 글을 올렸는데요. 그러면서 "강아지는 중환자실에 입원해 생사를 오가고 있다"면서 "부평공원 산책 시 조심하셔야 한다"고 전했습니다. A씨가 공유한 사진에는 잎사귀와 낙엽 주변에 백색 가루가 뿌려진 모습이 담겼있습니다. 경찰은 국립과학수사연구원에 가루 성분에 대한 분석을 의뢰해 정확한 사건 경위를 조사할 예정입니다.▶ 보이스피싱 조직원 신고한 눈썰미 좋은 택시기사눈썰미 좋은 택시 기사가 보이스피싱으로 챙긴 거액의 돈을 송금하려는 운반책을 붙잡는 데 일조했습니다. 경남 김해시 개인택시 기사 A씨는 지난 20일 오후 한 남성을 태웠는데요. 이 손님은 누군가와 계속 통화를 하면서 도착 시간을 계속 확인하는 분주한 모습을 보였습니다. 아니나 다를까 이 승객은 내리자마자 곧바로 현금인출기로 가 100만 원 단위로 어딘가로 계속 돈을 송금하기 시작했다는데요. 범죄를 직감한 A씨는 승객을 신고했는데. A씨 예감대로 택시 승객은 보이스피싱 운반책이었습니다. 경찰은 이 남성을 검거하고, 그가 갖고 있던 2천500만 원 중 미처 송금하지 못한 1천700여만 원을 회수했습니다.#청와대관람 #부평공원 #보이스피싱연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"靑, 5월10일 취임식 맞춰 개방…27일부터 사전 신청"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000038037?sid=100</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>본관·영빈관·녹지원·상춘재 개방…하루 3만9000명 관람객 제한청와대가 5월10일 윤석열 대통령 당선인 취임식이 끝나는 시간에 맞춰 시민에게 무료로 개방된다. 다만 청와대 본관과 대통령 관저 등 일부 구역은 당분간 출입이 제한된다.청와대 이전 태스크포스(TF)는 25일 오후 종로구 통의동 인수위 기자회견장에서 미디어데이 행사를 열고 이 같은 계획을 공식 발표했다.윤한홍 TF팀장은 브리핑에서 "5월10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다"며 "이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다"고 밝혔다.다만 청와대 본관과 대통령 관저 등 건물 내부와 경호처, 여민관 등 출입 통제 구역은 당장 개방되지 않는다. 또 주요 기록물, 통신 시설, 보안 문서 등을 정리한 뒤에 건물 내부도 전면 개방할 수 있도록 준비할 예정이다. 개별 건물의 활용 계획은 아직 확정되지 않은 것으로 전해졌다.윤 팀장은 "개방 초기 관람 신청 서비스 제도를 운용하기로 했다. 한시적으로 입장 신청을 받아 운영할 계획"이라며 "입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이 등을 고려해 조정할 수 있다"고 설명했다.청와대는 사전 신청자 중 당첨자만 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6500명씩 일일 관람 인원을 총 3만9000명으로 제한했다. 관람객 입장은 정문, 춘추관, 영빈관 등에서 바코드 스캔을 통해 관리할 예정이다. 바코드 사용이 여의치 않은 경우 손목띠를 발급할 계획이다.입장 사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 관람 희망일로부터 8일 전에 신청하면 된다. 또 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다. 개방 시간은 5월10일 하루만 오후 12시부터 8시까지, 이후로는 오전 7시에서 오후 7시까지다. 또 주말에도 청와대 개방이 허용된다.청와대 ⓒ연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>닥터나우, ‘부스터즈 컴퍼니’ 인수…김종상 신임 CPO합류</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005199555?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>“진료부터 건강 관리까지 아우르는 헬스케어 슈퍼앱 목표”김종상 신임 CPO는 부스터즈 컴퍼니 대표, 토스 거쳐[이데일리 김현아 기자]김종상 신임 CPO국내 1위 원격의료 플랫폼 닥터나우(대표이사 장지호)가 헬스케어 스타트업 ‘부스터즈 컴퍼니’를 인수하며 김종상 대표를 닥터나우 최고제품책임자(이하 CPO)로 선임했다.부스터즈 컴퍼니는 개인별 맞춤형 운동 콘텐츠를 제안하고 의료전문가를 통한 상담 및 관리를 지원하는 ‘건강비서’와 ‘클리닉’, ‘파인드’ 등의 디지털 헬스케어 앱을 지속적으로 선보이며 주목을 모았다.닥터나우는 부스터즈 컴퍼니의 서비스 개발 역량과 노하우를 확보해 현재 운영 중인 비대면 진료 및 처방약 배송 서비스를 고도화해 나갈 방침이다. 건강 관리에 관심이 높아진 이용자에게 더 나은 플랫폼 경험을 제공하고 만족도를 선사할 수 있는 혁신적인 서비스를 제공해 나갈 계획이다.이번 인수를 통해 닥터나우에 합류한 김종상 신임 CPO는 부스터즈 컴퍼니의 모든 서비스를 직접 기획, 운영한 창업가로, SK플래닛 데이터 애널리스트 경력을 거쳐 토스에서 프로덕트 오너를 역임했다.2020년 토스 재직 당시 코로나19 재난지원금 서비스 론칭 및 월간 활성 이용자(MAU) 1,100만 건 달성 등 대규모 프로젝트와 서비스를 성공적으로 이끌어 낸 바 있다.닥터나우 김종상 신임 CPO는 “비대면 진료와 처방약 배송이라는 전례 없는 새로운 혁신으로 의료 서비스의 패러다임을 전환한 닥터나우의 비전에 깊이 공감하여 합류를 결정했다”며 “고객 중심의 압도적인 서비스를 통해 헬스케어 전 분야를 아우르는 슈퍼앱으로 자리매김할 수 있게 하겠다”고 밝혔다.닥터나우는 국내 최초로 비대면 진료 및 처방약 배송을 선보이며 경증 환자 및 만성질환자에게 효율적이고 편리한 의료 서비스를 제공하고 있다. 국민 편익 기여 및 영향력 측면에서 높은 평가를 받았다. 지난해 10월 소프트뱅크벤처스를 비롯해 새한창업투자, 해시드, 크릿벤처스 등 유수의 벤처캐피탈로부터 100억 원 규모의 시리즈A 투자를 성공적으로 마친 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>"모니모 가입하면 5000원"…삼성금융계열사 직원 동원 논란</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000806145?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>삼성 금융계열사들이 직원들을 동원해 모니모 판매 확대에 나섰다. 사진은 삼성생명 강남 사옥./사진=삼성생명“우리 회사 프로모션인데 가입 좀 해줘. 가입한 사람은 5000원, 가입을 권유한 사람에겐 상당한 금액의 젤리(모니모 전용 리워드) 준데. 받으면 한턱 쏠게.” 삼성 금융계열사에  근무하는 한 직원 이야기다. 삼성생명·화재·카드·증권 등 삼성금융계열사가 모니모 가입을 확대하기 위해 직원들을 동원해 논란이다. 삼성 금융계열사들은 직원들에게 모니모 가입 URL을 배포하고, 적극 홍보활동에 나설 것을 당부했다. 직원들에게 보상은 물론 실적에도 반영하고 있다.  21일 금융권에 따르면 삼성생명 등 삼성 금융계열사들은 직원들의 개인별 앱 설치 실적을 집계하는 중이다. 직원들에게 배부한 링크를 통해 모니모를 설치하면 추천인을 따로 넣지 않아도 해당 직원의 실적으로 반영하는 것이다.금융권 한 관계자는 “회사에서 준 URL을 지인들에게 배포하고 가입하면 그 실적을 회사에서 정리하는 중”이라고 전했다. 모니모는 하나의 계정으로 삼성금융 5개사의 거래 현황을 한 번에 조회할 수 있도록 한 시스템이다. 각 사가 제공하는 대표 금융상품도 모니모에서 조회 후 가입할 수 있다.  계좌통합관리, 간편송금, 신용관리, 환전 및 부동산·자동차 시세조회 등 종합금융 서비스도 제공한다.  실제 삼성생명은 지난 15일 '모니모 론칭에 맞춰 '삼성 혈액형별 보장보험(무배당) 특정질병추천플랜'과 '삼성 1년 모아봄 저축보험(무배당, 확정금리형)' 등 전용 상품 2종을 출시했다.  삼성카드도 모니모 전용 카드를 출시하며 흥행에 사활을 걸고 있다. 카카오 등 빅테크에 대응하기 위한 전략 중 하나다. 네이버페이와 카카오페이, 토스의 가입자 수는 각각 약 3000만명, 3740만명, 2200만명에 달한다.  현재 모니모는 개인정보 유출 논란에 휩싸인 상황이다.  '모니모'는 18일 오후부터 19일 오전 사이 삼성증권 고객 344명의 투자 정보를 타인에게 노출했다. A고객의 정보가 B고객에게 보인 식이다. 이번 오류는 모니모를 통해 4개 회사의 개인 자산 정보를 볼 수 있는 화면에서 삼성증권의 페이지로 넘어가는 과정에서 발생했다. 금융권 한 관계자는 “삼성 금융계열사들이 다급해진 상황에서 여러 시도를 하고 있다. 점차 상황이 나아질 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>KB국민카드 "선구매 후결제 서비스 3분기 출시"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002272454?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>KB국민카드는 사내 벤처 '하프하프'가 결제서비스 기업 다날과 '선구매 후결제(BNPL)' 결제서비스 구축·운영을 위한 업무제휴를 체결했다고 18일 밝혔다.   하프하프는 KB국민카드의 신용평가·채권관리 노하우와 다날의 결제 디지털 인프라를 융합해 MZ세대에 새로운 BNPL 결제 솔루션을 선보이기로 했다.   양사는 비 금융정보 기반의 대안신용평가 시스템을 공동으로 구축한 뒤, 올해 3분기에 '씬파일러(결제이력부족자)'도 이용할 수 있는 차별화된 BNPL 결제 서비스를 국내 시장에 출시할 계획이다.   BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사하다.   신용카드는 신용점수, 소득 등 금융정보를 중심으로 결제 한도를 부여하지만, BNPL은 비 금융정보 등을 활용한 대안신용평가 중심으로 결제한도를 부여한다. 미국, 호주, 유럽 등에서는 활성화돼 있는 서비스다.   국내에서는 네이버, 카카오, 토스 등 전자금융업자들이 소액 후불결제를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.04.22.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>농협생명, 핀테크와 협업 늘린다… 플랫폼 통한 판매 강화</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000806474?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>NH농협생명이 플랫폼과 사업을 강화하기 위해 토스와 협업을 추진 중이다. 사진은 NH농협생명 서대문 사옥./사진=NH농협생명NH농협생명이 토스 등과 손잡고 플랫폼을 활용한 서비스를 강화한다. 22일 보험업계에 따르면 최근 NH농협생명과 토스 실무진들은 플랫폼을 통한 상품 판매 강화를 위한 협상에 들어갔다. 구체적인 상품과 출시 시기는 정해지지 않았지만 NH농협생명이 판매하는 상품 일부를 추가로 토스를 통해 판매하고 시장 반응을 살펴본 후 보험 종류를 최종 선택한다는 계획이다. 지난 2020년부터 NH농협생명은 비대면으로 가입할 수 있는 미니보험을 출시하고 있다. 2020년엔 라인뇌심장튼튼보험을, 2021년엔 효밍아웃NH부모님안전보험 등 2종을 내놨다. NH농협생명이 디지털화, MZ세대 공략을 강조하고 있는 것을 감안했을 때 절대적으로 적은 수준이라는 이야기가 나온다. 이에 NH농협생명 내부적으로 미니보험 신상품 출시에 대한 요구가 많았다. NH농협생명은 상품 개발과 판매에 토스가 적합하다고 판단, 협업 범위를 넓히기로 한 것이다. NH농협생명 관계자는 “현재 토스와 협업관계를 넓힐 수 있는 다양한 방안을 논의하는 중”이라고 전했다. 현재 보험사들은 미니보험 개발·출시를 위해 카카오페이와 같은 플랫폼과 협업을 늘려가는 추세다. 앞서 메리츠화재도 지난해 12월 3050직장인을 타깃으로 한 신상품을 출시하기 위해 카카오페이와 업무협약을 체결했다. 플랫폼과 손잡고  신상품 개발, 신규 사업모델 개발은 물론 보상 프로세스 혁신으로 차별화된 고객 서비스를 노리는 것이다. 보험사 입장에서도 미니보험을 통한 판매 수익과 함께 고객정보 수집이 가능하다는 장점이 있다. 보험연구원에 따르면 손보사의 온라인 판매 비중(2021년 1분기 기준)은 전체 수입보험료의 6.5%를 기록했다. 보험연구원 관계자는 “온라인 판매 비중을 빠르게 확대하기엔 한계가 있는 상황이지만 성장과 관심은 지속될 것”이라며 “디지털 기술의 발전으로 온라인을 통한 보험 상품 검색 효율성과 경쟁력이 향상되며, MZ세대 등 젊은층이 주 소비층으로 부상하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>덩치만 큰 공룡은 멸종… “빅테크 잡자” 바빠진 신한·KB·하나·우리·농협</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000806952?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[머니S리포트- 진격의 카카오·토스… 핀테크 금융전쟁]④ 판 뒤흔드는 ‘금융 메기’[편집자주]카카오와 토스 등 핀테크 기업들의 공세가 이어지면서 국내 금융 플랫폼 시장에서 살아남기 위한 경쟁이 치열해지고 있다. 카카오뱅크와 토스는 MZ세대(1980년대 초~2000년대 초 출생한 밀레니얼 세대와 1990년대 중반~2000년대 초반 출생한 Z세대를 통칭)를 등에 업고 4대 금융지주와 비견될 수준까지 급성장했다. 카카오는 카카오뱅크로 은행업에 진출한데 이어 카카오페이증권, 카카오페이손보 등 전방위적으로 금융 영역을 확대하고 있다. 토스 역시 뱅크, 증권, 보험을 토스앱 하나로 연결한 ‘슈퍼앱’ 전략으로 폭발적인 성장세를 기록 중이다. ‘금융 메기’의 등장에 기존 금융사들은 디지털 전환에 가속 패달을 밟는 등 고객 사수에 사활을 걸고 있다.‘금융 메기’ 카카오와 토스는 기존 금융판을 뒤흔든 것을 넘어 이전과 다른 생태계의 탄생을 앞당겼다. 혁신 없이 살아남을 수 없다는 게 새로운 ‘금융 판도’의 법칙이다./사진=이미지투데이◆기사 게재 순서① 절대 강자 카카오뱅크… 토스, ‘수퍼앱’으로 맞불② 카카오페이증권 vs 토스증권, ‘혁신’ 무기로 맞대결③ “어서와 이런 복지는 처음이지?” 카카오·토스 파격 복지 살펴보니④ 덩치만 큰 공룡은 멸종… “빅테크 잡자” 바빠진 금융사‘금융 메기’ 카카오와 토스는 기존 금융판을 뒤흔든 것을 넘어 이전과 다른 생태계의 탄생을 앞당겼다. 혁신 없이 살아남을 수 없다는 게 새로운 ‘금융 판도’의 법칙이다. 기존 금융사들도 예외일 순 없다. 금융지주 회장들은 ‘디지털 금융 강화’를 과제로 꼽았고 직원들에게 카카오, 토스를 콕 집어 벤치마킹할 것을 당부했다. 아무리 큰 공룡이라도 새로운 환경에 적응하지 못한다면 멸종할 수 있을 것이란 위기감이 고조되고 있다.━금융지주 수장들 “변해야 산다”━최근 몇 년간 금융지주 수장들의 신년사에는 ‘디지털 금융 강화’가 단골 과제로 언급돼 왔다. 신종 코로나 바이러스 감염증(코로나19)에 따른 비대면 금융이 확산되자 빅테크에 대항하기 위해 디지털화로 미래성장 동력을 확보한다는 계획이다. 고객 이탈을 막고 손바닥 안에서 이뤄지는 미래금융 패권전쟁에서 뒤쳐지지 않겠다는 의미다.윤종규 KB금융 회장은 “KB스타뱅킹이 그룹의 슈퍼앱으로 자리잡고 계열사의 앱들과 상호 연계와 보완을 강화하도록 모든 역량과 자원을 집중하겠다”고 강조했다.손태승 우리금융 회장은 “MZ세대(1980년대 초~2000년대 초 출생한 밀레니얼 세대와 1990년대 중반~2000년대 초반 출생한 Z세대를 통칭) 특화 디지털 플랫폼을 구축해 전 세대에 걸친 고객들이 일상에서 우리의 플랫폼을 가장 먼저 떠올리도록 만들겠다”고 했다. 손병환 NH농협금융 회장 역시 “금융의 본질은 고객에 있음을 인식해야 한다”면서 “차별화된 디지털 사업을 추진하자”고 당부했다.금융지주의 비전엔 빅테크에 자칫 뒤처질 수 있다는 우려도 담겨있다. 조용병 신한금융 회장은 “기존 금융사들이 디지털 전환을 서두르고 있지만 인터넷 은행과 빅테크의 새로운 시도가 시장 변화를 주도하고 있다”고 진단했고 손병환 회장도 “토스나 카카오의 노력과 사업추진 자세를 벤치마킹해야 한다”고 지적했다. 기존 금융사들이 빅테크와의 경쟁을 위해선 기존 체계와 관습을 과감히 버려야 한다는 게 이들의 중론이다.━배우는 혁신… “우리도 카카오·토스처럼”━최근 삼성 금융계열사(삼성생명·화재·증권·카드·자산운용)는 ‘삼성 파이낸셜 네트웍스’라는 공동 BI(브랜드아이덴티티)를 구성했다./사진=삼성금융네트웍스금융사들은 빅테크와의 경쟁을 위해 대대적인 새판짜기에 나섰다. 카카오가 카카오뱅크, 카카오페이 등 계열사 ‘카카오공동체’로 시너지를 내고 토스가 하나의 앱에서 토스뱅크, 토스증권 등 모든 금융서비스를 누릴 수 있는 ‘원앱’ 전략을 구사하자 이들 기업의 이 같은 전략을 자사로 끌어들이고 있다. ‘앱 군살 빼기’가 대표적이다. KB국민은행은 지난해 증권·손해보험·카드 등 6개 계열사의 주요 서비스를 한 곳에 모은 앱 ‘KB스타뱅킹’을 선보였고 신한은행은 2018년 ‘신한S뱅크’ ‘써니뱅크’ ‘스마트실명확인’ 등 6개 앱을 하나로 합친 앱 ‘신한 쏠’로 개편했다.최근 삼성 금융계열사(삼성생명·화재·증권·카드·자산운용)는 ‘삼성 파이낸셜 네트웍스’라는 공동 BI(브랜드아이덴티티)를 구성했다. 기존에도 계열사 사이 협업은 있었지만 느슨한 연대에 바짝 힘이 들어간 것은 소비자 요구와 기대에 부응하기 위해서다. 이들 삼성 계열이 내놓은 첫 서비스는 통합 앱 ‘모니모’다. 각 사가 앱에서 제공하던 간편결제, 보험료 청구, 내 자산 보기, 현금 포인트 등의 기능을 한데 모은 것으로 하나의 계정으로 삼성금융 4사(삼성생명·화재·카드·증권)의 거래현황을 살필 수 있는 게 강점이다.금융권에선 모니모가 고객수를 등에 업고 카카오, 토스 등 빅테크의 대항마가 될 것으로 보고 있다. 업계에 따르면 모니모는 삼성생명·화재·카드·증권 각 모바일 채널의 중복 가입자 수를 빼더라도 최소 약 2300만명 이상의 가입자를 확보할 것으로 보인다. 이는 토스(2200만명)를 넘어서는 규모다.삼성 금융 관계자는 “업의 경계가 모호해지고 생존을 위한 경쟁과 협력이 일상화되고 있다”며 “미래를 고민해 온 삼성도 이번 금융사 간 협업이 새로운 도약의 발판이 될 것으로 기대하고 있다”고 말했다.금융권에선 기존 금융사와 빅테크의 경쟁은 ‘금융의 판’을 키울 수 있다는 점에서 긍정적이란 진단이 나온다. 치열한 경쟁은 금융업계 전반에 활력을 불어넣고 고객에게 좀 더 이로운 금융서비스 개발을 촉진시킬 수 있다는 분석에서다.이석호 한국금융연구원 연구위원은 “기존 전통 금융사들 입장에선 시장 점유율을 뺏길 염려, 특히 젊은 금융고객층이 이탈될 수 있다는 우려가 있겠지만 경쟁력을 위해 앱을 손질하거나 새로운 서비스를 내놓는 과정을 통해 금융사 자체 경쟁력이 상승되고 고객은 좀 더 좋은 서비스를 누릴 수 있다”고 설명했다. 성태윤 연세대 경제학과 교수는 “경쟁이 제한적이던 금융 분야에 빅테크의 등장으로 새로운 경쟁구도가 갖춰지게 된 건 의미가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>포브스 “김범수 카카오 의장, 한국 최고 부자 등극”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002596721?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>이재용 삼성전자 부회장 2위송치형 두나무 의장 첫 10위권내 진입김범수 카카오 의장 ⓒ 카카오 [데일리안 = 이호연 기자] 국내 50대 부자 순위에서 김범수 카카오 창업자가 1위를 차지했다.미국 경제지 포브스는 20일(현지시간) 2022년 한국의 50대 부자 순위를 발표하며, 김범수 의장의 재산이 96억 달러(11조9000억원)로 처음으로 1위를 기록했다고 밝혔다.이재용 삼성전자 부회장은 92억 달러(11조3800억원)으로 2위를 차지했다. 김병주 MBK파트너스 회장은 77억 달러(9조5200억원)으로 3위에 올랐다.그 뒤를 서정진 셀트리온 명예회장(69억달러), 권혁빈 스마일게이트홀딩스 CVO(최고비전제시책임자·68억5000만달러), 홍라희 전 리움미술관장(64억달러), 정몽구 현대차그룹 명예회장(44억달러), 이부진 호텔신라 대표(39억달러), 송치형 두나무 이사회 의장(37억달러), 조정호 메리츠금융지주 회장(35억달러)이 이었다.포브스는 한국이 지난해 4% 성장했음에도 주식시장이 부진으로 상당수 부자들의 자산가치가 줄었다고 분석했다. 김범수 의장과 이재용 부회장의 자산도 지난 1년간 각 10억달러, 32억달러 감소했다.올해 우리나라 50대 부자 명단에 새로 진입한 7명 중 3명은 스타트업 창업자로 나타났다. 국내 암호화폐 거래소 업비트를 운영하는 두나무 공동창업자 송치형 의장(9위, 37억 달러)과 김형년 부회장(22위, 19억5000만 달러), 토스 창업자인 이승건 비바리퍼블리카 대표이사(36위, 12억 달러)가 그 주인공이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토스, 실시간 해외주식 첫 소수점거래</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001979582?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>1000원부터 가능…3070종목토스증권(대표 박재민)이 미국 우량 주식 및 상장지수펀드(ETF)에 1000원부터 투자할 수 있는 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다.토스증권에 따르면 이번 서비스는 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식이다. 증권 업계 최초로 지체 없는 실시간 거래가 가능하며, 투자 가능 종목도 총 3070개에 달한다. 국내 해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다.토스증권의 실시간 해외주식 소수점 거래는, 1주 단위의 기존 해외주식 거래 방식과 주문 체결시간, 투자 가능 종목, 거래 수수료 등이 대부분 동일하다.미국 정규장이 열리는 밤 10시 30분부터 다음 날 새벽 4시까지(서머타임 적용 기준) 시장가로 주문되며, 그 외 시간대에는 예약 주문이 가능하다. 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.토스증권에서 제공하는 미국 주식과 ETP, 리츠 등 전 종목이 거래 가능하다. 대표적인 고가 주식인 버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF도 포함된다.소수점 거래는 기존의 1주 단위 구매하기와 동일하게 각 종목 구매 화면에서 ‘금액 주문’을 선택해 투자금액을 입력하면 된다. 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 예를 들어, 한화 기준 약 120만원의 테슬라 주식을 1000원만큼 주문하면 0.000833주가 구매되는 식이다. 양대근 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>전세계 ‘주4일제’ 실험… “생산 효과” “임금 감소” 의견 팽팽</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001522664?sid=104</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>정부 차원서 실험… 효과 제각각  근무시간-생산성 상관관계 논란  노동시장 양극화 불러일으킬수도전 세계 각국에서 ‘주4일제’ 열풍이 불고 있다. 코로나19 팬데믹 이후 재택근무, 원격근무, 유연근무 등 다양한 형태의 근무가 도입된 데 이어 주4일제를 시행하는 국가와 기업이 급격히 늘기 시작한 것이다.주4일제는 과다한 업무 스트레스에 대한 해결책인 동시에 생산성까지 담보하며 기업은 물론 정부 차원에서 이를 실험하는 국가도 나오고 있다. 근무 시간과 생산성의 상관관계에 대한 다양한 찬반 양론이 오가는 가운데 주4일제가 정착될 수 있을지 주목된다.이미 미국과 일본, 독일 등은 주4일제 근무 도입을 본격화하고 있다. 월스트리트저널(WSJ)에 따르면 미국 캘리포니아주 의회는 500명 이상 규모의 사업장을 대상으로 기존 ‘주5일·40시간’을 ‘주4일·32시간’으로 근무시간을 줄이는 법안을 발의했다.법안은 근로시간 단축에 따른 임금 삭감을 금지하고, 초과근무에 대해선 정규 급여의 1.5배 이상의 수당이 지급돼야 한다는 내용을 담고 있다. 법안 발의를 이끈 민주당 소속 크리스티나 가르시아 캘리포니아 주의원은 “더 많은 근무시간과 더 나은 생산성 사이엔 상관관계가 없다”고 주장했다.이 법안에 대한 노동자들의 반응은 뜨겁다. 컴퓨터 소프트웨어 관련업체 퀄트릭스가 1000여명의 직원을 대상으로 설문조사를 실시한 결과, 응답자 가운데 92%가 주4일제에 찬성했다. 이 중 37%는 주4일제를 위해 5%의 임금 삭감까지 감수할 의향이 있다고 답하기도 했다. 미 CNBC방송은 “올해 미국과 캐나다의 38개 기업이 영국 옥스퍼드대의 주4일제 영향 측정 프로그램에 참여하기로 했다”며 “대기업도 피할 수 없는 흐름”이라고 전했다.일본 최대 전자업체인 히타치는 도쿄 본사 등 직원 1만5000명을 대상으로 주4일제를 포함한 유연근무제를 올해 안에 도입할 예정이다. 히타치는 새로운 근무제도에 맞게 월 노동시간과 임금은 유지하되 직원들의 상황에 맞게 근무시간을 바꿀 수 있는 안을 마련했다. 히타치는 “주4일제는 다양한 인재 확보, 직원들의 동기 부여, 생산성 향상 등에 도움을 줄 것으로 기대한다”고 밝혔다.미국 경제지 블룸버그에 따르면 독일 정보기술기업 아윈은 올 1월부터 급여나 복지혜택 등의 삭감이 없는 주4일제를 시행하고 있다. 아윈은 급여나 복지혜택을 유지한 채 휴일을 하루 더 늘렸다. 코로나19 이후 아윈은 직원들에게 매주 금요일 점심시간 퇴근을 권고했고, 실험은 직원과 고객 모두를 만족시켰다.아이슬란드는 2015년부터 정부 차원에서 주4일제를 실험해 정착시켰다. 노동자의 약 85%가 임금 감소 없이 주4일제를 실시하고 있다. 수도 레이캬비크 시의회와 중앙 정부가 2015~2019년 약 2500명의 노동자를 대상으로 진행한 ‘주4일 근무제’ 실험에선 근무시간이 줄어도 업무생산성이 그대로이거나 오히려 높아졌다는 결과가 나왔다.반면 주4일제 도입에 대한 반대 의견도 만만치 않다. 노동자의 임금 감소와 기업의 노동비용 증가 등이 대표적인 문제로 꼽힌다. 노동자는 잔업 수당과 같은 초과근무 수당이 줄어들어 임금이 줄어들 수밖에 없고, 현실적으로 주4일제를 시행하면서 직원들의 임금을 기존 임금과 동일하게 유지시킬 수 있는 기업은 대기업을 제외하곤 많지 않다. 이 경우 주4일제는 노동시장의 양극화를 불러일으킬 수 있다. 노동시장의 양극화는 자연스럽게 쉬고 싶을 때 쉴 수 있는 사람과 쉬고 싶어도 쉬지 못하는 사람의 ‘휴식의 양극화’로 이어질 수밖에 없다.미 캘리포니아 상공회의소는 주4일제 법안에 대해 “노동비용을 너무 높여 되레 ‘일자리 킬러’가 될 것”이라며 “기업을 죽이는 법안”이라고 비판했다. 니컬러스 블룸 스탠퍼드대 경제학과 교수는 “법안이 통과될 경우 캘리포니아의 일자리들은 네바다·오리건주로 옮겨갈 것이며, 고용주들은 수년간 임금인상을 할 수 없게 될 것”이라고 지적했다.주4일제로 직원들의 소속감과 안정감이 떨어질 수 있다는 점도 문제다. 아이슬란드의 주4일제 실험 보고서에도 관리자가 직원 교육이나 단체활동을 통한 유대감 향상을 이루기 어렵고, 직원들 간 소통이 줄어 정보 전달·공유가 어려워진다고 지적했다.영국 공영방송 BBC가 전한 런던의 홍보 담당직원 코레이 캄고츠의 예가 대표적이다. 캄고츠는 주4일 근무제를 시작한 이후 휴일에 가족과 더 많은 시간을 보냈지만 그의 상사들은 주4일제에 대해 만족하지 않았다. 결국 6개월 뒤 그는 주5일 근무로 돌아가는 조건을 받아들일 수밖에 없었다.근무시간과 생산성의 상관관계에 대한 찬반 논란도 여전히 뜨겁다. 독일 쾰른 경제연구소의 홀거 슈퍼 분석가는 “근로자는 일을 많이 할수록 더 효율적으로 업무를 수행한다”며 “노동시간 단축으로 생산성이 실제로 향상된다고 볼 수 없다”고 했다.국내에서도 주4일제는 뜨거운 감자다. 교육기업 에듀윌, 레깅스 업체 뮬라웨어, 게임회사 엔돌핀커넥트와 카카오게임즈 등이 주4일제를 실시하고 있고, 배달의민족 운영사 우아한형제들과 핀테크 회사 토스의 운영사 비바리퍼블리카 등은 과도기적으로 주4.5일제를 시행하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외주식 소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004951808?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>1000원부터 투자업계 최다 3070개 종목[사진 출처 = 토스증권] 토스증권이 미국 우량 주식과 상장지수펀드(ETF)에 1000원부터 투자할 수 있는 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다.토스증권 해외주식 소수점 거래 서비스는 국내에서는 유일하게 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식이다. 덕분에 지체 없는 실시간 거래가 가능하다. 국내에 출시된 해외주식 소수점 거래 서비스 중 가장 많은 3070개 종목에 투자할 수 있다. 토스증권이 제공하는 미국 주식, 상장지수상품(ETP), 리츠 등 전 종목이 거래 대상이다. 버크셔 해서웨이 클래스 A, 아마존 등 대표적인 고가 주식과 파생 ETF가 포함된다. 지난 3월 예고된 2700여개 종목에서 300여개가 추가됐다.화면에서 '금액 주문'을 선택해 투자할 금액을 입력하는 방식으로 1주 단위 구매와 동일하다. 예를 들면 120만원 수준인 테슬라 주식을 1000원만큼 주문하면 0.000833주가 구매되는 식이다.토스증권 관계자는 "고객이 원하는 미국의 우량 종목을 가장 폭넓게 제공하면서도 가장 빠르게 소수점 단위로 거래할 수 있는 해외주식 서비스는 토스증권이 유일하다"며 "앞으로도 고객 중심적인 사고로 만족을 높일 수 있는 압도적인 투자 서비스를 만들어 나갈 것"이라고 말했다.전 고객 대상의 '소수점 주식 받기' 이벤트도 진행한다. 고객이 원하는 미국주식을 선택하고 최소 1000원에서 최대 1000만원까지 당첨금을 뽑으면 토스증권이 당첨된 금액만큼 주식을 구매해 지급한다. 이번 이벤트는 이달 말까지 진행될 예정이며 조기 종료될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>신청 6시간만에 청와대 관람 신청인원 36만명 돌파</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004956178?sid=100</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 등으로 신청 가능신청 수월한 시간대는 '평일·아침 7~9시'주말인 14~15일은 경쟁률 4~5:1 육박 26일 오후 서울 명동거리의 한 상점 벽면에 청와대 개방 홍보 안내판이 걸려 있다. [사진 = 연합뉴스] 신청을 시작한지 6시간 만에 청와대 관람 신청 인원이 36만명을 넘어선 것으로 집계됐다.대통령직 인수위원회는 27일 서면자료를 통해 청와대 개방 관람신청을 시작한지 6시간 만에 36만128명의 국민이 관람을 신청했다고 밝혔다.신청 가능한 일정은 청와대 개방 첫 날인 5월 10일 화요일부터 5월 21일 토요일까지다. 신청은 9시~11시, 11~13시, 13~15시, 15~17시, 17~19시로 나눠서 받고 있다.윤석열 대통령 당선인은 임기를 시작하는 10일부로 청와대를 국민 품으로 돌려주고 관람 신청을 받겠다고 밝힌 바 있다. 이에 인수위는 네이버·카카오·토스 등 모바일 앱을 통해 청와대 관람 신청을 받고 있다.가장 많은 신청인원이 몰린 시간대는 5월 14일 토요일 오후 13~15시다. 27일 오후 6시 기준, 이 시간대에 관람을 신청한 인원은 2만9994명으로 3만명에 육박했다. 15일 일요일도 시간대별로 2만명 넘는 신청인원이 몰렸다.관람 신청은 여러 날짜에 걸쳐 가능하지만 하루에 여러 차례 신청하는 것은 불가능하다. 예를 들어, 14일에 관람을 신청한 사람이 15일도 신청하는 것은 가능하다. 반면 14일 오전 9시~11시 시간에 신청한 사람이 14일 13~15시 관람도 신청하는 것은 불가능하다.인수위는 하루 최대 청와대 관람 가능 인원이 3만9000여명이라고 공지한 바 있다. 시간대별로 최대 수용인원이 6500명인 만큼, 이를 넘어선 시간대에서는 신청을 하고도 실제 관람을 못할 수 있는 상황이다.27일 오후 6시 기준, 개방 첫날인 10일은 3만5700여명이 관람을 신청했다. 하루 최대 수용 인원에는 미치지 못하는 규모지만, 개방 첫날은 12~14시, 14~16시, 16~18시, 18~20시에만 개방이 이뤄지는 만큼 신청 인원이 모두 관람하기는 어려울 전망이다.27일 오후 6시 기준, 가장 신청인원이 적은 시간대는 11~13일 오전 07~09시다. 이 시간대에는 신청인원이 900명에 미치지 못하고 있다. 마찬가지로 평일 이른 시각인 16~20일 아침 시간도 상대적으로 적은 신청인원이 집계되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>‘간판만 보고 다니는 회사 됐다’ 카카오에 연봉 추월당한 삼성맨들</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060573?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>허먼밀러 의자로 유혹하는 SK하이닉스네카라·몰두센 등 신흥 경쟁자 등장도 부담[비즈니스 포커스]삼성 직원들이 서울 삼성전자 서초사옥으로 들어서고 있다.  사진=한국경제신문카카오 15%, DB하이텍 14.3%(신입 사원 초임 기준), 네이버 10%, LG에너지솔루션 10%, LG전자 8.2%.주요 반도체·정보기술(IT)업계의 올해 연봉 인상률이다. 유능한 인재를 붙잡아 두기 위해 업계가 파격적인 연봉 인상에 나서는 가운데 재계의 맏형 삼성전자가 아직 올해 연봉 인상률을 결정하지 못하고 있다. 경영진의 고민이 깊어지는 모습이다.삼성전자는 그동안 경쟁 업체보다 1.5배가량 높은 연봉을 유지하며 핵심 인재의 이탈을 방지해 왔다. 하지만 최근 경쟁사들이 삼성전자 연봉 인상률을 추월하고 있어 긴장의 끈을 놓지 못하게 됐다.빅테크의 대표 주자인 카카오 임직원의 평균 연봉은 지난해 전년보다 59.3％ 늘어난 1인당 평균 1억7200만원으로, 1억4400만원인 삼성전자를 앞질렀다. 삼성 직원들은 경쟁사들의 파격 대우에 못 미치는 연봉 인상률과 처우에 “삼성은 간판만 보고 다니는 회사가 됐다”고 불만을 토로하고 있다.그래픽=송영 기자경쟁사인 SK하이닉스는 연봉과 복지에서 삼성전자를 빠르게 추월하고 있다. 입사 4년 차 직원이 이석희 대표와 임직원들에게 성과급에 대해 공개적으로 항의하는 e일을 보내면서 갈등을 겪었던 SK하이닉스는 지난해 6월 전년의 2배 수준인 평균 8%를 인상해 인상률로 삼성전자(7.5%)를 추월했다.신입 사원의 초봉도 기존 4000만원대에서 5040만원으로 올려 약 4800만원인 삼성전자를 앞질렀다. 복지 수준도 대폭 개선했다. 최근 출범 10주년을 맞아 200% 특별 축하금 지급과 함께 해피 프라이데이(쉬는 금요일)를 시행했고 가격이 200만원이 넘어 ‘사무용 의자계의 에르메스’로 불리는 허먼밀러 의자로 교체해 주기로 했다.파운드리(반도체 위탁 생산) 전문 업체 DB하이텍도 올해 신입 사원의 초임을 14.3% 인상해 삼성전자와 동급으로 맞췄다. 동종 업계뿐만 아니라 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스), 몰두센(몰로코·두나무·센드버드)으로 불리는 IT 기업들이 개발자 직군에 파격적인 연봉 정책을 제시하면서 인재 전쟁은 더 치열해졌다. 인재 쟁탈전의 한가운데 선 삼성전자는 아직 올해 인상률을 정하지 못했다.삼성전자는 매년 노사협의회를 통해 임금 인상률을 결정해 왔지만 노동자 위원 측이 올해 기본 인상률을 역대 최고 수준인 15.72%로 요구해 아직 합의점을 찾지 못했다. 이는 지난해 협의회가 합의한 기본 인상률 4.5%(성과 인상률 3.0% 포함 시 7.5%)를 크게 웃도는 수준이다. 그래픽=송영 기자이와 함께 노조도 별도의 임금 교섭을 요구하고 있어 ‘노조 리스크’도 부담이다. 삼성전자는 올해 노사협의회·노조 등 2곳과 임금 교섭을 해야 한다. 삼성전자사무직노조·전국삼성전자노조 등 4개 노조는 공동교섭단을 꾸려 2021년도 임금 복지 교섭 요구안 44개 중 투명한 급여 체계 도입과 휴식권 보장 등 2가지를 핵심 안건으로 내세우고 있다.올해 3월 18일 경계현 사장(DS부문장)까지 직접 나서 노조 대표단과 대화에 나섰지만 절충점을 찾지 못했다. 노조 공동교섭단은 지난해 10월부터 이어 온 임금 교섭이 지지부진해지자 이재용 삼성전자 부회장 자택 앞 시위를 이어 가는 중이다. 노조는 파업 카드도 만지작거리고 있다.연봉 인상으로 핵심 인재 이탈을 일부 막을 수 있지만 과도한 인상은 경영에 부담으로 작용할 수 있다. 지난해 임직원의 평균 연봉 1, 4위를 기록한 카카오와 네이버는 인건비 상승 등의 영향으로 영업이익률이 하락했다.인공지능(AI)과 전장 등 신성장 사업 분야에서 대규모 인수·합병(M&amp;A)을 검토 중인 삼성의 올해 임금 협상이 유난히 더디게 느껴지는 이유이기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>비대면 진료서 헬스케어 슈퍼앱 도전… 닥터나우, 부스터즈 컴퍼니 인수</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000807008?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>비대면 진료 플랫폼 닥터나우가 비대면 진료를 넘어 헬스케어 슈퍼앱 도약에 나선다. 닥터나우는 디지털 헬스케어 스타트업 ‘부스터즈 컴퍼니’를 인수하고 김종상 부스터즈 컴퍼니 대표(사진)를 닥터나우 최고제품책임자(CPO)로 선임했다고 25일 밝혔다.부스터즈 컴퍼니는 개인별 맞춤형 운동 콘텐츠를 제안, 의료전문가를 통한 상담 및 관리를 지원하는 ‘건강비서’ 등의 서비스를 제공하는 디지털 헬스케어 스타트업이다.  닥터나우는 부스터즈 컴퍼니의 서비스 개발 역량과 노하우를 확보해 현재 운영 중인 비대면 진료 및 처방약 배송 서비스를 고도화해 나간다는 방침이다.  닥터나우에 합류한 김종상 신임 CPO는 부스터즈 컴퍼니의 창업자로 SK플래닛 데이터 애널리스트, 토스 프로덕트 오너를 역임했다.김 CPO는 “비대면 진료와 처방약 배송이라는 전례 없는 새로운 혁신으로 의료 서비스의 패러다임을 전환한 닥터나우의 비전에 공감해 합류를 결정했다”며 “고객 중심의 압도적인 서비스를 통해 헬스케어 전 분야를 아우르는 슈퍼앱으로 자리매김할 수 있도록 하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>[가만한 당신] 여성 최초 스쿠버 강사가 헤쳐온 길</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000670029?sid=102</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Dottie May Frazier(1922.7.16~2022.2.8)도티 프레이저는 세계 최초 비영리 스쿠버다이빙 전문 교육기관인 'NAUI(1959년 창립)'가 생기기도 전인 1955년 스쿠버다이버 강사 자격증을 딴 다이버다. 만 6세 때부터 프리다이빙을 시작한 그는 여성 다이빙 슈트를 처음으로 제작해 보급하는 등 남성 전유의 스쿠버다이빙 세계에 여성의 자리를 개척했다. 그에게 다이빙과 작살낚시는 한국의 해녀들처럼, 레포츠이기 이전에 생업이었다. 가족 사진, california.funeral.com미국 캘리포니아 롱비치 토박이 도티 프레이저(Dottie May Frazier, 1922.7.16~2022.2.8)는 2019년 만 97세에 자신의 애마 '가와사키' 모터바이크를  팔았다. 차량면허관리국(DMV)이 그에게 면허증을 갱신해주지 않아서였다. 10대 말부터 바이크를 몰고 시에라네바다 사막서부터 멕시코 국경 너머까지 누비고 다닌 그였다. 하지만 그에겐 2023년까지  유효한  자동차 운전면허증은 있었다.  운전면허 연령 상한이 없는 미국이지만, 만 70세가 넘으면 면허시험이나 시력 테스트 등을 다시 치러야 하는 주가 많고  캘리포니아는 매년 1년씩 면허를 연장해준다.나이 때문에 겪는  짜증스러운 일들이 못마땅했던 그는 90대 이후  "나를 평범한 노파로 여긴다면 그게 당신의 첫 번째 실수가 될 것"이란 문구를 새긴 T셔츠를 보란듯 입고 다니곤 했다. 물론 그를 아는 자라면,  롱비치 해양 레포츠의 산 역사인 그에게 그런 '실수'를 저지를 리 없었다.   걸음마와 함께 수영을 익혀 대여섯 살 무렵부터 스킨다이빙을 시작했고,  고교 시절엔 눈뜨자마자 강아지를 안고 한바탕 서핑을 한 뒤에야 등교하는 게 그의 일과였다. 그는 롱비치 바이크서클 여성 유일 정회원이었고, 롱비치 최초 다이버 클럽 '롱비치 넵튠스(Long Beach Neptunes)'의 1940년 창립 멤버였다.  그가 고집을 부려 롱비치 작살낚시대회(spearfishing contest) 여성부문이 만들어졌고 그는 꽤 오래 혼자 출전해 우승했다. 무엇보다 그는 미국(세계) 최초 여성 스쿠버다이버 강사 자격증을 획득했고,  여성으론 처음 다이버 클럽을 열어 운영했고, 여성용 다이빙 슈트를 직접 디자인하고 제작해 보급하며 미 해군과도 협업한 개척자였다. 한마디로 그는 다이버들의 전설이었다.다이빙 전문지 'Scubanews'의 평가처럼, 그의 진짜 놀라운 점은 '무엇을 해냈느냐가 아니라 언제 해냈느냐'를 살펴야 비로소 드러난다. 그는 여자 수영복도 없던 1920년대에 수영을 시작했고,  여성 직업이란 게  뻔하던 30년대 18세  때 부터 프리다이빙 강사로 돈을 벌었다. 스쿠버다이빙이 갓 등장하던 무렵  당국과 싸우다시피 해서 강사 자격증을 땄고, 여자라서 못 미더워 하는 남성 수강생들을 가르쳤다. 파도와 조류, 수압 못지않게 거칠고 억센  젠더 차별의 장애물들에 부딪치고 헤치며,  여성 다이버의 세계를 연 파이터,  도티 프레이저가 별세했다. 향년 만 99세.프레이저는 롱비치 해안에서 텐트촌을 운영하던 부모의 두 딸 중 장녀로 태어나 "태평양을 놀이터로 여기며" 성장했다. 2살 때 수영을 시작해 3살 무렵엔 알라미토스만(Alamitos Bay) 바다 반 블록 거리를 혼자 헤엄쳐 해안까지 올 정도가 됐다. 아버지(Francis Reider)는 그를 그렇게 키웠다. 딸 이름(Dorothy Adele)에서 딴 '도타델(Dotadell)'이란 6m짜리 보트에 딸을 태우고 바다를 쏘다니는 게 아버지의 낙이었고, 5살 무렵부터 아예 노를 맡기기도 했다. 프레이저는 2019년 자서전 'Trailblazer'에 "하루 한 번 꼴로 보트 바깥 물속에 뛰어든 뒤 기겁하는 아버지에게 '일부러 빠진 거'라고 말하곤 했다"고 썼다. 프리다이빙도 그렇게 익혔다. 6세 때 어느날 캐틀리나섬 인근서 텀블러를 물에 빠뜨린 아버지가 그에게 대신 건져 달라고 청했다. 프레이저는 그날 수심 4.5m 프리다이빙에 성공했고, 이듬해엔 롱비치 항구 인근 바다에 빠진 2살 아래 동생(Jeanne)을 구해내기도 했다.아버지가 10살 된 그에게 소방 호스와 수경을 테이프로 감아 만든 일종의 스노클링 마스크를 선물했다. 프레이저는 "마치 기적 같았다.(...) 그때부터 비로소 바다가 내 세계가 됐다. 바닷속 새로운 것들이 매일매일 눈앞에 펼쳐지며, 물속이 환상의 세계가 됐다"고 책에 썼다. 이후 아버지는 그에게 저녁 반찬거리- 전복, 바닷가재 등-를 잡아오라고 시키곤 했고, 이웃들도 더러 그에게 주문하곤 했다. 그렇게 자연스럽게 작살낚시도 시작했다.세 살 무렵 부모가 이혼하면서 그는  아버지, 조부모, 고모 집을 오가며 컸고, 그 경험이 자립의지를 키운 계기가 됐다.  프레이저는 "아버지는 아들이 없어 나를 아들처럼 키웠다"고,  아버지에게서 배운 복싱 기술로 "학교 개구쟁이 몇 녀석의 코피를 터뜨리고 눈을 멍들게 한 적도 있다"고 책에 썼다.그는 1930년대 말부터 할리 데이비슨을 몰고 미국 서부를 누빈 모험가였고(사진 위), 2019년 그는 나이 때문에 바이크 면허를 갱신받지 못해 마지막 애마 '가와사키'를 팔아야 했다. 가족사진.그는 만 18세 때인 1940년부터 관광객과 동호인들에게  프리다이빙을 가르쳤고, 1955년 LA 스쿠버다이빙 강사 자격증을 땄다. 장비가 워낙 무겁고 비싸서 여성 다이버는 아무도 상상도 하지 않던 때였다. 당국은 그의 응시 원서를 반려하며 '남자만 된다'는 내용의 답장을 보내왔다. 프레이저는 친구 짐 크리스찬슨(Jim Christiansen,1926~1999)에게 도움을 청했다. 다이버클럽 '넵튠' 설립자로 지역 작살낚시의 1인자였던 짐은 프레이저의 기량과 배짱을 누구보다 잘 아는 이였다. 프레이저는 그렇게 어렵사리  시험에 응시했고, 수석으로 자격증을 획득했다.첫 수강 신청자는 남성 의사 8명이었다. 그들은 장비 없이 진행되는  첫날 수업을 그들 중 한 명의 집 수영장에서 해달라고 청했다. 당일 프레이저를 본 그들은 뜨악한 표정으로 '착오가 있었던 모양'이라며 수강을 거부했고, 프레이저가 '우선 30분만 해보고 성에 안 차면 돌아가겠다'고 해서야 수업을 진행할 수 있었다는 이야기. 프레이저는 평생 약 2,000여 명에게 스쿠버 다이빙을 가르쳤다.철제 다이빙 헬멧을  쓰고 해녀들보다 더 깊은 물에서 해산물을 채취하는 남성 직업 잠수부를 한국서는 '머구리'라 부르고 미국서는 '하드햇다이버(hard-hat diver)' 혹은 '심해 다이버(deep-sea diver)'라 부른다. 프레이저는 1959년 역시 여성으로선 처음 하드햇다이버가 됐다.  그는 "벌이는 꽤나 좋았지만 장비가 너무  억압적이어서" 2년 만에 그만두고, 번 돈으로 롱비치 해안에 자신의 '펭귄 다이버샵'을 열었다. 30대 여성이 사업을, 그것도 거의 남자들만 상대해야 하는 다이빙샵 사장이 된 거였다. 그 매장을 그는 약 15년간 운영했다.여성 다이빙 슈터가 없어 그는 울스웨터 등으로 직접 재단한 다이빙 슈트를 입어야 했고, 60년대 네오프렌 원단이 나온 뒤 직접 디자인한 웻슈트 '펭귄 슈트'를 제작, 자신이 운영한 '펭귄 다이버 샵'에서 판매했다. 그의 옷은, 비록 널리 알려지진 못했지만, 미국 최초 여성용 기성복 다이빙 슈트였다. oceanjunkies.com50년대 초 등장한 스쿠버다이빙은 남성 레포츠였다.  장비며 옷이며 모두 남성 체형에 맞춰 제작됐다. 여성에겐 너무 무겁고 컸다. 비싸기도 해서 고무 소재 슈트도 일부 부유층 전유물이었고, 50년대 말 등장한 네오프렌(neoprene) 소재의 웻슈트도 마찬가지였다. 여성들의 몸에 맞지도 않았다. 프레이저보다 2년 뒤인 57년 스쿠버 강사 자격증을 딴  미국 '여성 다이버 명예의전당' 회원  바버라 앨런(Barbara Allen)도 당시 상하의로 나뉜 남성 다이빙복을 입다가  나중에야 맞춤복을 입었다. 80년대 여성용 웻슈트가 출시됐지만, 역시 명예의전당 멤버인 로레인 새들러(Lorraine Sadler)에 따르면 "바비 인형 몸매의 여성이나 입을 수 있는 옷"이었다. 신축성이 가미된 네오프렌 원단 슈트가 출시된 것은 1980년대 말부터였다. 70년대말 등장한 방수  드라이슈트 역시 여성용 기성복은 1995년에야 출시됐다. 새들러는 옷이 너무 커서 몸에 덕테이프를 친친 감곤 했다고 말했다. 부력을 조절해 원하는 수심에 머물 수 있게 돕는 다이빙 장비인 부력조절기(BCDs)도 여성용은 1988년에야 처음 출시됐다. 초창기 여성 다이버들은 장비의 허들까지 넘어야 했다.키 157.5cm에 몸무게 50kg 남짓이던  프레이저에게도 다이빙 슈트는 그림의 떡이었다. 게다가 그의 "가슴은 무려 42인치"였다. 경제적 여유도 없었지만, 생애 첫 스노클링 장비서부터 '사제품'에 익숙했던 그는 울스웨터와 긴 속옷, 울양말을 재단하고 기워 다이빙슈트를 만들어 입었고, 60년대 초부터 네오프렌 슈트도 직접 제작해 '펭귄 웻(드라이)슈트'라는 이름으로 매장에서 판매했고, 'US Divers'란 브랜드로 미 해군에도 납품했다. 그는 배나 자동차 변속기도 직접 교체할 만큼 기계 수리에도 능했다. 그가 바버라 앨런을 태우고 캐틀리나 섬으로 다이빙 투어를 갔다가 보트 엔진이 멎은 적이 있었다고 한다. 앨런은 "배를 견인하려고 다가온 해안경비대 순시선에 프레이저가 손사래 치더니 '이걸 못 고치면 내가 아니지'라고 하곤 공구상자를 들고 와 기어코 고치더라"고 회고했다.프레이저는 스키와 수상스키에도 능했고, 라켓볼과 당구는 선수급이었다. 하지만 그의 직업은 다이빙 강사였고 '상업 어부(commercial fisher)'였다. 그에게 다이빙은 원년 대다수 여성 다이버들과 달리 놀이에 앞서 생업이었다. 스키 사고로 다리가 부러져 수술을 받은 뒤에도 다이빙복에 지퍼를 달아 입었고, 작살 낚시로 잡은 물고기를 노리고 달려든 대형 바다표범에게 부딪쳐 갈비뼈 넉 대가 부러진 적도 있었다. 캐틀리나 섬에선 달려드는 맷돼지를 작살총으로 제압한 적도 있었고, 바하멕시코(Baja Mexico)에선 거대한 백상아리와 맞닥뜨린 적도 있었다. 그는 호기심을 보이던 백상아리를 향해 정면으로 유영해 다가가자 상어가 먼저 꽁무니를 빼더라고 했다.  출산 직후에도 그는 친구에게 하얀 깃발을 들려 아이를 돌보게 한 뒤 젖 달라고 보채면 깃발을 흔들어 달라고 부탁하곤 바다에 나갔다. 그렇게 번 돈으로 그는 1940년 만 18세에 독립하며 작은 방갈로 같은 집을 장만했고, 평생을 거기서 살았다. 그는 40년과 51년 두차례 결혼-이혼하며 아들 넷을 낳았고, 호주에서 서핑하러 온 연하의 음악가(Cyril May)와 73년 결혼해 해로했다. 2016년 캘리포니아 샌버나디도 산의 YMCA 비영리 캠프인 'Thousand Pines'의 짚라인을 타는 만 93세의 프레이저. YMCA of Greater Long Beach 사진.말년의 프레이저는 롱비치 자신의 집 뜰을 텃밭으로 가꾸는 일에 몰두했다. 뜰에는 꽃이 아니라 콩, 토마토, 베리, 비트, 아티초크, 브로콜리 등 식용 채소와 유실수로 가득했다. 바다에서처럼 그는 마당에서도  실용적 가치를 함께 추구했다. 지역 소방대장을 지내고 은퇴한 아들 대니(Danny Frazier)는 "어머니는 자급자족을 원했다.(...) 심지어 밭에 뿌릴 물도 커다란 통에 빗물을 받아 썼다"고 말했다.그는 아버지에 이어 롱비치 운영위원으로 말년까지 일했고, 만 93세였던 2016년 샌버나디노산(San Bernardino Mt.) YMCA 캠프오크스(Camp Oakes)의 짚라인(Ziplining) 최고령 도전 기록을 세웠다. 2008년 넘어져 경미한 뇌진탕을 입고도 "나를 물러서게 할 수 있는 건 없다"고 호언했다는 그다. 2020년 3월 그를 인터뷰한 한 기자에게 만 99세에 별세한 아버지의 수명 기록도 넘어서겠다며  "만 100세 생일 파티에 초대할 테니 시간 비워 두라"고 말했다고 한다. 그는 2019년 미국 다이빙협회 개척자상을 수상했고, 이듬해 여성다이버 명예의전당에 합류했다. 그와 같은 해 명예의전당에 든  다이버 겸 작가 진 슬리퍼(Jeanne B. Sleeper)는 "프레이저가 앞서 파도를 부수며 길을 터준 덕에 우리는 그가 지나간 자리(fin wake)를 따라 나아갈 수 있었다. 그는 시대를 앞서 산 사람이었다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>하나금융, 플랫폼 금융 주도권 잡고 ESG 경영 지속 추진</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000804546?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>‘하나합’으로 마이데이터 선도… ESG에 60조 투입사진=하나금융하나금융그룹은 2030년까지 최고의 금융그룹으로 도약하기 위해 ‘플랫폼 금융’, ‘글로벌 금융’, ‘ESG(환경·사회·지배구조) 금융’이라는 3가지 경영전략을 세웠다.이 중 ‘플랫폼 금융’ 전략을 위해 하나금융은 ▲지급결제 중심의 금융 생태계 확보 ▲디지털 고객경험 혁신을 위한 조직 강화 ▲신성장 동력 강화를 통해 ‘플랫폼 금융’의 혁신 가능 성장 등을 추구한다는 방침이다.우선 하나금융은 지급결제 중심의 금융 생태계를 확보하기 위해 모바일 금융 플랫폼과 생활금융 영역에 대한 전략적 투자·제휴를 통해 고객 중심의 디지털 금융 생태계를 구축하고 있다. 계좌, 신용·체크카드, 하나머니 기반 국내외 통합 결제가 가능한 플랫폼을 계속 고도화하는 동시에 확대하고 있다.하나금융은 디지털 고객경험 혁신을 위한 조직을 강화하고 있다. 디지털 채널에 접속한 고객들을 대상으로 통합 로그 분석 체계를 마련하고 디지털 특화 상품과 마케팅·플랫폼 UI·UX(사용자환경·경험), 그룹 내·외부 디지털 제휴를 추진하는 전담 조직을 운영·확대하고 있다.하나금융은 신성장 동력도 강화하기 위해 AI(인공지능) 기술 내재화로 고객에게 초개인화 서비스를 확대, 직원에게는 업무 상담 자동화 영역 확장을 제공하고 있다. 여기에 신기술을 활용한 다양한 신사업을 추진하고 포스텍·카이스트와 산학협력에 대한 협약을 통해 공동 연구과제를 수행했다.━개방형 생활금융 플랫폼부터 MTS까지━하나금융이 운영하는 플랫폼 가운데 ‘하나원큐’는 개방형 생활금융 플랫폼을 지향한다. 이 앱으로 고객은 한번의 로그인을 통해 은행 거래뿐만 아니라 주식·카드 거래·보험 진단 등 그룹 관계사 서비스와 외부 제휴사의 서비스까지 연결한다.하나원큐는 휴대전화 종류와 상관없이 얼굴인증만으로도 1초 만에 로그인 할 수 있고 은행 대출 신청 후 부득이하게 대출 취급이 불가능한 고객들에게 그룹사의 적합한 대출상품을 연계한다.금융·비금융 서비스를 통합 제공함으로써 종합금융플랫폼을 지향하는 ‘하나원큐페이’는 카카오·토스 등 빅테크의 금융업 진출과 금융소비자의 비대면 금융 이용 경험 증가에 대응하기 위해 고객 중심의 개방형 플랫폼으로 전환 프로젝트를 추진 중이다.그동안 사업부별로 파편화돼 운영되던 여러 플랫폼을 고객 관점에서 하나로 통합하고 개인화하는 프로젝트를 추진하고 있다. 하나원큐페이는 결제 정보를 활용한 개인화된 정보제공 채널을 확대하고 금융(세무·주식·펀드), 생활(날씨·운세·건강) 등 제휴 콘텐츠 정기 구독 서비스를 강화했다.‘원큐스탁’에선 입문자부터 전문가까지 모든 고객들이 주식거래를 쉽게 이용할 수 있도록 사용자 친화적인 설계에 초점을 맞춘 MTS(모바일트레이딩시스템)를 제공하고 있다. 원큐스탁은 가입 후 최근 트렌디한 분야를 추천하고 사용자가 관심있는 분야를 선택하면 그에 해당하는 국내주식과 해외주식 종목을 선택, 확인할 수 있다.‘아이부자’ 앱은 Z세대인 자녀 회원과 X세대 부모 회원이 함께 각자의 휴대폰에 앱을 설치하고 모바일을 통해 주고 받는 용돈을 기반으로 금융 활동을 체험하는 플랫폼이다.━마이데이터 제공 이어 2030년까지 ESG에 60조 쏟는다━하나금융은 고객의 흩어져 있는 다양한 금융자산을 한곳으로 모아 개인화된 맞춤형 자산관리 서비스를 제공하는 생활금융 플랫폼 ‘하나합’도 선보였다.하나합은 ▲자산진단에서 처방까지 한번에 해결해주는 ‘자산관리 스타일’ 서비스 ▲고객 개개인의 지출을 분석·제공하는 ‘라이프스타일 분석’ 서비스 ▲이루고 싶은 목표를 설정해 외환 자산을 불려주는 ‘환테크 챌린지’ 서비스 등 다양한 개인별 최적화 서비스를 제공한다. 여기에 ▲하나금융투자의 배당정보서비스 ▲하나카드의 내주변 핫플레이스 서비스  등 각 관계사 고유의 강점과 경험을 녹여낸 서비스도 제공 중이다.하나금융은 그룹 ESG(환경·사회·지배구조) 중장기 추진 목표인 ‘2030&amp;60’과 ‘제로앤제로(ZERO&amp;ZERO)’를 수립, 지속 추진할 계획이다.‘2030&amp;60’은 오는 2030년까지 향후 10년간 환경·지속가능 부문에 대한 총 60조원의 ESG 금융 조달과 공급을 목표로 한다. 여기에는 ESG 채권 발행 25조원, ESG 여신 25조원, ESG 투자 10조원이 포함됐다. 이어 제로앤제로를 통해 향후 30년 동안 그룹의 모든 관계사가 참여해 탄소중립을 달성하고 석탄 프로젝트금융(석탄PF) 잔액을 제로(0)로 감소할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>넥슨 ‘블루아카이브’ 신규 이벤트 스토리 ‘네버랜드’ 적용</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004952481?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>넥슨(대표 이정헌)은 넥슨게임즈(대표 박용현)가 개발한 서브컬처 게임 ‘블루 아카이브’에 이벤트 스토리 ‘네버랜드에서의 술래잡기’를 추가했다고 20일 밝혔다.이번 이벤트 스토리는 비약을 마시고 어린아이가 된 ‘산해경 매화원’의 교관 ‘??’을 원래대로 되돌리는 이야기를 담고 있다. 신규 캐릭터 ‘??(어린이)’과 ‘사야(사복)’도 등장한다.‘키보토스’의 각종 문제를 해결하는 ‘발키리 경찰학교’도 새롭게 선보였다. ‘발키리 경찰학교’의 ‘생활안전부’ 소속 ‘키리노’도 추가했다.이벤트 스토리를 플레이하며 얻은 ‘거북버섯’, ‘오죽순’, ‘인형삼’을 이벤트 상점에서 ‘최상급 기술 노트(산해경)’, ‘온전한 보이니치 사본’ 등으로 교환할 수 있으며 각종 이벤트 미션을 수행해 인게임 재화 ‘청휘석’, ‘크레딧 포인트’를 얻을 수 있다.넥슨은 5월 업데이트 예정인 이벤트 스토리 ‘선상의 바니 체이서’의 사전등록도 5월 2일까지 실시한다. 사전등록 참여자에게는 ‘1200 청휘석’이 지급된다.5월부터 7월까지의 업데이트 로드맵도 공개했다. 메인 스토리, 이벤트 스토리, 신규 캐릭터를 비롯해 ‘고유 무기’, ‘학원 교류회’, ‘가구 상호작용’ 등 매달 업데이트 예정인 내용을 미리 확인해볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>[핀테크 칼럼]성장통 겪고 있는 인슈어테크</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003013598?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>인슈어테크는 한마디로 보험핀테크다.핀테크 중 스타트는 다소 늦었지만 글로벌시장에서 인슈어테크에 대한 관심은 갈수록 커지고 있다. 우선 투자 확대 추세다. 2020년에 이어 2021년에도 중국의 MediTrustHealth(3억1000만달러), 인도 Acko(2억6000만달러), 홍콩 Bolttech(2억5000만달러), 미국 At-Bay(2억1000만달러) 등 세계 곳곳에서 굵직한 대형 투자로 예비 유니콘이 만들어지고 있는 모양새다.운전습관, 헬스케어 연계에 이어 새로운 업무 영역 개척도 활발하다. 업무대행 대리점(MGA, Managing General Agent), 임베디드 보험과 특히 미국의 B2B 기술솔루션 인슈어테크가 대표적이다. 기존 보험사들은 새로운 기술·역량과의 시너지를 위해 이들 기술 인슈어테크(소위 인슈어테크핀)와의 전략적 제휴, 파트너십, CVC 투자에 공을 들이고 있다.글로벌시장에선 왜 이렇게 인슈어테크 바람이 불까.전문가들은 첫째 보험업 특성상 산업 간 융합효과 포텐셜이 크다는 점을 꼽는다.보험업은 보험이라는 금융 성격과 보험 대상으로서의 비금융산업 성격을 함께 띤다. 예컨대 생명보험·건강보험은 의료헬스, 손해보험은 자동차·선박 등 다양한 산업과 연결돼 있다. 이에 따라 인슈어테크를 통해 보험의 인터넷·모바일화가 촉진되고, 4차 산업혁명을 통해 산업 간 경계가 허물어지는 융합이 촉진되면 보험업과 보험 대상이 되는 산업 간 융합과 그에 따른 전후방 효과가 엄청날 것으로 예상할 수 있다. 인슈어테크를 통해 다양한 업무 영역과 연결되면서 그 잠재효과가 폭발하고 있다는 평가다.둘째 보험업은 특히 '21세기 원유'라고 하는 빅데이터를 적극 활용할 수 있다. 기존 보험은 과거 서류상의 데이터정보에 기초해서 위험을 계산해 동일한 보험료율을 적용했지만 이제는 스마트폰·웨어러블기기를 이용해 보험 가입자의 실시간 데이터를 보험료 산정에 쓸 수 있다. 동일한 무사고 운전이라 해도 운전습관이 계속 안전운전이면 보험료를 깎아 주고, 끼어들기·과속으로 좋지 않으면 보험료를 올려 적용할 수 있다는 얘기다.셋째 전자기기를 통한 사물인터넷(IoT) 시대로 접어들고 있는 점도 빼놓을 수 없다. 이미 전자기기를 통해 구축된 운전습관 빅데이터를 분석해서 보험료를 깎아 주고 있지만 조만간 5G의 초연결·초고속통신이 본격화되고 전자기기의 센서기술도 업그레이드되면 극히 다양한 보험상품 출시가 가능할 것으로 예상된다.그럼 국내 인슈어테크는 어떤가. 우리나라 인슈어테크도 은행보다 늦게 출발하긴 했지만, 작년까지 보험사의 운전습관 연계, 건강연계 상품출시는 물론, 보맵, 디레몬, 토스, 뱅크샐러드 등 핀테크업체들도 시장에 뛰어들면서 성장 발판을 마련했다. 빅데이터 기반 부동산보험, 공공데이터를 활용한 기술 인슈어테크 등 B2B사업, 디지털GA에까지 신규영역도 넓혀가고 있다. 하지만, 신산업의 성장통이라고 할까. 의료법 이슈에 이어 작년 시작된 금소법 시행으로 최근 어려움이 커지고 있다. 특히 금소법상 보험상품 비교·추천서비스를 금융상품 '중개' 행위로 해석함에 따라 인슈어테크뿐 아니라, 마이데이터사업도 보험 분야가 약해졌다는 평가다. 물론 소비자 보호는 대단히 중요하다. 그러나 잠재성장률이 1%대로 추락한 우리나라 상황에서 신산업 성장을 만들어내지 못하면 소비자 보호도 그만큼 퇴색하지 않을까. 균형 있는 정책과 법규 개정·해석을 기대한다.정유신 서강대 기술경영대학원장 ysjung1617@sogang.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 작년 간편결제액 64조원…1년새 49%↑</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013124709?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>네이버와 카카오[네이버, 카카오 제공]    (서울=연합뉴스) 한혜원 기자 = 작년 한 해 국내 대표 간편결제 사업자인 네이버파이낸셜, 카카오페이, 토스에서 결제된 금액이 64조원에 육박하는 것으로 나타났다.     20일 국회 정무위원회 소속 국민의힘 윤창현 의원이 금융감독원에서 받은 자료에 따르면 작년 네이버파이낸셜에서 결제된 금액(선불전자지급수단·계좌이체 포함)은 44조188억원에 달했다. 결제 건수는 11억9천300만건이다.     지난해에 카카오페이에서 결제된 금액은 17조4천536억원, 결제 건수는 9억700만건이다.     토스(비바리퍼블리카)에서는 작년에 2조1천978억원, 8천600만건이 결제됐다.    이들 3개 기업에서 작년에 결제된 금액을 더하면 63조6천702억원에 달한다. 이는 재작년인 2020년 결제금액 42조7천824억원보다 48.8% 증가한 금액이다.     간편결제사 결제액은 2019년 10조5천881억원과 비교하면 2년새 6배로 뛰었다.     각사의 결제 건수와 금액을 작년 분기별로 봐도 증가세가 두드러졌다.     네이버파이낸셜의 결제금액은 작년 1분기 9조7천764억원에서 4분기 12조3천363억원으로 26.2% 증가했다. [국민의힘 윤창현 의원실 제공=연합뉴스]    카카오페이의 결제금액은 작년 1분기 3조7천192억원에서 4분기 5조641억원으로 36.2% 늘었다. 같은 기간 토스 결제금액은 4천693억원에서 6천599억원으로 40.6% 증가했다.     윤 의원은 "코로나19를 거치면서 간편결제사의 외형이 비약적으로 커졌다"며 "소상공인의 수수료 부담은 덜고 소비자 보호 수준은 높이는 정책이 필요한 시점"이라고 말했다.    hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.04.22.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>연봉 인상 10%는 기본…“묻고 더블로 가”</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003686858?sid=102</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>IT업계 임금 대폭 인상 잇따라인재 영입 경쟁 가열 ‘카카오 15%, DB하이텍 14.3%, 네이버 10%’최근 기업들이 내놓은 2022년 연봉 인상률입니다. 한 취업 플랫폼 조사에 따르면 그간 직장인들의 연봉인상률은 평균 4.4% 수준이었는데요, 이제 그것도 옛말이 되는 것 같습니다. 최근 ‘네카라쿠배’(네이버∙카카오∙라인∙쿠팡∙배달의민족) 등 대표 IT기업을 비롯해 기성 대기업도 두자릿수 인상안을 발표하고 있기 때문입니다.연봉 인상안이 발표되자 익명의 직장인 커뮤니티에선 “이직하려는데 회사 분위기 어때”, “네카라쿠배 이직 어떨까요” 등을 묻는 글과 댓글이 쏟아지고 있습니다. 회사 연봉 정보와 기업 문화가 활발하게 공유되고 있는 것인데요. 인재 유출을 우려하는 기업 입장에선 경쟁사의 임금 인상안이 신경쓰일 수밖에 없습니다. 때문에 삼성전자와 SK하이닉스는 아직까지 2022년 임금인상률을 결정하지 못한 상태입니다. 기업들이 파격적인 연봉 인상안을 내놓자 일각에선 ‘묻고 더블로 가’라는 우스갯 소리가 나오기도 하는데요. 기업의 성장 기반이 된 ‘인재’. 인재 영입과 유출 방지를 위한 기업들의 임금 인상안을 알아봤습니다. 영화 ‘타짜’에서 곽철용(김응수 분)이 “묻고 더블로 가”라고 말하는 장면. 온라인에서 밈으로 활용되고 있다. /온라인 커뮤니티  네이버는 최근 노사 협상을 통해 임직원 연봉을 10% 인상하기로 합의했습니다. 네이버는 지난 2020년, 20221년 임금을 전년대비 각각 5%, 7% 인상한 바 있습니다. 여기에 더해 2022년에는 두 자릿수로 올린 것입니다. 이같은 결정은 앞서 카카오가 2022년 임금 재원을 15% 올리기로 한 데 따른 조치로 보입니다. 남궁훈 카카오 대표는 2022년 3월 사내 게시판을 통해 연봉 협상 재원을 2021년 대비 15% 늘리고, 내년에는 6%를 추가로 확보하겠다고 밝혔습니다. 코로나19 여파로 급성장 중인 배달의민족과 당근마켓, 토스 등도 연봉 인상 대열에 합류하고 있습니다. 배달의 민족은 대졸 개발자에게 6000만원선, 당근마켓은 6500만원선의 초봉을 제시하고 있는 것으로 알려졌습니다. 이런 이유로 취준생 사이에서는 취업 1순위 기업에 ‘네카라쿠배’에 당토(당근마켓∙토스)를 더한 ‘네카라쿠배당토’가 꼽히고 있습니다. IT기업뿐 아니라 기성 대기업도 연봉 인상안을 발표하고 있는데요. 계열사 임금을 모두 최고 수준으로 인상한 LG그룹이 대표적입니다. 먼저 LG전자는 2022년 연봉을 8.2% 인상하기로 결정했습니다. LG전자의 경우 2021년에는 9%, 2020년 이전에는 평균 임금인상률이 4% 수준이었다는 점을 고려하면 2년 연속 큰 폭의 인상률을 보이고 있습니다. LG전자는 2021년 사상 처음으로 매출 70조원을 기록한 바 있습니다. 2022년 1분기에는 매출 21조1091억원, 영업이익 1조8801억원의 역대 최고 성적을 내기도 했습니다. 기업들의 직원 연봉 인상이 이어지고 있다. /플리커 LG의 다른 계열사는 어떨까요. LG의 IT 서비스 계열사 LG CNS와 전자 부품 계열사 LG이노텍, 배터리 계열사 LG에너지솔루션은 모두 2022년 임금을 역대 최고치인 10%로 인상했습니다. LG디스플레이는 최근 8%로 인상한다고 발표했습니다. 이번 임금 인상이 반영되면서 LG전자와 LG디스플레이의 신입사원 초임은 2021년보다 300만원 오른 4900만원이 됐습니다. 선임과 책임의 초임도 2021년보다 각각 300만원, 250만원 오른 5800만원, 7350만원인 것으로 알려졌습니다. LG CNS의 신입사원 초임도 2021년보다 400만원 오른 5000만원으로 인상됐습니다. 성과급을 포함하면 신입사원 연봉이 평균 6000만원을 넘는 셈입니다. CJ의 IT 서비스 계열사인 CJ올리브네트웍스도 마찬가지입니다. 2022년 2월 특별 연봉 인상안이 확정됐는데요. 직무와 관계없이 과장급은 연봉 700만원, 대리급 600만원, 사원급 500만원, 차장급 400만원, 부장급 200만원으로 일괄 인상했습니다. 이밖에 개인 성과에 따라 10~20% 정도의 연봉 인상이 이루어진 것으로 알려졌습니다.롯데정보통신은 2022년 평균연봉이 10% 내외로 올랐습니다. 이는 2021년보다 2배 가까이 늘어난 것으로, 직급별 개인 성과에 따라 차등 적용됐다고 합니다. 국내 파운드리(반도체 위탁생산) 전문 업체인 DB하이텍도 파격적인 인상안을 내놓았습니다. 신입사원 초임을 기존 4200만원에서 4800만원으로 14.3% 인상했습니다. 이는 삼성전자 초봉(4800만원)과 동일한 수준으로 맞춘 것입니다. 성과급 상한선도 기존 연봉의 최대 33%까지 받을 수 있는 한도를 50%까지 받을 수 있도록 바꿨습니다. 성과급을 포함하면 신입사원이 7200만원 이상도 받을 수 있는 것인데,  이는 삼성전자와 SK하이닉스로 이탈하는 인력을 막기 위한 조치로 풀이됩니다. 채용설명회에 참가한 취준생들의 모습. /조선DB 한편 삼성전자와 SK하이닉스는 아직까지 인상률을 확정하지 못했습니다. 삼성전자는 매년 2~3월 연봉인상률을 발표해왔는데요. 임금인상 발표가 4월까지 미뤄진 것은 이번이 처음입니다. 이런 이유로 삼성그룹 전자 계열사인 삼성SDI와 삼성전기, 삼성디스플레이 등 인상률 발표도 늦어지고 있습니다. 삼성전자는 2021년 임금 인상률을 7.5%로 정한 바 있습니다. 통상 4월 말~5월 초 임금협상을 시작하는 SK하이닉스도 삼성전자의 협상 과정을 지켜보고 있습니다. SK하이닉스는 2021년 임금인상률을 전년보다 2배 가량 높은 8.07%로 정했습니다. 신입사원 초임 역시 삼성전자(4800만원)보다 높은 5040만원으로 책정한 바 있습니다. 삼성과 SK하이닉스가 임금 인상을 두고 눈치싸움을 벌이는 것은 인재 영입 경쟁 때문입니다. 이직이 활발한 반도체 업계에서는 조금이라도 높은 연봉을 주는 곳으로 직장을 옮기는 사례가 자주 발생합니다. 여기에 업계 호실적에 따른 보상과 물가 상승도 임금 인상 요인으로 작용합니다.인력을 채우기 위해 기업들은 대학과의 연계도 강화하고 있습니다. 삼성전자는 성균관대와 연세대, 카이스트, 포스텍에 반도체 계약학과를 개설했습니다. SK하이닉스는 고려대와 서강대, 한양대 등에 반도체 계약학과 개설 협약을 맺었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"靑 새이름은 피플스 하우스…5월10일 청와대 완전 개방" [당선인, WSJ 인터뷰]</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004954796?sid=100</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>입장료·동선 제한도 없어용산집무실 국방부 5층으로한미훈련 끝나면 2층 이전尹, 한달간 서초동서 통근2차 예비비 136억 26일 의결◆ 윤석열 인수위 ◆청와대 이전 태스크포스(TF)의 윤한홍 팀장과 김용현 부팀장은 25일 첫 공식 브리핑을 갖고 "5월 10일 대통령 취임식이 끝나는 시간에 청와대 문을 완전히 개방한다"면서 "74년 만에 제왕적 권력의 상징에서 국민의 품으로 청와대가 돌아가는 것"이라고 밝혔다. 그동안 청와대라는 명칭에서 딴 BH(블루하우스)로 불렸던 대통령실 이름도 바뀔 예정이다. 현재 국민공모를 통해 이름을 정하고 있는데, 윤석열 대통령 당선인은 이날 월스트리트저널(WSJ)과의 인터뷰에서 '피플스 하우스(People's House·PH)', 즉 '국민의 집'을 제안하기도 했다. 윤 당선인을 배출한 국민의힘과도 연결된다.용산으로의 대통령 집무실 이전과 청와대 전면 개방은 윤 당선인이 걸 수 있는 여론 승부수다. 집무실 이전을 '졸속'으로 추진했다는 비판을 받자 '74년 만의 청와대 완전 개방'이라는 승부수를 먼저 던진 것으로 해석된다. 관광문화재단과 한국경제연구원이 추산한 개방 가치는 연간 5조1000억원 정도다. 청와대 이전 TF에 따르면 특별개방 기간은 다음달 10일부터 21일까지다. 특별개방 기간에는 네이버와 카카오톡, 토스 등으로 방문 신청을 해야 한다. 개방이 시작되는 다음달 10일만 낮 12시부터 오후 8시까지 운영하고, 이외 기간에는 오전 7시부터 오후 7시까지 주말을 포함해 운영한다. 입장료는 무료이며 인솔자 없이 자유롭게 관람할 수 있고 제한 없는 사진 촬영이 가능하다. 관람객 안전 등 문제를 감안해 입장 시간을 2시간씩 하루 6회로 나눴고, 2시간마다 최대 6500명이 입장할 수 있게 할 예정이다. 청와대~북악산 연계 등산 코스 역시 오전 7시부터 오후 7시까지 운영된다. 청와대 이전 TF는 "향후 안전 관리나 질서 유지에 문제가 없는 수준으로 안정화되면 전면 자유 관람으로 전환하겠다"고 밝혔다. 윤 당선인의 용산 집무실과 관련해 국방부 청사 지하에 들어설 국가안전보장회의(NSC) 시설들은 다음달 10일부터 정상적으로 작동할 예정이고, 기존 국방상황실 시설에 재난 대응 지휘·통신 체계를 결합한 국가위기관리센터를 새 정부 출범 전까지 설치하는 데 문제가 없을 것으로 TF는 전망했다.윤 당선인은 초기에는 본집무실인 2층이 아닌 국방부 청사 5층에서 업무를 볼 예정이다. 한미연합훈련이 끝나는 이달 28일 이후 국방부 장차관실 이사가 시작되기 때문에 리모델링 등까지 감안하면 2층 본집무실은 6월 중순에야 사용 가능하다. 취임 이후 열흘 남짓 흐른 뒤 열리는 조 바이든 미국 대통령과의 한미정상회담 장소와 관련해 윤한홍 팀장은 "삼청동 비서실장 공관과 안가 두 군데를 검토하고 있다"면서 "공관은 외교부 장관 공관을 쓰고, 안가는 행사를 하는 장소로 쓸 수 있다"고 밝혔다. 윤 당선인은 취임한 뒤 약 한 달간 서초동 현 자택에서 용산 집무실로 출퇴근할 예정이다. 한편 정부는 26일 국무회의를 열어 대통령 집무실 이전을 위한 2차 예비비 안건을 처리한다. 정부 관계자에 따르면 김부겸 국무총리 주재로 열리는 국무회의에서 136억원 규모 예비비 지출안을 심의·의결할 예정이다. 이번에 상정되는 예비비 규모는 윤 당선인이 집무실 이전에 필요하다고 밝힌 496억원 중 지난 6일 의결된 360억원을 제외한 나머지 금액이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[김지현의 IT세상]산업생태계 거인 된 스타트업</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005196061?sid=110</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[김지현 IT칼럼니스트] 국내 벤처 투자는 6조원을 훌쩍 넘는 누적 투자 규모를 자랑한다. 1조원을 넘는 가치로 평가받는 덩치 큰 유니콘 기업들은 이제 기존 전통 기업들을 인수하며 M&amp;A의 큰 손으로 부상하고 있다. 국내 배달의민족, 마켓컬리와 함께 대표적으로 거론되는 스타트업 야놀자는 2021년 12월 1995년에 설립된 인터넷 맏형격인 인터파크를 2940억원에 인수하고, 2010년 설립된 직방은 국내의 전통 IT 솔루션 기업인 삼성SDS의 IoT사업부문을 2022년 1월 인수 계약 체결했다. 이렇게 스타트업에 대한 투자 규모나 인수합병 시장에서의 역할 그리고 이들의 채용 규모는 국내 산업 생태계에 대기업 못지 않은 역할을 하고 있다.중소벤처기업부의 발표에 따르면 2021년 벤처투자는 무려 7조 6802억원으로 역대 최대였던 2020년 4조3045억원보다도 75%가 늘어난 수치다. 피투자기업수 역시 2438개사로 전년 동기 대비 크게 늘어났다. 특히 2021년 100억원 이상 투자 받은 기업은 전년보다 2배 이상 많은 157개사로 역대 최대를 기록했다. 그만큼 스타트업에 돈이 몰리고, 그것도 잘 나가는 대표 스타트업에 쏠림 현상이 심해지면서 막강한 자금력을 갖춘 스타트업들이 공격적으로 투자를 하는 것이다.사실 ICT 산업 분야에서 빅테크 기업의 스타트업 인수는 일상적인 일이며 그 규모도 상당하다. 페이스북의 인스타그램, 오큘러스 인수나 구글의 모토로라, 네스트, 유투브 등의 인수는 그 인수 규모나 제조업으로의 진출이라는 상징적 측면에서 세상을 놀라게 할 만큼 이례적이었다. 인터넷 사업의 특성 상 시장의 경쟁구도가 급변하다보니 잠재력을 갖춘 스타트업의 인수는 전통산업에 비해 공격적일 수 밖에 없다. 그런데, 최근 인터넷 업계의 M&amp;A는 기득권이 된 거대 인터넷 기업이 아닌 성장 중에 있는 스타트업이라는 점이 독특하다. 또한, 피인수 기업도 전통기업의 자회사나 인터넷 산업의 오랜 맏형격인 기존 기업이라는 점이 특이하다. 그만큼 스타트업의 기업가치가 천정부지로 커져가면서 확보한 자금을 재투자하며 기업가치를 극대화하고 있는 것이다.핀테크 기업으로 카카오뱅크나 네이버페이 등의 빅테크 기업과 경쟁 중인 토스의 운영사인 비바리퍼플리카는 타다를 인수했다. 타다는 2020년 차량 1500여대 규모로 170만명이나 되는 회원을 대상으로 택시 서비스를 제공할만큼 빠른 속도로 모빌리티 시장에서 존재감을 드러냈다. 하지만, 기존 택시 언계의 반발과 국회의 여객법 개정으로 인해 큰 타격을 받았다. 그렇게 모빌리티 시장에 큰 획을 그은 타다를 10월 토스가 인수했다. 토스는 2018년 유니콘 기업이 된 이후 2021년 데카콘(100억 달러 기업가치 평가)으로 진입하면서 덩치가 커졌고 2020년 LG유플러스의 전자결제 사업부를 3650억원에 인수했다. 이후 신용조회 업체인 SCI평가정보 인수를 시도했다가 가격 협상에 합의하지 못해 불발되었다. 이렇게 토스는 핀테크 사업의 영향력 확대와 연계 사업 확대를 위해 다양한 영역의 스타트업, 기존 기업에 대한 투자에 공격적 행보를 보이고 있다.2021년 7월 소프트뱅크의 비전펀드로부터 2조원 투자를 받은 야놀자 역시 2016년 호텔나우, 2019년에 데일리호텔과 호텔 관리시스템인 이지테크 노시스 등을 인수했다. 부동산 중개 서비스인 직방은 2020년 호텔리브, 호갱노노를 인수했고, 2021년에는 카카오페이의 자회사인 모빌을 인수했다. 이만큼 이들 기업은 이제 벤처 생태계의 성장에 중요한 역할을 차지하게 되었다. 다른 영역 산업 분야의 인수와 막 성장 초기인 스타트업의 인수 합병은 생각할 수 없던 사업 혁신의 기회를 가져다 준다는 점과 소수 빅테크 기업 위주로 인터넷 산업의 헤게모니가 돌아가는 독점적 산업 구조의 폐단을 막고 다양한 분야에서 영역을 개척한 신규 기업들로 생태계를 조성할 수 있다는 장점을 가져다 준다.사실 인터넷 서비스 특성 상 경쟁 구도가 치열하고 특히 해외 기업과 글로벌 시장에서 경쟁이 펼쳐지기 때문에 국내는 물론 염두에 두지도 못했던 해외 기업의 진출에 대한 대비는 늘 해야 한다. 또한, 전혀 경쟁 상대로 여기지 않았던 영역의 기업과 경쟁하는 것이 인터넷 산업의 특징이다. 인터넷 검색과 포탈 서비스로 시작한 네이버가 이커머스 영역에서 스마트스토어로 쿠팡이나 지마켓과 경쟁하고, 카카오가 카카오T로 SK텔레콤의 UT와 경쟁하며, 쿠팡이 쿠팡이츠로 배달의민족과 경쟁하는 것이 인터넷 시장이다. 그런만큼 스타트업으로 작게 시작해 유니콘 기업으로 성장하는 과정에서 덩치를 키우고 사업 영역을 다변화하기 위한 것 뿐 아니라 숨은 경쟁자와 경쟁하기 위해서 인수 합병은 필연적이다.이렇게 빠르게 성장하는 인터넷 기업들은 고용시장에도 대기업 못지 않은 아니 오히려 더 큰 규모로 채용을 하기도 한다. 중소벤처기업부 조사 자료에 따르면 2021년 상반기 크래프톤과 무신사 등의 국내 유니콘 기업 8개사가 1년 사이 평균적으로 256명의 채용을 했다고 한다. 마켓컬리는 1년 사이 1000명을 채용할 정도로 국내 채용 시장에 주는 영향력이 상당하다. 이들 스타트업에 투자되는 자본이 늘어나고 인수 합병이 성행하면서 공격적 사업 행보를 위해 채용도 가파르게 늘고 있는 것이다. 그렇게 고도 성장하며 인력 채용도 늘리면서 젊은 인재가 몰리고 우수 인재 유치에 따른 채용 경쟁도 치열해지면서 더 나은 복리후생, 연봉 그리고 근무조건이 파격적으로 제시되며 일하는 문화에도 긍정적 영향을 주고 있다. 이는 기존 기업들의 채용과 일하는 문화에도 고스란히 영향을 주고 있다.이제 인터넷 스타트업은 산업화 시대에 주목받던 제조업이나 금융업 못지 않게 막강한 투자 자금력 기반으로 고도 성장을 하며 산업 생태계와 고용 시장에 막대한 영향력을 행사하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.04.29.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>[단독]네이버파이낸셜, 사업자대출비교 서비스... 하반기 출시</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004739437?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜 CI/사진=네이버파이낸셜네이버 자회사인 네이버파이낸셜이 하반기 사업자 대상 대출비교 서비스를 선보인다. 토스, 카카오페이, 핀다를 중심으로 대출비교 시장이 급성장하고 있는 가운데 주요 고객인 중·소상공인을 확실히 붙잡겠다는 전략이다. 28일 금융업계에 따르면 네이버파이낸셜은 하반기 출시를 목표로 사업자 대출비교 서비스를 개발 중이다. 이 서비스는 지난해 출시된 네이버페이 앱에 추가돼 중·소상공인이면 누구나 이용할 수 있게 될 전망이다. 대출비교 서비스는 은행, 저축은행, 카드사, 캐피탈사 등 여러 금융사의 대출상품을 한눈에 비교할 수 있도록 하는 서비스다. 국내에서는 금융규제 샌드박스로 시작됐지만, 지난해 금융소비자보호법(금소법)이 시행되고부터는 이 법에 따른 대출중개 라이선스를 얻으면 사업을 영위할 수 있다. 네이버파이낸셜은 지난해 9월 금융당국으로부터 이 라이선스를 받았다. 네이버파이낸셜은 이 중에서도 사업자 대출만 취급해 다루기로 했다. 기존에 제공해 온 금융서비스들도 중·소상공인에 초점이 맞춰진 만큼 이들을 확실하게 잡겠다는 전략이다. 실제 네이버파이낸셜은 중·소상공인에 초점을 둔 금융서비스를 제공해왔다. 2020년에는 미래에셋캐피탈 함께 기존 금융권에서 대출이 어려웠던 온라인 사업자 대상 대출상품을 만들었다. 또 중·소상공인들의 자금 회전 속도를 늘리기 위해 빠른정산 서비스도 시작했다. 네이버파이낸셜의 사업자 대출비교 서비스 흥행은 얼마나 다양한 금융사와 제휴를 맺을 수 있느냐에 달려 있다. 대출비교 서비스의 경쟁력은 앱 편의성과 다양한 상품 제공에 있기 때문이다. 이미 대출비교 서비스를 영위하는 신한카드도 10개 내외 금융사와 손잡고 사업자 대상 대출비교를 실시하고 있다. 올해는 토스뱅크를 필두로 인터넷은행들도 개인사업자 대출 시장에 뛰어든 만큼 협업 대상은 더 늘어날 수 있다.금융업계에선 네이버파이낸셜이 언제든 상품 라인업과 영역을 확대할 수 있다는 점에서 경계하는 분위기다. 네이버파이낸셜은 일반 고객을 대상으로 하는 자동차보험 비교 서비스를 추진한 바 있다. 금융업계 관계자는 "아직은 네이버파이낸셜이 중·소상공인을 대상으로만 금융서비스를 집중적으로 개발하고 있지만 사업영역을 언제 개인 고객으로 확장해도 이상하지 않다"며 "그렇게 되면 금융업계에 미치는 영향이 클 것"이라고 내다봤다.이와 관련 네이버파이낸셜 관계자는 "사업자와 금융사의 요구를 모두 고려하는 검토 및 논의 단계이며, 출시 시기나 구체적 내용 등이 확정되지는 않았다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>대안신용평가 확산, 우리은행 ‘소매 대안신용평가모형 고도화’ 나서</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002123060?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 카카오뱅크·케이뱅크·토스뱅크와 같은 인터넷 전문은행을 중심으로 생활금융 데이터를 활용한 신용평가시스템(CSS)이 성과를 거두고 있는 가운데 시중은행의 대안신용평가 시스템 도입도 본격화되고 있다.20일 관련업계에 따르면 우리은행은 최근 ‘소매 대안신용평가모형 고도화’ 사업을 위한 컨설팅 사업자 선정에 나섰다. 대안신용평가는 전통적인 금융정보 만으로는 동일하게 판단할 수밖에 없는 현재의 신용평가에 대안을 제시하는 것을 목적으로 지금까지 사용하지 않았던 다양한 빅데이터를 추가 적용, 금융정보 만으로 판단할 때에는 중·저 신용등급에 속하지만, 사실은 평균 이상의 성실한 이행능력을 보유하고 있는 사람들을 구분해 낼 수 있게 한다.전통적 은행의 신용평가(크레딧 스코어링)은 과거 금융거래 기록이 유사한 대출건을 그룹화해 항목별로 구간별 우불량 비율을 계산하여 점수를 부여하는 방식이다. 동일한 금융거래 경험이 있으면 동일한 점수를 받게되다 보니, 개인의 성향이나 개별적 상황을 반영하지 못하는 단점이 있었다.하지만, 점점 더 자동화되는 비대면 금융환경 하에서는 개인의 성향 등 정성적 요인을 반영하는 것은 비용도 많이 들고 효율성도 떨어지는 일이다. 여기에 인터넷전문은행을 중심으로 대안신용평가를 바탕으로 한 중저신용자 대출이 안정권에 접어든 것으로 평가되면서 중저신용자 대출 자체가 은행 신뢰도에 영향을 주는 상황까지 전개되고 있다.이러한 상황에서 우리은행은 활용 가능한 대안정보의 추가 도입을 통해 금융결제원 자동이체 정보, 중소기업중앙회 노란우산공제 정보 등 활용 가능한 대안정보를 적극 신용평가시스템에 적용한다는 계획이다. 최근 저소득 또는 신용정보가 부족한 금융취약계층에 대한 변별력 제고가 요구되고 있는 상황에서 우리은행은 사회초년생 등 금융취약계층에 대해 비금융정보를 활용한 별도의 신용평가모형 신설을 통한 중금리대출 영업지원에 나선다는 계획이다. 이번 컨설팅 사업을 통해 우리은행은 소매 대안신용평가모형 고도화 및 적용 확대, 그리고 비금융정보 등을 활용해 금융취약계층에 대한 변별력 높은 평가모형 신설 및 우량 신규 고객에 대한 영업기회를 제공한다는 방침이다. 이를 위해 우리은행은 소매 대안신용평가모형 고도화를 위한 ▲개발데이터 수집 ▲모형 신설 및 고도화 ▲모형 활용방안 ▲문서화 등의 작업을 추진한다. 신용대출 취급 여신 데이터 추출 및 현황 분석을 바탕으로 취약차주 전용 평가모형 개발요건을 수립하고 기존 모형 내 대안정보를 활용한 고도화 방안을 검토해 대안신용평가모형 프로세스를 설계한다는 계획이다. 이를 통해 금리, 한도 및 승인전략과 취약차주 세분화 전략 등을 수립 하고 모형 개발절차/결과 문서화, 전산요건 정의서를 수립해 향후 시스템 구축 제안요청서(RFP) 기반을 마련한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[속보] 尹측 "5·10 취임식 끝나는 시간에 청와대 완전 개방"</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003190066?sid=100</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>청와대가 윤석열 대통령 당선인이 취임하는 5월10일 정오를 기해 일반 시민들에게 공개된다.      청와대 이전 태스크포스(TF)는 25일 오후 종로구 통의동 인수위 기자회견장에서 미디어데이 행사를 열고 이 같은 계획을 발표했다.      TF 팀장을 맡은 윤한홍 국민의힘 의원은 브리핑에서 “5월10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다”며 “이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다”고 밝혔다.     윤석열 대통령 당선인. [인수위사진기자단]       윤 의원은 “5월10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 펼쳐질 계획”이라며 “같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것”이라고 예고했다.      입장료는 무료이며, 사전 신청자 중 당첨자만 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6500명씩 일일 관람 인원을 총 3만9000명으로 제한하기로 했기 때문이다.      윤 의원은 “개방 초기 관람 신청 서비스 제도를 운용하기로 했다. 한시적으로 입장 신청을 받아 운영할 계획”이라며 “입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이 등을 고려해 조정할 수 있다”고 설명했다.      관람 사전 신청은 오는 27일 오전 10시부터 접근성이 높은 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다.      청와대 뒤편의 북악산 등산로는 5월10일 완전히 개방된다. 등산로 출입에는 인원 제한이 없다.      윤 의원은 “청와대 동편과 서편 어느 곳에서나 출발할 수 있는 등산로는 5월10일부터 사전 신청 없이, 인원 제한 없이 이용할 수 있다”고 말했다.      브리핑 후 이어진 질의응답에서 윤 의원은 대통령 본 집무실은 2층에 마련된다고 했다. 윤 의원은 “국방부 이사 후 2층에 본 집무실 리모델링을 진행할 계획이다”라며 “윤 당선인은 5월10일엔 5층 집무실에서 근무를 시작할 것”이라고 밝혔다.      또 대통령 집무실 명칭 공모 결과 ‘국민’이라는 단어가 들어간 이름이 많다고 전했다.      윤 의원은 “지난 15일부터 공모를 시작한 후 만건 정도 접수됐다”며 “국민의집, 국민관, 애민관 등 국민을 넣은 이름이 많다. 5월15일까지 접수를 받고 5월 중순 이후 명칭을 발표할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>‘네·카·토’ 간편결제 폭증…카드사 ‘후덜덜’</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001980265?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>판 바뀌는 간편지급결제 시장2021년 간편결제액 64조원2년새 6배 늘며 비약적 성장카드사, 오픈페이 등 공동전선“연체 등 부실 커지면 업계 타격”네이버파이낸셜, 카카오페이, 토스 등에서 결제된 금액이 최근 3년새 6배까지 급증한 것으로 나타났다. 간편결제 비중이 늘면서 지급결제 시장이 재편되면서 기존에 시장을 주도했던 카드사들의 위기감이 커지고 있다.20일 국회 정무위원회 소속 국민의힘 윤창현 의원이 금융감독원에서 받은 자료에 따르면 2021년 네이버파이낸셜에서 결제된 금액(선불전자지급수단·계좌이체 포함)은 44조188억원에 달했다. 결제 건수는 11억9300만건이다. 같은 기간 카카오페이에서 결제된 금액은 17조4536억원, 결제 건수는 9억700만건이고, 토스(비바리퍼블리카)는 2조1978억원, 8600만건이 결제됐다.이들 3개 기업에서 작년에 결제된 금액을 더하면 63조6702억원으로, 이는 2020년 결제금액 42조7824억원보다 48.8% 증가한 금액이다. 특히 간편결제사 결제액은 2019년 10조5881억원과 비교하면 6배로 뛰었다.이들 회사들의 분기별 결제 건수와 금액도 증가세가 뚜렷하다. 네이버파이낸셜의 결제금액은 지난해 1분기 9조7764억원에서 4분기 12조3363억원으로 26.2% 증가했다. 카카오페이의 결제금액은 작년 1분기 3조7192억원에서 4분기 5조641억원으로 36.2% 늘었다. 토스 결제금액은 4693억원에서 6599억원으로 40.6% 증가했다.신용카드를 끼지 않은 선불지급, 후불결제 등 간편결제 시장이 비약적으로 성장하면서 기존 카드사들의 위기감은 고조되고 있다. 현재는 간편결제 플랫폼에서도 신용카드를 통해서 결제가 이뤄져 수수료를 받고 있지만 소액후불결제, BNPL(Buy Now, Pay Later·선구매 후결제)과 같은 새로운 지급결제 수단이 간편결제에서 확산되면 카드사 매출에 타격이 불가피하다.네이버파이낸셜은 지난해 4월 가장 먼저 후불결제 서비스를 내놓았고, 토스는 11월 금융위원회로부터 혁신 금융서비스로 지정받고 월 30만원 한도에서 소액신용결제 서비스를 제공하고 있다. 카카오페이는 월 15만원까지 후불로 이용이 가능한 모바일 교통카드 서비스를 선보였다. 토스도 최근 월 결제한도 최대 30만원의 후불결제 서비스를 시작했다카드업계 관계자는 “아직은 결제 단계에서 카드가 끼어 있지만, 장기적으로 카드사가 플랫폼 기업에 종속될 경우 이들 기업들이 수수료를 요구하는 상황이 벌어질 수 있다”며 “지급결제 밸류 체인에서 맨 앞단에 있던 카드를 대신해 네이버페이, 카카오페이 등이 시장 비중을 높이면 카드사의 브랜드 인지도도 낮아질 수밖에 없다”고 우려했다.이에 카드사 등 여신금융업계는 리스크 관리나 수수료 등에서 여신전문금융업법보다 규제가 덜한 전자금융거래법을 적용받는 빅테크, 핀테크 기업과의 공정한 경쟁을 위해 ‘동일업무, 동일규제’를 주장하고 있다.당장 ‘기울어진 운동장’에 대응하고 간편결제 시장에서의 영향을 확대하는 빅테크·핀테크에 맞서기 위해 카드사 간 연동 결제 시스템인 ‘오픈페이(오픈뱅킹과 같은 개념으로 자사 플랫폼에서 타사 신용·체크카드를 등록해 결제할 수 있도록 하는 서비스)’를 구축하고 있는 것도 이러한 노력의 일환이다.또 다른 카드업계 관계자는 “빅테크들이 도입한 후불결제는 신용카드 발급이 어려운 대학생, 전업 주부 등 ‘씬파일러(thin filer, 금융 이력 부족자)’들의 인기를 끌 것으로 예상되고 있어 잠재력이 높다”면서도 “소위 ‘네·카·토’가 고객 신용 평가를 제대로 할 수 있는 시스템을 갖췄는지 의문인 상황에서 후불결제 시장이 커질수록 연체, 부실에 대한 우려가 커질 것이고, 이는 여신업계 전체로도 부정적 영향을 미칠 수 있다”고 지적했다. 이태형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>청와대 관람 사전신청, 100만명 돌파 임박</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005203067?sid=100</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>5월 10일 첫 개방일…7만 2524명 신청네이버·카카오·토스 통해 사전 접수 중일일 최대 관람객 '3만 9000명' 제한[이데일리 이지은 기자] 오는 5월 10일 개방되는 청와대를 관람하기 위해 사전 신청한 사람이 곧 100만 명을 돌파할 것으로 전망된다.오는 5월 10일 개방되는 청와대를 관람하기 위해 사전 신청한 사람이 곧 100만명을 돌파할 것으로 전망된다. (사진=연합뉴스)윤석열 대통령 당선인 인수위원회 ‘청와대 이전 태스크포스(TF)’는 28일 공지를 통해 “28일 오후 4시 기준 97만 44명이 신청 접수해 조만간 100만 명을 돌파할 것으로 예상된다”며 “개방 첫날 관람을 희망하는 인원은 7만 2524명으로 확인됐다”고 밝혔다.TF는 지난 27일 오전 10시부터 네이버, 카카오톡, 토스를 통해 관람 사전 접수를 받고 있다. △개인(1~4명) △단체(30~50명) △65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행된다.개방 첫날 관람 시간은 정오부터 오후 8시까지다. 11일부터 21일까지는 오전 7시부터 오후 7시까지 2시간 단위로 하루 총 6회의 관람을 진행한다. 회당 입장객은 6500명, 일일 최대 관람객은 총 3만 9000명으로 제한된다.한편 방문자는 추첨을 통해 선정된다. 신청한 관람일로부터 8일 전 당첨 여부를 통보할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>"왜 개방하나요? 어떻게 가볼 수 있죠?" [청와대 일문일답]</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004690111?sid=100</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>청와대이전TF 일문일답개방 취지 및 운영 방향 등사진=뉴스1오는 5월 10일 윤석열 대통령 당선인의 대통령 취임식 행사가 끝나는 시각에 청와대가 완전히 개방된다.윤한홍 청와대이전태스크포스(TF) 팀장은 25일 오후 서울 종로구 통의동 대통령직인수위원회 기자회견장에서 브리핑을 열고 "윤 당선인은 지난 선거 과정에서 제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다고 약속했다"면서 이같이 말했다.윤 팀장은 "그 약속을 실천하기 위해 대통령으로 취임하는 5월 10일 취임식이 끝나면서 청와대의 문을 완전히 개방하기로 결정했다"며 "이로써 본관, 영빈관을 비롯해 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생된다"고 했다.이어 "청와대로 인해 단절됐던 북악산 등산로도 5월 10일 아침 7시부터 완전히 개방돼 국민께서 언제든지 즐길 수 있는 휴식 명소로 거듭난다"며 "74년 만에 제왕적 대통령 권력의 상징에서 국민 쉼터로 거듭날 것"이라고 덧붙였다.다음은 청와대이전TF가 밝힌 일문일답.Q1. 개방 취지 및 운영 방향은 무엇인가?A. 개방 취지는 '폐쇄적 공간'이었던 청와대를 국민 모두가 누리는 '열린 공간'으로 재구성하고, 국민의 품으로 돌려주고자 합니다. 역대 정부에서도 꾸준하게 시도했던 청와대 부분 개방이 이번 대통령집무실 이전을 통해 전면 개방으로 완성됐다는 의미가 있습니다.운영 방향은 청와대 본관·녹지원 등을 비롯해 백악산 등산로를 유기적으로 연계해 국민이 찾고 싶은 쉼터이자 역사문화공원으로 조성하고, 조선과 근현대사를 관통하는 하나의 축으로서 역사와 미래가 공존하는 상징적 공간이자 미래유산으로 재도약할 수 있는 계기를 마련하고자 합니다.Q2. 이전에도 청와대 개방이 부분적으로는 이뤄지고 있었다. 이번 개방은 이전과 어떻게 달라진 것인가?A. 기존 청와대 부분 개방은 소수의 제한된 인원(코로나 전 기준일 1500명)이 제한된 구역을 방문해 진행자의 인솔하에 '관람' 형태로 시행되며 국민들이 청와대의 문턱이 낮아졌다고 체감하기는 어려운 면이 있었습니다. 이번 개방은 국민들이 자유롭게 청와대 경내를 둘러보고 다양한 문화적 경험을 통해 청와대가 이제 국민의 공간으로, 진정한 '개방'이 됐음을 체감할 수 있을 것입니다.행사 기간에 휴무일 없이 매일 운영 예정으로, 1일 6회 각 6500명, 1일 최대 3만9000명이 입장할 수 있습니다. 이전 청와대 관람이 주 5회(일요일 월요일 제외) 1일 4회, 개인 관람의 경우 10명 이하의 정원을 둬 신청자만 운영한 것에 비해 입장객이 대폭 확대됐습니다.Q3. 일일 입장 인원을 최대 39,000명으로 산출한 근거는?A. 방문객의 쾌적한 관람환경 조성과 안전관리를 위해 적정 입장 인원 산출했습니다. 청와대 전체 면적 중 ▲본관·관저 등 건물 內 ▲출입 통제 구역(경호처·여민관 등) ▲산악등산로 ▲대정원, 녹지원을 제외하면 총 1만9483.5㎡(약 5904평)로, 1명당 3㎡ 공간 확보 시 동 시간대 약 6494명이 이용할 수 있습니다. 체류시간 2시간, 개방 시간 오전 7시부터 오후 7시까지로 가정해 2시간씩 6회 예약이 가능하면 입장 인원은 하루에 총 3만8964명이 됩니다.Q4. 청와대 개방 범위가 완전 개방에서 경내 개방으로 축소됐다. 건물 내부는 언제 공개할 예정인가?A. 청와대 시설 내부에는 주요 기록물, 통신시설, 보안 필요 문서 등 사전 정리가 필요한 집기, 문건들이 다수 존재하므로, 주요 물품 정리 후 건물 내부도 전면 개방할 수 있도록 준비할 예정입니다.Q5. 관람 신청시스템은 어떻게 운영되는지? 하루 관람객 수와 운영 방법은?A. 개방행사 기간 중 5월 10~21일에는 입장료 없이 카카오톡·네이버·토스로 방문 신청이 가능합니다. 행사 기간 마지막 날인 5월 22일에는 별도의 신청시스템을 통해서 받을 예정으로, 방법은 추후 공지할 계획입니다. 신청은 4월 27일(수) 10시에 오픈되며, 스마트기기 이용 약자 또는 일반 휴대전화 사용자를 배려해 대리 신청도 가능하도록 설계할 계획입니다.스마트폰 예매자는 행안부 '국민 비서' 시스템으로 당첨 안내 및 바코드가 발송되며 정문·춘추관·영빈관 3개소에서 바코드 스캔을 통해 입장이 가능합니다. 입장 바코드 이용이 어려우신 분들은 현장 데스크에서 예매번호 확인 후 손목띠를 발급해 입장 처리할 예정입니다.운영 시간은 개방행사 시작일(5월 10일) 당일만 12시~20시까지 운영하며, 이외의 기간(5월 11~21일)에는 07시~19시까지 주말을 포함해 운영합니다.입장 인원은 국민 불편을 최소화하고, 관람객 안전과 질서 유지를 위해 입장 시간을 2시간씩 일일 6회로 나눴습니다. 2시간마다 최대 6500명 일일 최대 3만 9000명이 입장할 수 있습니다. 1구간 신청자 수 초과 시 해당 구간은 추첨을 통해 관람객을 선정할 예정입니다.Q6. 사전 방문 신청을 하지 않은 경우, 현장 입장이 가능한가?A. 사전 신청 후 당첨이 되지 않은 분은 입장이 제한됩니다. 입장객 안전관리 및 질서유지를 위해 부득이하게 사전방문 예약시스템을 운영할 예정이니 양해해주시길 바랍니다. 향후 안전관리나 질서유지에 문제가 없는 수준으로 입장객 수가 안정화될 경우, 전면 자유 관람으로 전환해 예약신청 없이 누구나 청와대를 다녀갈 수 있도록 할 예정입니다.Q7. 특별개방 이후(5월 23일~)에는 어떻게 운영되는지?A. 개방 행사가 끝난 5월 23일 이후에도 지속해서 개방 운영되며, 5월 23일 개방 계획은 추후 순차적으로 공지할 예정입니다. 5월 23일 이후로는 대통령실 주관 '청와대 운영기획 추진위원회'(가칭)를 구성해 지속이 가능한 관리 방안을 논의·확정하기 전까지 관계부처에서 임시 관리하는 방안을 검토 중입니다.청와대 개방행사 종료 이후에도 개방 상시 운영체계로 전환합니다. 안전관리나 질서유지에 문제가 없는 수준으로 입장객 수가 안정화될 때까지 현재의 입장 신청 시스템을 유지하고, 향후 전면 자유 관람 여부를 검토할 예정입니다.Q8. 현재 계획으로는 19시에 관람이 종료되는데, 야간 개방은 언제부터 가능한가?A. 개방 초기 당분간은 시설점검, 안전시설, 조명시설 미비로 야간 개장에 어려움이 있습니다. 추후 활용계획에 야간 개방 방안도 마련할 것입니다.Q9. 코로나19 방역 관리나 입장객 혼잡 시 대책은 어떻게 세우고 있는지?A. 코로나19에 대해서는 기본적인 방역 수칙을 지켜 운영할 것이며, 마스크 착용은 필수입니다. 인파로 인한 혼잡도 해소를 위해 3개(영빈문·정문·춘추문)의 출입구를 운영해 분산 입장을 유도할 것이며, 22개의 출입 라인을 설치하고, 원활한 입장을 위해 바코드 스캔 시스템을 구축할 예정입니다.안전사고 예방을 위해선 경내 시설물 진입 통제, 안내 및 순찰 등 경내 질서유지를 위해 경찰 인력을 배치하고 관람객 집중 시간대 등 필요시 해당 구간에 유동 순찰조를 운영하며 차 없는 거리 유지 등 차량 우회 조치를 위해 청와대로 및 외곽로터리에 교통경찰관을 배치할 예정입니다.Q10. 청와대-북악산 연계 등산코스는 어떻게 운영되는가?A. 개방 시간은 아침 7시부터 오후 7시다. 다만 입산은 오후 5시까지로 제한합니다. 계절별 개방 시간을 다르게 운영할 예정으로, 봄·가을은 07시~18시 / 여름은 07시~19시 / 겨울은 09시~17시입니다.등산객 인원은 제한 없이 자유롭게 출입 가능하지만, 사전 관람 신청 시스템을 통해 경내 관람객으로 선정되지 못한 일반 등산객은 청와대 경내 관람을 할 수 없습니다. 해설 프로그램은 별도 예약 없이 해설 희망자 누구나 현장에서 신청할 수 있습니다.등산로는 아래와 같이 새롭게 공개되는 청와대 구역과 기존에 운영하던 북악산 구역으로 나뉘어 있습니다.① 청와대 구역(신규) : ▲청와대 동편 코스 (춘추관 뒷길(금융연수원 맞은편) → 백악정 → 대통문 → 북악산) ▲청와대 서편 코스(칠궁 뒷길(경복고 맞은편) → 백악정 → 대통문 → 북악산)② 북악산 구역(기존) : ▲창의문, ▲청운대, ▲곡장, ▲숙정문, ▲말바위, ▲삼청 등 6개 코스Q11. 등산로 구간 내 안전 대책은?A. 개방행사 기간(5월 10~22일) 내 관광객과 등산객이 집중될 것으로 예상해 새롭게 개방하는 청와대 등산로 주변에 안전관리 요원을 집중 배치할 예정입니다.Q12. 문화재청과 함께 만들고 있는 관람안내 앱이 무엇인지?A. 청와대~북악산 탐방 구간 내 모바일 앱(App)을 활용한 디지털(AR) 콘텐츠 해설 서비스를 제공 예정입니다. 청와대 경내에서 앱(App - SK 'JUMP' 활용) 접속 시 '백악이(호랑이를 의인화한 캐릭터 명)'가 등장해 안내 멘트를 제공합니다. 북악산 등산로 구간 10개 소에서 '백악이' 캐릭터 해설을 제공합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외 주식 소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003687961?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>토스증권은 미국 우량 주식 및 ETF에 1,000원부터 투자할 수 있는 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다.    국내에선 유일하게, 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식이다. 실시간 거래가 가능하며 투자 가능 종목은 총 3070개다. 토스 증권은 “해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다”고 설명했다.    토스증권의 실시간 해외주식 소수점 거래는 1주 단위의 기존 해외주식 거래 방식과 주문 체결시간, 투자 가능 종목, 거래 수수료 등이 대부분 동일하다. 미국 정규장이 열리는 밤 10시 30분부터  다음 날 새벽 4시까지(서머타임 적용 기준) 시장가로 주문되며 그 외 시간대에는 예약 주문이 가능하다. 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.   토스증권에서 제공하는 미국 주식과 ETP, 리츠 등 전 종목이 거래 가능하다. 대표적인 고가 주식인  버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF도 포함된다. 소수점 거래는 기존의 1주 단위 구매하기와 동일하게 각 종목 구매 화면에서 ‘금액 주문’을 선택해 투자금액을 입력하면 된다. 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 예를 들어, 한화 기준 약 120만원의 테슬라 주식을 1000원만큼 주문하면 0.000833주가 구매되는 식이다.   토스증권 관계자는 “고객이 원하는 미국의 우량 종목을 가장 폭넓게 제공하면서도 가장 빠르게 소수점 단위로 거래할 수 있는 해외주식 서비스는 토스증권이 유일하다”며, “앞으로도 고객 중심적인 사고로 만족을 높일 수 있는 압도적인 투자 서비스를 만들어 나갈 것"이라고 말했다.   아울러 토스증권은 전 고객 대상의 ‘소수점 주식 받기’ 이벤트도 진행한다. 고객이 원하는 미국주식을 선택하고 최소 1,000원부터 최대 1,000만원까지의 당첨금을 뽑으면, 토스증권이 당첨된 금액만큼 주식을 구매해 지급하는 형식이다. 고객에게 소수점 투자 기회를 제공하기 위해 마련된 이번 이벤트는 이달 말까지 진행되며 조기 종료될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.04.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[컨콜] 우리금융지주 "M&amp;A 1순위는 증권사…롯데카드·MG손보 계획 없어"</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000668096?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>"결국 가계대출은 금리경쟁…인터넷전문은행에 믿질 수 없어"우리금융지주가 증권사 인수·합병(M&amp;A)을 위한 변함없는 의지를 드러냈다. 동시에 MG손해보험과 롯데카드 인수는 검토된 바 없다며 선을 그었다.22일 우리금융지주 관계자는 1분기 실적발표 컨퍼런스콜에서 "사실 증권사 인수를 우선순위에 놓은 정책은 현재 바뀌지 않았다"라면서 "증권사 자체가 그룹의 시너지가 가장 크기 때문"이라고 말했다.이어 "그래서 증권사 부분은 가장 우선적인 M&amp;A의 대상이고, 벤처 캐피탈 부분도 핵심경쟁력 제고를 위해 우선적으로 생각하고 있다"면서 "보험은 자금부담 같은 것들이 있어 고려를 해야하며, 구체적으로 MG손보 인수를 검토하거나 확정된 바는 없다"고 선을 전했다.롯데카드 인수에 대해서도 "사실 현재 롯데카드가 공식적으로 이렇게 매물이 나온 건 아니다"라며 "만일 매물로 나오면 카드 전망이라든가 우리 카드와의 합병 효과, 그룹 자본 비율 등을 감안해 검토가 가능하겠으나 현재로서는 인수 여부에 대해 구체적으로 검토한 거나 확정된 바는 없다"고 설명했다.[분석]우리금융지주 전환 속도, 1순위는 '비은행' 사업 확대이어 "하지만 코로나19 금융지원도 하반기에 중단될 것으로 보이는 만큼 오히려 리스크 관리 중요성이 더 커졌다"면서 "자산을 공격적으로 늘리는 것보다는 시장 수요에 맞게 적절히 대응하며 리스크 관리에 집중하는 게 기업 가치 제고의 아마 도움이 될 걸로 그렇게 생각이 된다"고 전했다.우리금융지주가 M&amp;A에 주력하는 건 주주환원정책의 일환이기도 하다. 지난해 7월 달에 지주사 설립후 최초로 주당 150원의 중간배당을 실시했는데, 중장기 배당성향을 점진적으로 30%까지 확대한다는 계획에는 변함이 없으나 현실적으로 보통주비율이 다른 지주사 대비 낮은 만큼 비은행 M&amp;A 추진이 자본 확대에는 유리하기 때문이다.우리금융 관계자는 "중간 배당은 그룹 자본 적정성은 주가 관리 등 여러 가지 측면을 고려해서 향후 이사회에서 검토할 예정이나, 당사의 경우 보통주 비율이 현실적으로 타사 대비 낮아 여러 가지 다른 부분의 M&amp;A 추진을 하고 있다"면서 "자본의 효율적 배분 차원에서 비은행 부분 M&amp;A 추진이 단기적인 자사주 매입보다 중장기 기업 가치에 더 도움이 될 수 있다고 판단된다"고 말했다.저원가수신이 전분기 대비 줄고 가계대출도 줄어 순이자마진(NIM)이 줄어드는 것 아니냐는 우려에도 자신감을 보였다.우리금융 관계자는 "유동성커버리지비율(LCR) 강화와 가산금리 하락이 영향이 있겠지만 4월 기준금리가 상승했고 하반기에 본격 반영될 것으로 예상되는 데다, 핵심예금이 생각보다 가파르게 늘고 있다"면서 "연간 NIM은 1.5% 중반정도 될 것으로 예상하고, 하반기에는 1.5% 후반까지 전망하고 있다"고 말했다.또 리스크관리에 주력하면서도 카카오뱅크, 케이뱅크, 토스뱅크와 같은 인터넷전문은행들에도 뒤쳐질 수 없다고 당부했다.우리금융 관계자는 "결국은 가계대출은 이제 금리 부분인데 쉽게 보면 카뱅이나 케뱅하고 금리 부분에서는 크게 저희가 이제 믿질 수 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>청와대 관람 예약 첫날부터 신청 몰려…오전 11시~오후 1시 인기</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003690326?sid=100</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>靑 1차 개방은 5월10~21일…하루 3만9000명까지 관람 가능    ‘청와대, 국민 품으로’ 홈페이지 캡처     윤석열 대통령 당선인의 공약에 맞춰 청와대가 내달 10일 첫 개방을 앞둔 가운데, 관람 신청이 쇄도하고 있다.   27일 국내 포털사이트 등에 따르면 이날 오후 3시 기준으로 청와대 개방 첫날인 5월10일의 개인 관람 신청자는 2만456명이다. 단체 관람 신청자는 6585명, 만 65세 이상과 장애인을 합한 신청자는 5251명이다.   예약이 현재 진행형인 만큼 신청자는 계속해서 늘어날 것으로 보인다. 청와대 관람 신청은 네이버와 카카오톡, 토스에서 각각 가능하다.   같은 시각 네이버 예약페이지에서 신청 현황을 확인한 결과 개인 관람과 만 65세 이상·장애인은 오전 11시~오후 1시에 몰렸고, 단체 관람은 오전 11시~오후 1시와 오후 1~3시에 집중된 것으로 나타나고 있다.   경찰청 대통령집무실 이전 TF와 대통령직인수위원회에 따르면 관람 인원은 한 타임(2시간)에 최대 6500명으로, 하루에 최대 3만9000명이 청와대를 둘러볼 수 있게 했다.   관람 신청은 1차 개방 기간에 해당하는 5월10~21일 중에서 원하는 날짜와 시간을 선택한 후 개인 정보를 기입하는 방식이다. 당첨 시 관람을 원하는 일자를 기준으로 8일 전에 국민비서로 연락을 받을 수 있으며, 해당하는 날짜에 청와대에 방문하면 된다.   청와대의 개방 시간은 오전 7시부터 오후 7시까지이지만, 첫날은 사전 준비 등을 이유로 오전 10시부터 개방된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>삼성금융사 통합앱 모니모, 서비스 나흘만에 고객정보 유출 사고</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003141981?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[경향신문] 삼성금융네트웍스 제공삼성 금융계열사의 통합 어플리케이션(앱) ‘모니모’에서 삼성증권 고객 수백명의 개인정보가 노출되는 사고가 발생했다. 모니모가 서비스를 시작한지 불과 나흘 만이다.20일 삼성증권은 지난 18일 오후 6시17분쯤 모니모앱에 가입한 삼성증권 고객 344명의 계좌번호·잔고·수익률 등 개인정보가 다른 고객의 모니모앱에 노출되는 오류가 확인됐다고 밝혔다. 일부 고객의 경우 성명과 거래내역까지 노출돼다.삼성증권은 “해당 오류를 19일 오전 9시22분에 발견해 차단 조치를 취했다”며 ”금전적인 피해는 없었던 것으로 확인했다”고 설명했다. 삼섬증권은 시스템 업그레이드 과정에서 오류가 발생한 것으로 보고 있다.모니모는 삼성생명, 삼성화재, 삼성카드, 삼성증권 4개사 서비스를 이용할 수 있도록 만든 통합앱이다. 삼성금융네트웍스가 네이버, 카카오, 토스 등 플랫폼을 앞세워 성장하고 있는 빅테크 기업과 경쟁하기 위해 내놓은 앱으로 지난 14일 서비스를 시작했다. 삼성증권은 “개인정보가 유출된 고객님들께는 담당직원이 개별적으로 연락을 드려 상세한 안내를 진행 중”이라고 밝혔다. 이어 “설사 피해가 발생되지 않았다 하더라도 소중한 개인 정보와 관련해 심려를 끼쳐드린 점 매우 송구하게 생각한다”고 공지했다.이에 금융감독원은 21일 “사고발생 경위를 파악해 소비자 피해가 발생한 경우 신속히 배상토록 하고, 재발방지를 위해 관련 시스템을 즉시 개선하도록 지도하겠다”고 밝혔다. 이어 “모바일 기반의 금융플랫폼에 대해서는 프로그램 테스트 및 제3자에 의한 검증절차 준수 여부 등에 대한 점검을 강화하는 한편, 중대한 법규위반 행위가 확인된 경우에는 법과 원칙에 따라 엄중한 책임을 물을 예정”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.04.22.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>시중은행, 인뱅, 지방은행…어딜 가도 '고금리' 늪</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004736302?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>신용등급 1~2등급 신용대출 금리/그래픽=이지혜 디자인기자대출금리 4~5% 시대에 비교적 낮은 금리를 찾는 소비자들이 애를 먹고 있다. 대형 시중은행의 금리에 놀라 지방은행, 인터넷전문은행, 정책기관으로 눈을 돌려봐도 고금리 기조는 마찬가지다. 21일 은행연합회에 따르면 이달(지난달 취급분 기준) 공시된 은행권 신용대출 금리는 서민금융을 제외하고 평균적으로 3.88~10.26% 수준이다. 카카오뱅크가 신용등급 1·2등급인 고신용자에게 신용대출을 취급하지 않아 상단 금리가 높아졌는데 카뱅을 제외하면  3.88~7.51%로 나타났다. 은행 유형별로 나눠 살펴보면 은행권 전반적으로 금리가 오른 것을 알 수 있다. KB국민·신한·하나·우리 4대 시중은행은 3.88~5.00%, 부산·경남·대구·광주·전북·제주 6개 지방은행에서는 4.22~7.51%, 카카오뱅크·케이뱅크·토스뱅크 3개 인터넷전문은행의 경우 5.76~10.26%였다. 지방은행과 인터넷전문은행은 대형 시중은행보다 중금리대출을 많이 취급해 상대적으로 평균금리가 높게 나타났다. 신용등급 1·2등급의 고신용자를 대상으로 한 신용대출만 따로 떼어서 보면 인터넷전문은행 금리는 비교적 낮은 편이었다. 인터넷전문은행의 경우 3.59~3.79%로 4%대를 넘기지 않았다. 4대 시중은행은 3.45~4.11%, 지방은행은 3.51~5.61% 수준이었다. 비교적 신생이라 신규 고객을 확보해야 하는 인터넷전문은행이 금리 할인에 나선 영향으로 보인다. 케이뱅크는 지난달 초 신용대출 상품 금리를 최대 0.3%포인트 인하한 데 이어 지난달 말 최대 0.4%포인트를 추가로 깎았다. 마이너스통장 금리도 1·2등급의 고신용자만 따로 살펴보면 인터넷전문은행의 금리가 그나마 낮았다. 인터넷전문은행 3.85~3.90%, 4대 시중은행 4.11~4.45%, 지방은행 3.56~5.64% 선이었다. 카카오뱅크가 고신용자 신용대출, 마이너스통장을 취급을 중단해 케이뱅크, 토스뱅크만 따진 결과다. 다만 인터넷전문은행은 중금리 대출을 확대해야 하는 과제가 있어 고신용자를 대상으로 한 대출을 마냥 늘리진 못할 것으로 보인다.  이미 상단금리가 6%대 중반에 접어든 주택담보대출도 평균금리가 4%대 안팎에 정착하면서 대출 시장에 곡소리가 난다. 은행권 분할상환식 주담대 평균금리는 3.50~4.32%로 나타났다. 문제는 무주택 서민을 대상으로 한 정책금융상품 금리도 낮지 않다는 점이다. 이달 보금자리론, 디딤돌대출, 적격대출의 금리가 모두 올랐다.  보금자리론 상단금리와 금리고정형 적격대출 금리의 경우 3.95%로 4%대에 가까워졌다.은행권 관계자는 "빚투(빚내서 투자)가 한창일 때 한도가 많이 나오는 외국계은행이나 지방은행, 금리가 비교적 저렴한 인터넷전문은행에서 혜택을 보는 고객이 많았는데 지금은 금리가 오를 대로 올라 어딜 가도 한숨만 나오는 상황일 것"이라며 "은행별, 상품별 꼼꼼한 비교가 어느 때보다 필요해졌다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>용산청사 2층에 대통령 집무실·외빈 행사장… 지하엔 NSC</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003689769?sid=100</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>인수위, 청사 구성 청사진 공개인수위 “2·3·4층 공사 못 해”리모델링 6월 중순쯤 마칠듯5층에서 업무 시작 뒤 옮겨“대통령실 이름 ‘국민의 집’”1층 기자실·브리핑룸 들어서6층 비서실 9층 경호실 예정취임 당일 정오 청와대 개방    용산 국방부 청사. 연합뉴스    윤석열 대통령 당선인이 오는 5월10일 취임 후 근무할 서울 용산구 국방부 청사의 청사진이 25일 공개됐다. 윤 당선인은 일단 5층에서 업무를 시작한 뒤 2층에 본 집무실이 마련되면 자리를 옮길 계획이다. 10층 규모 국방부는 이사 후 리모델링이 예정된 상태다. 윤 당선인 측은 이 일정에 맞춰 취임 직후부터 업무를 볼 수 있도록 하겠다는 의도다. 이와 함께 청와대도 취임 당일 정오에 국민들에게 완전 개방할 예정이다.   대통령직인수위원회 청와대 이전 태스크포스(TF) 팀장인 국민의힘 윤한홍 의원은 이날 서울 종로구 인수위에서 기자회견을 열고 이같이 밝히며 “2, 3, 4층이 가장 메인 층인데 아직 국방부가 이사를 하지 않아 리모델링 공사를 못 하고 있다. 현재 5, 6, 9층을 공사하고 있고 7층 일부도 하고 있다”고 말했다. 국방부 장·차관실 등 핵심 부서는 상반기 한·미연합훈련이 종료되는 오는 28일 이후 이전을 시작해 윤 당선인 취임 이후인 다음달 중순 이사를 마칠 예정이다. 윤 당선인이 2층 본 집무실로 들어갈 시점도 이쯤으로 예상된다.   다만 윤 당선인은 5층 집무실도 계속 활용하며 2개 집무실 체제를 가동할 계획인 것으로 알려졌다. 본 집무실이 마련되는 2층에는 외빈 초청 행사장도 들어서게 되는데, 공간이 넓지 않아 대규모 행사는 외부에서 개최할 것으로 보인다. 윤 의원은 “수백 명이 하는 행사는 다른 민간시설을 찾거나 국방컨벤션센터를 활용해야 할 것”이라고 말했다.     윤한홍 청와대 이전 태스크포스(TF) 팀장(왼쪽)과 김용현 부팀장이 청와대 개방 행사 관련 브리핑을 하고 있다. 연합뉴스    1층엔 대통령실 출입기자들의 기자실과 브리핑룸이 들어선다. 6층엔 대통령 비서실, 9층엔 경호실이 자리잡을 예정이다. 현재 공사가 한창 진행 중인 지하에는 국가안전보장회의(NSC)가 들어선다. 국방부 청사 리모델링은 취임식 당일 30∼40% 완공되고, 6월 중순 100% 완료될 예정이다. 윤 당선인은 24일(현지시간) 보도된 미국 월스트리트저널(WSJ)과의 인터뷰에서 대통령 집무실의 서울 용산 이전과 관련, 새로운 대통령실 이름을 국민에게 물을 계획이라며 임시로 ‘피플스 하우스’(People's House)를 제안했다. 당선인 측은 ‘피플스 하우스’에 대해 “한국어로 ‘국민의 집’으로 해 달라”고 밝혔다.   새 대통령 관저로는 서울 용산구 한남동 외교부 장관 공관이 확정됐다. 윤 당선인은 취임 후 한 달여 간 서초동 자택에서 용산 청사로 출퇴근하게 되며 이동 시간은 10분 내외가 걸릴 예정이다. TF 부팀장인 김용현 전 합동참모본부 작전본부장은 “국민 불편을 최소화할 수 있는 시간대에 한남대교, 동작대교, 반포대교, 한강대교 등의 경로를 선택할 것”이라고 말했다.   윤 의원은 “5월10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다”며 “본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다”고 밝혔다.   윤 의원은 “개방 초기 관람 신청 서비스 제도를 운용하기로 했다. 한시적으로 입장 신청을 받아 운영할 계획”이라고 했다. 1일 관람객 수는 6500명, 하루 여섯 차례 관람으로 제한된다. 사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등 모바일 애플리케이션과 웹사이트를 통해 가능하다.   다만 청와대 본관과 대통령 관저 등 건물 내부, 경호처, 여민관 등 출입 통제 구역은 당장 개방되지 않는다. 통신 시설과 보안 문서 등을 정리한 뒤 전면 개방이 가능할 것으로 보인다. 청와대 뒤편 북악산 등산로는 5월10일 전면 개방되며 출입 인원 제한은 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>해외 ‘선구매 후결제’ 시장 급성장세…한국, 후결제 기능에 중점</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002272820?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>◆…사진=보험연구원 제공선진국을 중심으로 선구매 후결제(Buy Now, Pay Later, BNPL) 서비스 시장이 급속하게 성장하고 있다. 우리나라는 초기 단계로 주로 후결제 기능에 집중하는 것으로 나타났다.   보험연구원은 21일 ‘선구매 후결제(Buy Now, Pay Later) 서비스 시장의 성장과 보험산업’ 보고서에서 이같이 밝혔다.   보고서에 의하면 코로나19 확산 이후 온라인 소비시장 확대, 핀테크 기술 발전, MZ세대 소비 수요 증가 등으로 선진국을 중심으로 BNPL 서비스 시장이 빠르게 성장하고 있다.   BNLP는 POS(Point-Of-Sale)대출의 한 종류로 소비자가 가맹점으로부터 상품·서비스를 구매하면 소비자 대신 BNPL 서비스 제공업체가 먼저 대금을 가맹점에 전액 지불하고 소비자는 BNPL 업체에 대금을 분할로 납부한다.   금융시장 분석기관인 S&amp;P Global에 의하면 BNPL 시장규모는 2020년 890억달러에서 2025년까지 3500억 달러로 5년간 약 400% 성장할 것으로 전망되고 있다.   BNPL 시장은 주로 전자상거래 부문에서 핀테크, 스타트업 등을 중심으로 성장해왔지만 최근에는 Amazon, Apple 등 해외 빅테크 기업 및 기존 금융기관들도 잇따라 진출하는 모습을 보이고 있다.   특히 최근 보험상품 구매에 특화된 BNPL 서비스가 미국·호주 등에서 상용화되기 시작했다. 호주 스타트업 Coverpay는 2021년부터 BNPL 방식을 적용해 소비자가 보험상품 구매시 보험료를 분납할 수 있도록 하는 결제서비스 플랫폼인 ‘Get Cover, Pay Later’를 제공하고 있다. 미국 시장에서는 보험결제 플랫폼 스타트업 Ascend이 BNPL 방식의 온라인 보험상품 특화 결제서비스를 제공 중이다.   우리나라에서 BNPL 시장은 초기 단계로 네이버, 토스 등 빅테크 기업을 중심으로 서비스를 운영 또는 출시를 준비 중에 있다.   네이버파이낸셜은 지난해 4월부터 최대 30만원 한도의 네이버페이 후불결제 서비스의 시범운영을 시작했으며 쿠팡은 작년 9월 ‘쿠팡 페이레이터(Coupang PayLater)’의 상표권 등록을 마쳤다. 금융권에서는 신한은행이 은행권 최초로 NHN 페이코와의 협업으로 BNPL 서비스를 개발했으며 인터넷은행 토스는 올해 3월 후불결제 서비스를 출시했다.   보험연구원 홍보배 연구원은 “국내 BNPL 서비스는 해외 BNPL 서비스와 달리 BNPL의 핵심인 분할납부 기능이 제한되는 경우가 있고 주로 후결제(Pay Later) 기능에 중점을 두고 있다”며 “BNPL 시장은 소비자에게 편리성이라는 혜택을 제공하는 동시에 시장에 채무불이행 위험 확대로 이어질 수 있어 최근 선진국 금융정책 당국은 BNPL 시장에 대한 감독 및 관련 규제를 강화하는 모습이다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>[성금내역] 가족 잃고 오랜 투병생활로 생활이 힘든 정은수 씨에 2,539만원 전달</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000755220?sid=102</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>남편 세상 떠나고 홀로 아프고 어린 자녀 셋 돌보는 최현희 씨에 2,276만원 성금정은수(가명·66) 씨가 반지하 단칸방에 놓인 침대에 앉아 텔레비전을 보고 있다. 배주현 기자◆가족 잃고 오랜 투병생활로 생활이 힘든 정은수 씨에 2,539만원 전달매일신문 이웃사랑 제작팀은 남편의 숱한 외도로 이혼하면서 자녀와 연락이 끊겼고 홀로 생활하던 중 병을 앓으면서 생활이 힘든 정은수(매일신문 4월 12일 자 10면) 씨에 2천539만7천원을 전달했습니다.이 성금에는 ▷빛명상본부 60만원 ▷㈜이구팔육(김창화) 10만원 ▷이정수 20만원 ▷이창영 5만원 ▷강종수 3만원 ▷박희숙 2만원 ▷신종욱 2만원 ▷문병찬 1만원 ▷박영수 1만원 ▷박인배 1만원 ▷우진숙 1만원 ▷'김나현쌤' 7만원 ▷'따스한햇살' 5천원이 더해졌습니다. 성금을 보내주신 모든 분들께 진심으로 감사드립니다.엄마 최현희(가명·36) 씨가 막내 아들에게 밥을 먹이고 있다. 배주현 기자◆남편 세상 떠나고 홀로 아프고 어린 자녀 셋 돌보는 최현희 씨에 2,276만원 성금남편은 스스로 세상을 떠났고 홀로 아프고 어린 자녀 세명을 돌보는 최현희(매일신문 4월 19일 자 10면) 씨에 52개 단체 232명의 독자가 2천276만500원을 보내주셨습니다. 성금을 보내 주신 분은 다음과 같습니다.▷건화문화장학재단 200만원 ▷DGB대구은행 100만원 ▷피에이치씨큰나무복지재단 100만원 ▷㈜태원전기 50만원 ▷신라공업 50만원 ▷한라하우젠트 50만원 ▷㈜태린(박기태) 45만원 ▷대구시설공단사랑나눔봉사단(박00) 40만원 ▷삼성기공(장태종) 30만원 ▷신행건설(정영화) 30만원 ▷한미병원(신홍관) 30만원 ▷㈜동아티오엘 25만원 ▷㈜백년가게국제의료기 25만원 (재)대백선교문화재단 20만원 ▷금강엘이디제작소(신철범) 20만원 ▷대창공업사 20만원 ▷매일탑리더스아카데미 16기 동기회 일동 20만원 ▷매일탑리더스아카데미 7기 동기회 일동 20만원 ▷㈜구마이엔씨(임창길) 10만원 ▷㈜삼이시스템 10만원 ▷㈜우주배관종합상사(김태룡) 10만원 ▷㈜이구팔육(김창화) 10만원 ▷㈜천마자동차전문학원 10만원 ▷㈜태광아이엔씨(박태진) 10만원 ▷김영준치과 10만원 ▷동양자동차운전전문학원(최우진) 10만원 ▷봉산성결교회 10만원 ▷세움종합건설(조득환) 10만원 ▷우리들한의원(박원경) 10만원 ▷원일산업 10만원 ▷제일키네마섬유(이필남) 10만원 ▷지에스GS(박송규) 10만원 ▷건천제일약국 5만원 ▷극동특수중량(김형중) 5만원 ▷느티나무한약국 5만원 ▷베드로안경원 5만원 ▷세무사김기욱사무소(김기욱) 5만원 ▷이전호세무사 5만원 ▷전피부과의원(전의식) 5만원 ▷제이에스테크(김혜숙) 5만원 ▷참한우소갈비집(신동애) 5만원 ▷채성기약국(채성기) 5만원 ▷칠곡한빛치과의원(김형섭) 5만원 ▷황금손부동산 5만원 ▷흥국시멘트 5만원 ▷국선도평리수련원 3만원 ▷매일신문구미형곡지국(방일철) 3만원 ▷청산(우창하) 3만원 ▷대원전설(전홍영) 2만원 ▷서성상회(박형근) 2만원 ▷모두케어(김태휘) 1만원 ▷하나회(김미라) 1만원▷김상태 도경희 각 100만원 ▷이정추 60만원 ▷김재균 이신덕 최영철 각 30만원 ▷최정희 21만1천원 ▷박철기 진민지 각 20만원 ▷곽용 김경호 김문정 김순향 김영숙 김한숙 민병선 이명순 이병희 이재명 이재일 전우식 전시형 정승혜 조득환 최영조 최창규 최채령 표준식 홍석란 각 10만원 ▷김재용 7만원 ▷강봉열 곽수국 곽정수 궁종옥 김정일 김창수 김해윤 김현주 김호근 남영석 노진수 맹지현 박병후 박연주 박종천 박치연 배호기 백미화 백낭송 변대석 서정오 서해근 성해숙 손승아 안대용 양윤정 오소춘 유윤옥 윤선희 이경자 이단우 이미우 이종하 이지유 이해진 임채숙 전영선 전인 정원수 조재순 진국성 최상수 최수연 최종호 최춘희 최한태 하혜련 한창진 각 5만원 ▷권규돈 김경숙 김명희 김점숙 김종균 김지희 김평섭 남영희 문석 박미경 박옥환 박은경 변현택 송재일 신광련 이상준 이서연 이서현 이석우 이종완 이혜경 장충길 전혜진 조진우 최우철 하경석 하종식 황보정 각 3만원 ▷이병규 2만5천원 ▷강윤철 권희경 김균섭 김나리 김대식 김상현 김순호 김태욱 김효성 도재용 류휘열 박건우 박기영 박민선 박임상 박태경 유귀녀 이경애 이민경 이병순 이수진 이운호 이진숙 이해수 이혜진 임경숙 정경현 정미아 진형구 함복선 허정 각 2만원 ▷김갑용 우동수 각 1만5천원 ▷김강현 1만2천원 ▷강병구 고장환 구성민 권보형 권영윤 권재은 권재현 김삼수 김상근 김상일 김성옥 김순희 김윤희 김태천 박서현 박성미 박애선 박찬희 박태용 박홍선 배상영 백인환 서석란 성미란 성주근 손동훈 신정원 안인호 안현준 양진호 오은미 우순화 우철규 유명희 윤인주 이성우 이성현 이재민 이형진 임유경 장문희 전지원 정영숙 정혜원 조경희 조영식 최경철 최상영 최인 최준영 최춘남 홍수민 각 1만원 ▷서제원 손희정 이진기 이형준 정의진 각 5천원 ▷권두영 3천원 ▷이장윤 2천원 ▷조규범 1천원▷'강택현힘내세요' '세딸어머님힘내세요' '이상희힘내세요' '주님사랑' '홍종배베드로' 각 10만원 ▷'김민규안다겸' '김수빈힘내세요' '불자 정순화' '이현숙(하이디)' '재원수진' '힘내세요(우체국)' 각 5만원 ▷'동차미' 3만4천원 ▷'무명' '박보경한빈한결' '지원정원' '힘내세요(토스)' 각 3만원 ▷'강해만이진주' '김덕자아녜스' '보마스엘' '사랑' '석희석주' '응원합니다' 각 2만원 ▷'성금' '조희수건강회복' '지현이동환이' '힘내세요(대구은행)' '힘내세요(우체국)' 각 1만원 ▷'수앤랑' 9천500원 ▷'김명숙도움' 3천원 ▷'지성이' '채영이' 각 2천원</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>연합뉴스 귀농귀촌 박람회 22일 개막…온·오프라인 동시 진행</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013124645?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>개막식 등 유튜브 생중계…전국 82개 지자체 현장부스 운영농협과 공동주최…개막 당일에 '2022 청년농업인대상' 시상2022 귀농귀촌 청년창업 박람회 [연합뉴스 제공](서울=연합뉴스) 박상돈 기자 = 귀농·귀촌을 꿈꾸는 이들에게 각종 정보를 제공하고 우리 농촌의 미래상을 제시하는 복합콘텐츠 박람회가 지난해에 이어 올해도 온·오프라인으로 열린다.    국가기간뉴스통신사 연합뉴스는 오는 22~24일 사흘간 서울 서초구 양재동 aT센터 제1전시장에서 '2022 귀농귀촌 청년창업 박람회'를 연다고 20일 밝혔다.    농협과 공동 주최하는 이번 박람회는 온·오프라인으로 동시에 진행된다.    행사 첫날인 22일 오전 11시 열리는 개막식에는 성기홍 연합뉴스 사장과 김종훈 농림축산식품부 차관, 이성희 농협중앙회장 등이 참석한다.     개막식에서는 '2022 청년농업인대상' 시상이 함께 이뤄진다.    수상자는 김태현 늘솜농장 대표, 조민형 세흔농 대표, 김민혜 수미찐빵 대표, 김지운 따울농장 대표, 허철훈 철훈축산 대표 등 5명이다.    개막식은 코로나19 예방 차원에서 최소 인원만 현장에 참석한 가운데 진행되며, 전 과정이 유튜브로 생중계된다.    올해 박람회에는 82개 지방자치단체와 4개 기관 및 기업 등 총 86곳이 149개 부스를 운영한다. 참가 기관과 기업은 농협·농촌진흥청·한국농어촌공사·비에스피솔루션이다.      부스는 주제별·섹션별로 운영된다.    청년창업관에서는 청년 창업농 육성 지원 프로그램, 농식품 벤처기업 및 지역별 사회적농업, 농촌형 청년 일자리 발굴 아이템 등이 소개되고 귀농귀촌종합센터의 귀농귀촌 지원 정책 상담도 이뤄진다.     지역정보관에서는 각 지자체의 귀농귀촌 정책 상담·홍보, 안정적인 귀농귀촌 정착 사례 등이 소개된다.     미래농업관에서는 인공지능(AI), 빅데이터, 드론 IoT(사물인터넷) 등 4차산업혁명 기술이 융복합된 스마트농업 확산 모델 전시 및 미래 농업기술 체험 등이 진행된다.    박람회에서는 지자체의 정책 발표회와 정부 및 유관기관의 농식품 일자리 정보 제공, 청년 창업농 지원을 위한 온·오프라인 상담존 등도 운영된다.    또 스마트농업 전시·체험 공간과 메타버스(가상공간) 토스 콘서트 등의 부대행사도 준비돼 있다.     이 밖에 농식품 해외 판로 지원을 위한 해외 진출 프로그램도 소개되고 농고·농대생의 진로 및 채용 컨설팅도 이뤄진다.    kaka@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>‘용산 대통령실’ 주 출입구, 삼각지 대신 이촌동쪽 결정</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003190197?sid=100</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>서울 용산으로 이전할 대통령실의 주 출입구가 이촌동 국립중앙박물관 인근의 남쪽 문으로 결정됐다.      대통령직인수위원회 관계자는 25일 중앙일보와의 통화에서 “당초 대통령실 주 출입구로 삼각지역 인근의 국방부 정문을 고려했지만, 국민 불편을 가중할 수 있다는 우려에 따라 남측 출입구를 주로 사용하기로 계획을 변경했다”고 말했다. 삼각지역 인근 도로는 출퇴근 시 차량이 몰리는 대표적인 정체 지역으로, 대통령 이동을 위해 교통 통제를 할 경우 정체가 더 극심해질 수 있다는 우려가 제기돼 왔다.      윤석열 당선인은 다음 달 10일 취임 이후 한 달가량 서울 서초동 자택에서 대통령 집무실로 출퇴근할 계획이다. “서초동에서 한강을 건널 경우 최단거리, 최단시간으로 대통령 집무실까지 이동할 수 있는 경로가 남측 출입구”라는 게 인수위 측 설명이다.      윤석열 대통령 당선인 집무실 및 출퇴근 예상경로. 그래픽=박경민 기자 minn@joongang.co.kr           남쪽 출입구는 이촌역(경의중앙선·4호선) 2번 출구와 인접해 있다. 이 때문에 윤 당선인 측은 장기적으로 용산공원이 단장을 모두 마칠 경우 대통령실 정문을 남쪽 출입구 방향으로 두는 방안도 검토하고 있다. 미국 백악관처럼 대통령 집무실 인근의 담장을 허물고 시민공원화해 국민과 가까이 있겠다는 의미다.      한편 윤 당선인은 취임 당일인 다음 달 10일부터 용산의 현 국방부 청사 5층에서 집무에 들어간다. 이후 2층으로 집무실을 옮긴다. TF 팀장인 윤한홍 의원은 “국방부 청사 2~4층이 메인 층”이라며 “한·미 연합훈련 이후 국방부가 이사하면 6월 중순까지 2~4층을 리모델링할 것”이라고 말했다.      1층엔 기자실과 대변인실 등 프레스룸이 들어선다. 윤 당선인이 출퇴근길에 자연스레 기자들과 마주칠 수 있는 구조다. 이 밖에 6층엔 대통령비서실, 9층엔 경호처 등이 입주한다.      청와대 일반시민 개방 어떻게 달라지나. 그래픽=박경민 기자 minn@joongang.co.kr           서울 한남동 외교부 장관 공관은 새 대통령 관저로 확정됐다. 김용현 부팀장은 “장관이 바뀔 때마다 계속 리모델링을 해와서 상태가 양호하다”며 “외교부 장관이 지금 쓰고 있는데, 취임일 이후 손을 대더라도 리모델링에 적은 기간이 걸릴 것”이라고 밝혔다. 새 외교부 장관 공관으론 삼청동의 대통령비서실장 공관을 사용하는 방안을 검토 중이다.      청와대는 다음 달 10일 정오에 일반 시민에게 공개된다. 다만 개방 초기 방문객이 몰려 안전 문제가 발생할 경우를 대비해 사전 방문 신청을 받을 계획이다. 관람 인원은 2시간마다 6500명씩, 모두 6차례에 걸쳐 하루 최대 3만9000명으로 제한한다. 방문 신청은 27일 오전 10시부터 네이버, 카카오, 토스 등을 통해 할 수 있다. 65세 이상, 장애인, 단체관람 인원은 별도 신청이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>청와대 사전관람 접수 곧 100만명 돌파…내달 2일 당첨 여부 통보</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006060461?sid=100</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 통해 사전접수 중일일 최대 관람객 3만9000명 제한청와대 모습. 2022.4.27/뉴스1 © News1 김명섭 기자(서울=뉴스1) 김유승 기자 = 오는 5월10일 청와대 개방을 앞두고 청와대 관람 사전 접수 건수가 곧 100만 명을 돌파할 것으로 보인다. 윤석열 대통령 당선인 직속 '청와대 이전 태스크포스(TF)'는 이날 공지를 통해 "현재(28일, 오후 4시 기준)까지 97만44명이 신청 접수해 조만간 100만 명을 돌파할 것으로 예상된다"며 "개방 첫날(5월10일) 관람을 희망하는 인원은 7만2524명으로 확인됐다"고 밝혔다. TF는 지난 27일 오전 10시부터 네이버, 카카오톡, 토스를 통해 관람 사전 접수를 하고 있으며, 신청 접수는 Δ개인(1~4명) Δ단체(30~50명) Δ65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행하고 있다.개방 첫날 관람 시간은 정오부터 오후 8시까지, 11일부터 21일까지의 관람 시간은 오전 7시부터 오후 7시까지다. TF는 2시간 단위로 하루 총 6회의 관람을 진행하고, 회당 입장객은 6500명, 일일 최대 관람객은 총 3만9000명으로 제한한다는 방침이다. 한편 방문자 선정은 추첨을 통해 관람일 8일 전(5월2일) 당첨 여부를 통보할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외주식 소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002272554?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>◆…토스증권 제공     토스증권이 미국 우량 주식 및 상장지수펀드(ETF)에 1000원부터 투자할 수 있는 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다.    투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식으로, 지체 없는 실시간 거래가 가능하다. 투자 가능 종목도 총 3070개로, 해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다.   1주 단위의 기존 해외주식 거래 방식과 주문 체결시간, 투자 가능 종목, 거래 수수료 등이 대부분 동일하다. 미국 정규장이 열리는 밤 10시 30분부터  다음 날 새벽 4시까지(서머타임 적용 기준) 시장가로 주문되며, 그 외 시간대에는 예약 주문이 가능하다. 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.   토스증권에서 제공하는 미국 주식과 ETP, 리츠 등 전 종목이 거래 가능하다. 대표적인 고가 주식인  버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF도 포함된다.   소수점 거래는 기존의 1주 단위 구매하기와 동일하게 각 종목 구매 화면에서 ‘금액 주문’을 선택해 투자금액을 입력하면 된다. 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 예를 들어, 한화 기준 약 120만원의 테슬라 주식을 1000원만큼 주문하면 0.000833주가 구매되는 식이다.   토스증권 관계자는 “고객이 원하는 미국의 우량 종목을 가장 폭넓게 제공하면서도 가장 빠르게 소수점 단위로 거래할 수 있는 해외주식 서비스는 토스증권이 유일하다”며 “앞으로도 고객 중심적인 사고로 만족을 높일 수 있는 압도적인 투자 서비스를 만들어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>74년만에 청와대 문 열린다…TF "尹 취임식 끝나는 시각 전면 개방"(상보)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006050974?sid=100</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>윤한홍 TF팀장 "질서·안전 위해 한시적 사전 예약 서비스 운영""북악산 등산로 5월10일 아침 완전개방…곳곳서 문화 행사"청와대 모습. 2022.3.28/뉴스1 © News1 송원영 기자(서울=뉴스1) 김일창 기자,박기범 기자 = 현 청와대가 오는 5월10일 윤석열 당선인의 대통령 취임식 행사가 끝나는 시각에 전면 개방된다.윤한홍 청와대이전태스크포스(TF) 팀장은 25일 오후 서울 종로구 통의동 대통령직인수위원회 기자회견장에서 브리핑을 열고 "청와대는 74년만에 제왕적 대통령제의 상징에서 국민 쉼터로 거듭날 것"이라며 이같이 말했다.윤 팀장은 "청와대 본관과 영빈관을 비롯해 최고의 정원으로 불리는 녹지원, 상춘재가 있는 청와대가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다"고 말했다.그러면서 "청와대로 인해 단절된 북악산 등산로는 5월10일 아침부터 완전 개방한다"며 "등산로는 청와대 동편이나 서편 어느 곳에서나 출발할 수 있고 사전 신청 없이, 인원 제한 없이 이용할 수 있다"고 했다.윤 팀장은 "개방 초기 많은 방문객으로 인한 국민의 불편 초래와 안전 문제를 고려해 관람 신청 서비스 제도를 한시적으로 운영한다"며 "오는 27일 수요일 오전 10시부터 네이버와 카카오, 토스 등을 통해 관람 신청을 접수할 예정"이라고 말했다.이어 "개방 초기 65세 이상 어르신과 장애인 단체관람에 대해 별도의 신청을 접수해 입장 인원을 안배하겠다"고 했다.윤 팀장은 "개방시간은 오전 7시부터 오후 7시까지이며 2시간씩 6회 예약, 동시간대 약 6494명이 이용할 수 있다"며 "이를 6회로 곱하면 하루 입장 가능 인원은 3만8964명"이라고 설명했다.윤 팀장은 "개방일인 10일부터 22일까지 13일간 청와대 경내와 경복궁, 북악산 일대에서 새시대 새희망을 담은 다양한 문화 행사를 펼칠 계획"이라며 "같은 기간 청주 청남대와 세종 대통령기록관 등에서도 기념 행사가 진행된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[홍길용의 화식열전] 당신의 월급통장, 은행을 배불립니다</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001982875?sid=110</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>수신금리&lt;물가상승률→실질금리 ‘마이너스’연0.1~0.2% 저원가 예금이 예대마진 높여은행, 가계대출 줄어도 기업대출 늘며 수익↑인뱅·저축銀·핀테크 파킹통장, CMA 활용을10세기 당(唐)을 무너뜨린 리고 후량(後梁)은 ‘작서모세(雀鼠耗稅)’를 징수했다. 곡식을 정부 창고에 보관할 때 새나 쥐가 축 내는 분량에까지 세금으로 부과하기 위해 만들었다. 가혹한 세금제도의 사례로 꼽힌다. 그런데 다르게 보면 당시 그만큼 쥐가 갉아먹는 쌀이 많았다는 반증이기도 하다.안전하게 보관된다고 여겼던 내 돈을 누군가 갉아 먹고 있다면 어떨까? 보관 방법을 바꾸거나 몰래 돈을 가져가는 것들을 쫓아내야 한다. 요즘 은행예금이 그렇다. 가만히 두면 가치가 떨어진다.다들 경제가 어렵다고 하는데 4대 시중은행은 1분기에 또 사상 최대 실적을 거뒀다. 올 들어 석달새 벌어 들인 순이익이 3조2725억원이다. 지난해 같은 기간(2조5124억원) 보다 무려 30.3%가 많다. 지난해 4분기(1조7701억원)와 비교해서는 84.9%나 급증했다. 주수익원인 원화대출 잔액은 1년 전보다 7.3%, 직전분기 보다는 0.9% 늘어났는데 이익은 그보다 훨씬 더 많이 늘었다.대출 보다 이익이 더 늘어난 것은 원가를 낮췄기 때문이다. 4대 은행 원화예수금은 올 1분기말 1169조원으로 1년 전보다 7.2%, 직전 분기보다 1.3% 늘었다. 주목할 부분은 이른바 요구불예금과 수시입출금식 예금 등 저원가성 예금의 증가폭이다. 국민은행을 제외한 신한·하나·우리 은행 모두 저축성예금 보다 증가폭이 컸다. 저축성예금 금리는 연1%가 넘지만, 월급통장을 포함한 이들 저원가성 예금 금리는 연 0.1~0.2%대다. 기준금리에도 한참 못 미친다. 최근 물가까지 가파르게 오르고 있어 실질금리로 따지면 사실상 연 2~3%대의 마이너스다.4대 은행의 순이자마진(NIM)은 지난해 1분기 1.42%포인트에서 꾸준히 상승해 4분기 1.49%포인트까지 오르고 올 들어서는 1.54%포인트까지 치솟는다. 대출잔액까지 늘었으니 순이자수익이 급증하는 것은 당연하다.금리상승은 은행들의 기업대출 영업도 돕고 있다. 1분기말 4대 은행 가계대출 잔액은 570조원으로 지난해 말(575조원) 보다 줄었다. 이 기간 기업대출 잔액은 572조원으로 이 기간 15조원이 늘었다. 근래 보기 드물게 기업대출이 가계대출을 앞질렀다. 시장 금리가 오르자 회사채 시장에서 자금조달이 어려워진 기업들이 은행 문을 두드리면서다. 올 1분기 회사채 발행액은 44조원으로 지난해 같은 기간(51조원) 보다 14%가량 줄었다. 은행의 기업대출은 주로 중소기업이나 소상공인(SOHO)가 많이 이용한다. 통상 대출금리가 가계대출 보다 높다.4대 은행이 속한 4대 은행지주는 올 1분기 인건비로 7조9390억원을 썼다. 순이익의 67.8%다. 사상 최대 순이익에 높은 물가상승률까지 겹치며 올해 은행권 임금협상에서 급여가 크게 오를 가능성이 크다. 주주들 압력에 배당도 더 하고 자사주 매입에도 나설 듯하다. 주요 재원은 대출 고객에게 받은 높은 이자와 예금 고객에 덜 준 이자다.이쯤 되면 굳이 은행 요구불·수시입출금예금에 돈을 둘 이유가 별로 없어 보인다. 모바일뱅킹이 보편화된 만큼 최대한 이자를 많이 주는 곳에 돈을 모을 필요가 있다. 토스뱅크는 모든 예금(1억원 이하)에 연 2% 이자를 준다. 저축은행과 핀테크의 이른바 ‘파킹통장’도 시중은행의 요구불예금 보다 훨씬 이자율이 높다. 증권사 CMA도 은행보다 낫다. 가급적 이들 통장을 활용할 때다. 국채 수익률이 높아지고 있어 목돈을 장기간 안전하게 보관하려면 물가연동국채에도 관심을 가져볼만 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>지점 수 줄이고 모바일 역량 강화, 4대 시중은행 모바일뱅킹 앱 비교</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004951155?sid=105</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>전국 은행의 점포 감소 추세가 지속되고 있다. 금융감독원이 지난달 31일 발표한 보도자료에 따르면 ‘21년 말 전국 은행의 점포 수는 전년 말에 비해 311개 감소한 6,094개로 집계됐으며, 은행 점포 수의 감소 폭도 지난 5년간 계속 커지고 있다. 특히 시중은행의 점포 감소 규모는 전체의 74%를 차지한 230개로, 국민 대다수가 이용하는 시중은행의 감소세가 두드러지게 나타났다.은행의 오프라인 점포 수는 감소하는 반면, 모바일뱅킹을 포함한 인터넷뱅킹의 서비스 이용률은 갈수록 높아지고 있다. 한국은행은 ‘2021년중 국내은행 인터넷뱅킹서비스 이용현황’을 발표했는데, 작년 말 국내은행의 인터넷뱅킹을 통한 자금 이체 및 대출 신청 서비스의 이용 금액은 70.6조원, 건수는 1,732만 건으로 전년 대비 각각 19.6%, 18% 증가했다고 밝혔다. 특히 스마트폰을 이용해 간단하게 은행 업무를 볼 수 있는 모바일뱅킹 이용 금액은 약 12.9조원, 이용 건수는 약 1,436만 건으로 전년 대비 각각 36.6%, 22.9% 증가했다. 이처럼 시중은행을 포함한 은행권에서는 오프라인 점포 수를 줄여나가면서, 동시에 규모가 커지고 있는 모바일뱅킹 시장에 집중 투자하고 있다. 기존에도 인터넷뱅킹과 모바일뱅킹 산업은 꾸준히 성장세를 이어왔지만, 코로나19가 유행한 지난 몇 년간 ‘비대면 서비스’가 주요 키워드로 작용하며 간단한 송금, 이체 등의 업무는 모바일로 처리하는 것이 상식인 시대가 더욱 빠르게 도래한 것이다. 이제는 일상의 한 부분이 된 모바일뱅킹, 사람들은 각 은행의 모바일뱅킹 앱을 얼마나 사용하고 있을까? 빅데이터 전문기업 TDI(티디아이, 대표 이승주)에서 국내 4대 시중 은행이라 불리는 KB국민은행, 신한은행, 우리은행, 하나은행의 대표적인 모바일 앱 이용 현황을 살펴봤다.Trend 1. KB스타뱅킹, 1,200만을 넘는 설치자 수로 1위 / 하나원큐는 지난 1년간 40% 이상 성장TDI(티디아이)의 분석 플랫폼 데이터드래곤(Data Dragon)을 통해 국내를 대표하는 4대 시중은행의 모바일뱅킹 앱 KB스타뱅킹(KB국민은행), 신한 쏠(SOL)(신한은행), 우리WON뱅킹(우리은행), 하나원큐(하나은행)를 살펴봤다. 지난 3월 안드로이드 스마트폰 사용자를 기준으로 KB스타뱅킹은 1,225만, 신한 쏠(SOL)은 983만, 우리WON뱅킹은 690만, 하나원큐는 564만 명의 설치자를 확보하고 있었으며, 가장 많은 설치자 수를 확보한 앱은 KB국민은행의 KB스타뱅킹이었다. KB국민은행은 시장점유율 1위 은행인 만큼 많은 거래 고객을 확보하고 있으며, 앱 설치자 수도 4대 시중은행의 모바일 앱 중 유일하게 1,000만을 넘겼다. 그러나 KB스타뱅킹, KB스타뱅킹 미니, KB국민카드, Liiv 등 20개 가까이 되는 수많은 앱이 운영되고 있어 목적에 맞는 앱을 일일이 찾아 설치해야 한다는 소비자들의 불만이 많다. KB국민은행도 이 같은 소비자들의 반응을 인지하고 지난해부터 KB스타뱅킹의 주요 기능을 전면 개편, Liiv 등 구형 앱을 KB스타뱅킹으로 통합 추진 중이다. 다음으로 4대 시중은행 앱들은 지난 1년간 얼마나 성장했는지 살펴봤다. 2021년 3월 각 앱의 설치기기수를 기준으로 올해 3월 설치기기수 증가율을 분석해보니, 하나은행의 하나원큐만 41.6%의 성장률을 보였고, 다른 앱들의 1년간 설치기기수 증가율은 10%대에 그쳤다. 하나은행의 하나원큐는 2020년 8월부터 구형 앱을 통합해 운영 중이며, 앱 사용자들의 피드백을 지속적으로 수집해 안정화하는 데 공을 들이고 있다. 뿐만 아니라 하나원큐 앱 내에 카드와 증권 등 전 계열사의 주요 기능, 자동차/교통 등 제휴 서비스에서부터 모의투자게임, 디지털펀드 플랫폼까지 다양한 기능과 서비스를 탑재하며 앱 사용자 유치에 적극적으로 나서고 있다. Trend 2. 지난 2월, ‘청년희망적금’ 열풍 힘입어 모든 앱의 MAU 비율 증가, 신한 쏠은 70% 육박 이어서 각 은행 앱의 설치자들 중 앱을 꾸준히 적극적으로 이용하는 이들의 비율은 얼마나 되는지 조사해봤다. 2022년 1분기 각 앱의 설치기기수 대비 월간 활성사용자(Monthly Active Users, 이하 MAU) 비율을 살펴보니, 3개월간 네 앱의 MAU는 60%대를 유지했다. 특히 지난 2월에는 모든 앱의 MAU 비율이 상승세를 보였는데, 이는 2월 21일부터 국민, 신한, 하나, 우리 등 11개 은행에서 최고 연 10%대의 금리 효과를 볼 수 있는 ‘청년희망적금’의 가입 신청을 받았기 때문이다. 모바일로도 이용 가능했던 청년희망적금의 가입 신청 기간 동안 수많은 사용자가 몰려 일부 앱은 마비되기도 했다. 이후 3월에 접어들며 신한 쏠(SOL)과 하나원큐의 MAU는 증가세를 이어갔으나, KB스타뱅킹과 우리WON뱅킹의 MAU는 다시 하락했다. 올해 1분기 가장 높은 MAU 비율을 유지한 모바일뱅킹 앱은 신한은행의 신한 쏠(SOL)이었다. 시중은행 중 가장 빠르게 앱 고도화 및 ‘원(One) 앱’ 전략에 착수했으며, 이에 따라 모바일 환경에 익숙하고 앱 트렌드에 민감한 젊은 세대 사용자를 많이 확보했다. 신한은행은 금융권으로서는 처음으로 배달 앱 ‘땡겨요’를 출시하기도 했는데, 이처럼 앱을 통한 금융과 비금융 서비스의 연계에 적극적이라는 점도 주목할만하다.한편, 우리은행의 우리WON뱅킹은 지난 3월 62.2%로 가장 낮은 MAU 비율을 보였다. 그러나 최근 들어 MZ세대에서부터 시니어까지 세대별 특성을 반영한 메인화면 변경 서비스, 은행 업계에서는 최초로 선보이는 편의점 배달 서비스, 세계 최대의 e스포츠 LOL과 협업한 LCK 포인트 이벤트 등 차별화된 서비스를 갖추며 은행권의 앱 고도화 추세에 합류했다. 점포 없이 운영되는 인터넷 전문 은행의 인기도 갈수록 커지고 있다. 비교를 위해 국내에서 영업 중인 인터넷 전문 은행 토스, 카카오뱅크, 케이뱅크의 모바일 앱 설치자를 조사해보니, 토스, 카카오뱅크의 앱 설치자는 시중은행의 앱 설치자보다도 많았다. 지난 3월 안드로이드 스마트폰 사용자를 기준으로 토스는 1,911만, 카카오뱅크는 1,681만, 케이뱅크는 997만의 설치자 수를 확보하고 있었다. 핀테크 산업의 발달, 금융 트렌드의 디지털화, 비대면 서비스 선호 현상의 지속 등으로 은행 업계의 ‘오프라인 점포 줄이기’, ‘모바일 역량 강화’는 이어질 것으로 보인다. 그러나 이 같은 은행권의 움직임에 우려를 표하는 이들도 적지 않다. 은행 점포에서 맡아온 업무의 상당 부분을 모바일뱅킹 등 비대면 서비스로 대체하고, 수익성이 낮은 점포들의 문을 닫다 보면 노년층을 비롯해 상대적으로 인터넷, 모바일뱅킹 등에 취약한 일부 계층의 금융 접근성이 악화될 수 있다는 주장이다. 이에 금융감독원에서는 은행의 점포 폐쇄로 인한 고객 피해를 최소화할 수 있도록 ‘은행 점포 운영 현황 공시 확대를 통한 시장규율기능 강화’, ‘지역 금융 접근성 확보에 대한 인센티브 부여’ 등 대책 마련에 나섰다. 은행권에서는 시니어 고객을 위한 모바일뱅킹 교육이나 앱 개편 등 다양한 방안을 고민하고 있다.[TDI는 국내 안드로이드 스마트폰 사용자 기준으로 작성합니다.][TDI 차주헌 매니저 jhcha@tdi9.com]Copyright ⓒ TDI. All rights reserved. 무단전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>모바일 전자증명서 발급 건수 400만건 넘었다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003142692?sid=102</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>[경향신문] 모바일 전자증명서 열람, 제출이 가능한 모바일앱. 행정안전부 제공.행정안전부는 2019년 12월부터 시행한 모바일 전자증명서 발급 건수가 400만건을 넘은 것으로 집계됐다고 25일 밝혔다.모바일 전자증명서는 주민등록등·초본, 예방접종증명서 등의 각종 증명서를 스마트폰으로 발급받을 수 있는 서비스이다. 취업 및 학자금 대출, 국내선 항공기 탑승 시 신분 확인, 백신접종 증명 등 다양한 분야의 업무 처리에서 종이 증명서 대신 활용되고 있다.발급 건수 상위 5종 전자증명서는 주민등록표등·초본, 예방접종증명서, 가족관계증명서, 건강보험자격득실확인서, 성적증명서 등으로 나타났다. 현재 모바일 전자증명서는 지자체, 재외공관, 국·공립대학교, 공사·공단 등의 행정·공공기관과 시중은행 등 850여개 기관에 제출이 가능하다.모바일 전자증명서는 정부24, 복지로, 전자가족관계등록시스템, 중소벤처24 등 정부 사이트에 접속해 민원증명서 발급을 신청하고, 수령방법을 ‘전자문서지갑’으로 선택하면 발급받을 수 있다. 네이버앱, 카카오톡, 토스, 이니셜 등 26개 모바일앱에서도 발급을 신청하거나 제출할 수 있다. 행안부는 이달 네이버앱, 카카오톡 등의 전자증명서 발급을 시작한 이후 20만건 이상이 발급된 것으로 나타났다고 밝혔다.행안부는 올해 말까지 지방공무원 시험 합격자의 임용처리와 정부 부처의 공문서 접수 때도 전자증명서 제출이 가능하도록 서비스를 확대할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>잠자는 돈 16조… 주인을 찾습니다</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003687245?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>숨은 금융자산 찾기 캠페인/금융위원회										잘 쓰지 않는 은행 계좌에 남은 돈이나 찾아갔어야 하는데 내버려둔 보험금 등 ‘잠자는’ 금융자산은 얼마나 될까. 금융감독원에 따르면 2015~2019년까지 주인의 품으로 돌아간 ‘잠자는 돈’은 3조7000억원에 달한다. 아직까지도 금융회사에서 주인을 기다리고 있는 돈이 16조원에 이르는 것으로 집계된다. 이중에 혹시 내 돈은 없을까.금감원과 은행연합회·금융투자협회 등 9개 금융협회, 176개 금융사가 5월 20일까지 공동으로 ‘숨은 금융자산 찾아주기’ 캠페인을 진행한다. 이 기간 금융권이 이메일과 문자 메시지로 돈을 찾아가라고 개별적으로 안내를 해준다고 하지만 번호가 바뀌었거나 확인을 안 하면 소용이 없다. 메시지 기다리는 대신 직접 찾아보는 것은 어떨까.출발점은 금감원이 운영하는 금융소비자포털(fine.fss.or.kr)이 편하다. 홈페이지 첫 화면 ‘공통’ 항목에 보면 ‘잠자는 내돈찾기’가 있다. 이 항목을 클릭하면 은행연합회(휴면계좌 통합조회시스템), 생명·손해보험협회(내보험 찾아줌), 저축은행중앙회(휴면예금조회서비스), 서민금융진흥원(휴면예금 찾아줌) 등 자산별로 각 기관 홈페이지로 연결이 된다. 각 기관 홈페이지에서 공동인증서 등을 활용해 잠자고 있는 금융 자산을 조회할 수 있다.오랜 기간 거래하지 않은 금융자산은 금융결제원이 운영하는 ‘계좌 정보 통합 관리 서비스’로 은행·저축은행·증권사 등에 개설된 본인 명의 계좌를 일괄 조회할 수 있다. 쓰지 않은 카드 포인트는 여신금융협회의 ‘카드포인트 통합조회서비스’를 통해 조회할 수 있다.환급은 은행 등 해당 금융사 인터넷·모바일뱅킹이나 가까운 영업점을 방문해 찾으면 된다. 1년 이상 입출금 거래가 없고, 잔액이 50만원 이하인 ‘소액 비(非)활동성 계좌’는 즉시 본인 명의의 다른 계좌로 잔고 이전 후 해지가 가능하다.숨은 금융자산은 핀테크 앱에서도 찾아볼 수 있다. 토스뱅크는 앱에서 ‘숨은 보험금 찾기’ 서비스를, 카카오뱅크는 휴면 예금·보험금 찾기 서비스를 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>스타벅스 선불금 유효기간…결국 폐지</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003142176?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>[경향신문] 5년 이내 사용 않으면 업체 귀속작년 국정감사에서도 논란 빚어신세계그룹이 스타벅스코리아의 선불충전금 유효기간을 폐지한다. 스타벅스 소비자들이 충전금을 5년 내 사용하지 않을 경우 잔액이 회사로 귀속되는 것에 문제제기가 이어지자 논란 소지를 없앤 것으로 보인다.신세계그룹은 21일 “SSG닷컴과 함께 선불식 충전 카드인 스타벅스 카드 유효기간을 폐지하는 약관 변경을 통해 고객의 편의성을 높이겠다”고 밝혔다. 이어 “스타벅스는 2020년 6월 고객 예치금에 대해 서울보증보험이 운영하는 전자상거래 결제수단 보증보험에 가입해 안전장치를 강화했다”며 “소비자 권익보호와 쇼핑 편의를 도모하고자 사용기한을 없애기로 했다”고 설명했다.스타벅스는 지난해 유효기간(5년)을 넘긴 선불충전금을 회사로 귀속시킨다는 것이 알려져 국정감사 등에서 논란이 됐다. 스타벅스는 고객 요청 시 유효기간을 5년 더 연장하고 고객에게 선제적으로 유효기간을 안내한다고 밝혔지만 약관은 바꾸지 않았다. 이에 금융당국의 규제 공백 속 소비자에게 돌려줘야 할 돈을 챙겼다는 비판이 일었다.스타벅스 카드 이용약관 중 선불결제 조항을 보면 ‘카드 잔액에 대한 고객 권리는 최종 충전일 또는 최종 사용일로부터 5년이 지나면 자동소멸한다’고 명시돼 있다. 이번 약관 변경으로 소비자들은 깜빡하고 쓰지 못한 선불충전금에 대해 보호를 받게 된다.다만 규제 사각지대로 남는 부분에 대해선 금융당국의 고민이 필요하다는 지적이 나온다. 선불충전금은 고객이 찾아갈 돈이기 때문에 은행의 요구불예금과 같은데, 스타벅스는 고객 돈을 운용하는 데 규제를 받지 않는다.작년 선불충전금 3402억원 규모토스 등 핀테크 업체보다도 많아사실상 현금이지만 규제 안 받아금융당국 관리 감독 필요 지적도강민국 국민의힘 의원실이 공정거래위원회에서 받은 자료를 보면 스타벅스의 선불충전금은 2017년 916억원에서 2021년 3402억원으로 늘었다. 대표적 핀테크 기업인 카카오페이(3841억원)보다는 적지만, 네이버페이(913억원)와 토스(1157억원)보다는 많다. 미사용 선불충전금은 2021년 기준 2503억원이 쌓였다.국내외 금융권은 스타벅스를 대형 핀테크 업체로 보고 있다. 스타벅스가 2020년 기준 세계 고객들에게 유치한 선불충전금은 약 20억달러(2조4700억원)로 추정된다. 미국의 4500여개 은행 중 자산규모가 10억달러가 안 되는 은행이 87%(3900개)를 차지한다. 스타벅스가 웬만한 은행보다 2배 이상 많은 돈을 보유하고 있는 셈이다.선불충전금과 유사한 방식의 전자금융업을 하는 국내 핀테크 업체는 전자금융거래법에 따라 운영내역 등을 공개하며 금융당국의 감독을 받는다. 스타벅스 선불충전금은 스타벅스에서만 사용 가능하다는 이유로 전자금융거래법상 선불전자지급수단에 해당되지 않는다.금융권 관계자는 “외부 금융기관에 예치할 때 생기는 이자 수익과 고객 돈이 사업 확장 등에 사금고처럼 활용돼도 감시할 수 있는 방안이 없다”고 말했다. 강민국 의원은 “스타벅스를 선두로 유통기업들이 대거 뛰어들며 선불충전 형태의 새로운 전자금융시장이 커지고 있는 만큼 소비자들의 불편과 피해를 줄이기 위한 금융당국의 제도 보완이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>모바일전자증명서 사용처 확대 연말 정부 공문 접수 등도 가능</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000892780?sid=100</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>올 연말에는 지방공무원 시험 합격자 임용 처리와 정부부처의 공문서 접수에 스마트폰으로 발급받은 전자증명서를 제출할 수 있을 전망이다. 행정안전부는 모바일 전자증명서의 활용도와 안정성이 높아지면서 사용처를 확대한다고 25일 밝혔다.2019년 12월부터 시행된 모바일 전자증명서의 발급건수는 2년4개월 만에 400만건을 넘어선 상태다.현재 대학생 학자금 대출, 국내선 항공기 탑승, 소상공인 지원 신청, 마스크 대리 구매, 백신접종 증명 등에 활용되고 있다. 주민등록 등·초본, 예방접종 증명서, 가족관계증명서, 건강보험자격득실확인서 등이 발급 대상이다. 정부24, 복지로, 전자가족관계등록시스템, 중소벤처24 등 정부 인터넷 사이트와 네이버 앱, 카카오톡, 토스(비바리퍼블리카), 이니셜(SK텔레콤) 등 26개 모바일앱에서 발급받을 수 있다. 발급받은 증명서는 자치단체, 재외공관, 국공립대학교, 공사, 공단 등 행정·공공기관과 민간 시중은행 등 850여개 기관에 제출할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>[1mm금융톡] 네·카·토에 에이스 개발자 뺏기는 은행들</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005076849?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>인재 확보 경쟁에 몸값 고공행진보수적 개발환경에 기피하기도사진=게티이미지뱅크은행권의 개발자 구인난이 극심해지고 있다. 대형 기술기업들과 유니콘(시장가치 1조원 이상 비상장 스타트업)들까지 핀테크(금융+기술) 시장에 뛰어들면서 인재 확보 경쟁이 더욱 치열해지고 있기 때문이다.20일 금융권에 따르면 금융 분야 개발자 몸값이 끝없이 치솟고 있다. 한 시중은행 임원은 "개발자, 특히 금융 소양도 갖춘 데이터 관련 개발인력들을 확보하는 것이 너무 어려워졌다"라며 "이미 은행에 있는 ‘에이스’급 인력들도 네이버, 카카오, 토스 등 핀테크를 다루는 IT업체들로 옮기는 경우가 많은데다 게임업계, 기성 대형 IT업체들과도 인재 확보 경쟁을 해야하기 때문"이라고 털어놨다.다소 딱딱한 분위기와 보안 최우선의 보수적인 개발 환경까지 겹쳐 개발자들 사이에서 시중은행권을 기피하는 움직임도 있다. 이같은 상황에 네이버, 카카오 등 IT업계에서 시작된 개발자 몸값 인상 랠리까지 겹쳐 금융권 개발자 몸값은 연일 상한가다. 금융권 관계자는 "데이터 분석 관련 개발자의 몸값은 개인 능력과 이력에 따라 천차만별이지만 소위 ‘A급’의 경우 최소 연봉 1억5000만원부터 시작해 플러스 알파를 줘야 하는 추세"라며 "카카오뱅크, 카카오페이 등 핀테크업체들도 일제히 임금을 올리는 분위기 속에서 앞으로도 더욱 몸값이 치솟을 전망"이라고 설명했다.실제로 카카오뱅크와 카카오페이는 지난해 11월과 지난달 각각 직원 연봉 1000만원씩 일괄 인상하기로 결정했다. 여기에 새 경영진 체제를 가동한 네이버와 카카오 역시 임금 인상을 추진 중이다. 네이버는 임직원들의 근속기간, 직책에 상관 없이 최소 300만원 이상씩 연봉을 인상시킬 예정이다. 카카오도 올해 연봉 예산을 15% 확대하고 기본급은 500만원씩 인상하기로 했다. 두 회사의 평균 연봉은 이미 1억원을 넘어섰다.한편 아이폰용 iOS 개발자가 귀했던 과거와 달리 최근에는 오히려 안드로이드 운영체제(OS) 기반 개발자 공급이 줄어드는 현상도 나타나고 있다. 시중은행 관계자는 "iOS의 경우 유일한 제조사인 애플의 일원화된 정책에 맞춰 개발하면 되지만 안드로이드 OS의 경우 각종 제조사가 저마다의 스마트폰을 내놓기 때문에 최적화하는 데에 너무 많은 품이 들어 iOS를 선호하는 개발자들이 늘고 있다"며 "어떤 앱이든 두 가지 버전을 개발해 야하겠지만 각종 핀테크와 은행의 모바일 애플리케이션(앱)들이 최적화 경쟁을 하고 있는 상황에서 이 같은 흐름이 쉽게 바뀌진 않을 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>윤한홍 "靑, 74년만에 제왕적 권력 상징서 국민쉼터로"(종합)</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011144473?sid=100</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>기사내용 요약입장료 무료…경제가치 연 5조 추산"출근 10분…한남·동작·반포대교 이용""리모델링 25억 안써…예산 덜 들어""국방부 청사 관저 신축? 검토 안해""외교장관, 삼청동 비서실장 공관으로"김건희 논란엔 "직접 살아야 해 간 것"미군기지 통과? "이미 반환받은 부지"[성남=뉴시스] 인수위사진기자단 = 윤석열 대통령 당선인이 25일 경기도 성남 분당구 SK바이오사이언스에서 열린 코로나19 백신 개발 관련 간담회를 마친 후 이동하고 있다. 2022.04.25. photo@newsis.com[서울=뉴시스]최서진 김승민 기자 = 윤석열 정부의 집무실 이전을 논의하는 청와대이전태스크포스(TF)가 25일 청와대 본관과 상춘재, 북악산 등산로 등 청와대 전면 개방 의지를 밝혔다. 청와대 74년 만에 제왕적 대통령 권력의 상징에서 국민 쉼터로 거듭나게 된 것이다.윤한홍 TF 팀장은 이날 서울 종로구 통의동 인수위 기자회견장 브리핑에서 "윤석열 당선인은 지난 선거 과정에서 제왕적 권력의 상징인 청와대를 국민께 돌려드린다고 했다"며 "약속을 지키기 위해 대통령으로 취임하는 5월10일 취임식 끝나는 시간에 청와대 문을 완전히 개방하기로 했다"고 전했다.이어 "본관 영빈관을 비롯해 최고의 정원 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다"며 "아울러 단절된 북악산 등산로도 휴식명소로 거듭나게 될 것"이라고 설명했다.또 "입장 인원은 청와대 이용 가능 면적과 입장객 1명당 3㎡의 최소 공간을 확보하고, 여유 관람시간 등을 종합적으로 검토해 하루 6회 2시간씩 6500명을 받아 일일 3만9000명 정도가 입장할 수 있다"며 "개방 행사 이후 입장 규모와 운영 방식은 국민 여러분들의 관심도와 입장객 추이를 고려해 조정하고, 조정 사항은 추후 순차적으로 통보하겠다"고 했다.청와대 관람 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등과 웹사이트 등을 통해 접수된다. 개방 초기엔 65세 이상 어르신, 장애인, 단체관람 등에 대해서는 별도의 신청 접수를 받기로 했다. 입장료는 무료다.윤 팀장은 "1년에 경복궁을 찾으시는 분이 300만 명이다. 이를 적용했을 때 경제적 가치가 2000억"이라며 "청계천을 개방하고 왔던 초기 관광객이 1~2년차에는 거의 2500~3000만 명이 왔다. 그걸 다 적용하지 않고 일부 1700만 명 수준을 적용했을 때는 경제적 가치가 연 5조1000억이라는 분석 자료가 있었다"고 추산했다.한편 김용현 부팀장은 당선인의 출퇴근 문제에 대해 "얼마가 될지 모르겠지만 사저인 서초동에서부터 용산 대통령 집무실로 출퇴근하셔야 할 상황"이라며 "거리로 보면 서초동부터 용산 집무실까지 7~8km다. 이동시간 시뮬레이션은 10분 내외다. 한남대고, 동작대교, 반포대교 등 세 개 다리를 이용하실 수 있다. 그때 그때 어느 지역이 국민 불편을 최소화할 수 있는가를 잘 판단해 경로를 선택할 것"이라고 했다.윤 팀장은 육군총장 공관 리모델링 비용 25억 원을 계획했던 것과 관련해선 "건설 전문가들의 결과 비도 새고 너무 낡아서 사실상 재건축 수준으로 손을 대야 한다. 예산도 25억 원의 두 배 이상 소요된다는 의견"이라며 "5월 10일 이후 손을 대더라도 외교장관 공관으로 변경했다. 현재 25억 예산은 하나도 쓰지 않고 있다"고 주장했다.그러면서 "외교장관 공관 리모델링은 그 정도(25억) 예산이 안들 것으로 전문가도 분석하고 있다. 그동안 장관이 바뀔 때마다 리모델링했기 때문에 상태가 괜찮다. 돈이 그 정도 들지 않는다"고 부연했다.[서울=뉴시스] 정병혁 기자 = 윤석열 대통령 당선인이 기자회견을 통해 새로운 대통령 집무실로 용산 국방부 청사를 지목했다. 윤 당선인은 기존 청와대는 5월 10일 새 정부 출범에 맞서 공원으로 개방한다고 밝혔다. 사진은 20일 오후 서울 종로구 청와대의 모습. 2022.03.20. jhope@newsis.com국방부 청사 내 관저를 신축한다는 보도에 대해선 "아직 전혀 검토한 바가 없다"며 "외교장관 공관을 리모델링해 입주하면 그 과정에 출퇴근 시간이라든지 여러가지 행사, 외빈 접대 등을 감안해서 그 때 가서 별도로 천천히 검토하도록 하겠다"고 말했다.외교부 장관이 머물 곳에 대해선 "삼청동에 비서실장 공관과 안가 두 개가 있다. 비서실장 공관을 외교장관 관사로 쓰고, 안가에서는 행사가 가능하기 떄문에 행사 공간으로 해서 외교장관이 쓰면 좋겠다는 의견이 있어서 그렇게 검토하고 있다"고 했다.김건희 여사의 '관저 쇼핑' 논란에 대해선 "검토하고 나서 가보신 거다. 왜냐하면 직접 살아야 하는 집이니까"라고 강조했다.집무실 이름으로 '피플스 하우스'(People's House)가 거론되는 데 대해선 "국민의 집이라든지, 국민관, 애민관, 이런 국민을 넣은 이름들이 굉장히 많다. 그런 뜻을 말씀하신 게 아닌가 본다"며 "국민들이 선호하는 명칭을 지을 것"이라고 답했다.당선인이 출퇴근시 미군 기지를 통과한다는 보도에 대해선 "이미 다 반환받은 부지다. 미군기지라는 표현이 적절하지 않다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>LG전자, 폰사업 철수 후 LG페이 이용자 뚝</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003208734?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>[일간스포츠 안민구]   LG페이. 연합뉴스    LG전자가 지난해 스마트폰 사업을 철수한 여파로 LG페이 이용자가 감소세를 지속하고 있다.    30일 아이지에이웍스의 빅데이터 분석 솔루션 '모바일인덱스'에 따르면 3월 LG페이 월간 활성 이용자(MAU)는 60만3099명으로 2월보다 5717명(0.9%) 감소했다.    LG페이 MAU는 LG전자가 휴대폰 사업을 철수한 작년 7월 이후 8개월 연속 감소세를 보이고 있다. 이 기간의 감소 폭은 25만631명(29.4%)에 달했다. 전체 송금·결제앱 가운데 LG페이의 순위도 작년 7월 7위에서 지난달 13위로 떨어졌다.    LG전자 스마트폰 신규 이용자가 없는 데다 기존 스마트폰 이용자도 LG페이 이용을 줄이고 있는 것으로 추정된다.    모바일인덱스 송금·결제앱 순위에서 삼성페이(지난달 1476만명)와 토스(1247만명), 카카오페이(312만명)가 작년 10월 이후 반년째 1∼3위를 지키고 있다. 페이코(273만명)가 지난 4월 경기지역화폐(249만명)를 제치고 4위로 올라선 이후 두달째 4, 5위도 그대로다.    LG전자는 LG페이 이용자 감소세에도 불구하고 작년 7월말 이후 최소 3년간은 서비스를 유지한다는 입장이다.    안민구 기자 an.mingu@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>KB국민카드 'BNPL' 구축, 카드사 러시 신호탄 될까</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000667284?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>카드사들 수익구조 다변화·MZ 고객 확보 활로…"저신용 차주 리스크 잘 살펴야"KB국민카드가 BNPL(Buy Now Pay Later, 선구매 후결제) 서비스를 도입한다. 신종 코로나바이러스 감염증(코로나19) 확산 이후 빅테크를 중심으로 국내에서도 BNPL서비스가 시행된 상황에서 본격적인 시장 경쟁을 위해 카드업계에서는 처음 뛰어든 것이다. KB국민카드는 이를 통해  BNPL 서비스에 익숙한 MZ세대 고객을 확보한다는 전략이다.19일 금융권에 따르면 전날 KB국민카드는 사내 벤처 '하프하프' 팀이 다날과 BNPL 결제 서비스 구축·운영을 위한 업무 제휴 계약을 체결했다.KB국민카드 사옥 전경. [사진=KB국민카드]양사는 이를 통해 KB국민카드의 신용평가·채권관리 노하우와 다날의 통합 결제 관련 디지털 인프라를 융합한다는 계획이다. 특히 비금융정보 기반의 대안신용평가 시스템을 공동으로 구축한 뒤, 올해 3분기에 차별화된 BNPL 결제 서비스를 국내 시장에 선보일 예정이다.BNPL은 말 그대로 소비자가 상품 구매 시 부족한 결제금액을 후불로 분할납부하는 방식이다. 신용카드 할부와 유사한 결제방식이다. 다만, BNPL과 신용카드는 고객별 결제 한도 산정방식에 차이가 있다.신용카드는 신용점수와 소득 등 금융정보를 바탕으로 결제 한도를 부여한다. 반면 BNPL은 비금융정보 등을 활용한 대안신용평가 중심으로 결제 한도를 부여함으로써 금융정보가 부족한 '씬파일러(Thin Filer)'도 이용할 수 있는 서비스다.지난 2005년에 스웨덴에서 처음 도입된 BNPL 서비스는 전 세계적인 코로나19 확산으로 전자상거래시장이 커지면서 급성장했다. 현금·직불형 카드의 이용 비중이 높은 호주, 독일, 스웨덴 등을 중심으로 시장이 확대됐다. 뱅크오브아메리카(BOA)는 오는 2025년까지 BNPL 글로벌 시장 규모가 1조 달러까지 성장할 것으로 전망한다.국내에서도 성장세가 매섭다. 지난 2021년 4월 BNPL을 선보인 네이버파이낸셜은 출시 8개월 만에 가입자 27만명, 거래금액 330억원을 달성했다.별도의 신용평가 절차 없이 이용할 수 있는 BNPL 서비스 특성상, 소비 욕구는 높지만 신용도는 낮은 이들의 접근이 쉬워 MZ세대에게 큰 인기를 끌고 있다. 미국의 경우 MZ세대가 전체 사용자의 75%를 차지한다.BNPL 결제 흐름 [사진=금융결제원]하나금융경영연구소에 따르면 MZ세대는 신용이 낮아 신용카드를 만들지 못하는 경우가 있고 온라인 쇼핑 시 체크카드로 고가 상품 구매의 어려움이 있어 신용카드 대체 수단으로 BNPL을 이용한다. KB국민카드가 BNPL 서비스에 뛰어든 것도 이 때문이다.KB국민카드를 시작으로 카드 업계 전반으로 BNPL 서비스가 확대될 조짐도 보인다. 신한·롯데카드 등 복수의 카드사들이 관련 서비스 구축을 검토 중이기 때문이다.카드사들은 이미 신용공여 서비스를 제공하고 있기 때문에 네이버파이낸셜·토스 등과는 달리 금융규제 샌드박스 없이 바로 서비스를 할 수 있다는 이점도 있다.갈수록 줄어드는 가맹점 수수료·DSR(총부채원리금상환비율) 규제로 수익성 악화에 처한 카드사들이 비교적 쉽게 수익구조를 다변화할 수 있는 활로인 셈이다.여신금융 전문가들은 소비자들의 결제 수단 확대와 수익구조 다변화 의미로는 긍정적이라고 평하면서도 카드사들이 서비스 구축에 신중할 필요가 있다고 조언했다.서지용 상명대학교 경영학부 교수는 "씬파일러들은 금융거래가 많지 않고 검증이 되지 않은 저신용 차주인 만큼 차주 리스크가 있다"면서 "우선 결제하고 추후에 상환하지 않는 미결제 위험성이 크다"고 설명했다.BNPL 서비스로 인한 부작용을 경계하는 목소리도 있다. 일반적으로 신용점수가 낮으면 카드 발급이 어렵지만, BNPL의 경우 이와 상관없이 일정 금액까지는 후불 결제 서비스를 받을 수 있다는 점에서 자칫 지불 능력을 고려하지 않은 소비가 일어날 수 있단 지적이다.강현구 금융소비자연맹 금융국장은 "개인들 입장으로서는 소비할 수 있는 수단이 다양해지고 넓어진다는 의미가 있으면서도 지출 여력이나 상환 능력이 없는 가운데 소비부터 하는, 과소비 문화가 우려된다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>윤 당선인 "취임식 직후 청와대 완전 개방… 27일부터 사전 신청"</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001152516?sid=100</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>청와대 전경. 연합뉴스윤석열 대통령 당선인의 취임식이 끝나는 시간부터 청와대가 완전 개방된다.25일 윤한홍 청와대 이전 TF팀장은 브리핑을 통해 "본관, 영빈관을 비롯해 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다"며 이같이 말했다.윤 팀장은 "단절됐던 북악산 등산로도 5월 10일 아침부터 완전 개방돼 국민께서 언제든지 즐길 수 있는 휴식 명소로 거듭날 것"이라고 밝혔다.이어 "청와대 개방을 기념하는 대국민 행사 '청와대 국민 품으로'가 진행된다"며 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 펼쳐질 계획"이라고 설명했다.국민 불편 초래와 안전 문제 등을 고려해 관람 신청 서비스를 운영, 한시적으로 하루 입장인원을 약 3만 9000명으로 제한한다고 전했다.관람 신청은 오는 4월 27일 오전 10시부터 네이버, 카카오, 토스 등을 통해 받을 예정이다. 65세 이상 어르신, 장애인, 단체 관람 등은 별도 신청이 필요하다.다만 북악산 등산로는 인원 제한 없이 5월 10일부터 전면 개방된다. 청와대 동편과 서편 어느 곳에서나 출발할 수 있다.자세한 사항은 청와대 개방 온라인 소통관인 '청와대, 국민 품으로'에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>靑 관람 당분간 하루 3만 9000명 입장… 북악산 등산로는 무제한</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003268318?sid=100</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>청와대 5월10일 ‘국민 품으로’윤석열 대통령 당선인이 21일 오후 경남 진주시 중앙유등시장을 방문해 시민들에게 감사 인사를 하고 있다. 2022.04. 21 대통령직인수위원회 사진기자단청와대가 윤석열 대통령 당선인의 취임식 행사가 끝나는 다음달 10일 정오에 국민에게 개방된다.대통령직인수위원회 산하 청와대 이전 태스크포스(TF) 윤한홍 팀장은 25일 언론 브리핑에서 “청와대는 조선시대 500년 그리고 대한민국 건국 이후 74년, 약 600년 동안 닫혀 있던 권력 상징의 공간”이라며 “그 공간이 5월 10일 국민의 품으로 돌아간다”고 밝혔다. 이어 “본관, 영빈관을 비롯해 최고의 정원이라고 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다”고 말했다.청와대 개방 시간은 5월 10일 취임식 당일만 정오부터 오후 8시까지, 다음날부터는 오전 7시에서 오후 7시까지다. 이용객 안전 등을 고려해 개방 초기엔 관람 인원을 제한하고 향후 추이를 보면서 인원 제한을 풀지 결정키로 했다.이에 따라 다음달 10일부터 일일 관람 인원은 3만 9000명(하루 6차례, 2시간마다 6500명씩)으로 제한된다. 관람을 위해서 당분간 사전 입장 신청을 해야 하고, 인원 초과 시 추첨을 통해 관람객을 선정한다. 65세 이상 노인과 장애인 단체 관광은 별도로 신청을 받아 인원을 안배하기로 했다.사전 신청은 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 윤 팀장은 “입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이를 고려해 조정될 수 있다”고 설명했다.다만 청와대 본관과 대통령 관저 등 건물 내부와 출입 통제 구역은 당장 개방되지는 않는다. 향후 주요 기록물과 통신시설, 보안이 필요한 문서 등을 정리한 후 전면 개방하도록 할 계획이다.북악산 등산로는 청와대 경내와 달리 사전 신청이나 인원 제한 없이 5월 10일 오전 7시부터 이용이 가능하다. 윤 팀장은 “경호와 보안을 이유로 굳게 잠겨 있던 청와대 뒤편 백악정 대통문이 5월 10일 개방된다”며 “이로써 청와대에서 한양 도성 성곽까지 연결돼 진정한 북악산 등산로 전면 개방이 완성된다”고 했다.청와대 개방을 기념하는 ‘청와대, 국민 품으로’라는 대국민 행사도 진행된다. 윤 팀장은 “5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다”며 “같은 기간 청주 청남대, 세종 대통령기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것”이라고 예고했다.윤 당선인은 취임과 동시에 서울 용산의 기존 국방부 청사에서 업무를 시작한다. 윤 팀장은 “5월 10일 윤 당선인은 5층에서 (임시로) 근무를 하게 된다”고 밝혔다. 현재 국방부 2~4층은 한미연합훈련 이후로 이사가 미뤄진 상태다. 이사가 완료되면 공사를 통해 6월 중순쯤 국방부 2층에 윤 당선인 집무실이 마련될 예정이다. 1층에는 기자실, 2층에는 비서실, 9층에는 경호실이 들어설 예정으로 현재 공사가 진행 중이다.새로운 대통령 집무실 명칭과 관련해 윤 팀장은 “열흘 정도 진행된 (국민 공모가) 만 건 정도 들어왔다”며 “국민의집, 국민관, 애민관 등 국민을 넣은 이름들이 굉장히 많다”고 했다. 그러면서 “많은 국민들이 선호하는 적절한 이름을 짓도록 하겠다”고 말했다.브리핑에 동석한 김용현 전 합동참모본부 작전본부장은 윤 당선인이 취임 후 한 달 정도는 자택인 서초동에서 용산으로 출퇴근할 것임을 재확인한 뒤 “서초동에서 용산 집무실까지 7∼8㎞ 정도 되고 이동 시간은 10분 내외”라며 “국민 불편을 최소화할 수 있는 시간대에 한남대교, 동작대교, 반포대교, 한강대교 등의 경로를 선택할 것”이라고 말했다.윤 팀장은 “장관이 바뀔 때마다 계속 리모델링을 해 와서 (외교부 장관 공관) 상태가 양호하다”며 “(애초에 관저로 고려했던) 육군참모총장 공관을 지금부터 (리모델링)하는 것보다 훨씬 기간이 적게 걸릴 것”이라고 했다. 비용도 애초 육참 공관 리모델링 비용으로 추산했던 25억원보다 적게 들 것이라고 예상했다.아울러 외교부 장관의 새 공관으로 기존 삼청동의 청와대 비서실장 공관을 사용하는 방안이 검토되고 있다. 윤 팀장은 “현재 삼청동에 (청와대) 비서실장 공관과 대통령 안가 두 개가 있다”며 “안가 중 하나는 비서실장 공관과 붙어 있다”고 말했다. 그러면서 “비서실장 공관을 외교부 장관 공관으로 쓰고 붙어 있는 안가를 행사 공간으로 (하자는) 의견이 있어서 검토 중”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>취준생 가슴 쓸어내리게 한 신한은행 공고 해프닝</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001978483?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>디자이너 채용에 ‘감정평가사’ 기재단순실수였으나, 취준생 사이 화제높은 은행권 취업문 반영[헤럴드경제=서정은 기자] 지난 한 주 신한은행의 디자이너 경력직 채용 공고를 두고 취업준비생의 가슴을 쓸어내리게 한 웃지못할 일이 발생했다. 한 아웃소싱 업체의 실수로 경력 요구사항에 '감정평가사'가 뜬금없이 떴기 때문이다. 은행 취업 문턱이 하늘의 별따기인만큼 누리꾼들은 '내정자가 있는 것 아니냐'는 의문부터 '신한은행 정도면 충분히 그럴 수 있다'는 등 여러가지 의견을 보탰다.17일 금융권에 따르면 최근 신한은행은 '디자이너 경력직 채용' 공고를 냈으나, 지난 11일 수정했다. 신한은행 브랜드를 대표하는 디자인을 직접 기획하고, 제작하는 경력직 필수요건에 '감정평가사'라는 지원 자격이 뜬금없이 등장해서다. 이밖에 은행은 디자인관련 전공자(4년제 대졸이상), 디자인경력 3년이상을 기본 요건으로 기재했다.감정평가사는 동산, 부동산 등과 같은 재산의 가격을 감정 평가 할 수 있는 법적 자격을 가진 사람이다. 최근 있었던 32회 감정평가사는 4019명이 접수해 203명이 최종합격하는 난이도가 높은 시험인데다 디자이너 역할과 거리가 멀어 각종 커뮤니티 등 온라인에서 화제가 된 건 당연했다.헤럴드경제 확인 결과 이는 아웃소싱 업체의 단순 실수로 드러났다. 신한은행 측은 “감정평가사 우대사항 등은 전혀 없는 일”이라며 “잘못 올라간 공고문을 수정했을 뿐 아니라, 혹시나 의혹을 살만한 절차 등도 전혀 없다”고 말했다.[아웃소싱업체 공고, 주요 커뮤니티 발췌]최근 은행권 취업이 하늘의 별따기인만큼 단순 해프닝이지만, 취업준비생들은 놀란 가슴을 진정시켜야했다. 실제로 각종 커뮤니티에는 수천명의 누리꾼들이 ‘내정자가 있는것 아니냐’는 얘기부터 ‘단순 실수, 혹은 원래 신한은행 입사하려면 저정도 스펙을 갖춰야한다’는 등 각종 얘기를 내놨다.그도 그럴것이 최근 은행들이 디지털·비대면 전환을 가속화하면서 일반 행원 공채를 줄이고, 디지털·IT 인력 중심의 수시채용으로 전환하고 있기 때문이다. 신한은행의 디자이너 또한 한명 뽑는 자리에 수십명이 지원할 정도로 인기를 끄는 자리다. 신한은행의 경우 감각적인 캐릭터, 디자인을 통해 최근 은행권 내 호평을 받고 있는 중이다.이런 해프닝이 신한은행만의 일은 아니다. 과거 KB국민은행 또한 입사지원서 항목에 외국어 사항에 영어(토익/토플/텝스), 일어(JPT/JLPT), 중국어(HSK) 점수와 함께 독일어(ZD)를 추가했다 논란이 됐다. 토스, 오픽 등의 점수도 기재할 수 없도록 하면서 잘 사용되지 않는 독일어 항목을 추가했기 때문이다.은행권 관계자는 “은행 채용 문턱이 높아지고 커뮤니티 등을 통해 정보 공유가 이뤄지다보니 취업준비생들 입장에서는 단어 하나하나에 신경쓸 수 밖에 없다”며 “은행들도 변화하는 트렌드에 맞춰 인력을 확보하고 있다”고 말했다.한편 신한은행의 디자이너 채용은 오는 19일 서류접수를 마감한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문] LG생건 M&amp;A매직 K뷰티판 뒤집었다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005196005?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>[이데일리 이용성 기자] 다음은 21일자 이데일리 신문 주요 뉴스다.△1면 -LG생건 M&amp;A매직 K뷰티판 뒤집었다-“본업에 충실하라”…尹 정부, 공공기관 실적중심 개혁 시동-‘검수완박’ 정치적 목적 의심…강행 땐 국민 동의 못 얻을 것-“뮤직카우는 증권”…조각투자 규제 신호탄-[사설] 대법원도 위헌 지적 ‘검수완박’…입법폭주 당장 멈춰야-[사설] 먹구름 짙어진 한국경제, 퍼펙트 스톰 대비 이상 없나△종합-고령화 대비 덜 된 韓…나랏빚 더 늘어날 것-맞아도 걸리는데…3·4차 백신 접종 꼭 해야 하나요[궁즉답] -경찰공제회, 투자부문별 팀 신설…자산운용 전문성 높인다△뮤직카우發 ‘조각 투자’ 주의보-관리·감독 뒷짐지다 민원 5개월 만에 규제…‘100만 뮤직카우’ 혼란만-“증권성 논란 와중에 손해 본 돈, 누가 보상해 주나”-미술품·슈퍼카·명품시계·한우 투자에도 불똥 튈까△윤석열 인수위-文정부 들어 공무원 12만명 늘어…“尹, 정원 동결뒤 철밥통 조직에 ‘메스’-尹정부 임기 내 원전 18기 수명 늘린다-병사월급 200만원·납품단가 연동제 만지작-인수위 청년소통TF “청년 스타트업 규제혁신”△흔들리는 OTT-출혈 경쟁, 계정공유, 집콕 특수 시들…가입자 늘긴커녕 유지도 급급-車에서, 비행기서, 극장서 감상…토종 OTT, ‘2.0’으로 반격-광고 붙이고 계정당 과금…넷플릭스, 수익확보 안간힘△尹, 공공기관 평가 개혁 예고-기관 실적 악화에…MB·朴 정부 때처럼 경영 효율 중시체제로 회귀할 듯-평가항목 개선해 비핵심 업무 방만 확장 막아야-“공공부문, 일괄 축소보다는 전문성 따져 재원 재조정해야”△종합-‘후’ 집중한 LG생건, ‘다양화’ 아모레퍼시픽…해외시장서 희비 갈렸다-“보유세 과도, 상한선 낮추자” 서울시, 인수위에 공식 건의-새 정부 정책 1순위…국민은 “부동산 정상화” 전문가는 “경제 활력”-국힘 “산은 5년 성과 미미…부산 이전해야”△경제-국경 없는 시대…공정위, 글로벌기업을 겨눠라-이창용의 한은, IMF식 경쟁체제 도입한다-노사 호평받았지만…이정식 청문회 가시밭길 예고-보잉 한국R&amp;D센터 찾은 산업장관 “항공·우주산업 규제 정비 빨리 추진”△정치-‘송영길 컷오프’로 민주당 내홍…‘친명vs반명’ 계파갈등 표면화-‘민심 초접전’ 김은혜·유승민…당심서 승패 갈릴 듯-양향자 변수에…민주, 민형배 탈당 카드 꺼내-‘원조 친노’ 이광재 다시 강원지사로-퇴임후 계획 밝힌 文대통령 “양산서 평범한 삶 보낼 것”△금융-은행 찾아 삼만리 그만…빅4, 우체국에 둥지-스벅, 선불카드 미사용액 2503억 “약관상 유효기간 5년 불과”-금감원 ‘토스 마이데이터’ 현미경 검사-금리 상승에 RBC 뚝…보험사 건전성지표 빠르게 악화△글로벌-버스·열차·비행기에서도 ‘NO’…마스크 벗은 미국, 환호성 질렀다-러, 우크라 돈바스 총공세에…“美, 8억달러 군사지원 발표 예정”-53조에 사겠다던 머스크…“본격 자금 마련 착수”-中, 경기 둔화에도 LPR 석달째 동결-日, 작년 무역적자 51.6조 ‘7년來 최대’△이데일리가 만났습니다-사법제도 틀 바꾸는 중요한 일…국민·검·경 의견수렴 없이 졸속추진 안돼-“공수처도 쫓기듯 입법 후 방치 황제의전·통신조회 폐해 답습”△산업-“車 반도체 시장, 중소 팹리스에 더 유리”-CJ이재현號 ‘디지털 혁신’ 닻 올려-가전·TV·모바일 초연결…삼성·LG, 미래 라이프 한눈에-후판값 상승·이자 증가 빅3조선사 수익성 악화-NFT 뛰어드는 완성차…‘마케팅+젊은 고객 충성도’ 다 잡는다△ICT·과학-열받은 지구…4월 ‘초여름 날씨’ 반짝 아니다, 5~7월은 더 더울 것-정보인력 뽑았는데 프로그래밍 꽝…블라인드 채용 손 본다-재활용 소재, 외장용까지 확대…갤럭시, ‘친환경 폰’ 혁신△제약·바이오-머크·SK바사 양분 ‘대상포진 백신’ 시장…GSK 도전장-에피스 품은 삼성바이오로직스 단독경영체제로 전환한다-휴젤 ‘보툴렉스’, 獨 품목허가 획득-코오롱생명과학 ‘인보사’ 기술수출 계약과 해지 사이△증권-관망세에 코스피 거래량 ‘반토막’…“아직 매수 신중할 때”-덜 오른 리오프닝株…덜 오른 ‘의류’ 사둘까-코스닥 현금배당 사상 첫 2조 돌파△증권-외국 자본이 점령한 배달앱…수수료 올려 ‘수익 챙기기’ 시동-日 라쿠텐·CJ ENM, 국내 주얼리테크 ‘비주얼’에 베팅-KB자산운용 “도심형 전기차 초고속 충전소 구축”-신한운용 ‘K열풍’ 투자 ‘신한K컬쳐펀드’출시△부동산-대출 회수 위기 둔촌주공 재건축, 극적 타협 ‘물꼬’ 트나-첫 삽도 못떴는데 곳곳 소송전…도심 복합사업 ‘표류’“4억씩이나 뚝!”…세종시 집값 끝없는 추락-현대건설·한전원자력연료 ‘국내외 원전해체’ MOU△문화-엔데믹 시대로의 ‘전환’…‘예술의 역할’ 선보이겠다-864일 만에 아미 만난 BTS…“박수 질러” 소리없는 아우성-‘쇠 단소·나팔관 해금’ 국악기 개량 60년 史△오피니언-산업생태계 거인 된 스타트업-‘교육부 폐지론’ 반복 안되려면△피플-“尹정부 기업에 좋을 것…가장 매력적인 시장은 미국”-최태원, 2030 부산엑스포 유치 책임 맡을 듯-하나금융, 발달장애 예술가 공모전 작품 전시-동문건설 창업자 경재용 회장 별세-뉴욕타임스 새 편집장에 ‘중국통’ 조지프 칸 발탁-한국투자증권, 장애아동 후원-코웨이, 휠체어농구단 창단-명복을 빕니다△사회-檢 ‘검수완박’ 강온전략…“범죄방치법” 비판 속 ‘신뢰 회복’ 다짐-5월 모든 학교 정상 등교…수학여행도 간다-줄어든 확진…신속검사 없애고 PCR 일원화 검토-“알바 2명 더뽑아해요”…웃음 되찾은 사장님-PC고치랬더니 악성코드 심은 수리기사들</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>닥터나우, 헬스케어 스타트업 ‘부스터즈 컴퍼니’ 인수</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004954360?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>김종상 신임 CPO 합류, 부스터즈 컴퍼니 대표•토스 PO 등 서비스 기획 및 운영 총괄 맡아와 국내 1위 원격의료 플랫폼 닥터나우(대표이사 장지호)가 헬스케어 스타트업 ‘부스터즈 컴퍼니’를 인수하며 김종상 대표를 닥터나우 최고제품책임자(이하 CPO)로 선임했다고 25일 밝혔다.부스터즈 컴퍼니는 개인별 맞춤형 운동 콘텐츠를 제안하고 의료전문가를 통한 상담 및 관리를 지원하는 ‘건강비서’와 ‘클리닉’, ‘파인드’ 등의 디지털 헬스케어 앱을 지속적으로 선보이며 주목을 모았다.닥터나우는 부스터즈 컴퍼니의 서비스 개발 역량과 노하우를 확보해 현재 운영 중인 비대면 진료 및 처방약 배송 서비스를 고도화해 나갈 방침이다. 아울러, 건강 관리에 관심이 높아진 이용자에게 더 나은 플랫폼 경험을 제공하고 만족도를 선사할 수 있는 혁신적인 서비스를 제공해 나갈 계획이다. 한편, 이번 인수를 통해 닥터나우에 합류한 김종상 신임 CPO는 부스터즈 컴퍼니의 모든 서비스를 직접 기획, 운영한 창업가로, SK플래닛 데이터 애널리스트 경력을 거쳐 토스에서 프로덕트 오너를 역임했다.특히 2020년 토스 재직 당시 코로나19 재난지원금 서비스 론칭 및 월간 활성 이용자(MAU) 1,100만 건 달성 등 대규모 프로젝트와 서비스를 성공적으로 이끌어 낸 바 있다. 닥터나우 김종상 신임 CPO는 “비대면 진료와 처방약 배송이라는 전례 없는 새로운 혁신으로 의료 서비스의 패러다임을 전환한 닥터나우의 비전에 깊이 공감하여 합류를 결정했다”며, “고객 중심의 압도적인 서비스를 통해 헬스케어 전 분야를 아우르는 슈퍼앱으로 자리매김할 수 있도록 하겠다”이라고 밝혔다. 닥터나우는 국내 최초로 비대면 진료 및 처방약 배송을 선보이며 경증 환자 및 만성질환자 등에게 효율적이고 편리한 의료 서비스를 제공하고 있다. 국민 편익 기여 및 영향력 측면에서 높은 평가를 받으며 지난해 10월 소프트뱅크벤처스를 비롯해 새한창업투자, 해시드, 크릿벤처스 등 유수의 벤처캐피탈로부터 100억 원 규모의 시리즈A 투자를 성공적으로 마친 바 있다.매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>모바일 전자증명서 발급 400만건 돌파</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005199461?sid=102</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>네이버앱·카카오톡과 연계…전자증명서 이용 접근성 높여[이데일리 문승관 기자] 행정안전부는 지난 2019년12월부터 시행한 모바일 전자증명서의 발급 건수가 400만건을 넘어섰다고 25일 밝혔다.발급 건수 상위 5종 전자증명서는 이달 기준 주민등록등·초본, 예방접종증명서, 가족관계증명서, 건강보험자격득실확인서, 성적증명서(중등학교) 등이다. 모바일 전자증명서는 주민등록등·초본, 예방접종증명서 등의 각종 증명서를 스마트폰으로 발급받을 수 있는 서비스다. 모바일 전자증명서는 대학생 취업과 학자금 대출, 국내선 항공기 탑승 시 신분 확인, 소상공인 지원 등 국민 생활과 밀접한 업무처리 시 종이 증명서 대신 활용하고 있다. 특히 코로나19 상황에서 마스크 대리구매(가족관계 확인), 백신접종 증명 등에서 폭넓게 활용한 것으로 나타났다. 스마트폰으로 발급받은 전자증명서는 지자체, 재외공관, 국·공립대, 공사·공단 등의 행정·공공기관뿐만 아니라 시중은행 등을 포함해 850여개 기관에 제출할 수 있다. 모바일 전자증명서는 정부24, 복지로(복지부), 전자가족관계등록시스템(대법원), 중소벤처24(중기부) 등 정부의 인터넷 사이트에 접속해 민원증명서 발급을 신청하고 수령방법을 ‘전자문서지갑’으로 선택하면 발급받을 수 있다. 네이버앱, 카카오톡, 토스(비바리퍼블리카), 이니셜(에스케이텔레콤) 등 총 26개 모바일앱을 통해서도 모바일 전자증명서 발급을 신청하거나 제출할 수 있다. 이달 들어 네이버앱, 카카오톡 등 민간 모바일앱과 연계해 전자증명서에 대한 접근성을 높였다. 서비스 게시 결과 20만 건 이상이 발급된 것으로 나타났다. 네이버앱이나 카카오톡을 통해 전자증명서를 이용하려면 먼저 정부24의 회원으로 가입한 후 스마트폰에서 네이버 인증서나 카카오 인증서로 접속하면 된다. 행안부는 올해 말까지 지방공무원 시험 합격자 임용처리 또는 정부 부처의 공문서 접수(문서24) 시에도 전자증명서로 제출할 수 있도록 서비스를 확대할 예정이다. 이세영 행안부 공공지능정책과장은 “국민들이 자주 이용하는 민간 모바일앱에서도 쉽게 전자증명서를 발급신청하고 제출하고 있다”며 “국민의 생활 편익을 높이고 종이 없는 행정서비스를 구현하기 위해 앞으로도 전자증명서의 활용 기관은 물론 이용 편의성을 더 확대·높여 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.04.16~2022.04.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.04.16~2022.04.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"귀엽고 친근한 모니모…금융사 같지 않은 앱 만들었죠"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004688323?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cover Story인터뷰 - 이훈·이용철·조진건 프로가풀어놓는 개발 스토리모니모는 머니(money)+모어(more)"모이는 혜택, 커지는 혜택" 뜻 담아40개 이름 후보 놓고 두 달 걸려 선택입력·클릭할 때마다 진동 손맛 느껴엄지만으로 회원가입 모든 조작 가능삼성금융네트웍스의 통합 금융 앱인 '모니모'를 개발한 이훈·이용철·조진건 프로(왼쪽부터)가 19일 서울 남대문 삼성 본관 빌딩에서 모니모를 소개하고 있다. /김병언 기자“그래도 ‘삼성’인데 뭐가 달라도 다르지 않겠느냐.”삼성생명·화재·카드·증권·자산운용 등 삼성그룹 금융계열사가 ‘연합군’을 꾸려 통합 플랫폼을 만든다는 소식이 전해지자 업계 반응은 분분했다. 디지털 금융의 확산과 함께 전통 금융사와 핀테크, 테크핀 기업들이 치열하게 주도권 싸움을 벌이고 있는 상황에서 그래도 ‘삼성 이름값’을 할 것이란 기대와 제 아무리 삼성이지만 통합 앱만으로 쉽지 않을 것이란 회의적인 전망이 엇갈렸다. 그도 그럴 것이 선발 주자의 시장 선점 효과가 절대적인 ‘플랫폼 전쟁’ 시대에 금융권에는 이미 수천만명의 충성 고객을 확보한 ‘네카토(네이버·카카오·토스)’가 막강한 영향력을 행사하고 있기 때문이다. 네이버페이와 카카오페이, 토스의 가입자 수는 각각 약 3000만명, 3740만명, 2200만명에 달한다. 저마다 대형 은행을 거느린 5대 금융지주도 수년 전부터 계열사 앱을 합치는 등 ‘슈퍼 원 앱’ 경쟁에 일찌감치 뛰어들었다.그럼에도 불구하고 삼성금융네트웍스는 통합 앱 ‘모니모(monimo)’로 금융 플랫폼 경쟁에 승부수를 던졌다. 지난 14일 베일을 벗은 모니모는 기존 금융사 앱과 차별화된 군더더기 없는 사용자 인터페이스(UI)와 간결한 사용자 경험(UX), 매일 앱에 방문하게 만드는 전용 리워드 시스템 등으로 순조로운 스타트를 끊었다. 19일 서울 남대문 삼성 본관 빌딩에서 삼성 금융 플랫폼 담당 조직의 이훈·이용철·조진건 프로를 만나 모니모 개발의 비하인드 스토리를 들었다.▷모니모를 출시한 배경은 무엇인가요.“전통 금융사들과 정보기술(IT) 중심의 빅테크·핀테크가 서로 협력하고 또 경쟁하며 갈수록 금융산업의 경계가 허물어지고 있습니다. 이런 상황에서 삼성 금융사들의 시너지를 내고 소비자들에게 경쟁력 있는 서비스를 제공하려면 각 사의 앱을 하나로 합친 통합 플랫폼이 필요하다고 판단했습니다.”▷‘모니모’라는 이름은 어떻게 정해졌나요.“모니모는 ‘모이는 혜택, 커지는 혜택’이란 뜻을 담아 만든 이름입니다. 돈을 뜻하는 ‘머니(money)’와 더한다는 뜻의 ‘모어(more)’를 합쳐 축약한 말이기도 해요. 프로젝트에 착수하고 나서 모니모란 이름을 결정하는 데에만 두 달 가까이 걸렸죠. 처음에는 네이밍 후보만 40개가 넘었는데, 그중에서 몇 번씩 회사 안팎에서 서베이를 거쳐 선택된 이름이 모니모입니다. 특히 내부 임직원 서베이는 MZ세대(밀레니얼+Z세대) 직원을 중심으로 진행해 젊은 층에게 친근감을 줄 수 있는 이름을 골랐습니다. 모니모는 발음하기가 쉽고, 받침이 없어서 한글로 썼을 때나 영문으로 썼을 때 모두 균형감이 느껴진다는 점에서 반응이 좋았어요. 귀엽고 친근한 이미지의, ‘너무 삼성스럽지 않은’ 이름을 만들자는 저희 목표와도 잘 맞아떨어졌죠.▷‘삼성스럽지 않다’는 건 어떤 뜻인가요.“네이밍을 앞두고 삼성에 대한 소비자들의 인식을 조사해보니 ‘신뢰할 수 있는’ ‘국가대표 대기업’이란 긍정적인 이미지도 있었지만 ‘딱딱하다’ ‘너무 전문적이어서 접근하기 어렵다’는 반응도 있었어요. 새 통합 앱의 이름은 이런 부정적인 이미지를 덜어내고, 누구에게나 쉽게 다가갈 수 있는 친근한 인상을 부여하고 싶었습니다. 모니모의 이니셜인 M을 형상화한 로고도 부드러운 곡선으로만 이뤄져 있죠. 또 삼성이니까 이번에도 ‘삼성OOO’ 같은 식으로 이름지을 것이란 선입견도 깨고 싶었습니다. 결국 기존 삼성 금융의 틀을 깨자는 노력 끝에 모니모란 이름과 로고가 나온 셈입니다.”▷개발 과정에서 가장 중점을 둔 것은 무엇인가요.“여느 금융사 앱 같지 않은 앱을 만드는 게 목표였기 때문에 UX·UI 측면에서 가장 고민이 많았습니다. 우리가 보여주고 싶은 것보다 사용자 관점에서 이용하고 싶은 콘텐츠과 기능 위주로 배치했고, ‘조작하는 맛’이 나도록 무언가를 입력하고 클릭할 때마다 느낄 수 있는 미세한 진동을 넣기도 했습니다. 무엇보다 신경을 많이 쓴 부분은 사용자가 모니모를 처음으로 접하게 되는 관문인 ‘회원가입’ 화면입니다. 엄지손가락만으로 모든 조작이 가능하도록 화면 하단에 버튼을 집중 배치했고, 본인 인증 과정에서 필요한 통신사 정보와 인증번호 등도 사용자가 직접 입력할 필요 없이 자동으로 칸이 채워지도록 했어요.”▷수많은 핀테크 앱과 차별화될 수 있는 포인트가 있다면.“금융사만이 제공할 수 있는 본질적인 금융 상품과 서비스를 원스톱으로 제공한다는 점입니다. 삼성 금융 계열 5개사의 2300만 가입자(중복 제외)가 가장 많이 이용하는 서비스의 대부분은 다른 앱을 깔 필요 없이 모니모만으로 해결할 수 있습니다. 현금처럼 쓸 수 있는 리워드인 ‘젤리’를 일상 속에서 쉽게 받을 수 있다는 점도 강점이죠.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>청와대 관람 신청 첫날, 6시간 만에 36만명 몰려</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001983853?sid=100</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>신청자 몰리면서 홈페이지 한때 다운되기도접수 시작 1시간 만에 동시 사용자 수 144만건 초과26일 오후 서울 명동거리의 한 상점 벽면에 청와대 개방 홍보 안내판이 걸려 있다. [연합][헤럴드경제=김은희 기자] 청와대 개방에 따른 관람 신청 첫날인 27일 6시간 만에 36만명 이상 접수한 것으로 파악됐다.대통령직인수위원회 청와대이전태스크포스(TF)는 이날 오전 10시부터 오후 4시까지 6시간 동안 36만128건의 관람신청이 접수됐다고 밝혔다.청와대이전TF는 이날부터 홈페이지와 네이버, 카카오톡, 토스 등 3개 온라인플랫폼을 통해 관람신청을 받고 있다. 청와대 개방 홈페이지에 접속해 3개 플랫폼 중 하나를 선택하거나 각 플랫폼 애플리케이션에서 직접 신청할 수 있다. 청와대이전TF에 따르면 네이버를 통한 신청이 21만2020건으로 가장 많았으며 ▷토스 9만1397건 ▷카카오 5만6711건 순이었다.신청자가 몰리면서 홈페이지는 한때 다운되기도 했다. 청와대이전TF에 따르면 이날 신청 시작 1시간 만에 홈페이지 동시 사용자 수는 144만건을 초과했다. 동시 사용자 수는 최대 2만2391명으로 집계됐다. 신청자가 가장 많이 몰린 시간대는 오전 9시 40분부터 오전 10시 15분까지로 이후 서버가 일시적으로 다운됐다고 설명했다.청와대이전TF는 현재 서버 증설 작업을 준비하며 지속해서 서버 모니터링 작업을 진행 중이다.당첨 알림(관람 확정)은 정부 대표 행정서비스인 ‘국민비서’를 통해 보내준다. 관람일 기준 9일 전까지 신청이 가능하다. 관람일 8일 전 당첨 알림을 발송한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>실질금리 마이너스인데…맥 못추는 증권사CMA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001982826?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>계좌수 늘어도 잔고는 감소세인뱅·저축銀 예금이자에 열세[헤럴드경제=양대근 기자] 기준금리 상승에도 물가가 더 큰 폭으로 상승하며 은행 요구불예금에 돈을 두면 실질가치가 오히려 하락하고 있다. 대안으로 증권사 CMA(종합자산관리계좌) 계좌가 부상하고 있지만 수익률이 물가상승률을 넘어서지 못하는 모습이다.26일 금융투자협회에 따르면 지난 22일 기준 개인이 보유한 총 CMA 계좌수는 3451만4745좌로 사상 최대치를 돌파했다. 연초 대비 300만좌 가까이 급증한 기록이다. 같은 기간 잔고는 약 61조원으로 연초(약 60조원)와 비교해 큰 변동이 없다. CMA 1좌당 잔고는 18만9200원에서 17만6700원으로 오히려 줄었다. 계좌 계설은 했지만 제대로 이용을 하지 않고 있는 셈이다.증시 부진에 주요 유입경로인 고객예탁금이 줄어들고 있고 인터넷뱅크와 저축은행까지 경쟁적으로 파킹통장에 대한 금리와 혜택 등을 늘리며 CMA를 위협하고 있다는 분석이다.대표적으로 토스뱅크의 ‘토스뱅크 통장’은 1억원까지는 연 2%의 금리를 제공한다. 최근 은행권 최초로 이자를 하루 단위로 정산하는 서비스를 선보였다. 서비스 출시 이틀만에 66억5576만원(41만명)에 달하는 이자가 지급된 것으로 집계됐다.BNK저축은행이 선보인 ‘타!이거 파킹통장’의 500만원까지 최대 연 2.2%, 초과분에 대해 0.7%의 금리를 제공하고, 상상인저축은행 ‘파킹통장 369 정기예금’도 제시 조건을 맞출 경우 연이율이 최고 2.11%에 달한다.증권업계도 최근 한국은행의 기준금리 인상에 맞춰 CMA의 금리를 20bp~25bp(1bp=0.25%)로 인상했다. 증권사와 상품에 따라 1.10%~1.50% 수준의 금리가 제공되고 있지만 최근 증시 부진이 이어지면서 추가로 자금이 유출될 가능성도 커지는 상황이다.중견 증권사의 관계자는 “기준금리 인상분을 반영한 결정이고, 5월에도 금리가 오른다면 CMA 금리 인상을 또 검토할 것”이라면서도 “경쟁력 강화 방안에 대해 고민하고 있다”고 설명했다.CMA는 증권사가 운영하는 수시입출금 통장이다. 채권 등 단기상품금융상품에 투자해 수익을 내기 때문에 통상적으로 은행보다 높은 금리를 주는 것이 장점이고, 언제든 증시 투자금으로 활용될 수 있다. RP(환매조건부채권)형, MMW(머니마켓랩)형, MMF(머니마켓펀드)형 등으로 구분된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>케이뱅크, 수신액 절반 이상 '업비트'</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004043003?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>지난해 말 법인예수금 비중 58.75%[서울경제] 인터넷전문은행 케이뱅크의 수신액 절반가량이 암호화폐 거래소 업비트와의 제휴에서 비롯된 것으로 드러났다. 암호화폐 열풍에 따라 케이뱅크의 외형적 성장을 이끌어 내는 데는 성공했으나 안정성이 떨어질 수 있는 점은 숙제로 지목된다.17일 은행권에 따르면 지난해 말 기준 케이뱅크의 예수금(수신 잔액)은 11조3175억 원으로 이 중 법인 예수금이 6조6492억 원이다. 비중으로는 58.75%를 차지하는 규모다. 개인 예수금은 4조6682억 원(41.25%)이었다. 같은 기간 카카오뱅크의 법인 예수금이 0.19%, 토스뱅크가 0.006%를 기록한 데 비하면 케이뱅크의 법인예수금 비중이 상당히 높은 편이다.이는 고객이 케이뱅크를 통해 업비트에 입금해 보유하고 있는 금액이 법인 예수금 항목으로 분류된 데 따른 것으로 분석된다. 케이뱅크는 업비트와 실명확인입출금계정(실명계좌) 제휴를 맺고 있다. 업비트에서 원화로 암호화폐 거래를 하기 위해서는 고객이 반드시 실명 확인된 케이뱅크 계좌를 연동해야만 한다. 이때 고객이 케이뱅크 계좌를 통해 업비트에 입금한 원화와 고객이 거래해 보유한 비트코인, 이더리움 등 가상자산의 규모가 모두 법인 예수금으로 분류된다.실제로 2020년 6월 케이뱅크가 업비트와 제휴를 맺고 암호화폐 열풍이 불면서 케이뱅크는 지난 한해에만 수신 잔액이 세배 이상 늘었다. 지난 한 해 동안 전체 예수금은 7조5722억 원 늘었는데 이 중 법인 예수금 증가액 5조5619억 원에 달한다. 다만 은행권에서는 암호화폐 시장 상황에 따라 수신 잔액의 변동성이 커질 수 있다는 점이 관건이라는 의견도 나온다. 은행권의 관계자는 “케이뱅크가 기업공개(IPO)도 앞두고 있는 만큼 안정적인 예수금 조달 방안 등 점검이 필요해 보인다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>[핫이슈 키워드] 문대통령 마지막 대담·검수완박 중재안·한덕수·정호영·미성년 공저자 입학 취소</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000283565?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 이슈&amp; '핫이슈 키워드' - 장연재이슈의 흐름을 살펴보는 핫이슈 키워드 시간입니다. 인터넷과 SNS를 뜨겁게 달구고 있는 오늘(26일)의 키워드 함께 보시죠.◇ 문대통령 마지막 대담문재인 대통령이 어제(25일) 손석희 전 JTBC 앵커와 대담에서 부동산, 제20대 대선 등 여러 현안에 대한 의견을 밝혔습니다. 문 대통령은 특히 부동산 정책에 대해 "부동산 문제는 가장 무거운 짐이었다"고 말했는데요.부동산 가격 상승은 전 세계적 현상이다. 우리나라 부동산 가격 상승 폭이 작은 편에 속한다"며 "그런 걸로 면피하겠다는 게 아니라 세계적인 시각으로 봐야 한다는 것"이라고 언급했습니다. 또 민주당의 대선 패배 요인에 대해서는 "우리 정부에 대한 평가도 작용했을 것" 이라면서도, "그것을 인정하지만 억울한 점을 얘기하자면 저는 한 번도 링 위에 올라가 본 적이 없다는 것"이라고 밝혔습니다. ◇ 검수완박 중재안문재인 대통령이 공식석상에서 처음으로 검찰 수사권 폐지 법안에 대해 검찰 수사권·기소권 분리가 바람직하다는 기존의 입장을 언급했습니다. 그리고 여야의 국회의장의 중재안 수용을 긍정 평가했습니다. 검찰 지휘부의 총사퇴를 비롯한 검찰의 집단 반발에 대해서는 "저는 충분히 이해할 수 있다고 생각한다"면서도 검찰 역시 여야가 합의했던 중재안에 협력해줄 것을 당부했습니다. 한편 이미 두 차례 사직서를 낸 김오수 검찰총장은 지난주 여야가 합의한 중재안 내용에 반대한다고 말했습니다. 김 총장은 중재안이 공개되기 하루 전날 국회의장과 면담했을 때 중재안의 내용을 미리 들었던 것 아니냐는 의혹에 대해서는 아니라고 강하게 부인했습니다. ◇ 한덕수한덕수 국무총리 후보자 인사청문회가 어제 결국 파행됐습니다. 이런 가운데 한 후보자가 통상산업부 차관 시절에 그 부처 산하 공기업과 한 후보자의 집을 임차했던 미국계 기업이 100억 원이 넘는 수의계약을 맺었다는 소식이 보도돼 논란이 일고 있습니다. SBS는 한 후보자가 지난 1995년부터 4년 동안 미국계 에너지 기업 모빌의 자회사인 '모빌오일코리아'에 집을 임대해줬는데 한 후보자가 통상무역실장이던 96년 모빌의 다른 자회사 모빌 EHS사가 통상산업부 산하 한국가스공사와 용역을 체결했다고 전했습니다. 그리고 이로부터 1년 2개월 뒤 한 후보자가 차관 시절에는 가스공사와 모빌 측은 당시 한화로 133억 원 정도의 시행 용역 계약을 추가로 체결했는데요.주택 임대와 모빌EHS 계약과의 관련성에 대해 한 후보자 측은 임대차 계약은 부동산에 일임해 일절 관여하지 않았다고 부인했습니다. ◇ 정호영정호영 보건복지부 장관 후보자 자녀의 자원봉사 기록이 경북대병원 특정 병동에만 집중됐다는 언론 보도가 나왔습니다. 세계일보가 민주당 강선우 의원실을 통해 확보한 자료에 따르면 정 후보자 자녀들은 2016년 1월 11~15일 305병동에서 '환자 이송 업무지원' 등을, 같은 해 7월 25~29일 303병동에서 '환자 검사실 안내 업무지원' 등을 담당했는데요.2016~2017년 2년간 정 후보자의 자녀 외에 303동에 배치된 자원봉사자는 아무도 없어서 병원 측이 정 후보자 자녀들을 배려한 게 아니냐는 의혹이 제기됐습니다. 병원 관계자는 "병원 내 수요에 따라 봉사자를 임의로 배치한다며 정 후보자 자녀에 대한 특혜는 없었다"고 밝혔습니다. 한편 JTBC는 정 후보자 의혹을 해소하기 위해선 자녀가 편입한 경북대 자료가 필요한데 경북대 측이 국회가 공개 요청한 자료 가운데 절반 가량은 제출을 거부하고 있다고 전했습니다. ◇ 미성년 공저자 입학 취소지난 2007년부터 2018년까지 교수들이 자신이나 동료의 미성년 자녀를 논문 공저자로 올린 사례가 96건 확인됐습니다. 하지만, 관련 교수 69명 중 3명만 해임 등 중징계를 받았고, 대부분 징계시효 3년을 넘겨 주의·경고에 그쳤습니다. 이들의 미성년 자녀 82명 중에선 국내 대학에 진학한 46명 중 10명만 연구부정 논문을 대입에 활용한 걸로 확인됐고, 이 가운데 5명만 입학이 취소됐습니다. 이병천 교수의 아들과 조국 전 법무장관의 딸 조민 씨도 포함됐는데, 소송을 낸 상태입니다. ◇ 재건축 속도조절대통령직 인수위가 분당과 평촌 같은 1기 신도시 재건축을 중장기 국정과제로 천천히 추진한다고 밝혔습니다. 당초 윤석열 대통령 당선인은 30년 넘은 노후 아파트가 많은 1기 신도시의 재건축을 활성화하겠다고 약속하자 이 지역 부동산이 들썩였는데요.부동산 시장을 자극할 거라는 지적과 동시에 일부 지역에만 특혜를 주는 거라는 의견이 이어지자, 인수위가 결국 한발 물러선 건데요.1기 신도시 주민들은 용적률을 높여서 일반 분양을 많이 하지 않으면 지금 집주인들 부담이 커지면서 진행이 늦어질 것이라며 반발했습니다. ◇ 김동연 vs 김은혜민주당의 경기지사 후보로 김동연 전 경제부총리가 선출됐습니다. 민주당은 "경기지사 후보 선출을 위한 본경선에서 김 전 부총리가 50.67%로 과반을 득표해 후보로 확정됐다"고 밝혔습니다. 지난 대선에서 당시 이재명 민주당 대선 후보와 '가치연대'를 내세웠던 김 전 부총리는, 이제 본선에서 윤석열 대통령 당선인의 마음, 이른바 '윤심'을 대변하는 국민의힘 김은혜 의원과 진검승부를 벌이게 됐습니다. ◇ 청와대 개방청와대가 윤석열 대통령 당선인이 취임하는 5월 10일 정오를 기해 일반 시민들에게 공개됩니다. 청와대 이전 TF 팀장을 맡은 국민의힘 윤한홍 의원은 브리핑에서 청와대 개방 계획을 공개하면서 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다"고 예고했는데요.TF는 다만, 개방 초기 방문객이 몰려 불편과 안전 문제를 초래할 가능성을 고려해 사전 방문 신청을 받겠다고 밝혔습니다. 사전 신청은 27일 오전 10시부터 네이버, 카카오, 토스 등 모바일 애플리케이션과 웹사이트를 통해 할 수 있습니다. 한편, 청와대 뒤편의 북악산 등산로는 5월 10일 완전히 개방되는데요.등산로 출입에는 인원 제한이 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>모바일 전자증명서 400만건 넘어…네이버·카카오서도 발급</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013135746?sid=100</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 김병규 기자 = 행정안전부는 각종 정부 증명서를 스마트폰으로 발급받아 제출하는 모바일 증명서 서비스의 발급 건수가 400만건을 넘어섰다고 25일 밝혔다.     2019년 12월 발생을 시작한 모바일 전자증명서는 대학생 학자금 대출, 국내선 항공기 탑승, 소상공인 지원 신청, 마스크 대리 구매, 백신접종 증명 등에서 활용돼왔다.    주민등록 등·초본, 예방접종 증명서, 가족관계증명서, 건강보험자격득실확인서 등이 발급 대상이다.     정부24, 복지로, 전자가족관계등록시스템, 중소벤처24 등 정부 인터넷 사이트와 네이버앱, 카카오톡, 토스(비바리퍼블리카), 이니셜(SK텔레콤) 등 26개 모바일앱에서 발급받을 수 있다.     발급받은 증명서는 지자체, 재외공관, 국·공립대학교, 공사, 공단 등 행정·공공기관과 민간 시중은행 등 850여개 기관에 제출할 수 있다.    행안부는 연말까지 지방공무원 시험 합격자 임용처리, 정부 부처 공문서 접수 등에도 전자증명서 제출이 가능하도록 서비스를 확대할 계획이다.카톡 지갑 전자증명서 서비스 개시(서울=연합뉴스) 카카오가 행정안전부와 협업해 카카오톡에 정부24의 주요 공공문서를 신청하고 발급받을 수 있는 '카카오톡 지갑 전자증명서' 서비스를 개설했다고 15일 밝혔다. 사진은 카카오톡 지갑 전자증명서 서비스 화면. 2022.4.15 [카카오 제공. 재판매 및 DB 금지] photo@yna.co.kr    bkkim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.04.29.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"개발자 지망생 모여라"…삼성, SSAFY 밋업 개최</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004048444?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>교육생 1650명 참여···각계 응원 메시지 등SSAFY 8기 교육생 모집···월 100만원 지원비 제공29일 서울 강남구 SSAFY 서울 캠퍼스에서 'SSAFY 밋업' 행사가 진행되고 있다. 사진 제공=삼성[서울경제] 삼성이 29일 서울 강남구 ‘삼성청년소프트웨어아카데미(SSAFY)’ 서울캠퍼스에서 개발자 지망 교육생들을 응원하기 위한 ‘SSAFY 밋업’ 행사를 개최했다고 밝혔다.매년 두 차례 실시하는 이번 행사에는 SSAFY 6·7기 교육생 1650여 명이 참여했다. 행사는 △사회 각계의 응원 메시지 전달 △SSAFY 교육생의 나눔 경험 공유 △김경일 아주대 심리학과 교수의 ‘행복’을 주제로 한 강의 등으로 진행됐다. 이장섭 더불어민주당, 이영 국민의힘 의원과 박준하 토스뱅크 최고기술책임자(CTO) 등이 응원 메시지를 보냈다. 윤장현 삼성전자 MX사업부 개발실 부사장은 “이번 행사가 나눔의 가치에 대해 생각하는 시간이 되기를 바란다”고 말했다.한편 삼성은 SSAFY 8기 교육생을 5월 2일부터 16일까지 총 1150명 모집한다. 만 29세 미취업자 중 4년제 대학 졸업자(졸업 예정자 포함)라면 전공과 관계없이 지원할 수 있다. 교육 과정은 무료이며 교육생 전원에게 매달 100만 원의 교육 지원비를 제공한다.SSAFY는 삼성이 주관하고 고용노동부가 후원하는 기업의 사회적책임(CSR) 프로그램이다. 2018년 12월부터 총 5기, 2785명이 수료했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>예금보험공사, 9개월 동안 '잘못 보낸 돈' 29억원 돌려줬다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004687172?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스예금보험공사(예보)는 ‘착오송금 반환지원 제도’를 시작한지 9개월 동안 총 29억원(2330건)의 송금 실수를 바로잡았다고 18일 밝혔다.작년 7월6일부터 시행 중인 이 제도는 금융 소비자가 착오송금한 금전을 최소한의 비용으로 신속하게 반환받을 수 있도록 도와주는 제도다. 착오송금 발생시 먼저 금융사를 통해 수취인에게 반환을 요청해야 한다. 그럼에도 반환이 이뤄지지 않은 경우 예보에 반환 지원을 신청할 수 있다. 은행과 저축은행 등 금융사 계좌나 토스와 카카오페이, 네이버페이 같은 간편송금업자의 계정을 통해 송금했으나 5만~1000만원의 착오가 발생한 경우 이 제도를 이용할 수 있다. 다만 ‘연락처 송금’ 등 예보가 수취인 정보를 확인할 수 없을 땐 반환지원 신청 대상에서 제외된다.예보는 부당이득반환채권을 매입한 후 실제 회수된 경우에 한해 회수금액에서 비용(우편 안내비용, 지급명령 관련 비용, 인건비 등)을 뺀 잔액을 송금인에게 돌려준다.예보에 따르면 지난 3월말까지 착오송금인으로부터 총 8026건(118억원)의 지원신청을 받아 2330건(29억원)에 대해 반환을 완료했다. 예보는 총 29억1000만원을 회수해 소요비용을 차감한 28억원을 송금인에게 반환했다. 2330건 중 자진반환을 통해 돌려준 경우가 2250건이며 나머지 80건은 지급명령을 거쳤다. 착오송금 반환시 평균 지급률(착오송금액 대비 착오송금인이 최종 반환받은 금액)은 96%였으며 신청일부터 반환까지 평균 43일이 소요됐다.착오송금액 규모(신청 기준)는 10만~50만원이 36.6%로 가장 많았으며 이어 50만~100만원(16.5%), 100만~200만원(14.7%), 500만~1000만원(8.9%), 5만~10만원(8.1%) 등 순서였다.보이스피싱 등의 사유로 송금을 했을 경우 착오송금 반환지원 제도 신청 대상에서 제외된다. 압류 등 법적제한 계좌를 이용했거나 착오송금이 아니었다는 것이 객관적으로 확인되는 경우 등에도 이 제도를 이용할 수 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>청와대 관람, 오늘부터 네이버·카카오톡·토스로 신청</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001731916?sid=100</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>대통령직 인수위원회는 다음 달 10일 청와대 국민 개방을 앞두고 오늘(27일) 오전 10시부터 네이버와 카카오톡, 토스 등 온라인 플랫폼에서 관람 신청 서비스를 개통한다고 밝혔습니다.관람일 9일 전까지 스마트폰 앱과 PC 웹사이트에서 관람을 희망하는 날짜와 시간을 골라 신청하고, 관람이 확정되면 '국민비서' 서비스를 통해 알림 메시지가 발송될 예정입니다.청와대 개방 기념행사가 운영되는 다음 달 10일부터 22일까지 매일 오전 7시부터 오후 7시 사이 2시간마다 6천5백 명씩 입장하게 됩니다.단, 개방 첫날인 다음 달 10일엔 대통령 취임식이 끝나는 정오부터 오후 8시까지 관람할 수 있고, 22일은 별도 이벤트로 따로 신청을 받을 계획입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>GS네오텍, 신규 입사자 실무 적응 지원 나서</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002255190?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>GS네오텍이 신규 입사자의 원활한 적응을 위한 ‘온보딩 프로그램(Onboarding Program)’을 선보인다고 27일 밝혔다.‘온보딩 프로그램’은 신규 입사자에게 실무 및 기업의 문화와 가치를 교육하는 것으로 조직에 순조롭게 적응하고 정착할 수 있도록 돕는 과정이다.회사 입장에서는 신규 입사자가 빠르게 적응해 실제 업무에 투입될 수 있다는 점에서 많이 도입하고 있으며, 신규 입사자 입장에서도 단시간에 업무 경험과 이해도를 쌓을 수 있다는 장점이 있다.GS네오텍또한, 신규 입사자가 흥미를 잃거나 직무와 맞지 않다고 판단하여 조기에 이탈하는 사례를 줄일 수 있다. 실제로 구인∙구직 포털 잡코리아의 직장인 설문조사에 따르면, 2020년 기준 1년 차 신입사원의 이직 경험률은 77.1%에 달했다. 10년 전인 2010년 대비 40.1% 상승한 것이다.실제로 하이브, 토스, 카카오 등 분야를 가리지 않고 신규 입사자 이탈 방지를 위해 온보딩 프로그램 내 단순 업무 교육뿐 아니라 새로운 동료를 환영하는 의미로 파티나 흥미있는 행사를 실시하여 자연스럽게 조직 문화 및 직원 친화 등을 돕는 프로그램도 진행한다.GS네오텍에서는 신규 입사자 교육을 위해 ‘Ramp-Up Program’이라는 온보딩 프로그램을 진행하고 있다. 해당 과정은 아마존웹서비스(AWS)에서 실제 직장 내 교육 훈련(OJT)로 활용 중인 프로그램으로, 기본적인 프로세스는 동일하지만 세부 사항을 기업 환경에 맞게 조정 및 차용했다.신규 입사자는 ‘램프 업 프로그램(Ramp-Up Program)’을 통해 일정 기간을 두고 실무와 유사한 교육을 경험한다. 이를 통해 다수 앞에서 준비한 내용을 효율적으로 전달하고 각 단계의 목적에 따라 PT에 필요한 자료를 스스로 만들어내는 역량을 키운다.단계별로 진행되는 교육은 총 3가지다. 초기 컨설팅 관점에서 특정 서비스의 엔트리 지식을 전달할 수 있는 ‘101 세션’, 고객사의 요구사항을 기반으로 서비스 아키텍처를 구성하고 설명하는 ‘화이트보딩 세션’, 앞 단계에서 구성한 아키텍처를 실제로 구현하고 데모와 함께 동작 방식을 시연하는 ‘프로토타이핑 세션’이 있다.단계별 과정은 각 단계 과제를 발표 후 피드백 과정을 거친다. 청자는 실제 고객사 역할로 분장하여 각 역할에 맞는 질문을 한다. 덧붙여 OJT 관점에서 잘한 점과 아쉬운 점 또는 개선사항 등에 대해 피드백을 준다.모든 과정은 셀프 프로젝트(Self Project) 형태로 진행된다. GS네오텍은 최소한의 가이드라인 또는 자료를 제공하고 신규 입사자가 직접 온보딩 프로그램에 교육을 통한 직무 경험으로 실무에 한 발짝 더욱 다가갈 수 있도록 하는 것이다.GS네오텍 IT사업본부 오경호 사업지원 팀장은 “앞으로도 신규 입사자가 업무 및 조직문화 적응을 위해 맞춤형 온보딩 프로그램을 진행하겠다”라며 “이러한 온보딩 프로그램을 통해 GS네오텍은 우수한 인재를 육성하고, 나아가 고객에게 최상의 서비스를 제공할 수 있도록 더욱 노력하겠다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>74년 만에 개방하는 청와대, 어떻게 관람할 수 있나</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005199761?sid=103</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>내달 10~22일 청와대 개방 기념행사백악정 대통문 등 신규 등산로 개방27일부터 관람 신청…입장료 무료[이데일리 장병호 기자] 1978년 8월 15일 대한민국 정부 수립 이후 74년 동안 대통령 관저와 집무실로 이용됐던 청와대가 내달 10일 국민에게 전면 개방된다.윤한홍 청와대 이전 TF 팀장(왼쪽)과 김용현 부팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 하고 있다. (사진=인수위사진기자단)윤한홍 청와대 이전 TF 팀장은 25일 서울 종로구 통의동 대통령직 인수위원회 기자회견장에서 청와대 이전 관련 브리핑을 열고 관람 방법 등 청와대 이전 관련 주요 사항을 발표했다.청와대 개방은 윤석열 대통령 당선인의 주요 공약이다. 윤 당선인은 “제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다”고 여러 차례 약속한 바 있다. 대통령 당선 이후에도 가장 먼저 집무실 이전 및 청와대 개방을 추진하며 강한 의지를 보였다. 이에 취임식 당일인 내달 10일 청와대를 전면 개방할 계획이다.이를 기렴해 내달 10일부터 22일까지 13일간 대국민 행사 ‘청와대, 국민 품으로’를 개최한다. 윤 팀장은 “청와대 경내, 경복궁과 북악산 일대에서 새 시대, 새 희망을 담은 다양한 문화행사가 펼쳐진다”며 “동일 기간 청주 청남대, 세종 대통령기록관 그리고 합천 청와대세트장 등 전국 곳곳에서도 청와대 개방기념 특별행사가 진행된다”고 밝혔다.이 기간 동안 청와대 관람은 인터넷 스마트폰 어플을 통한 사전 예약으로 신청할 수 있다. 개방 시간은 매일 오전 7시부터 오후 7시까지며 2시간 단위로 6회에 걸쳐 예약을 받는다. 단 개방 행사 당일인 내달 10일은 오후 12시부터 오후 8시까지 운영한다. 입장료는 무료다.내달 10~21일에는 카카오톡·네이버·토스로 방문 신청이 가능하다. 행사 마지막 날인 내달 22일에는 별도의 신청 시스템을 통해 관람 신청을 받으며 방법은 추후 공지할 예정이다. 관람 신청은 오는 27일 오전 10시 오픈한다. 스마트기기를 이용하기 어려운 관람객을 배려해 대리신청도 가능하도록 했다.윤 팀장은 “국민불편을 최소화하기 위해 관람객 안전과 질서 유지를 위해 입장 시간을 2시간씩 일일 6회로 나눴으며, 2시간 마다 최대 6500명, 일일 최대 3만 9000명이 입장 가능하다”고 설명했다.개방 기념행사가 끝나는 내달 23일 이후에도 청와대는 지속적으로 개방 운영된다. 향후 대통령실 주관 ‘청와대 운영기획 추진위원회’(가칭)를 구성해 지속가능한 관리방안을 논의·확정할 계획이며, 그전까지는 관계부처에서 임시관리하는 방안을 검토 중이다. 야간 개방의 경우 현재 시설점검 및 안전시설, 조명시설 미비 등의 문제로 어려움이 있어 추후 야간 개방 방안을 마련한다는 방침이다.청와대와 북악산 연계 등산 코스도 추가로 운영된다. 등산코스의 개방 시간은 매일 오전 7시부터 오후 7시까지(입산은 오후 5시까지)이며 인원 제한없이 누구나 출입이 가능하다. 기존 북악산 구역(△창의문 △청운대 △곡장 △숙정문 △말바위 △삼청 등 6개 코스) 외에도 청와대 구역(△청와대 동편 코스 △청와대 서편 코스)를 새롭게 공개한다.윤 팀장은 “경호와 보안을 이유로 굳게 잠겨있던 청와대 뒤편 백악정 대통문이 내달 10일 완전히 개방된다”며 “이로써 청와대에서 한양도성 성곽까지 연결돼 진정한 북악산 등산로 전면개방이 완성된다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스증권, '실시간' 해외주식 소수점 거래 개시</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000144305?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>업계 최다 3070개 종목…1000원부터 투자 가능토스증권이 실시간 해외주식 소수점 거래 서비스를 시작했다. /토스증권 제공토스증권은 지난 18일 밤부터 실시간 해외주식 소수점 거래 서비스를 시작했다고 19일 밝혔다.토스증권의 해외주식 소수점 거래 서비스는 국내에선 유일하게 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식이다. 지체없는 실시간 거래가 가능하다. 투자 가능 종목은 총 3070개로, 해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다.미국 정규장이 열리는 밤 10시 30분부터 익일 새벽 4시까지(서머타임 적용 기준) 시장가로 주문된다. 그 외 시간대에는 예약 주문이 가능하다. 토스증권은 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.토스증권에서 제공하는 미국 주식과 ETP, 리츠 등 전 종목이 거래 가능하다. 대표적인 고가 주식인 버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF도 포함된다. 소수점 거래는 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 한화 기준 약 120만 원의 테슬라 주식을 1000원 어치 주문하면 0.000833주가 구매되는 식이다.토스증권 관계자는 "고객이 원하는 미국의 우량 종목을 가장 폭넓게 제공하면서도 가장 빠르게 소수점 단위로 거래할 수 있는 해외주식 서비스는 토스증권이 유일하다"며 "앞으로도 고객 중심적인 사고로 만족을 높일 수 있는 압도적인 투자 서비스를 만들어 나갈 것"이라고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[현장영상+] "청와대 입장료 무료...질서 유지 차원에서 한시적 예약제"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001731132?sid=100</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[앵커]윤석열 대통령 당선인 직속의 대통령 집무실 이전 TF가 오늘 청와대 이전과 개방에 대한 내용을 브리핑합니다.다음 달 10일 청와대가 개방될 예정인 가운데, 세부 일정과 운영 계획 등이 공개될 것으로 보입니다.현장으로 가보겠습니다.[윤한홍 / 청와대 이전 TF 팀장]5월 10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 하였습니다.이로써 본관, 영빈관을 비롯하여 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 됩니다.아울러 청와대로 인해 단절되었던 북악산 등산로도 5월 10일 아침부터 완전히 개방되어 국민께서 언제든지 즐길 수 있는 휴식 명소로 거듭나게 됩니다.74년 만에 제왕적 대통령 권력의 상징에서 국민 쉼터로 거듭날 청와대 개방을 기념하기 위해 준비한 내용을 보고드리겠습니다.첫째, 청와대 개방을 기념하는 대국민 행사, 청와대 국민 품으로가 진행됩니다.5월 10일부터 22일까지 13일간 청와대 경내 경복궁과 북악산 일대에서 새 시대, 새 희망을 담은 다양한 문화 행사가 펼쳐질 계획입니다.같은 기간에 청주의 청남대 또 세종의 대통령 기록관 그리고 합천의 청와대 세트장 등 전국 곳곳에서도 청와대 개방 기념 행사가 진행될 계획입니다.둘째, 개방 초기에 많은 방문객으로 인한 국민 불편 초래와 또 안전 문제 등을 고려하여관람 신청 서비스 제도를 운영하기로 하였습니다.청와대 개방에 대한 국민들의 높은 관심도와 또 봄 나들이객 증가 그리고 코로나 해제 등으로 많은 분들이 찾으실 것으로 예상되고 있습니다.그러나 얼마나 많은 분들이 오실지 예측하기가 어렵고 또 한번에 많은 분들이 몰리면 국민 여러분들께서 불편하시고 또 청와대 경내의 보전 문제가 있을 것으로 예상이 되고 있어서 한시적으로 입장 신청을 받아서 운영하려고 계획을 하고 있습니다.입장 인원은 청와대 경내 이용 가능 면적과 또 입장객 한 명당 3제곱미터의 최고 공간 확보, 또 여유 있는 관람을 위한 적정 시간 등을 종합적으로 검토하여 하루 총 6회, 2시간마다 6500명씩 일일 관람인원을 약 3만 9000명 정도로 결정하였습니다. 개방 행사 이후 입장 규모와 운영 방식은 국민 여러분들의 관심도와 입장객 추이 등을 고려하여 조정될 수 있고 또 조정 사항에 대해서는 추후 순차적으로 홍보하도록 하겠습니다.관람 신청은 오는 4월 27일 수요일 오전 10시부터 국민접근성이 높은 모바일 앱 네이버, 카카오, 토스 등과 웹사이트 네이버 등을 통해 접수받을 예정입니다.특히 개방 초기에 65세 이상 어르신과 장애인 그리고 단체 관람에 대해서는 별도의 신청을 접수받아 입장 인원을 안배하기로 했습니다.한시적으로 운영되는 관람 신청 서비스 제도는 국민 불편을 최소화하고 또 안전 유지 그리고 보다 나은 서비스를 제공하기 위해 결정되었음을 널리 양해 부탁드립니다.셋째, 청와대로 인해 단절되었던 북악산 등산로는 인원 제한 없이 5월 10일부터 전면 개방됩니다.경호와 보안을 이유로 굳게 잠겨 있던 청와대 뒤편 백악정 대통문이 5월 10일 개방됩니다. 이로써 청와대에서 한양도성 성곽까지 연결되어 진정한 북악산 등산로 전면 개방이 완성됩니다.청와대 동편과 서편 어느 곳에서나 출발할 수 있는 해당 등산로는 5월 10일부터 사전 신청 없이 인원 제한 없이 이용하실 수 있습니다.지금까지 말씀드린 개방 행사, 관람 신청 서비스, 등산로 등에 대한 보다 자세한 내용은 청와대 개방 온라인 소통관인 청와대 국민 품으로에서 확인하실 수 있습니다.국민 여러분, 청와대는 조선시대 500년 그리고 대한민국 건국 이후 74년, 약 600여 년 동안 닫혀 있던 권력 상징의 공간입니다. 그 공간이 5월 10일 국민의 품으로 돌아갑니다.그 새로운 역사적 순간에 함께해 주시기 바랍니다. 감사합니다.[사회자] 기자 여러분들이 궁금해하는 질문을 받는 시간을 갖도록 하겠습니다. 이미 설명해 드린 대로 관련 Q&amp;A가 지금 배포가 돼서 여러분들 소통방에 공지가 되어 있으니까 그걸 보시고 가급적이면 중복되지 않는 질문들을 해 주시면 감사하겠고 일문일답은 오늘 청와대 개방에 대한 질문에 집중해 주시고 나머지 질문은 오프 카메라 상태로 백브리핑 형태로 더 이어가도록 하겠습니까? 질문 있으시면 손 들어주시면 저희가 마이크를 전달해 드리도록 하겠습니다. 그럼 청와대 개방과 관련된, 저희가 Q&amp;A가 잘 정리가 되어 있어서 기자님들이 특별히 궁금한 점은... [윤한홍 / 청와대이전TF 팀장] 다른 내용도 질문하셔도 됩니다. 집무실 이전이라든 다양하게... 왜냐하면 제가 우리 기자분들 전화를 엄청 많이 주시는데 다 못 받습니다, 사실은. 바쁘기도 하고 또 너무 많은 분들이 전화를 주시기 때문에 다 못 받는데 궁금하신 거 있으면 오늘 다 주시면 하나하나 다 상세히 설명드리도록 하겠습니다.[사회자] 관련된 질문 있으시면 손을 들고 소속과 성함 말씀해 주시고 질문해 주시기 바라겠습니다. [기자] 뉴스토마토 임유진입니다. 청와대를 개방하시면 나중에 입장료를 따로 받는지 그게 좀 궁금하고요. 청와대 개방으로 인해서 가치를 되게 강조하셨는데 이게 경제적인 효과가 산출된 게 어느 정도 구체적으로 있는지 궁금합니다. 또 하나 여쭈면 서초동 자택에서 당선인이 용산으로 출퇴근을 하면 시간이 얼마 정도 걸리고 교통혼잡은 기존보다 얼마나 또 많아지는지 구체적인 수치가 나온 게 있는지 궁금합니다.[윤한홍 / 청와대이전TF 팀장] 입장료는 무료입니다. 단지 전면 개방을 해서 완전히 자유롭게 보실 수 있도록 하는 게 가장 좋은 방안입니다마는 초기에 얼마나 많은 분이 오실지 모르고 또 오시게 되면 안전 유지 또 질서 유지 이런 것 때문에 당분간 한시적으로 관람 예약 시스템을 운영한다 하는 말씀을 드리고 만약에 운영해 보다가 그렇게 많지 않다 하면 전면 자유 개방을 할 수 있거든요. 그래서 그 부분은 관람 예약을 받더라도 저희들이 입장료를 받는 것이 아니다 하는 그 말씀을 다시 한 번 강조의 말씀드리고. 청와대 개방과 관련한 가치 문제는 지난번에 두 군데에서 했었죠. 관광문화재단에서 분석한 건 1년에 경복궁을 찾으시는 분이 300만 명이라고 했습니다. 그래서 그 300만 명을 적용했을 때 경제적 가치가 2000억 이렇게 했던 거고. 그다음에 그 전경련 산하의 한국경제연구소죠. 한국경제연구원이죠. 거기서는 처음에 청계천을 개방했을 때 왔던 관람객이 초기 1년, 2년 차에는 거의 2500만 명, 3000만 명이 왔었다. 그런데 그걸 다 적용하지 않고 일부 약 1670만 명, 1700만 명 정도 수준을 적용했을 때는 경제적 가치가 1년에 연 5조 1000억이다. 그렇게 분석한 자료가 있었습니다. 그래서 그런 부분은 저희들이 말씀드리고. 그다음에 서초동에서 용산으로 출근하는 문제를 말씀주셨는데 저희들이 볼 때는 당분간은 서초동에서 출퇴근하셔야 됩니다. 약 한 달 정도가 되지 않겠나 예측을 하고 있는데. 그건 지금 담당하고 계시는 김용현 부팀장께서 말씀드리겠습니다.[김용현 / 청와대이전TF 부팀장] 잠시 얼마가 될지 모르겠지만 사저인 서초동에서부터 용산 대통령 집무실로 출퇴근하셔야 될 상황이 생겼습니다. 그래서 거리로 보면 서초동에서부터 용산 집무실까지 약 코스에 따라서 7~8km 정도가 되고요. 이동 소요시간을 저희들이 시뮬레이션해 본 결과는 10분 내외입니다. 그래서 이 코스는 여러분들 다 상상이 되시겠지만 구체적으로 제가 말씀을 못 드리는 것은 경호의 문제가 있기 때문에 말씀을 못 드리고 다만 한남대교를 통과해서 들어오시는 방법도 있고 동작대교를 통과해서 오시는 방법도 있고 그다음에 반포대교, 동작대교 그다음에 한강대교, 이 3개의 다리를 이용하실 수가 있거든요. 그래서 이것은 그 당시에 그때그때 어느 지역이 더 국민의 불편을 최소화할 수 있는가 그걸 잘 시간대를 판단해서 경로를 선택할 것이다, 이렇게 보시면 되겠습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.04.16.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>[기업공시 4월 15일] 현대중공업, 컨테이너선 6척 수주 등</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004042886?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[서울경제] &lt;유가증권&gt;▲LG에너지솔루션(373220)=권영수 부회장이 자사주 1000주 매입(4억2000만원)했다고 공시 ▲대우건설(047040)= 천안역전지구 도시개발사업 건설출자자 공모 우선협상대상자로 선정됐다고 공시 ▲대우조선해양(042660)=오세아니아 지역 선주에 5263억 원 규모의 LNG운반선 2척 수주 ▲한국조선해양(009540)=자회사 현대삼호중공업이 중동 지역 선사와 2941억원 규모 LNG DF PCTC 2척 수주 ▲현대중공업=라이베리아 소재 선사에 9895억원 규모 컨테이너선 6척 수주 ▲스틱인베스트먼트(026890)=주주가치 제고를 위해 신한금융투자와 100억 원 규모의 자사주 취득 신탁 계약 체결 ▲SK가스(018670), SK디스커버리(006120)= 종속회사인 울산지피에스가 시설·운영자금 조달을 위해 1050억 원 규모 주주배정 유상증자 결정 ▲씨아이테크(004920)=계열사 케빅에 대해 22억 원 규모 타인에 대한 채무보증 결정 ▲태영건설(009410)=2204억 원 규모 자산구역 재개발정비사업 공사 수주 계약 체결 ▲동양= 318억 원 규모 대전 용문동 LH매입임대주택 신축사업 공사수주 계약 체결 ▲BGF(027410)=자회사 헬로네이처 B2C 온라인 판매 중단, 자회사 헬로네이처 보유 주식 전량을 비지에프네트웍스에 매각하면서 헬로네이처의 자회사 탈퇴 공시 ▲효성ITX(094280)=ESG경영위원회 설치 공시 ▲삼부토건(001470)=한전부지(154kv 덕소변전소 옥내화 잔여부지) 매매계약에 따른 중도금 대출(465.6억원) 상환 및 잔금 납입 목적으로 790억 원 단기차입 결정 ▲TYM(002900)=30억 원 규모 자기주식취득 신탁계약 해지 결정 ▲진원생명과학(011000)=117억 원 규모 국내사모 전환사채 발행 결과 공시 ▲넥스트사이언스(003580)=HLB글로벌로 상호변경, 신주인수권행사가액 1만3350원에서 1만1800원을 조정 ▲삼성증권(016360)=잠성자산운용과 5월 중 삼성솔루션GS WSPM 2022 일반사모투자신탁제1호(USD) 수익증권 거래 예정 ▲효성화학(298000)=계열사 Hyosung Vina Chemicals Co., Ltd.에 489억 원 규모 타인에 대한 채무보증 결정 ▲에이엔피(015260)=120억 원 규모 국내사모 전환사채 발행 결과 공시 ▲계룡건설(013580)산업=1053억 원 규모 대구 수성구 물류센터 개발사업 공사 수주 계약 체결▲삼성바이오로직스(207940)= 3조 2007억 원 규모 주주배정 유상증자 발행 결과 공시 ▲두산중공업(034020)=박용만, 박서원, 박재원, 강신애 공정거래위원회의 친족독립경영 인정 통지로 인한 특별관계 해소 공시 ▲카카오(035720)=네이버·카카오, SM엔터 지분 인수 경쟁에 대해서 구체적으로 결정된 사항이 없다고 공시 &lt;15일&gt;&lt;코스닥&gt;▲코이즈(121850)=유상증자 1차 발행가액 주당 2505원으로 결정 ▲에스코넥(096630)=29억 원 규모 자기주식 처분 ▲멜파스(096640)=전환가액 1466원에서 1437원으로 조정, 51억 원 규모 사채원리 미지급 발생▲에이피티씨(089970)=최우형·강영수 각자 대표이사로 변경 ▲시너지이노베이션(048870)=자회사 엠아이텍 지분 매각을 위한 최대주주의 Binding MOU(양해각서) 체결 ▲KG모빌리언스(046440)=임직원 18명에 15만 주의 주식매수선택권 부여, 주당 9691원 ▲고바이오랩(348150)=자회사 위바이옴 주식 152만5500주 취득 결정, 균주 및 균주 관련 기술에 대한 라이선스 계약 체결 ▲디아이티(110990)=1억 원 규모 자사주 처분 결정 ▲삼보모터스(053700)= 전환가액 6419원에서 5397원으로 조정 ▲마이크로디지탈(305090)=9만 9300주 주식매수선택권 행사 ▲한국전자인증(041460)=비바리퍼블리카(토스)가 107만 2961주 보유 주식 매매 ▲메디포스트(078160)=양윤선 메디포스트 대표가 20만 주를 장외매도해 지분율이 6.41%에서 4.93%로 낮아졌다고 공시 ▲비츠로시스(054220)=한국제2전력량계사업협동조합과 6억 원 규모 저압전자식전력량계(AE-Type) 공급 계약 체결▲쇼박스(086980)=124억 원 규모 제3자배정 유상증자 결정 ▲유일에너테크(340930)=유럽과 112억 원 규모 2차전지 조립공정 제조장비 단일 판매 및 공급계약 체결 ▲컴투스홀딩스=2억원 규모 자사주 처분 결정 ▲알엔투테크놀로지(148250)=5억8500만 원 규모 자사주 처분 결정 ▲오스테오닉(226400)=전환가액 3427원에서 3330원으로 조정 ▲KH E&amp;T(226360)=케이에이치건설 주식회사로 상호 변경 ▲장원테크(174880)=전환가액 2181원에서 1845원으로 조정 ▲하이제5호스팩(340120)=주식회사 드림인사이트와 합병계약을 해지 공지 ▲위니아딤채(071460)=위니아로 상호변경 &lt;15일&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>“어서와 이런 복지는 처음이지?” 카카오·토스 파격 복지 어떻길래</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000806951?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[머니S리포트-진격의 카카오·토스… 핀테크 금융전쟁]③ 카카오 '안식휴가·복지포인트' vs 토스 '주택자금 무이자 1억 대출'[편집자주]카카오와 토스 등 핀테크 기업들의 공세가 이어지면서 국내 금융 플랫폼 시장에서 살아남기 위한 경쟁이 치열해지고 있다. 카카오뱅크와 토스는 MZ세대(1980년대 초~2000년대 초 출생한 밀레니얼 세대와 1990년대 중반~2000년대 초반 출생한 Z세대를 통칭)를 등에 업고 4대 금융지주와 비견될 수준까지 급성장했다. 카카오는 카카오뱅크로 은행업에 진출한데 이어 카카오페이증권, 카카오페이손보 등 전방위적으로 금융 영역을 확대하고 있다. 토스 역시 뱅크, 증권, 보험을 토스앱 하나로 연결한 ‘슈퍼앱’ 전략으로 폭발적인 성장세를 기록 중이다. ‘금융 메기’의 등장에 기존 금융사들은 디지털 전환에 가속 패달을 밟는 등 고객 사수에 사활을 걸고 있다.사진=머니S 김은옥 기자◆기사 게재 순서① 절대 강자 카카오뱅크… 토스, ‘수퍼앱’으로 맞불② 카카오페이증권 vs 토스증권, ‘혁신’ 무기로 맞대결③ "어서와 이런 복지는 처음이지?” 카카오·토스 파격 복지 살펴보니④ 덩치만 큰 공룡은 멸종… “빅테크 잡자” 바빠진 금융사‘일한 만큼 받는다’, ‘세대 간 장벽 없는 수평적 사내 문화’최근 카카오와 토스 등을 필두로 한 빅테크·핀테크 업계의 기업문화를 정리한 키워드다. 이들 기업은 ‘워라밸’(일과 삶의 균형, work and life balance)을 추구하면서도 업계 최고 대우는 물론 파격적이고 이색적인 복지를 내세워 주목받고 있다. 특히 ‘MZ세대’(1980년대 초~2000년대 초 출생한 밀레니얼 세대와 1990년대 중반~2000년대 초반 출생한 Z세대를 통칭)를 겨냥해 자유롭고 개방적이면서 유연한 조직문화를 만드는 데도 힘쓰고 있다. MZ세대가 인사제도, 복지, 업무 등에서 합리적인 의사결정을 요구하고 있는 점을 반영한 것으로 분석된다.━“쉬는 것도 전략” 카카오, 한 달간 안식 휴가 눈길━그래픽=머니S 김은옥 기자카카오는 수평적 조직 문화로 잘 알려져 있다. 구성원을 크루(Krew)라고 부르는가 하면 직급이 없고 직책만 있어 서로 영어 이름을 부르면서 수평적인 기업문화를 조성하고 있다. 크루란 카카오(Kakao)라는 한 배를 탄 선원이자 가보지 않은 길을 함께 항해하는 동료들을 상징하는 표현을 일컫는다.모든 크루는 영어 호칭을 사용한다. 남궁훈 카카오 대표이사 역시 ‘대표’란 호칭 대신 ‘Nkay’(엔케이)라는 영어 이름으로 불린다. 영어 호칭 사용을 통해 경력, 연차, 나이에 관계 없이 솔직하게 의견을 제시하고 토론하며 혁신적인 서비스를 만들 수 있었다는 게 회사 측 설명이다.카카오페이, 카카오뱅크 등 각 계열사별로 세부 복지 사항 등 일부 차이가 있긴 하지만 큰 틀에서 카카오가 추구하는 전략은 비슷하다. ‘신충헌’(신뢰·충돌·헌신)이란 카카오만의 독특한 기업문화가 대표적이다. 신충헌이란 반대 의견을 제시해도 불이익이 없다는 신뢰를 바탕으로 다양성에 기반해 충돌하고 그 과정에서 새로운 아이디어를 만들어가며 그렇게 만들어진 결론엔 모두가 헌신한다는 뜻이다.카카오 관계자는 “신충헌 원칙이 카카오톡 대화, 사내 커뮤니티인 아지트에서의 업무 논의, 오프라인 회의 등 다양한 곳에서 활발하게 의견을 나누고 의사결정을 하는 원동력으로 작용하고 있다”고 설명했다.카카오의 주요 복지로는 ▲안식 휴가 ▲대출 지원 ▲의료비 지원 ▲동호회 지원 ▲직장 어린이집 운영 ▲톡테라스 ▲톡클리닉 ▲가족사랑 지원제도 ▲복지 포인트 ▲가족 돌봄 휴가 등이 꼽힌다. 그중에서도 안식 휴가는 카카오를 대표하는 복지 중 하나다. 카카오는 크루들의 재충전을 위해 매 3년 근속 시마다 한 달간의 안식 휴가를 부여한다. 이 기간 급여와 함께 휴가비 200만원은 별도다.카카오는 성과에 따라 보상도 확실하게 해주는 것으로도 유명하다. 카카오페이는 올해 연봉조정 대상 임직원 모두에게 연봉 1000만원을 일괄 인상하기로 했다. 개인별 성과에 따른 성과급을 별도로 제공하는데 더해 스톡옵션(주식매수청구권) 차등 배분도 검토 중이다.지난 2월엔 사내복지 강화를 위해 ▲복지 포인트와 식대 지원비 30만원 인상 ▲대출이자 지원 등을 포함한 복지 개편안을 공개했다. 이번 연봉 인상과 사내복지 개편안에 따라 직원 1인당 총 1360만원을 일괄 인상하는 효과가 나타났다.카카오페이 관계자는 “카카오페이 성장을 함께 이뤄온 임직원들과 성장의 과실을 함께 나누고 회사가 ‘제2 성장’을 이룰 수 있는 기반을 마련하기 위해 지속적인 노력을 기울일 것”이라고 설명했다.앞서 카카오뱅크도 지난해 11월 전 직원 임금 1000만원 이상 일괄 인상, 연봉 30% 수준 스톡옵션 지급, 연봉 20% 수준 성과급 지급 등을 발표했다. 카카오뱅크는 앞으로도 성장에 기여하고 전문성을 갖춘 인재들에게 인센티브를 지급할 방침이다. 카카오뱅크 관계자는 “카카오뱅크는 경쟁력 강화를 위해 인재 영입에 지속해서 힘쓰고 있다”며 “가파른 성장기에 있는 만큼 연간 약 100명에서 150명 수준의 신규 채용을 추진하고 있으며 향후 비슷한 수준의 인력 증가가 예상된다”고 내다봤다.━토스, ‘자율’과 ‘책임’의 조직문화━카카오가 ‘신충헌’ 중심의 커뮤니케이션을 강조했다면 토스는 ‘몰입’을 통한 혁신에 방점을 두고 있다. 임직원들이 불필요한 일에 시간을 쓰지 않고 업무에만 몰입할 수 있도록 다양한 서비스를 제공해 ‘자유로운 기업문화의 대명사’, ‘복지 천국’ 등이란 별명이 붙었다.가장 눈에 띄는 복지는 지난해 연말부터 정례화된 겨울방학 제도다. 겨울방학은 성탄절을 전후해 약 10일간의 전사 휴무를 갖는 제도로 고객센터 등 일부 필수 인력을 제외하고 모든 팀원이 쉬는 것을 원칙으로 한다. 이는 토스뱅크, 토스증권, 토스페이먼츠 등 주요 계열사에 모두 동일하게 적용되며 신뢰에 기반한 자율과 책임, 높은 퍼포먼스 지향의 문화라는 핵심 원칙에 기인한다.토스 관계자는 “토스의 사내 문화는 자율과 책임이란 두 키워드로 요약되는데 토스팀은 ‘모든 구성원을 높은 역량과 책임감을 갖춘 어른으로 대한다’는 데에서 시작한다”며 “세세한 업무 지침이나 관리가 필요 없는 인재를 채용하고 그렇게 채용된 팀원에게는 모든 정보를 투명하게 공유하고 자율성을 부여하는 것이 조직 운영의 대원칙”이라고 설명했다.특히 토스는 팀원들이 업무에 집중할 수 있는 환경을 조성하기 위해 커뮤니티 팀을 별도로 만들기도 했다. 커뮤니티 팀은 토스 내 구성원들이 오직 업무에 몰두할 수 있도록 하는 동시에 회사 생활 외적인 부분에서 받는 스트레스를 없애주기 위해 맛집 추천, 가사 도움 등 다양한 서비스를 제공 중이다.이외에도 ▲입사자들에게 점심·저녁 식대 제공 ▲반기별 팀 성과에 따른 성과급 지급 ▲직장 단체보험 제공과 연 1회 종합건강검진 제공 ▲사내 카페·편의점·헤어살롱 무료 이용 ▲주택자금 대출 무이자 1억원 지원 등의 복리후생 혜택을 제공하고 있다.복지뿐 아니라 연봉도 업계 최고 수준이다. 앞서 토스는 지난해 파격적인 연봉과 워라밸 등의 조건을 앞세워 대규모 인력 채용에 나섰다. 경력 입사자를 대상으로 한 채용에선 전 직장의 최대 1.5배 연봉, 1억원 어치 스톡옵션(주식매수선택권)을 적용, 눈길을 끌었다. 입사자들은 각종 보너스와 스톡옵션 등의 다양한 인센티브를 챙겼다.토스 관계자는 “신규 입사자에게 업계 최고 대우를 제시하고 있다”며 “올해부터는 비포괄 임금제 도입으로 추가 근무에 따른 수당을 지급해 구성원 만족도는 더 높아지고 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>남들 다 하는 ‘사잇돌 대출’ 카뱅은 왜 중단했을까</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003686279?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[Biz 톡]							인터넷전문은행 카카오뱅크가 지난 11일부터 SGI서울보증을 낀 중금리 상품, ‘직장인 사잇돌 대출’ 의 신규 취급을 중단했습니다. 이례적이었습니다. 보증 상품이어서 리스크는 적고, 여신은 확대할 수 있어 다른 은행들은 선호하는 상품이기 때문입니다. 대부분의 시중은행이 사잇돌 대출을 기본으로 취급하고 있습니다. 카카오뱅크 측은 ”자체 중금리 대출 상품의 금리와 한도가 사잇돌 대출보다 훨씬 좋기 때문에 이로 인한 고객 피해는 별로 없을 것”이라고 하지만 업계 설명은 달랐습니다.은행권 대출 담당자들의 말을 종합하면 카카오뱅크는 사잇돌 대출을 ‘계륵’처럼 여긴 것 같습니다. 사잇돌 대출은 금융 당국이 규제하는 각 은행별 대출 총량에는 들어가는데, 정작 중·저신용자 대출 비중을 계산할 때에는 들어가지 않는다고 합니다. 인터넷은행 허가를 받을 때 약속했던 중·저신용자 대출 비중을 맞춰야 하는 카카오뱅크 입장에서는 별 도움이 안 되는 것이지요. 카카오뱅크의 중·저신용자 대출 비중은 작년 말 기준 17%로, 올해 말까지 25%로 끌어올려야 합니다. 이를 달성하지 않으면 신사업 인·허가 등에 있어서 불이익을 받을 수 있어 ‘발등의 불’인 셈입니다. 그렇다 보니 사잇돌 대출을 없애 그만큼 자체 중·저신용 상품 가입자를 늘릴 여지를 만들려 한 것 아니냐는 말이 들립니다. “카카오뱅크는 너무 계산기를 열심히 두드린다”는 말이 나오는 거죠.중·저신용자 대출 비중을 높여야 하는 과제는 케이뱅크나 토스뱅크 등 다른 인터넷은행도 마찬가지지만 카카오뱅크가 돌연 사잇돌 대출을 중단하면서 은행권에서는 비판이 나옵니다. 이런 일이 처음도 아닙니다. 카카오뱅크는 출범 초기, 혁신적 서비스 없이 ‘안전한’ 고신용자 대상 대출을 지나치게 확대했다는 지적을 받기도 했었죠.금융 당국과의 중금리 대출 확대 약속을 지키는 것은 물론 중요합니다. 하지만 그 과정에서 이런 식의 모습을 보여준다면, 목표치를 달성한다 한들 고객의 반응은 냉담할 것 같습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.04.19.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스증권, 실시간 해외주식 소수점거래 개시</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011131220?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스증권은 미국 우량 주식과 상장지수펀드(ETF)에 1000원부터 투자할 수 있는 실시간 해외주식 소수점 거래 서비스를 시작한다고 19일 밝혔다,회사에 따르면 이번 서비스는 국내에서 유일하게 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식이다. 지체 없는 실시간 거래가 가능하다.투자 가능 종목은 총 3070개다. 해외주식 소수점 거래 서비스 중 가장 많은 종목에 투자할 수 있다는 설명이다.토스증권의 실시간 해외주식 소수점 거래는 1주 단위의 기존 해외주식 거래 방식과 주문 체결시간, 투자 가능 종목, 거래 수수료 등이 대부분 동일하다. 미국 정규장이 열리는 오후 10시30분부터 다음날 오전 4시까지(서머타임 적용 기준) 시장가로 주문된다. 그 외 시간대에는 예약 주문이 가능하다. 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.토스증권에서 제공하는 미국 주식과 상장지수상품(ETP), 리츠 등 전 종목이 거래 가능하다. 대표적인 고가 주식인  버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF도 포함된다. 소수점 거래는 기존의 1주 단위 구매하기와 동일하게 각 종목 구매 화면에서 '금액 주문'을 선택해 투자금액을 입력하면 된다. 최소 1000원부터 입력된 금액에 맞춰 주문 가능한 수량이 표시된다. 예를 들어, 한화 기준 약 120만원의 테슬라 주식을 1000원어치 주문하면 0.000833주가 구매되는 식이다.4월 현재 토스증권의 해외주식 투자 고객은 110만여명, 국내주식 투자 고객은 420만여명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.04.29.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>토스뱅크 “‘지금 이자받기’, 상시 이용고객 100만 넘겨… 1인당 평균 2만6156원 수령”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000810184?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>토스뱅크는 지난달 선보인 ‘지금 이자받기’ 서비스가 출시 한 달 만에 상시 이용고객 100만명을 넘겼다고 29일 밝혔다.토스뱅크 제공        토스뱅크에 따르면, 지난달 16일부터 이달 28일까지 100만2188명의 고객이 ‘지금 이자받기’ 서비스를 상시 이용하는 것으로 나타났다. 같은 기간 고객들에게 지급된 이자는 총 261억5600만원으로, 이는 고객 1인당 평균 약 2만6156원의 이자를 받은 것을 의미한다.토스뱅크는 토스뱅크통장 신규 개설 고객을 대상으로 ‘매일 받는 이자’의 가치를 더욱 확대할 계획이다. 고객들은 계좌 개설과 동시에 가입 축하금을 받을 수 있다. 세전 연 2% 이자(1억원 초과시 0.1% 금리 적용)를 지급하는 토스뱅크통장에 돈을 맡겼을 시, 매일 받게 되는 세후 이자액이 기준이다. 프로모션의 대상은 아직까지 토스뱅크통장을 보유하지 않은 고객이다.토스뱅크는 이번 프로모션을 통해 금융소비자로서의 고객들의 주권에 대한 인식이 보다 강화될 것으로 전망하고 있다. 이번 프로모션은 1인당 1회 한정으로, 7월 31일까지 진행될 예정이다. 기존 고객이 토스뱅크통장을 해지한 후 재가입하는 경우는 대상에서 제외된다.토스뱅크 관계자는 “‘지금 이자받기’ 서비스를 출시하며, 고객들의 금융주권을 실천해나가겠다고 약속했던 것을 하나하나 지켜가는 중”이라며 “단 하루라도 은행에 돈을 맡기면 그 대가를 고객들이 누릴 수 있어야 한다는 가치에 따라 고객 중심의 금융을 실현해 나갈 것”이라고 말했다.토스뱅크는 지난달 국내 은행 가운데 최초로 ‘지금 이자받기 서비스’를 선보이며, 매일 한 번씩 고객들이 원할 때 즉시 이자를 받을 수 있도록 서비스를 제공하고 있다. 그동안 고객들은 은행에서 돈을 빌리면 대출금의 이자는 하루 단위로도 납부를 해야 하지만, 큰 돈을 맡기는 경우에도 은행이 정한 날짜에만 한 달에 한 번 이자를 받을 수 있었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>靑 관람신청 144만건 몰려 '서버 다운'…"서버 증설 예정"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004738448?sid=100</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[[the300]인수위 "동시 접속자 수 2.2만명…지속 모니터링 작업 예정"]/사진제공=대통령직인수위원회 청와대이전TF27일 오전 10시 청와대 관람신청이 시작되자마자 신청자가 몰려 일시적으로 청와대 개방 홈페이지 '청와대, 국민품으로'의 서버가 다운됐다. 대통령직인수위원회는 서버 증설 작업을 수행할 예정이다.인수위 청와대이전TF 측은 이날 "동시 사용자 수가 오픈 1시간 이내 144만건을 초과했으며, 동시 방문자 수(접속자 수)는 서버 다운 직전까지 최대 2만2391명으로 확인됐다"며 이같이 밝혔다. 이어 "신청자가 최대로 많이 몰린 시간대는 9시 40분부터 10시 15분까지"라며 "이후 일시적으로 서버가 다운되어 실제로는 2배정도 더 접속되었을것으로 예상된다"고 설명했다.이에 현재 서버 증설 작업을 수행하고, 지속적으로 모니터링 하겠다고 밝혔다. 이와 함께 관람 희망자 편의를 위해 메인 페이지에 '관람신청 바로가기'를 제공한다. 청와대 개방에 대한 일반 안내를 원할 경우 '청와대 개방 홈페이지로 이동'을 선택하고, 관람 신청을 원할 경우 '관람신청 바로가기'를 선택하면 된다.이날부터 청와대 개방 홈페이지에 접속해 네이버·카톡·토스 등 온라인 플랫폼으로 인증해 관람을 신청할 수 있다. 신청자는 개인별(1~4명), 단체별(30~50명), 65세 이상 어르신·장애인(1~4명) 등 3개 유형으로 구분해 관람 일자와 시간을 선택하면 된다.청와대 개방에 따른 기념행사는 2주간(5월10~22일) 진행될 예정이다.관람 시간은 일별 오전 7시부터 오후 7시까지로 2시간 단위로 구분된다. 시간 단위별 입장 인원은 6500명으로 일 최대 3만9000명이 둘러볼 수 있다. 다만 개방 첫날은 정오부터 오후 8시까지 운영된다. 신청자 중 관람이 확정된 이들에겐 '국민비서'(국민 행정서비스)를 통해 당첨 알림(관람 확정) 메시지가 전달될 예정이다. 관람일 기준 9일 전까지 신청 가능하며 관람 8일 전에 당첨 알림 메시지가 발송된다. 현장에선 당첨 알림 메시지를 보여주면 입장 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>가상자산 열풍에…케이뱅크 작년 수신액 절반 이상 업비트 효과</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013118122?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>작년 예수금 58.8%, 법인 예수금…업비트 제휴 영향"은행·거래소 협력 사례…예수부채 변동성 극복 남아"케이뱅크 CI[케이뱅크 제공. 재판매 및 DB 금지](서울=연합뉴스) 오주현 기자 = 지난해 출범 이후 첫 흑자를 낸 인터넷전문은행 케이뱅크가 가상화폐 거래소 업비트와의 제휴 효과를 크게 본 것으로 나타났다.     제휴 이후 가상자산 투자 열풍이 불면서 외형 성장을 끌어내는 계기가 됐지만, 업비트에 연계된 예수금 비중이 높아 안정성이 떨어질 수 있다는 점은 과제로 꼽힌다.    17일 은행연합회 공시에 따르면 작년 말 기준 케이뱅크의 예수금(수신 잔액)은 11조3천175억원이었는데, 이 가운데 법인 예수금이 6조6천492억원으로 58.75%를 차지했다.    개인 예수금은 4조6천682억원(41.25%)이었다.    케이뱅크의 법인 예수금 비중이 높게 나타나는 것은 고객이 케이뱅크를 통해 업비트에 입금해 보유하고 있는 금액이 법인 예수금 항목으로 분류되기 때문이다.    케이뱅크는 업비트와 실명확인입출금계정(실명계좌) 제휴를 맺고 있다. 가상자산 거래를 위해 업비트 계정에 원화를 입금하고자 하는 고객은 실명 확인된 케이뱅크 계좌를 연동해야만 거래할 수 있다.     이 때 고객이 케이뱅크 계좌를 통해 업비트에 입금한 원화는 물론, 입금된 원화로 고객이 거래해 보유한 비트코인, 이더리움 등 가상자산의 규모가 모두 법인 예수금으로 분류된다는 것이 케이뱅크의 설명이다.        1년 전인 2020년 말 기준 케이뱅크의 예수금은 3조7천453억원이었는데, 당시에는 개인 예수금 비중이 70.97%(2조6천580억원)로 더 많았고, 법인 예수금 비중은 29.03%(1조873억원)였다.케이뱅크 예금자별 예수금 비중[은행연합회 공시 캡처. 재판매 및 DB 금지]    2020년 6월 케이뱅크가 업비트와 제휴를 맺고, 작년 가상자산 시장이 본격적인 호황기를 맞으면서 2021년 한 해 동안 수신 잔액이 세 배 이상 늘었다.     지난 한 해 동안 전체 예수금은 7조5천722억원 늘었고 이 중 법인 예수금 증가액 5조5천619억원에 달한다. 늘어난 수신 잔액의 절반 이상이 업비트로 유입됐다는 해석이 나온다.    가상자산 거래소 등과 제휴하지 않은 다른 인터넷 은행의 예수금 내용을 살펴보면, 법인 예수금의 비중은 미미한 수준이다.    이들 인터넷 전문은행의 경우 체크카드 거래 정산 목적 계좌 등이 법인 예수금으로 분류된다.    작년 카카오뱅크의 전체 예수금(30조261억원) 가운데 법인 예수금 비중은 0.19%(577억원)에 불과했다.     토스뱅크의 법인 예수금 비중은 전체 예수금(13조7천907억원) 중 0.006%(8억원)로 더욱 적은 수준이었다.    업비트와의 제휴에 따른 케이뱅크의 성장은 가상화폐 거래소와 은행의 긍정적인 협력 사례로 꼽힌다.     은행권에서는 케이뱅크가 지난해 196억원의 비이자이익을 올린 데도 업비트와의 제휴로 벌어들인 수수료 수익 비중이 가장 컸다는 분석이 나온다.    은행권의 회원 유치 경쟁이 심화한 가운데 케이뱅크가 지난 1년간 고객 수를 세 배 이상 불린 점도 은행권의 시선을 끌었다.    최근 은행권은 대통령직 인수위원회에 제출하기 위한 '은행업계 제언 보고서' 초안에서 가상자산 서비스 진출을 허용해달라는 내용을 담기도 했다.    케이뱅크 관계자는 "업비트를 통해 유입된 고객들이 케이뱅크의 상품과 서비스를 경험하고 지속해서 시너지를 내고 있다"며 "앞으로도 다양한 제휴를 통해 고객 혜택을 늘리겠다"고 말했다.    다만 가상자산 거래 시황에 따른 예수 부채 변동성 극복은 케이뱅크가 극복해야 할 과제로 꼽힌다.    한 은행권 관계자는 "케이뱅크가 업비트 제휴를 통해 급성장한 만큼 가상자산 거래 시황에 따른 예수 부채 변동성이 클 것"이라며 "안정적인 예수금 조달 방안 등 점검이 필요해 보인다"고 말했다.     그러면서 "케이뱅크가 기업공개(IPO)를 앞둔 점에서도 성장의 이면인 리스크 관리 방안을 제시할 필요가 있다"고 덧붙였다.업비트[업비트 제공]    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.04.20.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스證, ‘해외주식 소수점 증정 이벤트’ 9시간만에 조기종료</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004044430?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>40만명 넘게 참여하며 조기종료“추가 이벤트 진행 여부 검토 중”[서울경제] 토스증권이 실시간 해외주식 소수점 거래 서비스를 시작하면서 진행한 ‘소수점 증정’ 이벤트가 9시간 만에 조기종료됐다.20일 토스증권은 전 고객을 대상으로 해외주식 소수점 받기 이벤트에 40만 명이 넘게 참여하면서 시작 9시간 만에 조기종료됐다고 밝혔다.앞서 토스증권은 실시간 해외주식 소수점 거래 서비스를 본격적으로 시작하면서 전 고객을 대상으로 해외주식 증정 이벤트를 열었다. 이벤트는 고객이 원하는 미국주식을 선택하고 최소 1000원부터 1000만 원까지의 당첨금을 뽑으면 토스증권이 당첨된 금액만큼 주식을 구매해 지급하는 방식으로 진행됐다.당초 토스증권은 이달 말까지 이벤트를 진행할 예정이었지만, 투자자들 사이에서 빠르게 입소문을 타면서 조기종료됐다. 토스증권 관계자는 “예상치 못하게 고객들 사이에서 크게 인기를 몰면서 9시간 만에 40만 명이 이벤트에 참여했다”며 “추가 이벤트 진행 여부를 검토하고 있다”고 밝혔다.한편 토스증권은 전날 해외주식 소수점 거래 서비스를 실시했다. 국내 업계 최초로 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식을 도입했으며 국내 해외주식 소수점 거래 서비스 중 가장 많은 3070개 종목에 투자할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>청와대 5월 10일 정오 일반에 개방…모레부터 사전 신청</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011254478?sid=100</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 당선인 취임식 날인 5월 10일 정오를 기해 청와대가 일반 시민들에게 공개됩니다. 윤 당선인 직속 '청와대 이전 태스크포스(TF)'는 오늘(25일) 오후, 서울 통의동 인수위에서 기자회견을 열고 "윤 당선인은 지난 선거 과정에서 제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다고 약속했다"며 이같이 밝혔습니다. TF 팀장을 맡은 국민의힘 윤한홍 의원은 브리핑에서 "5월 10일 취임식이 끝나는 시간에 청와대 문을 완전히 개방하기로 했다"면서 "본관, 영빈관을 비롯해 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생된다"고 밝혔습니다. 이어 "다음 달 10일부터 22일까지 13일간 청와대 경내, 경복궁과 북악산 일대에서 새 시대, 새 희망을 담은 다양한 문화행사가 펼쳐진다"며 "같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 전국 곳곳에서도 청와대 개방 기념 특별행사가 진행된다"고 전했습니다. TF는 다만, 개방 초기 방문객이 몰려 불편과 안전 문제를 초래할 가능성을 고려해 청와대의 경우 사전 방문 신청을 받겠다고 밝혔습니다. 이를 통해 하루 6차례, 2시간마다 6,500명씩으로 정해 일일 관람 인원을 하루 최대 3만 9,000명으로 제한하기로 했습니다. 사전 신청은 모레(27일) 오전 10시부터 네이버, 카카오, 토스 등 모바일 애플리케이션과 웹사이트를 통해 할 수 있습니다. TF는 개방 초기 65세 이상 노인과 장애인, 단체 관람은 별도로 신청을 받아 입장 인원에 안배할 예정입니다. TF는 아울러 "청와대로 인해 단절됐던 북악산 등산로도 5월 10일 아침 7시부터 완전히 개방된다"면서 "청와대에서 한양도성 성곽까지 연결돼 진정한 북악산 등산로 전면 개방이 완성된다"고 밝혔습니다.한편 윤 당선인은 5월 10일 용산 국방부 청사 5층에서 근무를 시작합니다. 본 집무실은 2층입니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>이 사주팔자 앱에 지구촌이 흠뻑</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003686547?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[NOW] ‘점테크’ 스타트업들 속속 운세시장 진출… 美·日까지 도전장							스타트업 ‘운칠기삼’은 컴퓨터 알고리즘 기반 사주 서비스를 해외시장에 출시한 창업 6년 차 회사다. 공동창업자 심경진(45)·김상현(46) 대표는 네이버·카카오를 거친 기획자·개발자 출신이다. 두 사람은 생년월일 등 정보를 입력하면 2000만개가 넘는 사주 조합을 알고리즘이 자동으로 분석해 풀이해주는 서비스 ‘포스텔러’를 만들었다. 심 대표는 “취미 삼아 명리학을 10년 공부했는데 지금 회사를 차리기 전 사업이 안 풀려 점집을 갔다가 ‘점(占)에도 기술을 도입해야겠다’는 아이디어가 떠올랐다”고 말했다. 포스텔러는 2020년 일본어, 작년 9월 영어 버전을 출시했는데 해외 이용자가 현재 140만명에 이른다.역술중개플랫폼 천명을 통해 연결된 고객이 역술인(사진 오른쪽)에게 신점을 보고 있는 모습. 천명은 머신러닝 역술인 매칭, AI상담기록 저장 등 기술을 도입했다. /천명앤컴퍼니										점(占)도 첨단 기술에 기반한 혁신을 하고 있다. 오프라인 점집을 온라인에서 예약·상담 가능한 020(온·오프라인 연계) 앱이 여럿 출시됐고, 고민을 입력하면 컴퓨터가 이를 분석해 용한 역술인을 연결해주는 서비스도 나왔다. NASA(미 항공우주국) 별 관측 데이터로 보는 점도 인기다. 점과 테크(기술)를 접목한 ‘점(占)테크’ 서비스들인 것이다.스타트업 '운칠기삼'이 개발한 사주풀이 서비스 '포스텔러'/운칠기삼										점테크 스타트업들이 최근 주목받는 이유는 큰 시장 때문이다. 소문에 의존하던 역술 시장은 한국의 경우 2조~4조원, 일본은 10조원, 인도는 수십조원에 달하는 것으로 알려지고 있다. 한국뿐 아니라 미국·일본·인도 스타트업도 운세 시장에 도전장을 냈고, 수백억원의 투자와 IPO(기업공개)까지 잇따르고 있다.토스·배달의민족·당근마켓 등에 초기 투자한 유명 VC(벤처캐피털사) 알토스벤처스는 19일 천명(天命)앤컴퍼니에 50억원 투자를 발표했다. 고려대 출신 유현재·전재현(28) 대표가 설립한 이 회사는 온라인에서 ‘용한 역술인 매칭’ 서비스를 운영한다. 예컨대 ‘고시 3년 차인데, 요새 불안해서 밤잠이 오지 않는다’고 모바일 앱에 입력하면 시험운을 잘 보는 신점·사주 역술인을 소개해주는 것이다. 인공지능(AI)이 사용자가 입력한 문장의 형태소를 분석하고, 해당 분야에서 용하다는 역술인 데이터를 불러와 추천해준다. 유현재 대표는 “전화 상담은 녹음된 음성을 AI(인공지능)가 텍스트 파일로 자동 변환해주는 서비스를 도입했고, 실시간 후기와 사용자 평가를 바탕으로 이른바 ‘신발’ 잘 받는 역술인을 추천해주기도 한다”고 말했다.글로벌 투자사들의 돈도 점테크 스타트업으로 몰리고 있다. 미국의 스타트업 ‘코-스타(Co-Star)’는 생년월일·탄생시·장소등을 입력하면 NASA의 실시간 별데이터를 기반으로 매일 점성술을 보는 앱을 서비스한다. 18~25세 미국 여성 4분의 1이 이 앱을 내려받았을 정도로 큰 인기를 끌어 260억원을 투자받았다. 힌두교 기반 역술앱을 운영하는 앱스포바랏(AppsForBharat)도 미국의 대표 투자사인 세쿼이아캐피털 등으로부터 170억원을 유치했다. 일본에는 역술 중개 서비스를 운영하는 벤처기업 자팔라스가 대표적이다. 도쿄증시에 상장한 이 회사의 작년 매출은 40억엔(약 385억원)이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.04.21.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>BTS 댄스로 강연 앞서 분위기 띄워… ‘인터넷은행 약진’이 최대 화두 [제23회 서울국제금융포럼]</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004824112?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>포럼 이모저모대화 시작은 "코로나 잘 넘기셨나" 인사헤드테이블에는 인터넷은행 대표들 모여  파이낸셜뉴스가 21일 서울 중구 웨스틴조선호텔에서 개최한 제23회 서울국제금융포럼에 참석한 귀빈(VIP)들이 기념촬영을 하고 있다. 1임재택 한양증권 대표 2이명호 한국예탁결제원 사장 3정희수 생명보험협회 회장 4정지원 손해보험협회 회장 5진승호 한국투자공사 사장 6윤종규 KB금융 회장 7김태현 예금보험공사 사장 8김광수 은행연합회 회장 9고승범 금융위원장 10윤재옥 국회 정무위원장 11윤종원 IBK기업은행장 12윤대희 신용보증기금 이사장 13전재호 파이낸셜뉴스 회장 14손태승 우리금융 회장 15나재철 금융투자협회 회장 16존 프랭크 오크트리 캐피탈 부회장 17정영채 NH투자증권 사장 18필립 츄 그랩 파이낸셜 그룹 M&amp;A 담당 임원 19홍원식 하이투자증권 대표 20윤관 BRV캐피탈매니지먼트 대표 21김병영 BNK투자증권 대표 22오익근 대신증권 대표 23이재연 서민금융진흥원장 24홍우선 코스콤 사장 25안철경 보험연구원 원장 26강호 보험개발원 원장 27조용병 신한금융 회장 28신현준 신용정보원장 29윤창호 한국증권금융 사장 30홍민택 토스뱅크 대표 1함영주 하나금융 회장 32윤호영 카카오뱅크 대표 33손병환 NH농협금융 회장 34강영구 한국화재보험협회 이사장 35서호성 케이뱅크 대표 36전선익 파이낸셜뉴스 부회장 37유명순 한국씨티은행장 38김주현 여신금융협회 회장 39양태영 한국거래소 부이사장 40국순웅 오크트리 캐피탈 전무 41김신 SK증권 사장 42웨인 달 오크트리 캐피탈 위험관리담당대표 사진=김범석 기자○…비딧둠라 DBS혁신그룹 본부장이 동영상 강의를 시작하면서 세계적 그룹으로 부상한 BTS의 '버터'에 맞춰 직원들과 댄스를 하면서 시작. 비딧둠라 본부장이 강연 주제를 'DBS Smooth Like Butter'로 정하고 이를 부각하기 위해 BTS 댄스를 선보인 것. 하지만 저작권 문제로 실제 음악은 다른 곡으로 대체.   ○…대형 오프라인 행사로 치러진 이날 포럼에 대한 관심도 집중돼. 코로나19 이후 대형 오프라인 행사는 처음이라는 얘기도. 코로나19 확진자 급증에 따라 확진 후 건강에도 관심. 함영주 하나금융그룹 회장은 고승범 금융위원회 위원장에게 "코로나는 잘 넘기셨느냐"고 안부를 전했고, 고 위원장은 "괜찮은데 아직 잔기침은 한다"며 웃었다. 이후 "이제 상황이 좀 풀렸는지 예전보다 차도 막히더라"라는 얘기가 이어져.   ○…코로나19 거리두기 종료에 대한 들뜬 분위기도 느껴져. 정영채 NH투자증권 대표가 아침에 퍼스널트레이닝(PT) 받다가 허리를 다쳐 불편하게 걸으며 VIP들 사이에선 운동이 화두. 홍우선 코스콤 대표는 건강을 위해 절에 들어가기도 했고, 가끔 108배 하기도 한다고 소개하자 정 대표도 50배는 해봤다고 대답.   ○…포럼 주제인 '빅블러'처럼 전통 헤드테이블 구성도 바뀌어 눈길. 전통적으로 국회 정무위원장, 금융위원장, 5대 금융지주 회장들이 헤드테이블에 착석해 왔던 것과 달리 이번엔 인터넷은행 대표들이 헤드테이블에 자리함. 존 프랭크 오크트리캐피탈 부회장은 홍민택 토스뱅크 대표와 인사를 나누며 "당신들이 빅블러 시대의 빅플레이어"라고 말해. 이에 홍 대표는 고맙다고 화답.   ○…전통 금융권에선 인터넷은행들 실적에도 관심. 윤호영 카카오뱅크 대표는 "실적 올랐고 지난 실적 좋았다. 열심히 하고 있다"며 인사에 화답. 금융연구원 부원장을 지낸 이재연 서민금융진흥원 원장은 "제가 연구원에 있었을 적 지난 파이낸셜뉴스 행사에 참석했을 때는 이렇게 자신있지 않았던 것 같은데"라며 너털웃음.   ○…유명순 한국씨티은행 은행장은 전선익 파이낸셜뉴스신문 부회장과 환담 중 언론과 전통적인 은행의 사업환경이 마찬가지로 어려운 것 같다며 가벼운 농담. 유 행장은 "3600명의 인원을 희망퇴직을 통해 많이 줄여 눈총을 받고 있다"며 "인터넷은행들과 비용상 경쟁이 힘들다"고 말해. 그러면서 유 행장은 이번 포럼의 주제인 '금융, 게임의 룰이 바뀌다'가 적힌 플래카드를 손으로 지목하기도. 전선익 사장은 "큰 도약 위한 결정이 아니겠느냐"며 덕담 건네.   ○…윤종원 IBK기업은행장은 유창한 영어로 티타임을 주도. 그는 존 프랭크 오크트리캐피탈 부회장과 통역 없이 대화하는 모습. 주된 내용은 '파이낸셜 이노베이션.' 중소기업, 스타트업 등이 활발하게 발전하고 있는 만큼 그쪽과 관련된 기금 이야기를 했다는 설명.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>110만명 신청했다는 청와대 관람…어떻게 진행되나</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005082320?sid=100</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>다음달 10일 청와대 전면 개방이 시작되는 가운데 110만명이 넘는 인원이 신청할 정도로 뜨거운 관심을 받고 있다.30일 청와대이전 태스크포스(TF)에 따르면 이날 0시 기준 청와대 관람 누적 신청자는 112만4372명으로 집계됐다. 29일 하루에만 10만1815명이 추가로 신청했다. 청와대 개방 첫날인 5월10일 관람을 희망하는 신청자는 8만3355명에 달한다.신청 방법은 어떻게청와대 관람 신청은 네이버, 카카오톡, 토스를 통해 사전 접수를 받고 있다. 신청기간은 관람희망일 8일 전까지다.네이버는 검색 창에서 '청와대 개방 예약'을 검색해서 절차대로 진행하면 된다. 카카오톡의 경우엔 '국민 비서 구삐' 채널을 추가한 뒤 청와대 관람 메뉴를 선택할 수 있다. 토스의 경우 앱에 접속해 전체 메뉴에서 '청와대 관람 신청하기'에 들어가면 된다.신청 접수는 개인(1~4명), 단체(30~50명), 65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행된다.개방 첫날인 5월10일의 관람 시간은 정오부터 오후 8시까지고, 11일부터 21일의 관람시간은 오전 7시부터 오후 7시까지다. 22일에는 별도 이벤트를 따로 신청하고, 운영시간도 별도 공지한다. 특별개방 행사가 끝난 23일 이후 계획은 순차적으로 공개된다.2시간 단위로 하루 총 6회의 관람이 진행되고 1회당 입장객은 6500명, 일일 최대 관람객은 3만9000명이다. 별도 입장료는 없다.청와대이전TF는 추첨을 통해 관람일 8일 전 당첨 여부를 통보할 예정이다. 5월10일 관람을 희망하는 신청자에 대한 당첨 알림은 오는 5월2일 오후 2시 전까지 당첨된 신청자에 한해 개별 통지된다. 당첨되지 않은 경우에는 새롭게 원하는 날짜에 재신청이 가능하다.스마트폰 예매자는 행정안전부 '국민비서' 시스템으로 당첨안내 및 바코드가 발송된다. 정문·춘추관·영빈관 3개소에서 바코드 스캔을 통해 입장할 수 있다. 바코드 이용이 어려운 경우 현장 데스크에서 예매번호 확인 후 손목띠를 발급해 입장처리를 할 예정이다.당분간은 사전 방문 신청을 하지 않고 현장 입장은 불가능하다. 청와대이전 TF 측은 "향후 안전관리나 질서유지에 문제가 없는 수준으로 입장객 수가 안정화될 경우 전면 자유관람으로 전환해 예약신청 없이 다녀갈 수 있도록 할 예정"이라고 설명했다.[이미지출처=연합뉴스]관람 범위는 어디까지청와대는 본관, 영빈관을 비롯해 녹지원, 상춘재 등을 개방한다.청와대이전 TF 측은 "5월10일부터 22일까지 13일 간 청와대 경내, 경복궁과 북악산 일대에서 새시대, 새희망을 담은 다양한 문화행사가 펼쳐진다"고 설명했다.기존에도 청와대는 소수의 제한된 인원이 진행자의 인솔 하에 관람 형태로 진행됐지만, 이번 개방은 국민들이 자유롭게 청와대 경내를 둘러보고 다양한 경험을 할 수 있게 됐다. 지정 포인트에서만 가능했던 사진 촬영도 모두 가능해진다. 다만 청와대 건물 내부는 추후 개방할 수 있도록 준비한다는 계획이다.청와대로 인해 막혔던 북악산 등산로도 5월10일 오전7시부터 완전히 개방된다. 경호, 보안상 이유로 잠겨있던 청와대 뒤편 백악정 대통문이 이날 개방된다. 청와대 동편, 서편에서 출발할 수 있는 해당 등산로는 사전 신청 없이, 인원 제한 없이 이용 가능하다.개방시간은 오전7시부터 오후7시고, 입산은 오후 5시로 제한한다. 계절별로 봄·가을은 오전 7시부터~오후 6시까지, 여름은 오전7시~오후7시, 겨울은 오전9시에서 오후5시까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>靑 내달 10일 정오부터 무료 개방…27일 사전 신청</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004046340?sid=100</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>■靑 개방 어떻게영빈관·녹지원·상춘재 등 공개사고대비 하루 3만9000명 제한카카오톡·네이버·토스서 신청尹, 국방부청사 5층서 업무개시윤한홍 청와대이전태스크포스(TF) 팀장이 25일 오후 서울 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 하고 있다. 연합뉴스[서울경제] 윤석열 대통령 당선인이 취임하는 다음 달 10일 정오를 기점으로 청와대가 전 국민에게 무료 개방된다. 개장 초기 인파가 몰리는 것을 방지하기 위해 당분간 하루 3만 9000명의 방문객만 받으며 이달 27일부터 관람 신청을 받는다.25일 윤한홍 청와대이전태스크포스(TF) 팀장은 서울 통의동에서 기자회견을 열고 “74년 만에 제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다”며 “영빈관을 비롯해 녹지원과 상춘재도 열린 공간으로 재탄생될 것”이라고 말했다. 청와대 경내는 개방되지만 주요 기록물, 보안 문서 등에 대한 정리가 필요해 본관과 대통령 관저 내부와 경호처·여민관 등은 개방되지 않는다.청와대는 향후 지속적으로 개방될 계획이며 윤 당선인 측은 우선 다음 달 10일부터 21일까지의 관람 지침을 내놓았다. 이 기간 청와대는 오전 7시부터 오후 7시까지 개방되며 초기 방문객이 몰릴 것에 대비해 사전 신청자 중 당첨 관람객만 입장할 수 있다. 윤 팀장은 “청와대 경내 이용 가능 면적, 적정 관람 시간 등을 종합 고려해 일일 관람객을 3만 9000명으로 제한한다”며 “하루 관람객은 2시간마다 6500명씩 총 6차례를 받을 것”이라고 설명했다.사전 신청 접수는 27일 오전 10시부터 네이버·카카오톡·토스 웹사이트와 모바일 애플리케이션에서 받는다. 65세 이상 노인, 장애인은 별도로 인원을 안배하며 스마트 기기 이용 약자를 배려해 대리 신청도 가능하다. 당첨자는 행전안전부의 ‘국민비서’ 시스템으로 바코드가 발송되며 청와대 정문·춘추관·영빈관에서 바코드를 찍고 입장한다. 바코드 사용이 여의치 않은 어르신 등에는 손목 띠를 발급한다.윤 당선인 측은 “향후 입장객 숫자가 안정되면 예약 신청 없이 청와대를 방문할 수 있게 운영할 계획”이라고 설명했다.10일 청와대 뒤편의 북악산 등산로도 함께 완전 개방된다. 등산로 출입에는 인원 제한이 없으며 청와대 동편·서편 어느 쪽에서나 출발할 수 있다. 윤 팀장은 “청와대 개방을 기념해 다음 달 10~22일 ‘청와대, 국민 품으로’ 행사를 개최한다”며 “청와대, 경복궁, 청주 청남대 등에서 다양한 행사가 열릴 것”이라고 예고했다.윤 당선인은 한편 취임과 동시에 용산 국방부 청사 5층에서 업무를 개시한다. 리모델링 공사가 끝나는 6월 중순께 대통령 본 집무실이 들어설 2층으로 옮겨갈 계획이다. 대통령의 관저는 한남동 외교부 장관 공관으로 확정됐고 취임 직후 한 달간은 서초구 자택에서 출퇴근한다.김용현 청와대이전TF 부팀장은 “서초동에서 용산 집무실까지 이동 시간은 약 10분”이라며 “국민 불편을 최소화할 수 있는 시간대에 한남대교·동작대교·반포대교·한강대교 등의 경로를 선택해 이동할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'금융 콘텐츠' 꽂힌 빅테크들…인재 확보 경쟁 본격화</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003010992?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>토스·카카오·네이버 금융 계열사나란히 '에디터 직군' 채용 공고사용자 친화 금융 팁 인기 증가세잠재 고객 확보...소통 강화 노력토스페이먼츠 채용 공고 이미지.(출처=취업포털사이트)주요 빅테크 기업들이 양질의 '금융 콘텐츠' 확보에 주목하고 있다. 경제지식과 콘텐츠 기획 능력을 함께 갖춘 에디터 채용을 통해 정보 제공과 고객 소통을 강화한다는 취지다.18일 업계에 따르면 토스페이먼츠, 카카오페이, 네이버파이낸셜은 모두 이달 금융 콘텐츠 에디터 직군 채용 공고를 냈다.토스의 경우 결제 전문 자회사 토스페이먼츠에서 콘텐츠 매니저 인력을 확충 중이다. 주택자금 무이자 1억원 대출, 인재추천비 500만원 등 다양한 직원 복지 혜택을 앞세웠다.토스페이먼츠는 지난해 4월 첫 콘텐츠 매니저를 채용한 이후 온라인 결제 정보 및 온라인 쇼핑몰 창업 전반에 대한 정보 지원을 위해 조직을 확대해 왔다.토스페이먼츠는 올해 4월 기준 누적 가맹점 9만개, 월평균 거래액 2조5000억원 이상을 기록했다. 사업 규모 확대에 따라 지난해 4월 첫 콘텐츠 매니저를 채용, 가맹점 사업주들이 신뢰할 수 있는 정확한 사업 콘텐츠를 제공 중이다.사업자등록 신청, PG 가입 방법을 비롯해 마케팅 노하우, 세무, 노무 저작권 등 전문가 견해가 담긴 콘텐츠도 발행한다. 온라인 쇼핑몰 창업에 필요한 모든 정보를 제공하는 '사장님 백서'가 가장 인기 콘텐츠다.토스페이먼츠의 금융 콘텐츠를 찾는 잠재고객도 급증했다. 지난해 8월 문을 연 공식 블로그는 오픈 첫 달 대비 방문자수가 276%, 콘텐츠 조회수가 287% 증가했으며, PG, 결제산업 키워드로 검색해 유입되는 사용자도 5배 가량 늘어났다.토스페이먼츠 관계자는 “콘텐츠 덕분에 '창업을 수월하게 준비했다' '서비스도 좋을 것 같아 망설이지 않고 가입했다'는 반응들이 인상 깊었다”며 “토스페이먼츠의 진정성이 전해진 것 같아 큰 성과라고 생각한다”고 설명했다.네이버와 카카오도 금융 콘텐츠 확충에 나서고 있다. 네이버파이낸셜은 네이버 메인 내 경제판(경제지표, 경제M)을 기획 운영하고, 경쟁사 벤치마킹을 통한 신규 콘텐츠를 기획·운영할 인재를 모집 중이다.카카오페이는 금융 콘텐츠 개편을 진행하면서 '허브마케팅파티' 조직을 확대 중이다. 콘텐츠 배포와 유통을 위한 카피라이팅, 콘텐츠 제휴사 발굴 및 큐레이션과 에디팅을 맡길 인재를 찾고 있다.카카오페이의 주요 콘텐츠 채널은 공식 블로그 내 '금융이야기' 페이 앱 내 '금융 팁' 탭이다. 특히 금융 팁의 경우 사용자 데이터 기반으로 관심을 가질만한 콘텐츠를 선별해 보여주는 것이 특징이다. 기존 금융 콘텐츠가 '뷔페식' 나열로 인해 고객으로부터 외면받던 문제를 한층 개선했다.한 주 동안 놓치지 말아야 할 뉴스와 금융 이벤트를 모아 보여주는 '금융캘린더'에 대한 고객 호응도 높다.카카오페이 관계자는 “카카오페이가 금융을 통해 생활 전반의 이로운 흐름을 만들었듯, 콘텐츠를 통해서도 이로운 금융 정보를 한눈에 볼 수 있게 하는 것을 목표로 하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>尹측 "靑, 내달 10일 정오 일반에 개방…모레부터 사전 신청"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013136427?sid=004</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>하루 3만9천 명으로 관람객 제한…본관·영빈관·녹지원·상춘재 포함 靑 뒤편 등산로는 제한 없이 열기로…"권력의 상징이 국민 품으로"청와대[연합뉴스 자료사진]    (서울=연합뉴스) 한지훈 류미나 기자 = 청와대가 윤석열 대통령 당선인이 취임하는 5월 10일 정오를 기해 일반 시민들에게 공개된다.    청와대 이전 태스크포스(TF)는 25일 오후 종로구 통의동 인수위 기자회견장에서 미디어데이 행사를 열고 이 같은 계획을 발표했다.    TF 팀장을 맡은 국민의힘 윤한홍 의원은 브리핑에서 "5월 10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다"며 "이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다"고 밝혔다.윤한홍 국민의힘 의원[국회사진기자단]     그는 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다"며 "같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것"이라고 예고했다.     다만 사전 신청자 중 당첨자만 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6천500명씩 일일 관람 인원을 총 3만9천 명으로 제한하기로 했기 때문이다.     윤 의원은 "개방 초기 관람 신청 서비스 제도를 운용하기로 했다"며 "한시적으로 입장 신청을 받아 운영할 계획"이라며 "입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이 등을 고려해 조정할 수 있다"고 설명했다.    사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다.북악산 사진은 북악산 법흥사 터. [종로구 제공. 재판매 및 DB 금지]     청와대 뒤편의 북악산 등산로는 5월 10일 완전히 개방된다. 등산로 출입에는 인원 제한이 없다.    윤 의원은 "청와대 동편과 서편 어느 곳에서나 출발할 수 있는 등산로는 5월 10일부터 사전 신청 없이, 인원 제한 없이 이용할 수 있다"고 말했다.     그는 "조선 시대 500년과 대한민국 건국 이후 74년을 합해 600여 년간 닫혀 있던 권력의 상징, 그 공간이 국민 품으로 돌아간다"며 "새로운 역사적 순간에 함께 해주시기를 바란다"고 의미를 부여했다.     hanjh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.04.18.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>KB국민카드 "선구매 후결제 서비스 3분기 출시"</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013119917?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>사내 벤처, 다날과 BNPL 서비스 구축·운영 제휴 KB국민카드[연합뉴스 자료사진](서울=연합뉴스) 하채림 기자 = KB국민카드는 사내 벤처 '하프하프'가 결제서비스 기업 다날과 '선구매 후결제(BNPL)' 결제서비스 구축·운영을 위한 업무제휴를 체결했다고 18일 밝혔다.     이번 제휴로 하프하프는 KB국민카드의 신용평가·채권관리 노하우와 다날의 결제 디지털 인프라를 융합해 MZ세대(1980년대~2000년대 출생)에 새로운 BNPL 결제 솔루션을 선뵐 계획이다.     올해 3분기에 BNPL 서비스를 출시할 계획이다.     BNPL은 결제 업체가 가맹점에 먼저 대금을 지불하고 소비자는 구매대금을 분할 납부하는 후불결제로 신용카드 할부와 유사하다.    신용카드는 신용점수, 소득 등 금융정보를 중심으로 발급하고 결제 한도가 부여되지만, BNPL은 비(非)금융정보 등을 활용한 대안 신용평가를 바탕으로 결제 한도를 정한다.     신용카드 발급이 까다로운 미국, 유럽, 호주 등에서는 금융정보가 부족한 집단을 중심으로 활성화돼 있다.     국내 카드사 가운데 현재까지 BNPL 등 후불결제 서비스를 도입한 곳은 없다.     네이버, 카카오, 토스 등 전자금융업자들이 소액 후불결제를 제공하고 있다.     tree@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.04.22.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>신한 이어 KB·삼성도 뚫렸다… 점입가경 카드사 보안 사고</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000808387?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>최근 국내 최대 카드사 신한카드와 그 뒤를 바짝 쫓는 2위 삼성카드, 1위 금융지주사 소속 KB국민카드에서 불과 며칠 간격으로 잇달아 이용자 정보 유출 사고가 터지면서 카드를 이용하는 국내 이용자들의 불안감이 커지고 있다. 이에 지난해 역대급 실적을 기록한 카드업계가 정작 기본적인 금융 보안에 둔감한 것 아니냐는 지적이 나오는 상황이다.21일 금융권에 따르면 KB국민카드 어플리케이션(앱) 이용자 이 모 씨는 지난 20일 결제내역을 확인하기 위해 스마트폰으로 앱에 로그인을 시도하는 과정에서 전혀 알지 못하는 정모 씨 계정에 본인 의도와 상관없이 연결됐다.이 씨는 본인이 지정한 여섯자리 비밀번호를 누르고 앱에 로그인했지만, 한시간 동안 생면부지인 정씨의 다음 달 결제예정금액과 이용대금 상세내역, 할부내역을 마치 본인 계정처럼 확인할 수 있었다. 이 문제는 이 씨가 앱에서 로그아웃을 하고 다시 로그인을 한 뒤에야 해결됐다.KB국민카드 관계자는 “일시적인 전산시스템 불안정으로 발생한 오류”라며 “해당 제보자 사례 1건을 제외하고 노출된 이용자는 없다”고 해명했다.KB국민카드. /연합뉴스        이보다 사흘 앞선 지난 18일에는 삼성카드가 삼성생명·삼성증권·삼성화재와 함께 만든 앱 ‘모니모’에서 비슷한 사고가 발생했다. 모니모는 삼성 계열 금융사들이 네이버나 카카오·토스 등 빅테크 기업과 경쟁하기 위해 내놓은 통합 앱으로 지난 14일 서비스를 시작했다.그러나 서비스 시작 이후 나흘이 채 지나지 않은 18일 오후부터 19일 오전 사이, 모니모에 가입한 삼성증권 이용자 344명의 계좌번호·현재 잔고·보유종목과 수익률 같은 민감한 정보가 다른 이용자에게 무작위로 유출됐다.삼성금융네트웍스 관계자는 “해당 오류로 인한 금전적 피해나 개인 정보가 앱 외부로 유출되는 2차 피해는 나타나지 않았다”고 밝혔다.그러나 모니모를 운영하는 삼성카드는 유출 사고가 발생한 지 만 이틀이 지나도록 해당 사고에 대해 공지하지 않아 이용자들로부터 원성을 샀다. 현행법상 관리 부실로 개인 신용정보가 유출된 경우 반드시 해당 사실을 금융위원회에 알려야 한다.수일 간격으로 굵직한 주요 카드사에서 보안 관련 문제가 불거지자 금융당국은 즉시 칼을 뽑아들었다. 금융감독원은 21일 “사고발생 경위를 파악해 소비자 피해가 발생한 경우 신속히 배상토록 하고, 재발방지를 위해 관련 시스템을 즉시 개선하도록 지도하겠다”고 말했다.감독원은 또 “모바일 기반의 금융플랫폼에 대해서는 프로그램 테스트 및 제3자에 의한 검증절차 준수 여부 등에 대한 점검을 강화하는 한편, 중대한 법규위반 행위가 확인된 경우에는 법과 원칙에 따라 엄중한 책임을 물을 예정”이라고 덧붙였다.앞서 신한카드에서는 지난 10일 전후로 무더기 부정 결제 사고가 발생했다. 신한카드 이용자들 가운데 일부는 자신도 모르는 사이에 수백만원이 연이어 결제돼 수십만워에서 수백만원대 손해를 입었다.금감원은 지난 15일 명의도용 사고를 일으킨 신한카드에 대해 수시검사를 진행할 계획을 밝히고 21일부터 강도 높은 조사에 들어갔다. 금융당국뿐 아니라 수사당국도 해당 사건과 관련해 입건 전 조사에 착수했다. 경찰은 사이버범죄 신고시스템과 각 시도경찰청 등을 통해 이번 신한카드 피해 신고를 접수 현황을 파악한 후 담당 수사관서를 지정할 예정이다.금융개발원 관계자는 “편리성을 추구하는 소비자들의 요구에 맞춰 새로운 앱을 개발하다 보면 금융기관이 보안 문제를 느슨하게 다룰 여지가 생긴다”며 “카드사들은 지난해 거둬들인 막대한 수익으로 금융당국에서 제시한 표준 인증 기술 뿐 아니라 보안성을 강화하기 위한 자본 투자를 충분히 하고 있는지 검토해 볼 시점”이라고 평가했다.지난 2월 강민국 국민의힘 의원실이 금융감독원에서 받은 ‘5년간(2017~2021년) 국내 카드사 부정사용 내역’을 살펴보면 카드 정보도용에 의한 부정사용은 5년간 2017건, 명의 도용은 1077건에 달했다.도난·분실을 포함한 전체 부정 사용 빈도가 가장 잦았던 신용카드사는 신한카드(2만9918건·26.6%), KB국민카드(2만2044건·19.6%), 우리카드(1만7587건·15.6%), 현대카드(1만1911건·10.6%), 삼성카드(1만199건·9.1%) 순으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[속보] 尹측 "靑, 내달 10일 정오 일반에 개방…모레부터 신청"</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004046274?sid=100</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>영빈관·녹지원·상춘재 등 공개사고대비 하루 3만9000명 제한카카오톡·네이버·토스서 신청[서울경제] 윤석열 대통령 당선인이 취임하는 다음 달 10일 정오를 기점으로 청와대가 전 국민에게 무료 개방된다. 개장 초기 인파가 몰리는 것을 방지하기 위해 당분간 하루 3만 9000명의 방문객만 받으며 이달 27일부터 관람 신청을 받는다.25일 윤한홍 청와대이전태스크포스(TF) 팀장은 서울 통의동에서 기자회견을 열고 “74년 만에 제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다”며 “영빈관을 비롯해 녹지원과 상춘재도 열린 공간으로 재탄생될 것”이라고 말했다. 청와대 경내는 개방되지만 주요 기록물, 보안 문서 등에 대한 정리가 필요해 본관과 대통령 관저 내부와 경호처·여민관 등은 개방되지 않는다.청와대는 향후 지속적으로 개방될 계획이며 윤 당선인 측은 우선 다음 달 10일부터 21일까지의 관람 지침을 내놓았다. 이 기간 청와대는 오전 7시부터 오후 7시까지 개방되며 초기 방문객이 몰릴 것에 대비해 사전 신청자 중 당첨 관람객만 입장할 수 있다. 윤 팀장은 “청와대 경내 이용 가능 면적, 적정 관람 시간 등을 종합 고려해 일일 관람객을 3만 9000명으로 제한한다”며 “하루 관람객은 2시간마다 6500명씩 총 6차례를 받을 것”이라고 설명했다.사전 신청 접수는 27일 오전 10시부터 네이버·카카오톡·토스 웹사이트와 모바일 애플리케이션에서 받는다. 65세 이상 노인, 장애인은 별도로 인원을 안배하며 스마트 기기 이용 약자를 배려해 대리 신청도 가능하다. 당첨자는 행전안전부의 ‘국민비서’ 시스템으로 바코드가 발송되며 청와대 정문·춘추관·영빈관에서 바코드를 찍고 입장한다. 바코드 사용이 여의치 않은 어르신 등에는 손목 띠를 발급한다.윤 당선인 측은 “향후 입장객 숫자가 안정되면 예약 신청 없이 청와대를 방문할 수 있게 운영할 계획”이라고 설명했다.10일 청와대 뒤편의 북악산 등산로도 함께 완전 개방된다. 등산로 출입에는 인원 제한이 없으며 청와대 동편·서편 어느 쪽에서나 출발할 수 있다. 윤 팀장은 “청와대 개방을 기념해 다음 달 10~22일 ‘청와대, 국민 품으로’ 행사를 개최한다”며 “청와대, 경복궁, 청주 청남대 등에서 다양한 행사가 열릴 것”이라고 예고했다.윤 당선인은 한편 취임과 동시에 용산 국방부 청사 5층에서 업무를 개시한다. 리모델링 공사가 끝나는 6월 중순께 대통령 본 집무실이 들어설 2층으로 옮겨갈 계획이다. 대통령의 관저는 한남동 외교부 장관 공관으로 확정됐고 취임 직후 한 달간은 서초구 자택에서 출퇴근한다.김용현 청와대이전TF 부팀장은 “서초동에서 용산 집무실까지 이동 시간은 약 10분”이라며 “국민 불편을 최소화할 수 있는 시간대에 한남대교·동작대교·반포대교·한강대교 등의 경로를 선택해 이동할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>인뱅 “예대금리차 커도 수익 쥐꼬린데”… 정부 공시에 한숨</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004821359?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>예대금리차 수익과 비례 안 해“중금리 대출 늘어난 영향” 주장실제 차이 가장 큰 토뱅은 적자시중은행과 달리 이익 적은 편  윤석열 정부가 추진하고 있는 시중은행 예대금리차 공시를 두고 인터넷은행 업계에선 볼멘소리가 나오고 있다. 예대금리차 공시는 예대마진이 높을 수록 은행이 폭리를 취하고 있다는 논리를 전제하는데, 인터넷은행들은 상황이 달라서다.   17일 인터넷은행 업계에 따르면 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행들은 예대마진차 기준 전체 은행중 1~3위를 차지하지만 예대마진 수익과 비례하진 않는다는 주장을 펴고 있다. 예대마진이 높을 수록 은행이 폭리를 취하고 있다는 논리가 맞지 않는다는 것.   일례로 토스뱅크의 경우 모든 시중은행을 통틀어 예대금리 차가 가장 크지만 예대마진 수익은 적자를 기록했다. 토스뱅크는 평균 예금금리가 0.67%지만 대출금리는 5.07%로 예대금리차가 4.40%포인트(p)에 달했다. 카카오뱅크는 2.38%p, 케이뱅크는 2.78%p를 각각 보였다. 인터넷은행 업계는 중금리 대출을 높이면서 예대금리차가 높아진 것일 뿐 수익성과는 별개라고 주장하고 있다.   예대마진차가 클수록 은행의 이익은 증가한다는 논리는 시중은행에선 통한다. 실제 지난해 신규 취급 대출을 기준으로 신한은행의 예대금리차는 1.83%p로 나타나 5대 은행 중 가장 컸다. 신한은행의 예금금리는 평균 1.16%, 대출금리는 평균 2.99%를 기록했다. 나머지 은행의 예대금리차는 KB국민은행 1.80%p, 하나은행 1.72%p, 우리은행 1.63%p, 농협은행 1.54%p 순이었다.   전문가들은 인터넷은행의 입장이 시중은행과 다소 차이가 있긴 하지만 대 소비자 정보 제공 측면에선 예대금리차 공시가 필요하다는 입장이다. 성태윤 연세대 경제학과 교수는 "시중은행이 구조적으로 대출금리 권한을 독점하는 경우 예대마진이 크게 날 수밖에 없다. 경쟁을 강화한다는 의미로 공시가 필요하다"며 "소비자 입장에서는 공시를 통한 정보 제공이 필요하다"고 말했다.   김상봉 한성대 경제학과 교수는 "중금리 대출 높게 하면서 예금을 적게 내주는 게 문제"라며 "중금리대출이 문제라면 예금금리도 같이 가야한다. 일정해야 한다"고 말했다.   한편 윤 당선인의 예대금리차를 비교 공시와 관련해 현재 인수위와 금융당국, 시중은행들은 본격적인 실행안을 검토하고 있다. 시중은행들은 은행별 정보가 공개돼 비교될 경우 차별화된 금융서비스를 제공할 이유가 없어진다며 반대 입장을 견지하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>김주하 AI 앵커와 함께하는 이 시각 주요 뉴스 - 4월 27일 낮 12시</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001659266?sid=102</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>&lt;'검수완박' 단독처리 강행&gt;▶ '검수완박' 법사위 통과…여야 충돌 격화  오늘 새벽 국회 법제사법위원회에서 '검수완박' 법안이 사실상 더불어민주당의 단독 처리로 통과된 데 이어, 오늘 본회의에서 법안 처리가 시도될 전망입니다.  국민의힘은 '날치기'라고 반발하며 필리버스터 등을 동원하겠다는 입장이어서 여야간 충돌이 격화될 것으로 보입니다.▶ "이전, 마땅치 않다" vs "책무 집중하길"  문재인 대통령이 윤석열 당선인의 용산 집무실 이전 계획에 대해 "여론 수렴 없이 진행돼 마땅치 않게 생각한다"고 비판했습니다.  반면, 윤 당선인 측은 문 대통령을 향해 임기가 채 보름도 남지 않은 시점에 책무에 집중해달라고 말해 신·구 권력간 신경전이 다시 이어지고 있습니다.▶ 오늘부터 '청와대 관람' 온라인으로 신청  오늘 오전부터 네이버와 카카오톡, 토스 등 온라인 플랫폼을 통해 다음 달 10일 개방되는 청와대 관람 신청이 시작됐습니다.  대통령직인수위원회는 국민 접근성이 높은 온라인 플랫폼으로 국민 누구나 편리하게 관람 신청을 할 수 있도록 했다고 설명했습니다.▶ 확진 7만 6,787명…"방역상황 안정적 유지"  코로나19 신규 확진자 수가 7만 6,787명으로 집계돼 1주일째 10만 명 아래로 나타났고, 2주 전보다는 확진자 수가 절반 이하로 떨어져 확연한 감소세가 이어졌습니다.  정부는 "방역상황이 안정적으로 유지되고 의료대응 여력도 충분한 상황"이라며 일상회복에 다가섰다고 평가했습니다.▶ 북한, 대규모 열병식…신형 SLBM도 공개  북한이 그제 진행한 심야 열병식에서 남측을 겨냥해 만든 전술유도미사일부터 미국 본토 타격용 대륙간탄도미사일 ICBM 까지 핵탄두를 실을 수 있는 신식 무기를 공개했습니다.  군 당국은 북한이 이들 미사일을 실전 배치하기 전 시험 발사할 가능성이 크다고 판단하고 북한군 동향을 예의 주시하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.04.29.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>삼성청년SW아카데미 8기, 5월2~16일 1150명 모집</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011155042?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>기사내용 요약29일 개발자 희망 청년 응원 'SSAFY 밋업(Meet up)' 행사 개최1~5기 총 2785명 수료생 중 2326명 취업 성공…84% 취업률[서울=뉴시스]29일 서울 강남구 SSAFY 서울 캠퍼스에서 교육생들을 응원하는 SSAFY 밋업 행사가 열렸다. (사진 = 삼성) photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 이현주 기자 = 삼성이 다음달 2~16일 '삼성청년SW아카데미(SSAFY·Samsung Software Academy For Youth)' 8기 신입생을 모집한다. 29일 서울 강남구 서울캠퍼스에서는 개발자로서 꿈과 미래를 그려나가는 교육생들을 응원하기 위한 'SSAFY 밋업(Meet up)' 행사를 개최했다.매년 2회 실시되는 이번 행사에는 SSAFY 6·7기 1650여명의 교육생이 참여했다. 현장에는 50명의 교육생이 참석했고, 나머지 교육생들은 온라인으로 참석했다.행사는 ▲사회 각계의 응원 메시지 전달 ▲SSAFY 교육생의 나눔 경험 공유 ▲김경일 아주대 심리학과 교수의 '행복'을 주제로 한 강의  등으로 진행됐다.SSAFY는 삼성이 2018년 8월 발표한 '경제 활성화와 일자리 창출 방안'의 일환으로, 국내 IT 생태계 저변을 확대하고 청년 취업 경쟁력을 높이기 위해 실시하는 사회공헌(CSR) 프로그램이다.이날 행사에서 이장섭 더불어민주당 의원은 "최근 SW는 국가 경쟁력 지표로 활용될 만큼 중요성과 전문 인력에 대한 수요가 커지고 있다"며 "SSAFY 교육생들이 있어 우리나라의 미래가 밝다"고 격려했다.이영 국민의힘 의원은 "SW 개념이 생소하던 시절 벤처기업을 창업했고, 힘들지만 미래를 꿈꾸며 달려왔다"며 "교육생들이 도전을 통해 미래 SW 전문가로 성장하고 있어 자랑스럽다"고 응원했다.인터넷 전문은행 토스뱅크 박준하 CTO는 "기술로 세상에 기여했을 때 성취감을 상상하며 교육에 최선을 다하길 바란다"며 "금융과 은행의 미래를 함께 만들어갈 교육생들은 토스뱅크에서 만나자"고 밝혔다.윤장현 삼성전자 MX사업부 개발실 부사장은 "이번 행사가 나눔의 가치에 대해 생각하는 시간이 되길 바란다"며 "멋진 SW 엔지니어로 성장하기를 응원한다"고 말했다.한편 삼성은 SSAFY 8기 교육생을 다음달 2일부터 16일까지 모집한다. 총 1150명을 선발하는 SSAFY 8기는 7월부터 전국 5개 캠퍼스에서 1년간의 교육 과정을 시작한다.만 29세 이하 미취업자 중 4년제 대학 졸업자나 졸업 예정자라면 전공과 상관없이 지원할 수 있다. 서울, 대전, 광주, 구미, 부울경(부산 소재) 캠퍼스 등 전국 5개 중 원하는 곳에서 교육을 받을 수 있다.SSAFY는 1년간 매일 8시간씩 총 1600시간의 집중적인 SW 교육과 교육생간 협업을 통한 실전 프로젝트 등을 통해 기업에 즉각 투입될 수 있는 역량을 갖춘 소프트웨어 개발자를 양성하고 있다. 모든 교육 과정은 무상이며, 교육생 전원에게는 매달 100만원의 교육 지원비를 제공한다.2018년 12월 1기가 입과한 'SSAFY'는 5기까지 총 2785명이 수료했고, 이중 총 2326명이 700여개의 기업에 취업해 84%의 취업률을 달성했다. 이들은 삼성전자를 비롯한 네이버, 카카오, 쿠팡, 신세계아이앤씨, LG CNS, 롯데정보통신 등 주요 IT 기업에 취업했다. 또, 신한은행, NH농협은행, 현대카드, 현대자동차 등 다양한 대기업과 금융권에도 입사했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>내달 10일 정오부터 청와대 일반에 개방</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002731294?sid=100</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>내일 10시부터 앱으로 사전 접수북악산 등산로 오전에 완전 개방오는 5월 10일 윤석열 대통령 취임식이 마무리되는 정오 무렵부터 청와대가 일반에 전면 개방된다.청와대 이전 태스크포스(TF) 팀장인 윤한홍 국민의힘 의원은 25일 서울 종로구 통의동 대통령직인수위원회에서 "윤석열 당선인은 지난 선거 과정에서 제왕적 권력의 상징인 청와대를 국민께 돌려드리겠다고 약속했다"며 "취임식이 끝나면 청와대 문을 완전 개방하기로 결정했다"고 밝혔다.윤 의원은 "본관, 영빈관을 비롯해 최고의 정원이라 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다"며 "청와대로 인해 단절됐던 북악산 등산로도 5월10일 오전 7시부터 완전 개방된다"고 말했다.대통령 취임식이 10일 오전 11시 국회에서 열릴 예정인 만큼 청와대 개방 시점은 당일 정오 무렵으로 추정된다. 윤 의원은 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다"며 "같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 할 것"이라고 말했다.청와대 일반 공개 후 초기에는 관람객이 대규모로 몰릴 여지가 있는 만큼 사전 신청제를 한시 운영키로 했다. 이에 따라 당분간 사전 신청자 중 당첨자만 청와대 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 6차례, 2시간마다 6500명씩 관람할 수 있어, 하루 관람 인원은 총 3만9000명으로 제한된다. 청와대 방문 사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 앱과 웹사이트를 통해 할 수 있다. 관람 희망일로부터 8일 전에 신청하면 된다. 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받는다.다만 청와대 본관과 대통령 관저 등 건물 내부와 경호처, 여민관 등 출입통제 구역은 당장 개방되지 않는다. 이 구역은 추후 시설 정리가 끝난 뒤 개방될 예정이다.청와대 등산로 출입은 사전 신청 없이, 인원 제한 없이 이용할 수 있다.윤한홍 청와대 이전 태스크포스(TF) 팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회 기자회견장에서 윤석열 대통령 당선인이 공약한 '5월10일 취임 즉시 청와대 개방' 이행 방안 관련 브리핑을 하고 있다.&lt;연합뉴스&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>尹대통령 취임식 끝나자마자 靑 활짝 열린다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003268365?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>靑 관람 당분간 하루 3만 9000명 입장… 북악산 등산로는 무제한새달 10일 정오 일반에 무료 개방내일부터 앱·사이트서 사전 신청청와대. 서울신문 DB청와대가 윤석열 대통령 당선인의 취임식 행사가 끝나는 다음달 10일 정오에 국민에게 개방된다.대통령직인수위원회 산하 청와대 이전 태스크포스(TF) 윤한홍 팀장은 25일 언론 브리핑에서 “청와대는 조선시대 500년 그리고 대한민국 건국 이후 74년, 약 600년 동안 닫혀 있던 권력 상징의 공간”이라며 “그 공간이 5월 10일 국민의 품으로 돌아간다”고 밝혔다. 이어 “본관, 영빈관을 비롯해 최고의 정원이라고 불리는 녹지원과 상춘재가 있는 청와대는 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다”고 말했다.청와대 개방 시간은 5월 10일 취임식 당일만 정오부터 오후 8시까지, 다음날부터는 오전 7시부터 오후 7시까지다. 이용객 안전 등을 고려해 개방 초기엔 관람 인원을 제한하고 향후 입장객 수가 안정화되면 인원 제한을 풀기로 했다.이에 따라 다음달 10일부터 일일 관람 인원은 3만 9000명(하루 6차례, 2시간마다 6500명씩)으로 제한된다. 관람을 위해서 당분간 사전 입장 신청을 해야 하고, 인원 초과 시 추첨을 통해 관람객을 선정한다. 65세 이상 노인과 장애인 단체 관광은 별도로 신청을 받아 인원을 안배하기로 했다.사전 신청은 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 윤 팀장은 “입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이를 고려해 조정될 수 있다”고 설명했다.다만 청와대 본관과 대통령 관저 등 건물 내부와 출입 통제 구역은 당장 개방되지는 않는다. 향후 주요 기록물과 통신시설, 보안이 필요한 문서 등을 정리한 후 전면 개방하도록 할 계획이다.북악산 등산로는 청와대 경내와 달리 사전 신청이나 인원 제한 없이 5월 10일 오전 7시부터 이용이 가능하다.윤 팀장은 “경호와 보안을 이유로 굳게 잠겨 있던 청와대 뒤편 백악정 대통문이 5월 10일 개방된다”며 “이로써 청와대에서 한양 도성 성곽까지 연결돼 진정한 북악산 등산로 전면 개방이 완성된다”고 했다. 청와대 개방을 기념하는 ‘청와대, 국민 품으로’라는 대국민 행사도 5월 10일부터 22일까지 진행된다. 청와대 개방이 가져올 경제적 효과에 대해서는 “관광문화재단이 분석한 것은 일년에 경복궁을 찾는 분이 300만명인데, 300만명을 적용했을 때 경제적 가치가 2000억원”이라며 “청계천 개방 초기 1년, 2년차에 관광객이 2500만~3000만명인데, 1700만명 수준으로 적용했을 때 경제적 가치는 연 5조 1000억원이라고 분석한 자료가 있다”고 설명했다.윤 당선인은 취임과 동시에 서울 용산의 기존 국방부 청사에서 업무를 시작한다. 윤 팀장은 “NSC(국가안전보장회의)가 들어설 지하 1층은 한창 준비(공사) 중”이라며 “5월 10일 정상적으로 작동하는 데 문제가 없다”고 했다. 이어 “5월 10일 윤 당선인은 5층에서 (임시로) 근무를 하게 된다”고 밝혔다. 현재 국방부 2~4층은 한미연합훈련 이후로 이사가 미뤄진 상태다. 이사가 완료되면 공사를 통해 6월 중순쯤 국방부 2층에 윤 당선인 집무실이 마련될 예정이다. 1층에는 기자실, 2층에는 비서실, 9층에는 경호실이 들어선다.브리핑에 동석한 김용현 전 합동참모본부 작전본부장은 윤 당선인이 취임 후 한 달 정도는 자택인 서초동에서 용산으로 출퇴근할 것임을 재확인한 뒤 “서초동에서 용산 집무실까지 7∼8㎞ 정도 되고 이동 시간은 10분 내외”라며 “국민 불편을 최소화할 수 있는 시간대에 한남대교, 동작대교, 반포대교, 한강대교 등의 경로를 선택할 것”이라고 말했다.윤 팀장은 윤 당선인의 관저로 확정된 외교부 장관 공관과 관련해 “장관이 바뀔 때마다 계속 리모델링을 해 와서 상태가 양호하다”며 “(애초에 관저로 고려했던) 육군참모총장 공관을 지금부터 (리모델링)하는 것보다 훨씬 기간이 적게 걸릴 것”이라고 했다. 다만 공사 범위에 대해서는 “도배 정도는 아니다. (당선인의) 취향이 있지 않나”라며 “장관 공관과 대통령 관저는 다르다. 유리도 방탄 유리로 바꿔야 하고 여러 개념이 다르다. (리모델링) 시간이 좀 걸릴 것”이라고 했다.아울러 외교부 장관의 새 공관으로 기존 삼청동의 청와대 비서실장 공관을 사용하는 방안이 검토되고 있다. 윤 팀장은 “비서실장 공관을 외교부 장관 공관으로 쓰고 붙어 있는 안가를 행사 공간으로 (하자는) 의견이 있어서 검토 중”이라고 설명했다.한편 정부는 26일 정부세종청사에서 열리는 김부겸 국무총리 주재 국무회의에서 136억원 규모의 2차 예비비 지출안을 심의·의결할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.04.17.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>업비트덕에 첫 흑자난 케이뱅크… 예수부채 변동 주의해야</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002729991?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>케이뱅크가 출범 후 첫 연간 흑자를 달성했다. 케이뱅크 사옥 전경.. 케이뱅크 제공    인터넷전문은행 케이뱅크가 지난해 출범 이후 첫 흑자를 기록한 가운데 가상자산 거래소 업비트와의 제휴 효과를 크게 본 것으로 나타났다. 제휴 이후 예수금을 크게 늘리면서 외형 성장을 끌어냈지만, 업비트 연계 예수금 비중이 높아 안정성이 떨어질 수 있다는 지적도 제기된다.17일 은행연합회 공시에 따르면 지난해 말 기준 케이뱅크의 예수금(수신 잔액)은 11조3175억원으로 이 중 법인 예수금이 6조6492억원으로 58.75%를 차지했다. 개인 예수금은 4조6682억원(41.25%)이었다.반면 다른 인터넷은행에서는 케이뱅크와는 달리 법인예수금 비중이 1% 미만을 유지하고 있다. 같은 기간 카카오뱅크의 법인 예수금은 0.19%, 토스뱅크는 0.006%에 불과하다.케이뱅크의 법인 예수금 비중이 높은 배경으로는 고객이 케이뱅크를 통해 업비트에 보유하고 있는 금액이 법인 예수금 항목으로 분류되기 때문이다. 케이뱅크는 업비트와 실명확인입출금계정(실명계좌) 제휴를 맺고 있다. 가상자산 거래를 위해 업비트 계정에 원화를 입금하고자 하는 고객은 실명 확인된 케이뱅크 계좌를 연동해야만 거래할 수 있다. 이때 고객이 케이뱅크 계좌를 통해 업비트에 입금한 원화는 물론, 입금된 원화로 고객이 거래해 보유한 비트코인, 이더리움 등 가상자산의 규모가 모두 법인 예수금으로 분류된다. 지난 2020년 말 기준 케이뱅크의 예수금은 3조7453억원이었는데, 당시에는 법인 예수금 비중이 29.03%에 그쳤다.케이뱅크는 2020년 6월 업비트와 제휴를 맺었으며, 지난해 가상자산 투자열풍에 힘입어 수신 잔액이 세 배 이상 증가했다. 지난해 전체 예수금은 7조5722억원이 늘었으며, 이중 법인 예수금 증가액이 5조5619억원이다.케이뱅크와 업비트의 제휴는 가상자산 거래소와 은행의 긍정적인 협력의 사례로 꼽힌다. 케이뱅크가 지난해 196억원의 비이자이익을 올린 데에도 업비트 제휴 수수료 수익비중이 가장 컸다는 분석이 나온다. 여기에 지난 1년간 고객 수를 세 배 이상 크게 불린 것 역시 업비트 효과가 컸다는 분석이다.다만 가상자산 거래 시황에 따른 예수 부채 변동성 극복은 케이뱅크가 극복해야할 과제로 지목된다. 한 은행권 관계자는 "케이뱅크가 업비트 제휴를 통해 급성장한 만큼 가상자산 거래 시황에 따른 예수 부채 변동성이 클 것"이며 "안정적인 예수금 조달 방안 등 점검이 필요해 보인다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.04.26.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>"우리한테 왜 방카슈랑스 25%룰을?"… 핀테크사들 뿔났다</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000807364?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>손해보험사들의 핀테크사에 대한 압박에 핀테크사들이 대응에 나섰다./그래픽=이미지투데이 "은행에 적용하는 방카슈랑스 25%룰을 핀테크사에 적용하는 게 말이 됩니까?"   핀테크사 한 고위 관계자 말이다. 네이버파이낸셜과 카카오페이, 토스 등 핀테크업계가 삼성화재와 현대해상, DB손해보험 등 손해보험사들 굴기에 대응하기 위한 대책을 논의하기 시작했다. 핀테크사들이 설립하는 법인보험대리점(GA)에 방카슈랑스 25% 적용을 시도하는 것에 따른 후속조치 차원이다.  26일 금융권에 따르면 조만간 네이버파이낸셜과 카카오페이, 토스 등 핀테크사들은 금융당국에 핀테크사에 방카슈랑스 25%룰 적용이 부당하다는 내용을 전달할 예정이다. '방카슈랑스 25%룰'은 은행이 특정 보험사의 상품을 25% 이상 팔지 못하도록 한 규제다. 금융당국이 특정사 상품의 독점 영업을 막겠다는 취지에서 도입했다.     예를 들어 토스 자회사인 토스인슈어런스가 토스가 만든 상품을 25% 이상 판매하지 못하게 하는 것이다.  이에 대해 핀테크업계 관계자는 "보험상품은 보험사만이 만들 수 있고 보험사들이 온라인전용 상품을 만들지 않거나 특정 보험사가 온라인GA와 제휴 하지 않을 경우 플랫폼은 방카룰에 의해 특정 상품군을 사용자들에게 선보일 수 없다"고 말했다.  또 다른 핀테크사 관계자는 "새로운 혁신적인 상품이 출시돼도 플랫폼에 상품을 소개하지 않는다면 상품개발에 대한 동력 자체가 줄어들 가능성도 있다"며 "플랫폼 GA의 업무보고를 기존 GA와 차별해 분기, 반기 보고를 진행하고 25% 초과시 소비자가 보는 화면에 25% 초과 판매상품임을 주의 문구 등으로 인식시키는 방향으로 규율해야 할 것"이라고 강조했다. 현재 손해보험사들은 빅테크들의 본격적인 진출을 앞두고 긴장하고 있다. 수많은 플랫폼 가입자 등을 바탕으로 보험 산업 진출 후 시장 지배력을 빠르게 확대해 나갈 것으로 우려하는 중이다.  전문가들은 빅테크의 우월적 시장 지위를 제어할 수 있는 장치와 함께 기존 산업과의 불공정 경쟁 환경을 개선해야 한다고 지적하고 있다. 온라인 플랫폼은 보험회사·판매채널의 공급 정보와 소비자의 수요 정보를 모두 보유하고 활용하는 만큼 대면 거래에 비해 시장 지배력이 높다.  우월적 지위 남용과 기존 대면채널(전속·GA) 시장 잠식 등 빅테크의 보험 시장 진입에 따른 불공정 경쟁, 소비자 권익을 저해할 요소가 높다고 지적하는 것이다.  핀테크사 관계자는 "특정사 쏠림 현상이 나오면 사후 규제하는 방향으로 규율체계가 진행돼야 한다"며 "방카룰은 은행 대면 영업에 특화된 규율로 동일한 규제를 비대면 영업을 진행하는 GA에 동일한 룰을 적용하는 것은 맞지 않다"고 전했다.  황인창 보험연구원 연구위원은 "빅테크의 보험업 진출은 보험사에 경쟁 심화로 인한 고객 이탈 및 판매 시장에서의 시장 지배력 감소 등 위험 요인이 될 수 있다"며 "빅테크들이 차별화된 데이터와 기술력으로 새로운 보험 상품 및 서비스를 개발·판매해 MZ세대 등 기존 보험회사의 잠재 고객들이 이탈할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[장형태가 만난 사람] “法 정한 것만 하라는 낡은 규제, 창업자 옥죄는 모래주머니… 이것만 빼고 다 하라는 네거티브 규제 꼭 도입해야”</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003687281?sid=110</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>국내 1800개 벤처 모임인 코리아스타트업포럼 박재욱 의장국내 1800여 개 스타트업을 대표하는 코리아스타트업포럼 박재욱 신임 의장은 지난 18일 본지와 만나 “수십년 전 만들어진 법이 디지털 세상에서 탄생한 서비스를 반영하지 못하고 있다”며 “새 정부는 ‘이것 빼고는 다 해도 좋다’는 네거티브 규제 방식을 도입해달라”고 했다./박상훈 기자										2020년 3월 이른바 ‘타다 금지법’ 국회 통과를 앞두고 35세 기업가 박재욱은 문재인 대통령에게 “법에 적혀 있는 대로 사업을 했다. 타다 드라이버 1만2000명이 실직하지 않게 해달라. 젊은 기업가가 무릎을 꿇고 말씀드린다”며 거부권을 행사해달라고 호소했다. ‘렌터카와 기사를 동시에 빌릴 수 있다’는 법 조항에서 출발한 승합차 호출 서비스 ‘타다’는 2018년 출시 이후 이용자 172만명을 확보하며 승승장구했다. 하지만 택시업계는 “택시 운행 면허 없는 불법”이라고 반발했고, 표를 의식한 정치권이 호응하면서 타다금지법이 통과돼 서비스를 접게 된 것이다. 이후 타다의 모회사인 차량공유 스타트업 쏘카 대표가 된 박재욱은 사업을 재정비해 쏘카를 모빌리티 업계 최초의 유니콘(기업가치 1조원 이상 비상장 스타트업)으로 성장시켰다.박 대표는 지난 2월 국내 스타트업 1800여 곳을 회원사로 둔 국내 최대 스타트업 협단체인 ‘코리아스타트업포럼’ 3대 의장으로 선임됐다. 초대 의장인 김봉진 배달의민족 창업자, 2대 공동 의장인 토스(금융앱) 이승건·직방(부동산 중개앱) 안성우·컬리(신선식품) 김슬아 창업자와 달리, 박 신임 의장은 여론에 떠밀려 자신의 서비스를 접고 법정 다툼까지 경험했다. 지난 18일 서울 성동구 성수동 쏘카 본사에서 만난 박 의장에게 새 정부에 바라는 점을 물었다. 그는 “새 정부는 유니콘 숫자에 연연하지 않았으면 좋겠다”며 “기업 덩치를 키우는 데만 급급한 유니콘 위주 정책은 스타트업 생태계를 왜곡시킨다”고 했다.◇네거티브 규제 꼭 도입해야-쏘카의 유니콘 등극 이후, ‘곧 망할 회사’라던 시선이 확 바뀌었다. 그런데 왜 유니콘 육성 정책에 비판적인가.“현 정부는 아예 ‘2022년까지 유니콘 20개’라는 목표를 세워놨다. 이 구호 때문에 다른 좋은 육성 정책이 다 묻혔다. 모든 스타트업의 목표가 유니콘이어야 하는가? 나는 아니라고 본다. 재무상태를 좋게 유지하며 일자리 창출하는 기업도 있고, 이익 또박또박 내면서 주주들에게 배당 잘하면서 성장하는 기업도 있다. 장애인 등 사회적 약자 채용하는 사회적 기업도 있을 것이다. 천편일률적으로 기업 덩치만 키우려는 유니콘 위주 정책은 다양성을 막는 일이다.”지난해 7월 당시 윤석열 대선 후보가 스타트업 간담회장 앞에서 변호사 광고 플랫폼 로톡 반대 시위를 벌이는 대한변협 회원들을 바라보고 있는 모습. 박재욱 의장은“플랫폼 갈등은 소비자 편익 측면에서 바라봐야 한다”고 했다. /독자제공										-새 정부는 어떤 스타트업 육성정책을 펴야 하나.“과거에 만들어진 법이 현재 디지털 세상을 반영하지 못하고 있다. 모빌리티 분야가 대표적이다. 지금은 여객과 물류운송 경계가 모호하다. 하지만 1960년대 만들어진 여객운수법은 택시는 사람만 태우게 한다. 차량공유는 렌터카 법령을 따르고 있다. 영업용으로 활용할 수가 없다. 내가 차가 없어도 쏘카를 빌려서 쿠팡 배달을 할 수도 있지 않나. 지금 법규로는 못 한다. 약 배달을 막는 약사법과 온라인 안경점 개업이 안 되는 의료기사법 등 비슷한 사례가 너무 많다. 시대 상황에 맞는지 이제 물음을 던져야 할 시기다. 윤석열 당선인이 지난해 스타트업 간담회에 참석해서 말씀하신 것들이 있다. ‘스타트업이 마음껏 뛸 수 있게 좋은 신발은 신겨줘야 한다’ ‘불필요한 모래주머니는 제거하겠다’고 했다. 불필요한 모래주머니가 바로 창업가들을 옥죄는 규제다. 이를 위해서는 네거티브 규제 방식이 꼭 도입돼야 한다.”-네거티브 규제가 무엇인가.“한마디로 ‘이것 빼고는 다 해도 좋다’는 것이다. 현재 우리나라 법은 포지티브 규제 방식이다. 법에서 허용하는 서비스만 하라는 식이다. 하지만 이런 환경에서는 창의성과 새로운 시각을 가지고 시장을 혁신하는 서비스가 탄생하기 굉장히 어렵다. 앞으로 법에서 금지하는 것이 아니면, 모든 가능성을 열고 시도해볼 수 있는 네거티브 규제가 잘 적용돼야 한다. 그래야 새로운 스타트업들이 도전하고 창업이 활성화될 수 있는 발판이 된다. 이렇게 자란 기업들이 일자리도 만들어내고 국가 경쟁력도 같이 높아진다.”-현 정부도 네거티브 규제 도입을 공약했고, 대통령 직속 4차산업혁명위원회까지 만들었다.“장병규 의장(게임사 크래프톤 창업자)이 많이 고생해 주셨다. IT·스타트업 업계에 몸담은 많은 분들이 참여해 목소리를 냈는데 정책엔 잘 반영되지 않았다. 타다 논란 당시, 택시 규제와 관련해서 택시 업계와 밤샘 토론을 벌이려 했는데 택시 업계 반대로 무산됐다. 4차산업혁명위원회는 다른 권한 없이 딱 정책 ‘제언’만 할 수 있었다. 결국 그것이 한계였다.”장 의장뿐 아니라 포털 다음을 창업했던 이재웅 전 쏘카 대표도 현 정권 초기인 2018년 기획재정부 산하 혁신성장본부 민간공동본부장 자리에 올랐다가 4개월 만에 사임한 바 있다. 당시 그는 “혁신성장본부는 급조된 조직이었으며, 나는 자문밖에 못 하는 위촉직에 불과했다”고 했다.-네거티브 규제가 왜 도입되지 않고 있는가.“네거티브 규제를 하려면 적극적인 행정이 굉장히 중요하다. 관(官)도 기업하고 똑같다. 일을 잘하면 그에 맞는 보상, 좋은 평가가 뒤따라와야 한다. 아직까지는 실수를 덜 하고, 사고를 안 치는 공무원이 인정받는 시스템이다. 적극적으로 규제를 줄여주는 공무원이 인센티브를 받도록 공직 사회 시스템이 바뀌어야 한다. 승진이나 보상이 뒤따라올 수 있도록 조율이 필요하다.”◇플랫폼 갈등, 소비자 편익 측면에서 봐야-택시·변호사·세무사·의사 같은 기존 직군과 플랫폼 스타트업들 간 갈등이 심하다.“플랫폼이 없었던 시절을 생각해보라. 다시 그때 생활 방식으로 돌아갈 수 있을까. 우리 스스로 질문을 던져봐야 한다. 플랫폼이 무리한 방식으로 폭리를 취하고 시장 생태계를 무너뜨리는 건 당연히 문제다. 규제로 해결할 수도 있지만, 소비자 즉 시장이 판단하고 안 쓰면 된다. 물론 이 과정에서 발생하는 부작용은 정부와 정치권이 들여다봐야 한다. 하지만 우리 IT기업과 스타트업이 세계적인 경쟁력을 갖추기도 전에 칼부터 대는 건 경계해야 한다. 글로벌로 뻗어나갈 수 있는 중요한 시기다. ”-정부는 무슨 역할을 해야 하나.“신규 사업자와 이익을 침해받는 기존 사업자 간 갈등은 어디에서나 생긴다. 정부가 이해관계자들을 모아놓고 상설 협의 기구를 운영하면 좋겠다. 하지만 테이블만 마련해놓고 ‘자 둘이 알아서 이야기 나눠 봐’ 하면 해결이 안 된다. 정부가 일정 부분 보증을 서야 한다. 예컨대, 미래가 바뀌고 있으니 이 부분에 네거티브 규제를 도입해 발전시킬 거다. 당신들이 받는 피해는 정부에서 일정 부분 보상해주고, 기업들이 성장하면 당신들의 새 일자리를 만들 수 있도록 정부가 역할을 하겠다고 해야 한다.”◇주 52시간제, 유연하게 적용돼야-스타트업계에서 주 52시간 근무제 완화 목소리가 끊이지 않는다.“짧은 기간만이라도 52시간을 넘겨 집중해서 일할 수 있어야 한다. 미국은 화이트칼라(사무직)나 연소득이 일정 수준 이상인 근로자에 대해서는 유연한 근무시간제도를 적용하고 있다. 다른 기업과 달리 스타트업의 가장 큰 경쟁력은 ‘속도’다. 이용자 불편을 감지해 이를 해결하는 서비스를 만들려면 나뿐 아니라 모든 구성원이 굉장히 짧은 시간 동안 밤새워 일해야 하는 경우가 부지기수다. 이런 순간에는 누가 강요해서 일하는 것이 아니라 모두가 내가 풀고 싶은 문제에 집중하는 시간이다. 이걸 시장에 내놓고, 이용자 반응을 받아 다시 고쳐 내놓아보는 과정이 바로 혁신이다.”-소위 ‘열정페이’ 논란이 생기지 않을까.“스타트업은 연봉 체계도 다르다. 현금보다는 주식 비율이 크다. 이들은 초창기 스타트업에 들어와 지분을 받거나 스톡옵션(주식매수선택권)으로 보상받는다. 나부터 직원들까지 모두 미래에 투자하고 있는 셈이다. 우리가 일하는 것은 취업을 위해 자격증을 따고 학원을 다니면서 성장하는 것과 비슷하다. 자격증처럼 주식이 나에게 주어지니까 말이다. 이 때문에 스타트업은 기존 대기업과 달리 장시간 몰입해서 일하는 경우가 많은 것이다. 회사가 얼마나 빨리 성장하느냐가 나의 성장에 직결되니까 직원들은 당연하게 받아들인다. ”-현재 국내 창업 생태계는 어느 단계에 와 있나.“내가 창업한 2011년보다는 훨씬 좋아졌다. 쏘카뿐 아니라 토스·직방 같은 스타트업은 전 국민적으로 인지도를 쌓았고, 글로벌 진출 가능성이 보이는 곳도 많아졌다. 하지만 구글·아마존·마이크로소프트같이 ’플랫폼의 플랫폼’ 역할을 하는 기업은 전부 미국 회사다. 우리도 한 단계 더 나아가려면 민간이 디지털 경제 경쟁력을 갖출 수 있도록 국가가 인프라로 뒷받침해야 한다. 20여 년 전, 초고속 인터넷망을 깔아 IT 기업이 크게 성장한 것처럼 데이터 분야나 기업 규제 분야에서 국가가 역할을 해줘야 한다.”☞박재욱국내 최대 차량 공유 업체인 쏘카 대표를 맡고 있다. 서울대 전기공학과를 졸업하고 26세 때인 2011년 커플용 메신저 ‘비트윈’으로 처음 창업했다. 2018년 승합차 호출 서비스 타다를 출시했으나 논란 끝에 2020년 4월 사업을 접었다. 이후 최대주주인 이재웅 전 대표에 이어 쏘카 대표를 맡아 자율주행·주차장·전기자전거 등 까지 사업을 확대했고, 현재 코스피 상장을 앞두고 있다. 지난 2월부터는 코리아스타트업포럼 의장을 겸직하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>尹측 “靑, 내달 10일 정오 일반에 개방…입장료 무료”[일문일답]</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005199818?sid=100</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>모레부터 사전 신청…하루 3만9000명 관람객 제한본관·영빈관·녹지원·상춘재도 개방 대상에 포함청와대 뒤편 등산로는 제한 없이 열기로[이데일리 박태진 한광범 기자] 청와대가 윤석열 대통령 당선인이 취임하는 5월 10일 정오를 기해 일반 시민들에게 공개된다. 윤한홍 청와대 이전 태스크포스(TF) 팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 행사 관련 브리핑을 마친 후 취재진의 질문을 받고 있다. (사진=연합뉴스)윤한홍 청와대 이전 태스크포스(TF) 팀장은 25일 오후 서울 통의동 인수위 기자회견장에서 미디어데이 행사를 열고 이같이 밝혔다. 윤 팀장은 “5월 10일 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다”며 “이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다”고 말했다.관람료는 무료이지만, 사전 신청자 중 당첨자만 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6500명씩 일일 관람 인원을 총 3만9000명으로 제한하기로 했기 때문이다. 사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일 애플리케이션과 웹사이트를 통해 가능하다. 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다.아울러 청와대 뒤편의 북악산 등산로는 5월 10일 완전히 개방된다. 등산로 출입에는 인원 제한이 없다다음은 윤 팀장과의 일문일답이다. -개방 취지 및 운영 방향은 무엇인가△‘폐쇄적 공간’이었던 청와대를 국민 모두가 누리는 ‘열린 공간’으로 재구성하고, 국민의 품으로 돌려주고자 함이다. 역대 정부에서도 꾸준하게 시도했던 청와대 부분개방이 이번 대통령집무실 이전을 통해 전면개방으로 완성되었다는 의미가 있다. 운영방안은 청와대 본관·녹지원 등을 비롯해 백악산 등산로를 유기적으로 연계해 국민이 찾고 싶은 쉼터이자 역사문화공원으로 조성하고, 조선과 근현대사를 관통하는 하나의 축으로서 역사와 미래가 공존하는 상징적 공간이자 미래유산으로 재도약할 수 있는 계기를 마련하고자 한다.-이전에도 청와대 개방이 부분적으로는 이루어지고 있었다. 이번 개방은 이전과 어떻게 달라진 것인가△기존 청와대 부분개방은 소수의 제한된 인원(코로나 전 기준일 1500명)이 제한된 구역을 방문해 진행자의 인솔하에 ‘관람’형태로 시행되며 국민들이 청와대의 문턱이 낮아졌다고 체감하기는 어려운 면이 있었다. 이번 개방은 국민들이 자유롭게 청와대 경내를 둘러보고 다양한 문화적 경험을 통해 청와대가 이제 국민의 공간으로, 진정한‘개방’이 되었음을 체감할 수 있을 것이다. 행사기간 중 휴무일 없이 매일 운영 예정으로, 1일 6회 각 6500명, 1일 최대 3만9000명이 입장 가능하다. -일일 입장인원을 최대 39,000명으로 산출한 근거는? △방문객의 쾌적한 관람환경 조성과 안전관리를 위해 적정 입장인원을 산출했다. 경내 면적당 이용인원의 경우 청와대 전체 면적 중 본관·관저 등 건물 내(內) 출입통제 구역(경호처ㆍ여민관 등), 산악등산로, 대정원, 녹지원을 제외하면 총 1만9483.5㎡(약 5904평)로, 1명당 3㎡(약 1평) 공간 확보 시 동 시간 대 약 6494명이 이용 가능하다. 체류시간은 2시간이며, 개방 시간은 오전 7시부터 오후 7시까지다.  -청와대 개방 범위가 완전 개방에서 경내 개방으로 축소됐다. 건물 내부는 언제 공개할 예정인가△청와대 시설 내부에는 주요 기록물, 통신시설, 보안 필요 문서 등사전 정리가 필요한 집기, 문건들이 다수 존재한다. 주요 물품 정리 후 건물 내부도 전면 개방할 수 있도록 준비할 예정이다. -관람신청시스템은 어떻게 운영되는지? 하루 관람객 수와 운영 방법은? △운영 방법은 개방행사 기간 중 5월 10~21일에는 입장료 없이 카카오톡·네이버·토스로 방문신청이 가능하다. 행사기간 마지막날인 5월 22일에는 별도의 신청시스템을 통해서 받을 예정이다. 방법은 추후공지한다. 신청은 오는 27일 오전 10시 오픈되며, 스마트기기 이용약자 또는 일반폰 사용자를 배려하여 대리신청도 가능하도록 설계했다.스마트폰 예매자는 행정안전부 ‘국민비서’ 시스템으로 당첨안내 및 바코드가 발송되며 정문·춘추관·영빈관 3개소에서 바코드 스캔을 통해 입장가능하며, 입장 바코드 이용이 어려우신 분들은 현장데스크에서 예매번호 확인 후 손목띠를 발급해 입장처리를 할 예정이다.운영 시간은 개방행사 시작일(5월 10일) 당일만 12시~20시까지 운영하며, 이외의 기간(5월 11~21일)에는 오전 7시~오후 7시까지 주말을 포함해 운영한다. -사전 방문 신청을 하지 않은 경우, 현장 입장이 가능한가?△사전 신청 후 당첨이 되지 않은 분은 입장이 제한된다. 입장객 안전관리 및 질서유지를 위해 부득이하게 사전방문 예약시스템을 운영할 예정이니 양해해 주시길 바란다.향후 안전관리나 질서유지에 문제가 없는 수준으로 입장객 수가 안정화될 경우, 전면 자유관람으로 전환해 예약신청 없이 누구나 청와대를 다녀갈 수 있도록 할 예정이다. -특별개방 이후(5월 23일~)에는 어떻게 운영되는지?△개방 행사가 끝난 5월 23일 이후에도 지속적으로 개방 운영되며, 5월 23일 개방 계획은 추후 순차적으로 공지할 예정이다. 5월 23일 이후로는 대통령실 주관 (가칭)‘청와대 운영기획 추진위원회’를 구성해 지속 가능한 관리방안을 논의·확정하기 전까지 관계부처에서 임시관리하는 방안을 검토 중이다. 청와대 개방행사 종료 이후에도 개방 상시 운영체계로 전환한다. -현재 계획으로는 19시에 관람이 종료되는데, 야간 개방은 언제부터 가능한가?△개방 초기 당분간은 시설점검, 안전시설, 조명시설 미비로 야간개장에 어려움이 있다. 추후 활용계획에 야간 개방 방안도 마련할 것이다. -코로나19 방역 관리나 입장객 혼잡 시 대책은 어떻게 세우고 있는지?△코로나19에 대해서는 기본적인 방역수칙을 지켜 운영할 것이며, 마스크 착용은 필수다. 인파로 인한 혼잡도 해소를 위해 3개(영빈문·정문·춘추문)의 출입구를 운영해 분산 입장을 유도할 것이며, 22개의 출입 라인을 설치하고, 원활한 입장을 위해 바코드 스캔 시스템을 구축할 예정이다.또 경내 시설물 진입통제, 안내 및 순찰 등 경내 질서유지를 위해 경찰인력을 배치하고 관람객 집중시간대 등 필요 시 해당구간에 유동순찰조를 운영하며 차없는 거리 유지 등 차량 우회조치를 위해 청와대로 및 외곽로터리에 교통경찰관 배치할 예정이다. -청와대~북악산 연계 등산코스는 어떻게 운영되는가?△개방시간은 오전 7시~오후 7시이며, 입산은 오후 5시까지로 제한한다. 다만 계절별 개방시간을 다르게 운영한다. 봄과 가을은  오전 7시∼오후 6시, 여름은 오전 7시~오후 7시, 겨울은 오전 9시~오후 5시다. 등산객 인원은 제한 없이 자유롭게 출입 가능하다. 단, 사전 관람신청 시스템을 통해 경내 관람객으로 선정되지 못한 일반 등산객은 청와대 경내 관람을 할 수 없다.등산로의 경우 청와대 구역(신규) 코스는 청와대 동편 코스 (춘추관 뒷길(금융연수원 맞은편) → 백악정 → 대통문 → 북악산), 청와대 서편 코스(칠궁 뒷길(경복고 맞은편) → 백악정 → 대통문 → 북악산)로 나뉜다. 북악산 구역(기존) 코스는 △창의문 △청운대 △곡장 △숙정문 △말바위 △삼청 등 6개 코스다. -등산로 구간 내 안전 대책은?△개방행사 기간(5월 10~22일) 내 관광객과 등산객이 집중될 것으로 예상해 새롭게 개방하는 청와대 등산로 주변에 안전관리요원을 집중 배치할 예정이다. -문화재청과 함께 만들고 있는 관람안내 앱이 무엇인지?△청와대~북악산 탐방 구간 내 모바일 앱을 활용한 디지털(AR) 콘텐츠 해설 서비스를 제공 예정이다. -청와대를 개방하면 나중에 입장료를 따로 받는지, 개방으로 인해 경제적 효과 산출된 게 어느 정도인지 궁금하다.△입장료는 무료다. 단지 전면 개방해서 완전히 자유롭게 보실 수 있도록 하는 게 가장 좋은 방향이지만, 초기에 얼마나 많은 분이 오실지 모르고, 오시면 안전유지, 질서유지때문에 당분간 한시적으로 예약시스템을 운영한다. 운영해보다가 많지 않으면 전면 자율 개방할 수 있다.문화체육관광부 산하 한국문화관광연구원은 1년에 경복궁 찾는 분들이 300만명이라고 한다. 이를 적용했을 때 경제적 가치가 2000억 된다고 했다. 한국경제연구원에선 청계천을 개방한다고 했을 때 초기 1~2년차엔 2000만~3000만명 온다고 했는데, 그걸 다 적용하지 않고 1700만명 정도 적용했을 땐 1년에 5조1000억원이라는 자료가 있었다. -윤 당선인이 서초동 자택에서 출퇴근시 소요 시간은?△거리로 보면 서초동에서부터 용산 집무실까지 약 코스에 따라 7~8㎞가 된다. 이동소요시간 시뮬레이션을 해본 결과 10분 내외다. 그래서 이 코스는 다 상상이 되겠지만, 구체적으로 제가 말씀 못드리는건 경호 문제가 있어서 그렇다. 다만 반포대교-동작대교-한남대교 세 개 다리 이용할수 있다. 이건 그 당시에 어느지역에 국민 불편 최소화할수 있는지 시간대 잘 판단해서 경로를 설정할 예정이다.-관저로 이전에 육국참모총장 관사 리모델링 비용 25억원 정도 계획해서 기재부가 자료를 냈는데, 최근 외교부장관 공관을 결정한 이유는?△당초에 육군참모총장 관사를 저희들이 적극적 검토한 이유는 육군총장 관사는 거의 쓰지 않고 있기 대문에 취임하기 전부터 리모델링 하면 취임식이나 취임식에서 가장 빠른 시일 내에 입주할수 있다고 생각해서 준비했다. 하지만 건설 전문가들이 가서 검토한 결과 비도 새고 너무 낡아서 재건축 수준이라 시간이 4~5개월 걸리고, 예산도 25억으로는 안되고 거의 2배 이상 소요될 거라는 얘기가 있었다. 그래서 이전TF팀에서 외교부장관 공관 검토한 것이다. 처음에 검토를 안한 이유는 현재 장관이 지금 쓰고 있어서다. 그걸 지금 손을 대려면 5월 10일 이후에 손을 대야해서 처음부터 검토를 안했다.-국방부 청사 내에 관저 신축한다는 보도도 있었는데 이 계획은 없어지는 건가?△저희들이 처음에 대통령 집무실 이전을 결정하는 그 무렵에 그런 얘기는 있었다. 그렇게 해야 하지 않냐는 식의 당위성 얘기가 있었던 것이고, 아직 그 부분은 전혀 검토한 바가 없다. -개방 관련해서 지속적 관리방안 검토한다고 했는데, 거기엔 기존 청와대 근무자들 고용승계 문제도 포함되는지?△고용승계라는 표현은 잘 안 맞는거 같다. 지금 청와대 공무원들이 여러 직종 있다. 정치적으로 들어온분들도 있고 시설관리하는 직원들도 있다. 시설관리를 하는 분들은 계속 근무하든지 아니면 다른 부처로 갈 수도 있을 것이다. 다만 정무직들은 아마 (문재인 대통령) 임기가 끝나면 다 교체되지 않을까 싶다.-김건희 여사가 방문한 이후에 관저가 결정됐다는 보도가 있었다.△왜 그런기사가 나왔는지 모르겠다. 여러가지 문제점과 예산 등 문제가 생겨서 외교공관 검토했고, 육군참모총장 공관 먼저 간 다음에 외교공관에 가야겠다고 해서 가보신 것이다. 왜냐면 직접 살아야 하는 집이니까. -새 집무실 명칭은 어떻게 지어지는지? 외신 보도에 따르면 윤 당선인이 피플스하우스로 짓고 싶다는 보도가 나왔다.△현재 우리가 집무실 이름을 공모 받고 있다. 한 열흘 정도 됐는데, 지금 40건 정도 접수됐다.거기 보면 국민이 들어간 이름이 많다. 국민을 위한다든지, 국민의집, 국민관, 애민관 등 국민을 넣은 이름이 많아 그런뜻으로 말씀하신 게 아닌가 싶다. 앞으로 집무실 이름은 5월 15일까지 접수받아서 국민들이 선호하는 적절한 명칭을 짓겠다.-5월 10일 용산집무실 여는 게 맞는데, 1층 기자실도 개방되는지?△지금 현재 국방부 청사 공사가 진행된 건 지하에 NSC 들어갈 층 공사다. 그건 5월 10일에 정상적으로 작동하는데 문제 없다. 그 다음에 1층 공사다. 1층은 전부 프레스룸으로 기자실과 브리핑실이 들어서며 5월 10일 개방에 문제가 없다. 그 다음에 2~4층이 메인층인데, 아직 국방부가 이사를 안갔다. 그 부분은 아직 공사 못해 5~6층 공사하고 있다. 7층 일부도 공사 중이다. 이 부분은 5월 10일까지 가능하다. 그래서 5월 10일에 윤 당선인께선 근무할 수 있다는 얘기다. 2층에 본집무실이 들어가게 된다. 거긴 4월 28일 한미연합훈련 끝난 이후 국방부가 이사를 가고 나서 리모델링되면 6월 중순은 돼야 한다고 본다. 5층 집무실 만드는 건 5월 10일부터 근무하기 위함이다. 6층은 비서실, 9층은 경호실이 들어선다. 5월 10일에 국방부 청사에서 업무가 시작된다고 다시 한번 말씀드린다.-청와대 개방을 생중계 한다는 게 사실인가? △가능하면 취임식이 끝나는 시점에 개방하려고 하고 있다. 저희들 소관은 아니다. 당초부터 등산로는 5월 10일부터 아침 일찍 개방한다고 했고, 청와대는 지금 문통이 주무시고 나면 취임식이 11시면, 10반쯤 나오시지 않겠나 싶다. 개방은 그래서 11시를 넘어야 한다. 취임식 끝날 무렵에 개방하지 않겠나하고 준비하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>“청와대 내달 10일 정오 일반 개방”…새 대통령실은 ‘국민의 집’?</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002511185?sid=100</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>청와대 전경.  게티이미지뱅크윤한홍(왼쪽) 청와대 이전 태스크포스 팀장이 25일 오후 서울 종로구 통의동 대통령직인수위원회에서 청와대 개방 관련 브리핑을 하고 있다. 뉴시스27일 10시부터 사전 신청 … 네이버·카카오 등 모바일앱 및 웹사이트로 등록1일 3만9000명으로 관람 제한…본관·녹지원·상춘재 등 개방 대상 포함윤석열 대통령 당선인이 공식 취임하는 오는 5월 10일 정오부터 청와대가 일반 관람객에서 공개될 예정이다. 오는 27일부터 관람을 위한 사전 신청 서비스가 운용된다.청와대 이전 태스크포스(TF)는 25일 서울 종로구 통의동 대통령인수위원회 기자회견장에서 이 같은 계획을 발표했다.TF팀장을 맡은 윤한홍 국민의힘 의원은 이날 브리핑에서 “5월 10일 (윤 당선인) 취임식이 끝나는 시간에 청와대의 문을 완전히 개방하기로 했다”며 “이로써 본관, 영빈관을 비롯해 최고의 정원으로 불리는 녹지원과 상춘재가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생하게 된다”고 설명했다. 또 윤 의원은 이번 청와대 일반 공개와 관련해 “5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다”며 “같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것”이라고 밝혔다. 청와대 일반 공개가 이뤄질 경우 초기에는 관람객이 대규모로 몰릴 여지가 있는 만큼 TF 측은 사전 신청제도를 한시적으로 운영하기로 했다. 윤 의원은 “개방 초기 관람 신청 서비스 제도를 운용하기로 했다”며 “한시적으로 입장 신청을 받아 운영할 계획”이라고 말했다. 다만 “입장 규모와 운영 방식은 국민 여러분의 관심도와 입장객 추이 등을 고려해 조정할 수 있다”고 덧붙였다. 따라서 당분간은 사전 신청자 중 당첨자만 청와대 방문이 가능하다. 안전사고 발생 우려 등을 고려해 하루 여섯 차례, 2시간마다 6500명씩 일일 관람 인원을 총 3만9000명으로 제한된다. 청와대 방문 사전 신청은 오는 27일 오전 10시부터 네이버, 카카오, 토스 등의 모바일앱과 웹사이트를 통해 이용할 수 있다. 단, 65세 이상 노인과 장애인 단체 관광은 별도 신청을 받기로 했다.문재인 대통령이 지난 5일 일반 개방을 앞둔 북악산 남측 탐방로를 오르고 있다. 청와대 제공이번 청와대 일반 공개와 더불어 청와대 뒤편의 북악산 등산로도 5월 10일 완전 개방된다. 등산로 출입에는 인원 제한이 없다. 윤 의원은 “청와대 동편과 서편 어느 곳에서나 출발할 수 있는 등산로는 5월 10일부터 사전 신청 없이, 인원 제한 없이 이용할 수 있다”며 “조선 시대 500년과 대한민국 건국 이후 74년을 합해 600여 년간 닫혀 있던 권력의 상징, 그 공간이 국민 품으로 돌아간다”고 말했다. 한편, 새 대통령 집무실 이름에도 관심이 쏠린다. 지금까지 공개 모집된 이름과 윤 당선인의 발언 등을 종합하면 ‘국민’이라는 단어가 포함될 가능성이 크다는 관측이 나온다.청와대 이전 TF는 청와대를 대체하고 ‘용산 시대’를 상징할 새 대통령 집무실의 이름을 공개 모집하고 있다. 공모 기간은 지난 15일부터 다음 달 15일까지 한 달간으로, 6월 초에 명칭이 확정된다. 이날까지 약 1만건이 접수된 것으로 전해졌다.윤 당선인은 이날 보도된 월스트리트저널(WSJ)과 인터뷰에서 대통령실 이름을 국민에게 물을 계획이라며 ‘피플스 하우스(People’s House·국민의 집)’라는 표현을 언급했다. 윤한홍 의원은 “접수된 사례를 보면 ’국민을 위한다‘, ’국민의집‘, ’국민관‘, ’애민관‘ 등 ’국민‘이 들어가는 이름이 굉장히 많다”며 “아마 그런 뜻을 윤 당선인이 말한 게 아닌가 싶다”고 전했다.응모를 원하는 국민은 국민생각함 홈페이지(www.epeople.go.kr/idea)에 새 대통령실 ‘명칭’과 ‘제안 의미’를 1000자 이내로 적어 내야 한다. 최우수상 1명에게는 상금 600만원, 우수상 1명에게는 상금 300만원, 장려상 3명에게는 각각 상금 100만원이 주어진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>청와대, 5월10일 정오 전면 개방…모레부터 사전 신청</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000296825?sid=100</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>청와대 전경. 〈사진=연합뉴스〉        청와대가 윤석열 대통령 당선인이 취임하는 5월 10일 정오를 기해 일반 시민들에게 공개됩니다.오늘(25일) 윤한홍 청와대이전태스크포스(TF) 팀장은 서울 종로구 통의동 대통령직인수위원회 기자회견장에서 브리핑을 열고 "청와대는 74년 만에 제왕적 대통령제의 상징에서 국민 쉼터로 거듭날 것"이라며 이같이 밝혔습니다.      이어 "청와대 본관과 영빈관을 비롯해 최고의 정원으로 불리는 녹지원, 상춘재가 있는 청와대가 국민 누구나 누릴 수 있는 열린 공간으로 재탄생한다"고 말했습니다.      그러면서 "청와대로 인해 단절된 북악산 등산로는 5월 10일 아침부터 완전 개방한다"며 "등산로는 청와대 동편이나 서편 어느 곳에서나 출발할 수 있고 사전 신청 없이, 인원 제한 없이 이용할 수 있다"고 했습니다.      개방 초기 많은 방문객으로 인한 안전 문제를 고려해 청와대 관람 신청 서비스 제도를 한시적으로 운영한다는 계획입니다.      윤 팀장은 "오는 27일 수요일 오전 10시부터 네이버와 카카오, 토스 등을 통해 관람 신청을 접수할 예정"이라며 "개방 초기 65세 이상 어르신과 장애인 단체관람에 대해 별도의 신청을 접수해 입장 인원을 안배하겠다"고 전했습니다.      개방시간은 오전 7시부터 오후 7시까지이며 2시간씩 6회 예약, 동시간대 약 6494명이 이용할 수 있는 것으로 알려졌습니다.      윤 팀장은 "5월 10일부터 22일까지 13일간 새 시대, 새 희망을 담은 다양한 문화 행사가 예정돼 있다"며 "같은 기간 청주 청남대, 세종 대통령 기록관, 합천 청와대 세트장 등 곳곳에서도 청와대 개방 행사를 진행할 것"이라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.04.30.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>청와대, 5월10일 정오 완전히 열린다…첫날 예약자만 8만명</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004740015?sid=100</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[[the300] 개방 첫날 관람객 2만6000명 추첨 통해 선정](서울=뉴스1) 김명섭 기자 = 27일 오전 10시부터 네이버, 카카오톡, 토스 등 온라인 플랫폼을 통해 오는 5월 10일 개방되는 청와대 관람을 신청할 수 있다. 2022.4.27/뉴스1  청와대 관람 누적 신청자가 110만명을 돌파했다. 네이버·카카오톡·토스 등 온라인 플랫폼을 통해 예약 신청을 시작한 지 사흘 만이다. 30일 대통령직인수위원회 청와대이전 태스크포스(TF)에 따르면 현재까지 청와대 관람 예약 신청자는 112만4372명으로 집계됐다. 특히 청와대 개방 첫날인 다음 달 10일 8만3355명이 몰렸다.인수위는 청와대 개방에 대한 국민 관심도와 코로나19(COVID-19) 방역 조치 등을 감안해 관람 인원을 분산한다고 밝혔다. 관람 시간은 일별 오전 7시부터 오후 7시까지로 2시간 단위로 구분된다. 시간 단위별 입장 인원은 6500명으로 일 최대 3만9000명이 둘러볼 수 있다. 다만 개방 첫날은 정오부터 오후 8시까지 운영돼 최대 관람인원은 2만6000명이다.이에 따라 인수위는 개방 첫날 신청자 8만여 명 중 관람객 2만6000명을 추첨을 통해 선정하고, 결과를 다음 달 2일 개별 통지하겠다고 밝혔다. 개방 초기엔 청와대 건물 내부는 공개하지 않는다. 시설 내부 주요 기록물, 통신시설, 보안 필요 문서 등을 정리한 뒤 전면 개방할 예정이다. 다만 청와대·북악산 연계 등산코스는 인원 제한 없이 자유롭게 할 수 있다. 여름의 경우 오전 7시부터 오후 7시까지 개방된다. 입산은 오후 5시까지로 제한된다.청와대 관람에 대한 자세한 내용은 '청와대, 국민품으로' 홈페이지(www.opencheongwadae.kr)에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[SPECIAL] 미래 트렌드를 읽는 금융 서비스 개발자</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002588421?sid=102</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>어디나 발길 닿는 곳에 있는 ATM(현금자동입출금기), 스마트폰에 하나씩은 꼭 있는 뱅킹 앱, 은행은 우리의 일상에서 가장 가까운 금융기관이다. 은행에 있는 사람들은 무슨 일을 할까? 그중에서도 소비자를 위한 최신의, 그리고 최상의 금융 서비스를 만들어내는 사람, 금융상품개발자와 핀테크 전문가를 만나봤다.사진 게티이미지뱅크생활 속 금융 기관, 은행‘돈의 융통’이라는 뜻의 금융은 돈을 빌리고 빌려주는 것을 뜻한다. 이러한 금융 활동이 활발하게 이루어지는 대표적인 금융기관이 바로 은행이다. 은행은 우리가 저축한 돈을 모아 필요한 사람들에게 빌려주는 역할을 한다. 즉, 예금을 받고 기업이나 개인에게 자금을 대출해주며 전체 경제를 활발하게 하는 데 도움을 준다. 은행에서는 예금과 대출 업무 외에도 공과금을 수납하고, 외화를 환전해주고, 개인의 귀금속을 보관해주며 신용카드를 발급해주기도 한다. 과거부터 현재까지 금융과 관련한 모든 서비스를 제공하고 있다고 해도 과언이 아니다.트렌드를 앞서가는 ‘아이디어 뱅크’보다 더 많은 고객을 유치하고, 금융상품 판매율을 올려야 하기에 은행은 최신 트렌드를 재빠르게 쫓아야 한다. 소비자의 관심 분야를 한발 앞서 파악하고, 고객이 필요로 하는 것을 예측해야 하기 때문이다. 금융상품개발자는 이러한 과정을 통해 금융상품을 기획하고 출시하는 일을 한다. 소비 패턴의 변화와 문화적 현상에 대한 세심한 감각을 금융 서비스와 연결하는 것이 중요하다. 또, 디지털 트렌드와 신기술을 금융에 적용하는 핀테크 전문가도 있다. 이들은 로봇이나 AI, 빅데이터, 사물인터넷 등 4차 산업혁명의 핵심 기술을 접목한 첨단 금융 서비스를 개발한다. 이로써 소비자들이 개인 맞춤형의 편리한 금융 생활에 한 발짝 더 다가가게 한다.■ 금융상품개발자가 말하는 직업 이야기김보라 NH농협은행 카드회원추진부 카드상품개발팀 과장. 사진 백종헌“빠르게 변화하는 트렌드를 금융과 접목하는 유연한 사고방식이 필요해”김보라 NH농협은행 카드회원추진부 카드상품개발팀 과장금융상품이란 각종 금융기관에서 취급하는 예금과 적금, 카드, 투자신탁(여러 투자자가 공동으로 낸 기금을 모아 증권 전문가가 투자하고, 그 수익을 금액에 비례해 개인에게 나눠주는 것), 대출, 연금 등을 말한다. 그렇다면 여러 은행마다 개발하고 있는 카드상품은 어떻게 만들어질까? 어디서든 꺼내고 싶은 소장 가치 높은 디자인부터 돈을 쓰면서도 이익을 얻는 기분으로 만들어주는 혜택까지, 손안에 쏙 들어오는 얇은 카드에 서비스를 알차게 담아내는 카드상품 개발자에게 그 업무 과정을 물었다.Q. 은행마다 여러 카드상품을 개발하고 있는데, 그 기획 과정이 궁금해요.신상품 카드는 단지 상품개발자 한 사람의 손으로 탄생하는 게 아닙니다. 상품, 디자인, 홍보, 마케팅, 운영, 전산 등 여러 파트 담당자와의 협업을 바탕으로 만들어지죠. 각 파트 전문가와 함께 아이디어를 구체화해 실제로 구현해낼 수 있도록 방안을 모색합니다. 먼저 어떻게 하면 고객이 이 카드를 발급하게 만들지 기획 단계를 거치는데요, 이때는 디자인과 더불어 고객에게 와 닿는 서비스를 설계하기 위해 고민합니다. 실제로 고객이 많이 사용하는 카페, 온라인 쇼핑, 배달 앱 등 생활편의 업종이나 대중교통을 이용할 경우 포인트를 적립해주는 거죠. 카드를 사용하는 순간이 곧 행복한 순간으로 이어질 수 있도록 의도하는 거예요.Q. 개발하신 카드 중에 가장 반응이 좋았던 상품은 뭔가요?10~20대 젊은 층에 특히 인기 있었던 체크카드가 기억에 남아요. ‘라이언 치즈 체크카드’와 ‘어피치 스윗 체크카드’인데, 두 카드의 발급 수가 100만 장이 넘었어요. ‘농부 라이언’이 인기 비결이라고 생각하는데요, 카드 상품의 메인 테마를 정하기 위해 기업 ‘카카오’와 여러 번 미팅을 진행했어요. 카카오의 ‘라이언’이라는 캐릭터가 가진 귀여움에 농협만이 할 수 있는 농부의 이미지를 결합하니 독특하면서도 친근한 이미지가 탄생하더라고요. ‘넷플릭스’나 ‘유튜브’, 유료 애플리케이션처럼 젊은 층이 많이 소비하는 곳과의 혜택을 강화한 것도 특장점이죠. 이런 매력이 카드를 지갑에 소장하고 싶은 욕구로 연결된 것 같습니다.Q. 카드상품개발자로 일하다 보면 카드에 관한 전반적인 업무를 모두 경험할 수 있겠어요.맞아요. 개발자로 제 이름을 걸고 출시한 상품을 소개할 때 큰 보람을 느끼는데요, 버스나 지하철 광고판, TV, 온라인 사이트 등 여러 매체에서 제가 기획한 카드 상품 광고를 마주하면 뿌듯하죠. 다만 항상 ‘새로움’에 대해 고민해야 하는 일이 매력적이기도 하지만, 힘든 점이기도 합니다.Q. 새로움에 대해 고민한다는 것은 금융 트렌드가 빠르게 변하기 때문인가요?가상화폐나 빅테크(BigTech, 인공지능과 빅데이터 등 첨단 기술과 플랫폼으로 온라인상에서 다양한 서비스를 제공하는 대형 정보통신기술 회사)의 빠른 성장, BNPL(Buy Now, Pay Later. 선구매 후결제 서비스로 소비자가 물건을 구입하면 결제 업체가 판매자에게 먼저 돈을 주고, 소비자가 여러 차례에 걸쳐 결제 업체에 돈을 갚는 시스템)과 같은 결제·지불 수단의 변화 등 금융 트렌드는 시시각각 변하기 때문에 민감하게 반응해야 해요. 그리고 그 트렌드를 금융상품에 접목할 수 있어야 하고요. 어떤 상황이 오더라도 대처할 수 있도록 늘 공부를 놓지 않아야 하는 직업입니다. SNS나 유튜브, 지식 공유 플랫폼, 도서 등 여러 매체도 가까이하고 있어요. 요즘은 코로나19로 인한 비대면 문화의 확산과 디지털 매체 사용이 많아진 사람들의 생활 패턴 변화를 고려해 이에 맞춘 상품을 기획 중이에요.Q. 카드상품개발자로 일할 수 있는 진출 과정이 알고 싶어요.NH농협은행은 입사 이후 본인이 근무하고 싶은 부서에 지원할 수 있습니다. 저는 카드상품 부서에 지원해 개발을 담당하게 되었고요. 카드는 상품과 홍보, 마케팅과 영업, 디지털과 발행까지 여러 업무가 총집합된 금융상품이에요. 그래서 주변 직원들을 보면 전공이 아주 다양하죠. 전공보다는 카드 업무에 대한 관심을 가지는 게 기본입니다.Q. 필수 전공이나 자격증은 없군요. 그렇다면 금융 업계에 관심이 많은 친구들에게 도움이 될 활동을 추천해주신다면요?일상생활은 반복되지만 그 안에서 발견할 수 있는 반짝이는 새로움이 있습니다. 금융상품에 대한 거창한 경험이 아니어도 좋아요. 내가 갖고 있는 체크카드로 직접 결제도 해보고 카드를 온라인 페이 서비스에 등록해서 온라인상에서도 활용해보는 거예요. 또 한 단계 넘어선 새로운 수단이 나오면 두려워하지 않고 경험해보고요. 이 작은 도전과 경험이 모여 상품 개발의 단단한 밑바탕이 된답니다. 이제는 금융 산업에서도 디지털 역량을 빼놓을 수 없기에 프로그래밍, 미디어, 디지털 리터러시 등을 배워두는 것도 추천합니다.■ 핀테크 전문가가 말하는 직업 이야기김봉규 NH디지털R&amp;D센터장. 사진 손홍주“가보지 않은 산을 오르는 개척자의 정신이 중요해” 김봉규 NH디지털R&amp;D센터장기술과 서비스, 사람과 지식이 이어지는 초연결 사회. NH디지털R&amp;D센터는 AI, 블록체인 등 4차 산업혁명 신기술을 금융에 덧입히는 ‘초연결 디지털 혁신 플랫폼’을 만드는 곳이다. 이곳에서 핀테크 기술을 이끌고 있는 김봉규 센터장을 만났다. Q. ‘핀테크’라는 말을 널리 쓰고 있지만, 아직 정확하게 뜻을 모르는 사람도 많아요. 은행에서는 핀테크를 어떻게 정의하는지 궁금합니다.핀테크는 금융(Finance)과 기술(Technology)을 합친 말인데요, 사실 전혀 새로운 용어는 아닙니다. 금융 분야에 기술을 접목한 의미로 보면 꽤 오래전에 개발한 인터넷 뱅킹이나 스마트 뱅킹도 핀테크 서비스라고 할 수 있죠. 초창기 핀테크를 설명하기 쉬운 사례가 바로 ‘토스’라는 앱에서 송금 기능을 선보인 것입니다. 당시만 해도 은행이 아닌 곳에서 돈을 주고받는다는 것 자체가 발상의 전환이었거든요. 그러다 ‘카카오페이’의 간편 결제 서비스도 등장했고요. 다시 말해 ‘비금융권에서도 금융 서비스를 할 수 있다’라는 것이 핀테크의 기본 개념이에요. 그 이후로는 우리가 아는 것처럼 IT 기업에서 기술 기반의 금융 서비스를 출시하고, ‘카카오뱅크’나 ‘토스뱅크’와 같은 인터넷전문은행이 나타났죠. 전통적인 금융 영역을 지켜왔던 은행들은 변화에 대처해야 했고, 보다 더 앞서가는 대응 방식을 고민하게 됐습니다.Q. 그러한 고민의 결과로 새로운 시스템을 만든 대표적인 사례가 있을까요? 2015년 금융권 최초로 ‘오픈API 플랫폼’을 만들었습니다. 오픈API(Open Application Programming Interface)는 데이터 플랫폼을 외부에 공개해 다양한 서비스와 애플리케이션을 개발하도록 외부 개발자나 사용자들과 공유하는 프로그램인데요. 한마디로 NH농협의 서비스를 사용할 수 있도록 외부에 공개한 프로그램 도구라고 생각하면 됩니다. 핀테크 기업이 오픈API를 통해 기존의 은행이 가지고 있던 금융 데이터를 가져다 자신들의 플랫폼에 직접 금융 서비스를 개발할 수 있도록 지원하는 것이죠. 예를 들어, 어떤 회사에서 개발한 가계부 앱을 사용한다면, 내가 가진 잔액이 얼마인지, 얼마나 소비했는지 확인하기 위해 우선 은행에 있는 내 계좌를 불러와야겠죠? 이때 우리가 구축한 ‘오픈API 플랫폼’을 통해 간편 결제나 조회, 송금 등의 정보를 활용하면 앱을 개발한 핀테크 기업은 쉽고 빠르게 금융 서비스를 제공하고, 고객들은 공인인증서 없이도 편리하게 이용할 수 있습니다. ‘NH오픈플랫폼’이 첫 시작점이 되어 현재 전 금융권에서 사용하는 오픈뱅킹 서비스나 흩어져 있는 개인의 자산을 하나로 모으는 마이데이터 사업까지 발전할 수 있었지요. 어떻게 보면 ‘우리나라 데이터 금융 시장의 주춧돌을 놓았다’고 볼 수 있죠.(웃음) Q. 메타버스, 블록체인, 가상화폐 등 미래를 주도할 신기술이 쏟아지고 있어요. 핀테크 분야와 관련하여 주목하고 있는 이슈가 있다면 무엇인가요? 변화하는 시대의 흐름에 맞춰 다양한 디지털 실험을 하는 중입니다. 먼저 메타버스 이야기를 하지 않을 수가 없는데요, 메타버스 플랫폼 ‘독도버스’를 지난 3월에 시범적으로 열었어요. 게임과 금융이 합쳐진 가상공간에서 이용자들은 아바타를 키우며 농사나 낚시, 사회생활, 경영 활동 등을 할 수 있는데, 이곳에서 주민권을 ‘NFT(디지털 자산인 전자 토큰)’로 발급하는 것도 가능할 거예요. 또, 올해 농협금융지주 출범 10주년을 맞아서 기념주화를 NFT로 발행하는 계획도 하고 있습니다. 중앙은행이 전자적으로 발행하는 디지털 화폐인 ‘CBDC’에 대한 연구도 지속할 계획이고요.Q. 흥미롭네요. 앞으로 펼쳐질 실험 결과가 기대되는데요! 핀테크 서비스를 개발하려면 번뜩이는 아이디어와 기획력이 중요할 것 같아요. 그렇습니다. 워낙 빠르게 변하는 세상이잖아요. 최신 기술과 트렌드에 대해 항상 공부하는 자세가 필요해요. 다 같이 정보를 공유하고 배우기 위해 우리 센터에서는 4개 정도의 학습 조직을 운영하고 있습니다. 신기술·마케팅·블록체인·AI와 같은 분야로 나눠서 팀끼리 연구하고, 매달 돌아가면서 세미나를 열어요. 작년에 나온 ‘휴먼 AI’ 서비스도 바로 이 세미나에서 나온 아이디어였죠.(웃음) 계속해서 새로운 생각을 이끌어내는 원동력을 찾아가려고 합니다. Q. 와, ‘휴먼 AI’요? 최근 몇몇 은행에서는 ‘AI 은행원’이 고객을 응대한다고 해서 화제가 되기도 했잖아요. NH농협은행은 ‘정이든’과 ‘이로운’이라는 인공지능 은행원을 개발했는데, 실제로 우리 직원들의 얼굴을 전부 합성해서 만들었어요. 다른 은행과 차이점이 있다면 세상에 없는 얼굴인 가상인간의 형태로 만든 것이 특징입니다. 이 친구들은 현재 정식 은행원으로 채용되어 디지털 사번을 부여받고 우리 센터 소속으로 근무하고 있답니다. 지금은 영업점의 투자 상품을 고객들에게 설명하는 역할을 하고 있지만, 나중에는 사람과 소통하거나 메타버스 플랫폼에서 활동할 수도 있겠죠. 앞으로의 가능성이 무궁무진합니다.Q. 첨단 금융 시대의 핀테크 전문가를 꿈꾼다면 청소년 시절에 어떤 준비를 해두는 것이 좋을까요?물론 경제학을 전공하거나 디지털 기술을 능숙하게 익히면 유리하겠죠. 하지만 이 직업은 결국 사람에게 편리한 서비스를 제공하는 것을 고민하는 일이기에 기획자의 마인드가 필요합니다. 그래서 ‘융합된 사고’가 정말 중요해요. 인문학적 생각을 기반으로 한 기술을 금융에 접목한다고 생각해보세요. 또, 새로운 것에 대한 호기심이 넘쳐나면 좋습니다. 그 호기심을 실제로 실행해본다면 더할 나위 없고요. 저는 실패하는 경험도 매우 중요하다고 생각해요. 처음 에베레스트 산을 오를 때, 등산 루트를 만든 사람이 있을 거예요. 그만큼 가보지 않은 길을 간다는 건 굉장한 위험을 감수하는 일입니다. 꼭 파이어니어(Pioneer), 개척자의 정신을 기억하기 바랍니다.이은주 MODU매거진 기자 silver@modu1318.com글 전정아, 이은주 · 사진 손홍주, 백종헌, 게티이미지뱅크</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>궁중문화축전 내달 10일 개막…청와대 권역서 첫 공연·체험</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013141285?sid=103</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>5대 궁·종묘·사직단 일대서 13일간 진행…주제는 '나례와 연희'지난해 5월 궁중문화축전 모습[연합뉴스 자료사진. 재판매 및 DB 금지](서울=연합뉴스) 박상현 기자 = 화사한 봄날 궁궐에서 펼쳐지는 문화 행사인 '궁중문화축전'이 다음 달 10일 개막제를 시작으로 13일간 열린다.    역사적으로 경복궁 후원이었던 청와대 개방과 맞물려 2015년 궁중문화축전이 첫선을 보인 이후 최초로 청와대 권역에서 다양한 공연과 체험 행사가 진행된다.    문화재청 궁능유적본부와 한국문화재재단은 내달 10일부터 22일까지 경복궁·창덕궁·창경궁·덕수궁·경희궁 등 5대 궁과 종묘, 사직단 일대에서 '2022 봄 궁중문화축전'을 개최한다고 27일 밝혔다.    올해 주제는 '나례(儺禮)와 연희'다. 나례는 섣달그믐날 궁중과 민가에서 귀신을 몰아내던 전통 의식이다. 축전에서는 조선시대 궁중에서 귀신을 물리치며 행한 의식을 현대적으로 재해석해 선보인다.    경복궁 흥례문 광장에서 열리는 개막제는 신종 코로나바이러스 감염증(코로나19) 확산을 우려해 무관객으로 진행한 작년과 달리 관람객 550명과 함께 한다. 역귀를 쫓는 전통의식 '구나'(驅儺)를 각색해 일상 회복의 바람을 전한다.지난해 5월 궁중문화축전 '심쿵쉼궁' 모습[연합뉴스 자료사진. 재판매 및 DB 금지]경복궁 후원에서는 내달 10일 오전 11시 개문 행사에 이어 다채로운 공연과 체험 프로그램이 운영된다.    잔디가 펼쳐진 녹지원과 춘추관 앞에서는 줄타기 공연과 현대 국악 공연이 벌어지고, 영빈관과 조선시대 사당 '칠궁'(七宮)에서는 왕실 경호원이었던 내금위의 무사 등용 의식을 재연한 역사 공연과 음악회 등이 열린다.    청와대 경내와 북악산 탐방, 해설사와 함께 침류각·수궁 터 등 역사 유적을 돌아보는 '경복궁 후원 문화유산 탐방', 조선 마술사 이야기를 다룬 공연, 비눗방울 체험 등도 마련된다.    경복궁 후원 행사에 참여하려면 사전에 네이버, 카카오톡, 토스 등 온라인 플랫폼으로 청와대 관람 신청을 해야 한다.    경복궁 흥례문에서는 내달 11∼14일 야간에 멀티미디어 퍼포먼스 '열상진원'(洌上眞源)을 볼 수 있다. 경복궁역사를 주제로 제작한 영상이 웅장한 음악과 함께 고궁의 밤을 화려하게 물들인다.    다음 달 20∼22일에는 인조 맏아들인 소현세자 이야기를 담은 고궁 뮤지컬 '소현'이 창경궁 문정전 무대에 오르고, 5대 궁 인근 골목 상권을 돌며 벽사 의식을 펼치는 '구나행'과 궁궐에서 치유·명상·사색을 즐기는 '심쿵쉼궁'도 진행된다.    개막제, 열상진원, 소현, 심쿵쉼궁 등 궁중문화축전 일부 행사와 축전 기간의 창덕궁 달빛기행, 경복궁 생과방 참가 신청은 이달 29일 오후 2시부터 인터파크 티켓에서 할 수 있다.지난해 5월 궁중문화축전 모습[연합뉴스 자료사진. 재판매 및 DB 금지]온라인 행사도 기획됐다. 전통놀이 쌍륙 놀이 키트를 제공하고, 게임 '마인크래프트'와 덕수궁을 결합한 '마크로 만나는 궁'을 선보인다.     축전 기간에 경복궁·창덕궁·창경궁·덕수궁은 휴일 없이 문을 연다. 개막일은 궁과 종묘에 무료로 입장할 수 있다. 경복궁은 축전 기간 내내 무료로 개방된다.    축전에 관한 자세한 정보는 문화재청 궁능유적본부와 한국문화재재단 누리집 등을 통해 확인할 수 있다.    psh59@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>스타트업 그로스해킹의 모든 것 ‘울트라 그로쓰 페스티벌’ 개최</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060567?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>4월 25일부터 5월 1일까지 진행클래스101, 브랜디, 비바리퍼블리카 등 그로스해커 연사로 참여그로스 페스티벌(UFG) 공식 포스터.사진 제공=마켓핏랩그로스해킹 관련 스타트업이 펀드레이징 행사 ‘울트라 그로쓰 페스티벌’ 콘퍼런스를 개최한다.울트라 그로쓰 페스티벌(Ultra Growth Festival, UGF 2022)은 20명의 연사진이 그로스해킹 기반의 비즈니스 성장을 만들어낸 주요 사례들을 선보이는 콘퍼런스다.이번 UGF 2022 콘퍼런스는 전반부에서 △홍진우(클래스101 CPO) △조윤경(씨엠아이파트너스 COO) △홍석희(영어독립 CEO) △최인철(KEARNEY 컨설팅 파트너) △이하석(1Z Labs CMO) △이별님(1Z labs 마케터) △심규섭(자란다 그로스 리드) △최윤석(헤이스택코퍼레이션 CEO) 연사가 강단에 오른다.또한 후반부에는 △박기정(K마케팅컴퍼니 CEO) △신주혜(브랜디 그로스 프로덕트 리드) △정다미(비바리퍼블리카(토스) PO) △박기덕(벤스드 CEO) △이지혜(美 블라인드 프로덕트팀 매니저) △정성영(마켓핏랩 CEO) △곽근봉(1Z Labs CEO) △최정우('스타트업은 어떻게 유니콘이 되는가' 저자) 연사 등이 비즈니스 강연을 이어갈 전망이다.행사는 4월 25일부터 5월 1일까지, 총 7일간 매일 밤 온오프라인 병행식으로 진행된다. 강연 영상은 1개월간 다시 볼 수 있으며, 컨퍼런스의 수익금은 전액 기부된다. 정성영 마켓핏랩 대표는 이번 행사와 관련하여 “췌장암 4기 진단을 받은 스타트업 업계의 동료를 돕고자 행사를 기획하게 되었다. 20명의 연사와 함께하는 이번 페스티벌의 수익금 전액은 따님의 학비로 전달된다. 따뜻한 마음을 담아 기금에 동참해주시길 부탁드린다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>청와대 개방 관람 신청, '100만' 돌파 예상…97만44명 신청</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004956785?sid=100</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>26일 오후 서울 명동거리의 한 상점 벽면에 청와대 개방 홍보 안내판이 걸려 있다. [사진 = 연합뉴스] 제20대 대통령직인수위 청와대이전 테스크포스(TF)는 28일 청와대 개방 인원이 조만간 1000만명을 돌파할 것으로 예상된다고 밝혔다.청와대 이전 TF는 이날 오후 '청와대 개방 관람 신청 현황' 서면브리핑을 통해 "28일 오후 4시 기준, 현재까지 97만44명이 신청 접수했다"며 이같이 말했다.청와대 이전 TF는 같은 날 같은 시간 기준 "개방 첫날인 5월 10일 관람을 희망하는 인원은 7만2524명으로 확인됐다"고 부연했다.이어 "신청 접수는 개인(1~4명), 단체(30~50명), 65세 이상 어르신 및 장애인(1~4명)으로 구분해 진행된다"며 "개방 첫날 관람 시간은 정오부터 오후 8시까지며, 11일부터 21일의 관람시간은 오전 7시부터 오후 7시까지다"고 덧붙였다.청와대 관람은 2시간 단위로 하루 총 6회 관람이 진행되며, 회당 입장객은 6500명이고 일일 최대 관람객은 총 3만9000명으로 제한된다.청와대 이전 TF는 방문자 선정과 관련해 "방문자는 추첨을 통해 관람일 8일 전 당첨 여부를 통보할 예정"이라며 "미당첨 될 경우 재신청 가능하다"고 설명했다.한편, 청와대 이전 TF는 청와대 개방을 앞두고 전날(27)일 오전 10시부터 네이버·카카오톡·토스를 통해 관람 사전 접수를 받고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.04.25.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>주식선물에 해외 소수점거래… 카카오페이증권 vs 토스증권 ‘혁신’ 맞대결</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000806950?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[머니S리포트-진격의 카카오·토스… 핀테크 금융전쟁]② 차별화된 서비스에 기대감 솔솔[편집자주]카카오와 토스 등 핀테크 기업들의 공세가 이어지면서 국내 금융 플랫폼 시장에서 살아남기 위한 경쟁이 치열해지고 있다. 카카오뱅크와 토스는 MZ세대(1980년대 초~2000년대 초 출생한 밀레니얼 세대와 1990년대 중반~2000년대 초반 출생한 Z세대를 통칭)를 등에 업고 4대 금융지주와 비견될 수준까지 급성장했다. 카카오는 카카오뱅크로 은행업에 진출한데 이어 카카오페이증권, 카카오페이손보 등 전방위적으로 금융 영역을 확대하고 있다. 토스 역시 뱅크, 증권, 보험을 토스앱 하나로 연결한 ‘슈퍼앱’ 전략으로 폭발적인 성장세를 기록 중이다. ‘금융 메기’의 등장에 기존 금융사들은 디지털 전환에 가속 패달을 밟는 등 고객 사수에 사활을 걸고 있다.카카오페이증권과 토스증권은 기존 증권사와 차별화된 서비스들을 앞다퉈 출시하며 업계와 이용자들의 주목을 받고 있다. 사진은 김대홍(왼쪽부터), 이승효 카카오페이증권 대표, 박재민 토스증권 대표. /사진제공=카카오페이증권, 토스증권, 그래픽=김은옥 기자◆기사 게재 순서① 절대 강자 카카오뱅크… 토스, ‘수퍼앱’으로 맞불② 카카오페이증권 vs 토스증권, ‘혁신’ 무기로 맞대결③ “어서와 이런 복지는 처음이지?” 카카오·토스 파격 복지 살펴보니④ 덩치만 큰 공룡은 멸종… “빅테크 잡자” 바빠진 금융사국내 신생 핀테크(금융+기술) 증권사인 카카오페이증권(2020년 2월 출범)과 토스증권(2021년 3월 출범)은 올해 혁신을 무기로 새로운 서비스들을 출시, 본격적인 맞대결에 나선다. 양사 모두 직관적이고 기능이 간소화된 모바일트레이딩시스템(MTS)을 지닌 것이 특징이다. 별도의 앱 설치 없이 기존 카카오페이, 토스 앱에서 이용할 수 있다. 수수료는 국내 최저 수준으로 두 회사 모두 국내주식 거래 0.015%, 미국주식 거래 0.25%다.━차별화된 서비스에 기대감↑… 가파른 성장세━카카오페이증권과 토스증권은 기존 증권사와 차별화된 서비스들을 앞다퉈 출시하며 업계와 이용자들의 주목을 받고 있다. MTS 출시는 토스증권이 먼저다. 토스증권은 지난해 3월 MTS를 출시했고 카카오페이증권은 올 2월 베타버전 서비스를 개시, 지난 14일부터 정식버전 제공을 시작했다.토스증권은 MTS 출시 1년 만인 지난 3월 기준 계좌 개설수 420만개를 기록했다. 월간 활성이용자수(MAU)는 국내 전체 증권사 상위 5위권에 해당하는 230만명 이상이다. 정동명 DB금융투자 연구원은 “토스증권의 MTS 거래대금은 지난해 4분기 기준 1.5%대 시장점유율을 기록하고 있다”며 “거래대금은 비슷한 이용자 수를 보유한 증권사에 비해 미비한 수준이지만 MTS 출시를 통해 단기간에 많은 이용자 수를 확보했다는 것은 의미가 있다”고 분석했다.카카오페이증권의 추격도 매섭다. 카카오페이증권은 MTS 출시 전인 지난해 말 계좌 개설 수가 500만개 이상을 기록했다. 고도화된 MTS를 준비하고 있다는 게 회사 측 설명이다. 카카오페이의 2000만명 이상 MAU를 고려하면 앞으로 MTS 이용자 수를 손쉽게 늘릴 것이란 전망이 나온다.토스증권은 19일 국내 증권업계 최초로 실시간 해외 소수점 거래 서비스를 출시했다. /사진제공=토스증권━‘해외 소수점 거래’ 출시로 전면 격돌━카카오페이증권은 지난 3월 해외 소수점 거래 서비스를 출시했다. 온주(온전한 1주)가 완성되지 않아도 카카오페이증권이 부족한 부분을 채워 매매를 완료하기 때문에 실시간 거래와 흡사한 형태로 이용할 수 있다. 우량주 위주의 24개 종목에 해당 서비스를 적용했으며 최대 10분의 딜레이가 발생할 수 있다.소수점 거래는 주식을 1주 단위가 아닌 0.1주 등 소수점 단위로 분할 매매할 수 있도록 하는 서비스다. 비교적 적은 금액으로도 투자할 수 있어 자본금이 적은 투자자들에게 진입장벽이 낮다. 현재 해외 소수점 거래 서비스를 운영하고 있는 기존 증권사들은 하루 소수점 단위 주문을 모아 온주로 만든 후 미국 등 해외시장이 문을 열었을 때 주문을 낸다. ‘거래량 가중평균 가격’으로 주문을 내는 방식이어서 원하는 가격·시간에 거래하는 것이 불가능하고 급변하는 주식시장 상황에 원활하게 대응하기가 쉽지 않다. 카카오페이증권의 해외 소수점 거래 서비스가 돋보였던 이유다.해외 소수점 거래 서비스 부문에 토스증권은 ‘실시간’이란 요소를 보완해 후발 주자로 출격, 업계와 이용자들의 이목을 집중시키고 있다. 토스증권은 최근 국내 증권업계 최초로 실시간 해외 소수점 거래 서비스를 출시했다. 투자자의 소수점 주문을 1주 단위로 묶지 않고 즉시 체결하는 방식으로 지체 없는 거래가 가능하다. 미국 현지 파트너사로 주문을 보내 현지에서 매매를 체결, 실시간으로 거래할 수 있다.투자 가능 종목은 총 3070개로 국내 해외주식 소수점 거래 서비스 가운데 가장 많다. 국내 투자자가 투자하는 대부분의 종목에 소수점 거래가 가능하다는 것이다. 대표적인 고가 주식인 버크셔 해서웨이 클래스 A, 아마존 및 파생 ETF을 포함, 토스증권에서 제공하는 미국 주식과 ETP, 리츠 등 전 종목 거래가 가능하다. 프리마켓과 애프터마켓 소수점 거래도 순차적으로 선보일 계획이다.토스증권 관계자는 “투자를 처음 시작하는 단계의 고객과 기존 투자방식에 어려움을 느낀 고객들에게 안전하고 편리한 투자방법을 제공해 왔다”며 “지속적인 투자 환경의 발전과 함께 투자 방식, 투자 대상, 투자 정보 등 전 영역에 걸쳐 모바일 거래의 표준을 완성해나갈 것”이라고 말했다.카카오페이증권은 올해 리테일(소매금융)과 홀세일(법인영업)의 역량을 모두 강화하겠다는 포부다. 사진은 카카오페이증권 사옥 내부. /사진제공=카카오페이증권━2주년 맞은 카카오페이증권, 리테일·홀세일 키운다━출범 2주년을 맞은 카카오페이증권은 올해 리테일(소매금융)과 홀세일(법인영업)의 역량을 모두 강화할 방침이다. 하반기엔 카카오톡에서 종목 공유, 시세 확인, 간단한 주식 거래까지 가능하도록 한다는 목표를 세웠다. 신용융자·주식담보·매도대금담보·대주거래 등 대출 서비스도 준비하고 있다. IB(기업금융)와 PF(프로젝트 파이낸싱) 등 기업·부동산금융 분야에도 적극 도전할 계획이다.올 2분기 카카오톡 친구에게 해외 주식을 원하는 금액만큼 선물하는 ‘주식 선물하기’ 서비스를 공개할 예정이다. 주식 선물을 받으면 해당 금액만큼 자동으로 1주 단위 또는 소수점 거래가 진행돼 내 주식 계좌에서 바로 확인할 수 있다. 다른 증권사들의 서비스는 주식을 사서 양도(선물)하면 상대방에게 전달이 되기까지 2∼3일이 걸리지만 카카오페이증권의 경우 1∼10분 내 이뤄지는 준 실시간 서비스로 마련할 예정이어서 더욱 간편해 진다는 게 회사 측 설명이다.카카오페이증권 관계자는 “자사 MTS가 목표하는 것은 펀드에서 그랬듯이 일상을 연결한 새로운 투자 문화를 확산하는 것”이라며 “누구에게나 이로운 투자, 조금씩 나눠서 꾸준히 하는 건강한 투자, 가족·친구들과 즐겁게 함께 할 수 있는 투자 문화를 만들어가겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.04.27.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>인뱅, 코로나 부실채권 급증…가계 신용대출 '주의보'</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002598249?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2년 새 케뱅 90%·카뱅 76%↑취약차주·빚투 우려에 '빨간불'서울 종로구 케이뱅크 사옥, 카카오뱅크 서울 오피스, ⓒ케이뱅크, 카카오뱅크[데일리안 = 김효숙 기자] 인터넷전문은행이 떠안고 있는 부실채권 규모가 신종 코로나바이러스 감염증(이하 코로나19) 이후 계속 불어나고 있다. 대형 시중은행은 소상공인을 대상으로 한 코로나19 금융지원 정책에 힘입어 대출의 질이 개선되고 있지만, 인터넷은행은 개인 고객만을 상대해 온 탓에 반사효과를 누리지 못하는 모습이다.코로나19로 취약 차주가 늘고 빚투 자금이 많이 늘어난 상황에서 개인 신용대출을 위주로 영업을 펼쳐 온 인터넷은행을 중심으로 여신 리스크가 커지고 있다는 우려가 나온다.27일 금융감독원에 따르면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사의 지난해 말 기준 고정이하여신(NPL) 금액은 총 962억원으로 코로나19 확산 전인 2019년 말보다 81.7% 증가했다. 액수로는 433억원 늘었다. NPL은 은행의 대출금 중에서 연체 기간이 3개월이 지난 부실채권을 의미한다.은행별로 보면 카카오뱅크의 NPL은 582억원으로 같은 기간 대비 76.1% 늘었다. 케이뱅크의 NPL 역시 381억원으로 같은 기간 대비 90.9% 증가했다. 지난해 10월부터 대출 사업을 개시한 토스뱅크의 NPL 금액은 3400만원으로 아직은 경쟁사와 직접 비교가 어려운 수준이었다.반면 주요 대형 은행의 부실채권은 눈에 띄게 개선됐다. 조사 대상 기간 KB국민·신한·하나·우리·NH농협은행의 NPL은 총 3조6571억원으로 33.1%나 줄었다.은행 전체 여신에서 부실채권이 차지하는 비중을 보여주는 NPL비율도 케이뱅크은 대형 은행들에 비해 두 배 가량 높았다. 케이뱅크의 지난해 말 NPL비율은 0.54%로, 0.2~0.29%를 기록한 5대 은행을 크게 웃돌았다. 카카오뱅크의 NPL비율은 0.22%로 시중은행과 비슷한 수준이었다.5대 시중은행, 인터넷은행 고정이하여신 추이 ⓒ데일리안인터넷은행의 부실채권만 늘어난 이유는 기업이 아닌 개인 신용대출 위주로 사업을 벌이고 있기 때문이다. 시중은행의 경우 정부가 코로나19로 인한 고충을 고려해 소상공인, 중소기업 등을 위주로 대출금 만기를 연장해주거나, 이자 상환을 유예해주는 등 금융지원을 하면서 관련 대출의 부실채권 규모가 축소됐다. 반면 아직 가계대출 위주인 인터넷은행은 이런 금융지원책과 거리가 멀다.은행권 관계자는 "시중은행의 경우 코로나19 금융지원 조치가 연장되면서 부실채권으로 분류됐어야 했는데 분류되지 않은 대출채권도 많아 착시효과가 있다"며 "인터넷은행은 개인 신용대출만 하고 있다 보니 지원 대상이 적어 부실채권 수치도 늘어난 것"이라고 설명했다.결국 일반 시중은행에 비해 인터넷은행 대출을 둘러싼 불안이 상대적으로 크다는 의미다. 우선 인터넷은행은 가계대출 중에서도 비교적 안정성이 높은 주택담보대출보다 개인 신용대출 비중이 높은 편인데, 코로나19 사태 이후 경제적 어려움을 겪는 취약 차주들이 늘어난 실정이다.또 주식과 가상자산에 투자하는 빚투 자금도 상당한 점을 고려하면 잠재적 위험도 크다는 평이다. 최근 우크라이나 사태와 인플레이션 등으로 시중금리가 오르면서 연체 가능성도 그 만큼 커진 상황이다.인터넷은행 관계자는 "NPL대출 규모가 시중은행보다 큰 것은 지난해 대출 영업 중단 영향이 컸다"며 "비교적 높은 NPL비율은 개인신용평가시스템 고도화 등을 통해 주기적 리스크를 관리할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.04.28.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[대한민국 100대 CEO] 이승건 비바리퍼블리카 대표 | ‘파괴적 혁신’으로 금융가 ‘메기’ 역할 톡톡</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000074674?sid=102</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>1982년생/ 서울대 치의학과/ 2007년 삼성의료원 전공의/ 2016년 (사)한국핀테크산업협회 초대 회장/ 2020년 (사)코리아스타트업포럼 공동의장/ 2013년 비바리퍼블리카 대표이사(현) 8조2000억원.모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카의 기업가치다. 2018년 기업가치 10억달러를 인정받으며 국내 핀테크 기업 최초로 ‘유니콘’ 대열에 합류했던 비바리퍼블리카는 3년 만에 기업가치를 8배 이상 불렸다. 이승건 비바리퍼블리카 대표가 처음으로 대한민국 100대 CEO에 이름을 올린 배경이다.이 대표는 전례 없는 ‘파괴적 혁신’으로 ‘메기’ 비바리퍼블리카의 고속 성장을 이끌고 있다.토스가 단시간에 2000만 이용자를 확보할 수 있었던 절대적인 기반은 금융 서비스 진입장벽을 획기적으로 낮춘 편리성이다. 이 대표는 여기서 한발 더 나아갔다. 모든 송금에는 수수료가 붙는 것이 금융업계 상식이었다. 그러나 이 대표는 지난해 8월, ‘평생 무료 송금’ 정책을 전격 도입했다. 연간 수백억원의 수수료 수입을 포기하고 모든 고객에게 평생 무료 송금 서비스를 제공하기로 한 것. 이 대표는 “가장 빈번하게 사용되는 ‘송금’ 영역의 심리적 장벽을 완전히 제거하고 독보적인 만족감을 제공함으로써 다른 금융 플랫폼과 근본적인 차이점을 만들고자 했다”면서 “재무적 손해를 감수한 결정을 내린 것은 토스의 존재 이유자 가장 중요한 원칙이 ‘고객 중심적 사고’기 때문”이라고 밝혔다.  토스증권과 토스뱅크를 성공적으로 선보인 것 역시 주요 성과다. 간편 송금 서비스를 넘어 금융 ‘플랫폼’으로 안착시켰다. 이 역시 시장에 없던 파격적 서비스를 선보이면서 금융권의 경쟁에 불을 붙이고 있다. 토스증권은 초보자의 눈높이에 맞춘 신선한 MTS, ‘주식 1주 받기’ 이벤트 등으로 서비스 시작 첫해 400만 고객을 유치했다. 토스뱅크는 기존 은행권의 주 고객이 아니던 중저신용자를 적극 포용하면서 영업 개시 10일 만에 대출 총량을 전부 소진했다. 이 대표의 혁신 행보는 ‘현재 진행형’이다. 지난해 10월 모빌리티 스타트업 타다를 전격 인수했다. 이 대표는 동남아의 강자 ‘그랩’처럼 핀테크와 모빌리티의 결합으로 새로운 가치를 창출할 수 있다고 봤다. 2000만 토스 고객과 900만 쏘카·타다 고객을 대상으로 공동의 생태계를 확장한다는 설명이다.  [본 기사는 매경이코노미 제2156호·별책부록 (2022.04.27~2022.04.26일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
